--- a/Data/Real.Model.Simple v.1.3.xlsx
+++ b/Data/Real.Model.Simple v.1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tor2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BCB01C-B781-4ED3-A99C-67217BF787FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837D6C66-2519-4278-9A58-E97BBE6D206D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C6EFD3A4-A7B5-475D-8F42-E10B52230622}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -71,16 +71,19 @@
   <si>
     <t>Base</t>
   </si>
+  <si>
+    <t>P.Infected.Model.Corrected</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0000000"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -278,49 +281,49 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,212 +820,212 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="136"/>
-                <c:pt idx="33">
-                  <c:v>3.9167686658506726E-5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.1615667074663398E-5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.6095471236230115E-5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.1260709914320686E-4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.175030599755202E-4</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.9339045287637699E-4</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.1823745410036719E-4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.8922888616891064E-4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.7980416156670746E-4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.4137086903304772E-4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.1799265605875152E-3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.6401468788249695E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.95593635250918E-3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.5458996328029376E-3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.8788249694002449E-3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.5667074663402695E-3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.8127294981640152E-3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6.7197062423500617E-3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>8.9963280293757653E-3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.1258261933904529E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.4230110159118726E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.7801713586291311E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.2930232558139536E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.0176254589963279E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.7503059975520198E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4.85875152998776E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.4746634026927782E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6.0888616891064867E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>7.1128518971848229E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>8.0761321909424727E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>9.1365973072215431E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.10755936352509179</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.124531211750306</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.14123623011015912</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.15283965728274174</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.16373317013463892</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.17578457772337822</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.19036964504283965</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.20757405140758872</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.22315544675642596</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.23523133414932682</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.24509914320685433</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.25305752753977967</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.26355691554467564</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.27734638922888616</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.28943696450428397</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.29907221542227663</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.30710403916768664</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.31298408812729495</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.31841370869033048</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.32364749082007344</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.32987270501835986</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.33708200734394128</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.3461370869033048</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.35122399020807832</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.35677356181150549</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.36001223990208081</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.36341003671970629</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.36878335373317017</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.37485679314565479</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.37943451652386778</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.38314075887392901</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.38621787025703797</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.38863647490820069</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.39146144430844559</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.39544430844553241</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.39904283965728271</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.40165728274173806</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.40383598531211751</c:v>
+                <c:pt idx="33" formatCode="0.000000">
+                  <c:v>1.9583843329253365E-7</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.000000">
+                  <c:v>2.08078335373317E-7</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.000000">
+                  <c:v>3.3047735618115057E-7</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.000000">
+                  <c:v>5.6303549571603428E-7</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.000000">
+                  <c:v>5.8751529987760099E-7</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.000000">
+                  <c:v>9.6695226438188488E-7</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.000000">
+                  <c:v>1.591187270501836E-6</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.000000">
+                  <c:v>1.9461444308445532E-6</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.000000">
+                  <c:v>2.3990208078335372E-6</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.000000">
+                  <c:v>3.2068543451652388E-6</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.000000">
+                  <c:v>5.8996328029375761E-6</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.000000">
+                  <c:v>8.2007343941248477E-6</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.000000">
+                  <c:v>9.7796817625459003E-6</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.000000">
+                  <c:v>1.2729498164014688E-5</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.000000">
+                  <c:v>1.4394124847001225E-5</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.000000">
+                  <c:v>1.7833537331701347E-5</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.000000">
+                  <c:v>2.4063647490820075E-5</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.000000">
+                  <c:v>3.3598531211750307E-5</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.000000">
+                  <c:v>4.4981640146878826E-5</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.000000">
+                  <c:v>5.6291309669522643E-5</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.000000">
+                  <c:v>7.1150550795593632E-5</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.000000">
+                  <c:v>8.9008567931456555E-5</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.000000">
+                  <c:v>1.1465116279069768E-4</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.000000">
+                  <c:v>1.508812729498164E-4</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.000000">
+                  <c:v>1.8751529987760099E-4</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.000000">
+                  <c:v>2.42937576499388E-4</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.000000">
+                  <c:v>2.7373317013463892E-4</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.000000">
+                  <c:v>3.0444308445532435E-4</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.000000">
+                  <c:v>3.5564259485924111E-4</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.000000">
+                  <c:v>4.0380660954712365E-4</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.000000">
+                  <c:v>4.5682986536107713E-4</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.000000">
+                  <c:v>5.3779681762545898E-4</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.000000">
+                  <c:v>6.2265605875152998E-4</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.000000">
+                  <c:v>7.0618115055079563E-4</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.000000">
+                  <c:v>7.6419828641370873E-4</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.000000">
+                  <c:v>8.1866585067319464E-4</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.000000">
+                  <c:v>8.7892288861689109E-4</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.000000">
+                  <c:v>9.5184822521419824E-4</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.000000">
+                  <c:v>1.0378702570379436E-3</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.000000">
+                  <c:v>1.1157772337821298E-3</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.000000">
+                  <c:v>1.176156670746634E-3</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.000000">
+                  <c:v>1.2254957160342716E-3</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.000000">
+                  <c:v>1.2652876376988984E-3</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.000000">
+                  <c:v>1.3177845777233783E-3</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.000000">
+                  <c:v>1.3867319461444308E-3</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.000000">
+                  <c:v>1.4471848225214199E-3</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.000000">
+                  <c:v>1.4953610771113832E-3</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.000000">
+                  <c:v>1.5355201958384332E-3</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.000000">
+                  <c:v>1.5649204406364748E-3</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="0.000000">
+                  <c:v>1.5920685434516525E-3</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="0.000000">
+                  <c:v>1.6182374541003671E-3</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="0.000000">
+                  <c:v>1.6493635250917993E-3</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="0.000000">
+                  <c:v>1.6854100367197063E-3</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="0.000000">
+                  <c:v>1.7306854345165239E-3</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="0.000000">
+                  <c:v>1.7561199510403916E-3</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="0.000000">
+                  <c:v>1.7838678090575275E-3</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="0.000000">
+                  <c:v>1.800061199510404E-3</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="0.000000">
+                  <c:v>1.8170501835985313E-3</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="0.000000">
+                  <c:v>1.8439167686658507E-3</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="0.000000">
+                  <c:v>1.8742839657282741E-3</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="0.000000">
+                  <c:v>1.897172582619339E-3</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="0.000000">
+                  <c:v>1.9157037943696451E-3</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="0.000000">
+                  <c:v>1.9310893512851897E-3</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="0.000000">
+                  <c:v>1.9431823745410036E-3</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="0.000000">
+                  <c:v>1.9573072215422278E-3</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="0.000000">
+                  <c:v>1.977221542227662E-3</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="0.000000">
+                  <c:v>1.9952141982864137E-3</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="0.000000">
+                  <c:v>2.0082864137086903E-3</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="0.000000">
+                  <c:v>2.0191799265605877E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,17 +1042,17 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Base!$A$5</c:f>
+              <c:f>Base!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>P.Infected.Model</c:v>
+                  <c:v>P.Infected.Model.Corrected</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1480,318 +1483,318 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Base!$B$5:$EG$5</c:f>
+              <c:f>Base!$B$6:$EG$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="136"/>
                 <c:pt idx="33">
-                  <c:v>1E-4</c:v>
+                  <c:v>4.9999999999999998E-7</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.2839804765846141E-4</c:v>
+                  <c:v>6.4199023829230706E-7</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.6485894783161188E-4</c:v>
+                  <c:v>8.2429473915805938E-7</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.1167086528916837E-4</c:v>
+                  <c:v>1.058354326445842E-6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.7177063618374388E-4</c:v>
+                  <c:v>1.3588531809187195E-6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.489272129310451E-4</c:v>
+                  <c:v>1.7446360646552255E-6</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.4797669769548509E-4</c:v>
+                  <c:v>2.2398834884774256E-6</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.7512328421477951E-4</c:v>
+                  <c:v>2.8756164210738975E-6</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.3832428008197362E-4</c:v>
+                  <c:v>3.6916214004098683E-6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.4778219002383379E-4</c:v>
+                  <c:v>4.7389109501191688E-6</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.2165727884233294E-3</c:v>
+                  <c:v>6.0828639421166471E-6</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.5614453758322007E-3</c:v>
+                  <c:v>7.8072268791610034E-6</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.0038401396194547E-3</c:v>
+                  <c:v>1.0019200698097273E-5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.5711777575238895E-3</c:v>
+                  <c:v>1.2855888787619448E-5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.2984879058971261E-3</c:v>
+                  <c:v>1.649243952948563E-5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.2304555502782728E-3</c:v>
+                  <c:v>2.1152277751391365E-5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.4239754417025341E-3</c:v>
+                  <c:v>2.7119877208512669E-5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.9513134790624553E-3</c:v>
+                  <c:v>3.4756567395312277E-5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.9039738028911727E-3</c:v>
+                  <c:v>4.4519869014455866E-5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.1397354658404166E-2</c:v>
+                  <c:v>5.698677329202083E-5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.4576231269268521E-2</c:v>
+                  <c:v>7.2881156346342606E-5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.862101023765253E-2</c:v>
+                  <c:v>9.3105051188262651E-5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.375452817499165E-2</c:v>
+                  <c:v>1.1877264087495825E-4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.0248877835623633E-2</c:v>
+                  <c:v>1.5124438917811818E-4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.8431290332989025E-2</c:v>
+                  <c:v>1.9215645166494513E-4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.8687436947574506E-2</c:v>
+                  <c:v>2.4343718473787254E-4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.6416535320700373E-2</c:v>
+                  <c:v>2.8208267660350186E-4</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.5241384279887099E-2</c:v>
+                  <c:v>3.2620692139943548E-4</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.527373249381919E-2</c:v>
+                  <c:v>3.7636866246909594E-4</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.6622540571482096E-2</c:v>
+                  <c:v>4.3311270285741049E-4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.9388678112578593E-2</c:v>
+                  <c:v>4.9694339056289292E-4</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.11365836475226639</c:v>
+                  <c:v>5.6829182376133189E-4</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.12949547957095819</c:v>
+                  <c:v>6.4747739785479092E-4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.14693306589776656</c:v>
+                  <c:v>7.3466532948883282E-4</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.15849276371481125</c:v>
+                  <c:v>7.9246381857405628E-4</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.17055527336627552</c:v>
+                  <c:v>8.5277636683137763E-4</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.18308033431442436</c:v>
+                  <c:v>9.1540167157212185E-4</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.19601878431330463</c:v>
+                  <c:v>9.800939215665232E-4</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.20931297573615074</c:v>
+                  <c:v>1.0465648786807536E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.22289752805482305</c:v>
+                  <c:v>1.1144876402741151E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.23670041259262309</c:v>
+                  <c:v>1.1835020629631155E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.25064434312354011</c:v>
+                  <c:v>1.2532217156177006E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.26464842312485537</c:v>
+                  <c:v>1.3232421156242769E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.2729516902209505</c:v>
+                  <c:v>1.3647584511047525E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.28109970255600658</c:v>
+                  <c:v>1.4054985127800329E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.28907138736527183</c:v>
+                  <c:v>1.4453569368263592E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.29684762670747189</c:v>
+                  <c:v>1.4842381335373595E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.30441140371382502</c:v>
+                  <c:v>1.522057018569125E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.31174790311040373</c:v>
+                  <c:v>1.5587395155520186E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.31884456647020837</c:v>
+                  <c:v>1.5942228323510418E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.32569110410816404</c:v>
+                  <c:v>1.6284555205408203E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.33227946677758308</c:v>
+                  <c:v>1.6613973338879154E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.33860378131830055</c:v>
+                  <c:v>1.6930189065915027E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.34466025512323784</c:v>
+                  <c:v>1.7233012756161892E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.35044705472965465</c:v>
+                  <c:v>1.7522352736482733E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.35596416401874054</c:v>
+                  <c:v>1.7798208200937027E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.36121322745060036</c:v>
+                  <c:v>1.8060661372530018E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.3661973835083423</c:v>
+                  <c:v>1.8309869175417116E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.3709210931171032</c:v>
+                  <c:v>1.8546054655855159E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.37538996728496277</c:v>
+                  <c:v>1.8769498364248139E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.37961059762451715</c:v>
+                  <c:v>1.8980529881225858E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.38359039279402962</c:v>
+                  <c:v>1.917951963970148E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.38733742327755877</c:v>
+                  <c:v>1.9366871163877938E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.39086027632992704</c:v>
+                  <c:v>1.9543013816496354E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.39416792236394654</c:v>
+                  <c:v>1.9708396118197327E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.39726959356690644</c:v>
+                  <c:v>1.9863479678345324E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.40017467510837207</c:v>
+                  <c:v>2.0008733755418604E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.40289260894463663</c:v>
+                  <c:v>2.0144630447231832E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.40543280993579578</c:v>
+                  <c:v>2.0271640496789789E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.40780459376571943</c:v>
+                  <c:v>2.0390229688285969E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.41001711598761292</c:v>
+                  <c:v>2.0500855799380647E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.41207932140168974</c:v>
+                  <c:v>2.0603966070084486E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.41399990289947486</c:v>
+                  <c:v>2.0699995144973743E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.41578726887414025</c:v>
+                  <c:v>2.0789363443707012E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.41744951829104837</c:v>
+                  <c:v>2.087247591455242E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.41899442253090219</c:v>
+                  <c:v>2.0949721126545108E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.42042941315381077</c:v>
+                  <c:v>2.1021470657690538E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.42176157478117393</c:v>
+                  <c:v>2.1088078739058698E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.42299764234933768</c:v>
+                  <c:v>2.1149882117466883E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.42414400205098352</c:v>
+                  <c:v>2.1207200102549176E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.42520669534438021</c:v>
+                  <c:v>2.1260334767219009E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.42619142547476763</c:v>
+                  <c:v>2.1309571273738382E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.42710356601459737</c:v>
+                  <c:v>2.1355178300729869E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.42794817098893195</c:v>
+                  <c:v>2.1397408549446596E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.42872998620818942</c:v>
+                  <c:v>2.1436499310409471E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.42945346148209951</c:v>
+                  <c:v>2.1472673074104977E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.43012276343595057</c:v>
+                  <c:v>2.1506138171797527E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.43074178869287461</c:v>
+                  <c:v>2.1537089434643729E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.43131417722411292</c:v>
+                  <c:v>2.1565708861205645E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.43184332570308831</c:v>
+                  <c:v>2.1592166285154413E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.43233240072892992</c:v>
+                  <c:v>2.1616620036446496E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.43278435181113201</c:v>
+                  <c:v>2.16392175905566E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.43320192402958829</c:v>
+                  <c:v>2.1660096201479417E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.43358767030365419</c:v>
+                  <c:v>2.167938351518271E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.43394396322045692</c:v>
+                  <c:v>2.1697198161022848E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.4342730063867164</c:v>
+                  <c:v>2.1713650319335818E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.43457684528013851</c:v>
+                  <c:v>2.1728842264006924E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.43485737758627641</c:v>
+                  <c:v>2.1742868879313822E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.43511636301487083</c:v>
+                  <c:v>2.1755818150743541E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.43535543259630677</c:v>
+                  <c:v>2.1767771629815341E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.43557609746416298</c:v>
+                  <c:v>2.1778804873208149E-3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.43577975713407363</c:v>
+                  <c:v>2.178898785670368E-3</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.43596770729242273</c:v>
+                  <c:v>2.1798385364621138E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,7 +2004,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>P-Infected</a:t>
+                  <a:t>P-Cases</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7469,10 +7472,10 @@
   <dimension ref="A1:EG73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CI3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CW27" sqref="CW27"/>
+      <selection pane="bottomRight" activeCell="CX17" sqref="CX17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7723,7 +7726,7 @@
       <c r="CA1" s="1">
         <v>43929</v>
       </c>
-      <c r="CB1" s="40">
+      <c r="CB1" s="39">
         <v>43930</v>
       </c>
       <c r="CC1" s="1">
@@ -8675,698 +8678,1115 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AI4" s="5">
-        <f>AI3/$CV$12*$CV$22</f>
-        <v>3.9167686658506726E-5</v>
-      </c>
-      <c r="AJ4" s="5">
-        <f>AJ3/$CV$12*$CV$22</f>
-        <v>4.1615667074663398E-5</v>
-      </c>
-      <c r="AK4" s="5">
-        <f>AK3/$CV$12*$CV$22</f>
-        <v>6.6095471236230115E-5</v>
-      </c>
-      <c r="AL4" s="5">
-        <f>AL3/$CV$12*$CV$22</f>
-        <v>1.1260709914320686E-4</v>
-      </c>
-      <c r="AM4" s="5">
-        <f>AM3/$CV$12*$CV$22</f>
-        <v>1.175030599755202E-4</v>
-      </c>
-      <c r="AN4" s="5">
-        <f>AN3/$CV$12*$CV$22</f>
-        <v>1.9339045287637699E-4</v>
-      </c>
-      <c r="AO4" s="5">
-        <f>AO3/$CV$12*$CV$22</f>
-        <v>3.1823745410036719E-4</v>
-      </c>
-      <c r="AP4" s="5">
-        <f>AP3/$CV$12*$CV$22</f>
-        <v>3.8922888616891064E-4</v>
-      </c>
-      <c r="AQ4" s="5">
-        <f>AQ3/$CV$12*$CV$22</f>
-        <v>4.7980416156670746E-4</v>
-      </c>
-      <c r="AR4" s="5">
-        <f>AR3/$CV$12*$CV$22</f>
-        <v>6.4137086903304772E-4</v>
-      </c>
-      <c r="AS4" s="5">
-        <f>AS3/$CV$12*$CV$22</f>
-        <v>1.1799265605875152E-3</v>
-      </c>
-      <c r="AT4" s="5">
-        <f>AT3/$CV$12*$CV$22</f>
-        <v>1.6401468788249695E-3</v>
-      </c>
-      <c r="AU4" s="5">
-        <f>AU3/$CV$12*$CV$22</f>
-        <v>1.95593635250918E-3</v>
-      </c>
-      <c r="AV4" s="5">
-        <f>AV3/$CV$12*$CV$22</f>
-        <v>2.5458996328029376E-3</v>
-      </c>
-      <c r="AW4" s="5">
-        <f>AW3/$CV$12*$CV$22</f>
-        <v>2.8788249694002449E-3</v>
-      </c>
-      <c r="AX4" s="5">
-        <f>AX3/$CV$12*$CV$22</f>
-        <v>3.5667074663402695E-3</v>
-      </c>
-      <c r="AY4" s="5">
-        <f>AY3/$CV$12*$CV$22</f>
-        <v>4.8127294981640152E-3</v>
-      </c>
-      <c r="AZ4" s="5">
-        <f>AZ3/$CV$12*$CV$22</f>
-        <v>6.7197062423500617E-3</v>
-      </c>
-      <c r="BA4" s="5">
-        <f>BA3/$CV$12*$CV$22</f>
-        <v>8.9963280293757653E-3</v>
-      </c>
-      <c r="BB4" s="5">
-        <f>BB3/$CV$12*$CV$22</f>
-        <v>1.1258261933904529E-2</v>
-      </c>
-      <c r="BC4" s="5">
-        <f>BC3/$CV$12*$CV$22</f>
-        <v>1.4230110159118726E-2</v>
-      </c>
-      <c r="BD4" s="5">
-        <f>BD3/$CV$12*$CV$22</f>
-        <v>1.7801713586291311E-2</v>
-      </c>
-      <c r="BE4" s="5">
-        <f>BE3/$CV$12*$CV$22</f>
-        <v>2.2930232558139536E-2</v>
-      </c>
-      <c r="BF4" s="5">
-        <f>BF3/$CV$12*$CV$22</f>
-        <v>3.0176254589963279E-2</v>
-      </c>
-      <c r="BG4" s="5">
-        <f>BG3/$CV$12*$CV$22</f>
-        <v>3.7503059975520198E-2</v>
-      </c>
-      <c r="BH4" s="5">
-        <f>BH3/$CV$12*$CV$22</f>
-        <v>4.85875152998776E-2</v>
-      </c>
-      <c r="BI4" s="5">
-        <f>BI3/$CV$12*$CV$22</f>
-        <v>5.4746634026927782E-2</v>
-      </c>
-      <c r="BJ4" s="5">
-        <f>BJ3/$CV$12*$CV$22</f>
-        <v>6.0888616891064867E-2</v>
-      </c>
-      <c r="BK4" s="5">
-        <f>BK3/$CV$12*$CV$22</f>
-        <v>7.1128518971848229E-2</v>
-      </c>
-      <c r="BL4" s="5">
-        <f>BL3/$CV$12*$CV$22</f>
-        <v>8.0761321909424727E-2</v>
-      </c>
-      <c r="BM4" s="5">
-        <f>BM3/$CV$12*$CV$22</f>
-        <v>9.1365973072215431E-2</v>
-      </c>
-      <c r="BN4" s="5">
-        <f>BN3/$CV$12*$CV$22</f>
-        <v>0.10755936352509179</v>
-      </c>
-      <c r="BO4" s="5">
-        <f>BO3/$CV$12*$CV$22</f>
-        <v>0.124531211750306</v>
-      </c>
-      <c r="BP4" s="5">
-        <f>BP3/$CV$12*$CV$22</f>
-        <v>0.14123623011015912</v>
-      </c>
-      <c r="BQ4" s="5">
-        <f>BQ3/$CV$12*$CV$22</f>
-        <v>0.15283965728274174</v>
-      </c>
-      <c r="BR4" s="5">
-        <f>BR3/$CV$12*$CV$22</f>
-        <v>0.16373317013463892</v>
-      </c>
-      <c r="BS4" s="5">
-        <f>BS3/$CV$12*$CV$22</f>
-        <v>0.17578457772337822</v>
-      </c>
-      <c r="BT4" s="5">
-        <f>BT3/$CV$12*$CV$22</f>
-        <v>0.19036964504283965</v>
-      </c>
-      <c r="BU4" s="5">
-        <f>BU3/$CV$12*$CV$22</f>
-        <v>0.20757405140758872</v>
-      </c>
-      <c r="BV4" s="5">
-        <f>BV3/$CV$12*$CV$22</f>
-        <v>0.22315544675642596</v>
-      </c>
-      <c r="BW4" s="5">
-        <f>BW3/$CV$12*$CV$22</f>
-        <v>0.23523133414932682</v>
-      </c>
-      <c r="BX4" s="5">
-        <f>BX3/$CV$12*$CV$22</f>
-        <v>0.24509914320685433</v>
-      </c>
-      <c r="BY4" s="5">
-        <f>BY3/$CV$12*$CV$22</f>
-        <v>0.25305752753977967</v>
-      </c>
-      <c r="BZ4" s="5">
-        <f>BZ3/$CV$12*$CV$22</f>
-        <v>0.26355691554467564</v>
-      </c>
-      <c r="CA4" s="5">
-        <f>CA3/$CV$12*$CV$22</f>
-        <v>0.27734638922888616</v>
-      </c>
-      <c r="CB4" s="5">
-        <f>CB3/$CV$12*$CV$22</f>
-        <v>0.28943696450428397</v>
-      </c>
-      <c r="CC4" s="5">
-        <f>CC3/$CV$12*$CV$22</f>
-        <v>0.29907221542227663</v>
-      </c>
-      <c r="CD4" s="5">
-        <f>CD3/$CV$12*$CV$22</f>
-        <v>0.30710403916768664</v>
-      </c>
-      <c r="CE4" s="5">
-        <f>CE3/$CV$12*$CV$22</f>
-        <v>0.31298408812729495</v>
-      </c>
-      <c r="CF4" s="5">
-        <f>CF3/$CV$12*$CV$22</f>
-        <v>0.31841370869033048</v>
-      </c>
-      <c r="CG4" s="5">
-        <f>CG3/$CV$12*$CV$22</f>
-        <v>0.32364749082007344</v>
-      </c>
-      <c r="CH4" s="5">
-        <f>CH3/$CV$12*$CV$22</f>
-        <v>0.32987270501835986</v>
-      </c>
-      <c r="CI4" s="5">
-        <f>CI3/$CV$12*$CV$22</f>
-        <v>0.33708200734394128</v>
-      </c>
-      <c r="CJ4" s="5">
-        <f>CJ3/$CV$12*$CV$22</f>
-        <v>0.3461370869033048</v>
-      </c>
-      <c r="CK4" s="5">
-        <f>CK3/$CV$12*$CV$22</f>
-        <v>0.35122399020807832</v>
-      </c>
-      <c r="CL4" s="5">
-        <f>CL3/$CV$12*$CV$22</f>
-        <v>0.35677356181150549</v>
-      </c>
-      <c r="CM4" s="5">
-        <f>CM3/$CV$12*$CV$22</f>
-        <v>0.36001223990208081</v>
-      </c>
-      <c r="CN4" s="5">
-        <f>CN3/$CV$12*$CV$22</f>
-        <v>0.36341003671970629</v>
-      </c>
-      <c r="CO4" s="5">
-        <f>CO3/$CV$12*$CV$22</f>
-        <v>0.36878335373317017</v>
-      </c>
-      <c r="CP4" s="5">
-        <f>CP3/$CV$12*$CV$22</f>
-        <v>0.37485679314565479</v>
-      </c>
-      <c r="CQ4" s="5">
-        <f>CQ3/$CV$12*$CV$22</f>
-        <v>0.37943451652386778</v>
-      </c>
-      <c r="CR4" s="5">
-        <f>CR3/$CV$12*$CV$22</f>
-        <v>0.38314075887392901</v>
-      </c>
-      <c r="CS4" s="5">
-        <f>CS3/$CV$12*$CV$22</f>
-        <v>0.38621787025703797</v>
-      </c>
-      <c r="CT4" s="5">
-        <f>CT3/$CV$12*$CV$22</f>
-        <v>0.38863647490820069</v>
-      </c>
-      <c r="CU4" s="5">
-        <f>CU3/$CV$12*$CV$22</f>
-        <v>0.39146144430844559</v>
-      </c>
-      <c r="CV4" s="5">
-        <f>CV3/$CV$12*$CV$22</f>
-        <v>0.39544430844553241</v>
-      </c>
-      <c r="CW4" s="5">
-        <f>CW3/$CV$12*$CV$22</f>
-        <v>0.39904283965728271</v>
-      </c>
-      <c r="CX4" s="5">
-        <f>CX3/$CV$12*$CV$22</f>
-        <v>0.40165728274173806</v>
-      </c>
-      <c r="CY4" s="5">
-        <f>CY3/$CV$12*$CV$22</f>
-        <v>0.40383598531211751</v>
+      <c r="AI4" s="10">
+        <f>AI3/$CV$12</f>
+        <v>1.9583843329253365E-7</v>
+      </c>
+      <c r="AJ4" s="10">
+        <f t="shared" ref="AJ4:CU4" si="1">AJ3/$CV$12</f>
+        <v>2.08078335373317E-7</v>
+      </c>
+      <c r="AK4" s="10">
+        <f t="shared" si="1"/>
+        <v>3.3047735618115057E-7</v>
+      </c>
+      <c r="AL4" s="10">
+        <f t="shared" si="1"/>
+        <v>5.6303549571603428E-7</v>
+      </c>
+      <c r="AM4" s="10">
+        <f t="shared" si="1"/>
+        <v>5.8751529987760099E-7</v>
+      </c>
+      <c r="AN4" s="10">
+        <f t="shared" si="1"/>
+        <v>9.6695226438188488E-7</v>
+      </c>
+      <c r="AO4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.591187270501836E-6</v>
+      </c>
+      <c r="AP4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.9461444308445532E-6</v>
+      </c>
+      <c r="AQ4" s="10">
+        <f t="shared" si="1"/>
+        <v>2.3990208078335372E-6</v>
+      </c>
+      <c r="AR4" s="10">
+        <f t="shared" si="1"/>
+        <v>3.2068543451652388E-6</v>
+      </c>
+      <c r="AS4" s="10">
+        <f t="shared" si="1"/>
+        <v>5.8996328029375761E-6</v>
+      </c>
+      <c r="AT4" s="10">
+        <f t="shared" si="1"/>
+        <v>8.2007343941248477E-6</v>
+      </c>
+      <c r="AU4" s="10">
+        <f t="shared" si="1"/>
+        <v>9.7796817625459003E-6</v>
+      </c>
+      <c r="AV4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.2729498164014688E-5</v>
+      </c>
+      <c r="AW4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.4394124847001225E-5</v>
+      </c>
+      <c r="AX4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.7833537331701347E-5</v>
+      </c>
+      <c r="AY4" s="10">
+        <f t="shared" si="1"/>
+        <v>2.4063647490820075E-5</v>
+      </c>
+      <c r="AZ4" s="10">
+        <f t="shared" si="1"/>
+        <v>3.3598531211750307E-5</v>
+      </c>
+      <c r="BA4" s="10">
+        <f t="shared" si="1"/>
+        <v>4.4981640146878826E-5</v>
+      </c>
+      <c r="BB4" s="10">
+        <f t="shared" si="1"/>
+        <v>5.6291309669522643E-5</v>
+      </c>
+      <c r="BC4" s="10">
+        <f t="shared" si="1"/>
+        <v>7.1150550795593632E-5</v>
+      </c>
+      <c r="BD4" s="10">
+        <f t="shared" si="1"/>
+        <v>8.9008567931456555E-5</v>
+      </c>
+      <c r="BE4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1465116279069768E-4</v>
+      </c>
+      <c r="BF4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.508812729498164E-4</v>
+      </c>
+      <c r="BG4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.8751529987760099E-4</v>
+      </c>
+      <c r="BH4" s="10">
+        <f t="shared" si="1"/>
+        <v>2.42937576499388E-4</v>
+      </c>
+      <c r="BI4" s="10">
+        <f t="shared" si="1"/>
+        <v>2.7373317013463892E-4</v>
+      </c>
+      <c r="BJ4" s="10">
+        <f t="shared" si="1"/>
+        <v>3.0444308445532435E-4</v>
+      </c>
+      <c r="BK4" s="10">
+        <f t="shared" si="1"/>
+        <v>3.5564259485924111E-4</v>
+      </c>
+      <c r="BL4" s="10">
+        <f t="shared" si="1"/>
+        <v>4.0380660954712365E-4</v>
+      </c>
+      <c r="BM4" s="10">
+        <f t="shared" si="1"/>
+        <v>4.5682986536107713E-4</v>
+      </c>
+      <c r="BN4" s="10">
+        <f t="shared" si="1"/>
+        <v>5.3779681762545898E-4</v>
+      </c>
+      <c r="BO4" s="10">
+        <f t="shared" si="1"/>
+        <v>6.2265605875152998E-4</v>
+      </c>
+      <c r="BP4" s="10">
+        <f t="shared" si="1"/>
+        <v>7.0618115055079563E-4</v>
+      </c>
+      <c r="BQ4" s="10">
+        <f t="shared" si="1"/>
+        <v>7.6419828641370873E-4</v>
+      </c>
+      <c r="BR4" s="10">
+        <f t="shared" si="1"/>
+        <v>8.1866585067319464E-4</v>
+      </c>
+      <c r="BS4" s="10">
+        <f t="shared" si="1"/>
+        <v>8.7892288861689109E-4</v>
+      </c>
+      <c r="BT4" s="10">
+        <f t="shared" si="1"/>
+        <v>9.5184822521419824E-4</v>
+      </c>
+      <c r="BU4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0378702570379436E-3</v>
+      </c>
+      <c r="BV4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1157772337821298E-3</v>
+      </c>
+      <c r="BW4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.176156670746634E-3</v>
+      </c>
+      <c r="BX4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.2254957160342716E-3</v>
+      </c>
+      <c r="BY4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.2652876376988984E-3</v>
+      </c>
+      <c r="BZ4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.3177845777233783E-3</v>
+      </c>
+      <c r="CA4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.3867319461444308E-3</v>
+      </c>
+      <c r="CB4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.4471848225214199E-3</v>
+      </c>
+      <c r="CC4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.4953610771113832E-3</v>
+      </c>
+      <c r="CD4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.5355201958384332E-3</v>
+      </c>
+      <c r="CE4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.5649204406364748E-3</v>
+      </c>
+      <c r="CF4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.5920685434516525E-3</v>
+      </c>
+      <c r="CG4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.6182374541003671E-3</v>
+      </c>
+      <c r="CH4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.6493635250917993E-3</v>
+      </c>
+      <c r="CI4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.6854100367197063E-3</v>
+      </c>
+      <c r="CJ4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.7306854345165239E-3</v>
+      </c>
+      <c r="CK4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.7561199510403916E-3</v>
+      </c>
+      <c r="CL4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.7838678090575275E-3</v>
+      </c>
+      <c r="CM4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.800061199510404E-3</v>
+      </c>
+      <c r="CN4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.8170501835985313E-3</v>
+      </c>
+      <c r="CO4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.8439167686658507E-3</v>
+      </c>
+      <c r="CP4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.8742839657282741E-3</v>
+      </c>
+      <c r="CQ4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.897172582619339E-3</v>
+      </c>
+      <c r="CR4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.9157037943696451E-3</v>
+      </c>
+      <c r="CS4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.9310893512851897E-3</v>
+      </c>
+      <c r="CT4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.9431823745410036E-3</v>
+      </c>
+      <c r="CU4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.9573072215422278E-3</v>
+      </c>
+      <c r="CV4" s="10">
+        <f t="shared" ref="CV4:CY4" si="2">CV3/$CV$12</f>
+        <v>1.977221542227662E-3</v>
+      </c>
+      <c r="CW4" s="10">
+        <f t="shared" si="2"/>
+        <v>1.9952141982864137E-3</v>
+      </c>
+      <c r="CX4" s="10">
+        <f t="shared" si="2"/>
+        <v>2.0082864137086903E-3</v>
+      </c>
+      <c r="CY4" s="10">
+        <f t="shared" si="2"/>
+        <v>2.0191799265605877E-3</v>
       </c>
     </row>
     <row r="5" spans="1:137" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AI5" s="39">
+      <c r="AI5" s="38">
         <f>CV11</f>
         <v>1E-4</v>
       </c>
-      <c r="AJ5" s="44">
-        <f>AI5*EXP(($CV$17*(1-AI5)-1)/$CV$13)</f>
+      <c r="AJ5" s="43">
+        <f t="shared" ref="AJ5:BH5" si="3">AI5*EXP(($CV$17*(1-AI5)-1)/$CV$13)</f>
         <v>1.2839804765846141E-4</v>
       </c>
-      <c r="AK5" s="44">
-        <f>AJ5*EXP(($CV$17*(1-AJ5)-1)/$CV$13)</f>
+      <c r="AK5" s="43">
+        <f t="shared" si="3"/>
         <v>1.6485894783161188E-4</v>
       </c>
-      <c r="AL5" s="44">
-        <f>AK5*EXP(($CV$17*(1-AK5)-1)/$CV$13)</f>
+      <c r="AL5" s="43">
+        <f t="shared" si="3"/>
         <v>2.1167086528916837E-4</v>
       </c>
-      <c r="AM5" s="44">
-        <f>AL5*EXP(($CV$17*(1-AL5)-1)/$CV$13)</f>
+      <c r="AM5" s="43">
+        <f t="shared" si="3"/>
         <v>2.7177063618374388E-4</v>
       </c>
-      <c r="AN5" s="44">
-        <f>AM5*EXP(($CV$17*(1-AM5)-1)/$CV$13)</f>
+      <c r="AN5" s="43">
+        <f t="shared" si="3"/>
         <v>3.489272129310451E-4</v>
       </c>
-      <c r="AO5" s="44">
-        <f>AN5*EXP(($CV$17*(1-AN5)-1)/$CV$13)</f>
+      <c r="AO5" s="43">
+        <f t="shared" si="3"/>
         <v>4.4797669769548509E-4</v>
       </c>
-      <c r="AP5" s="44">
-        <f>AO5*EXP(($CV$17*(1-AO5)-1)/$CV$13)</f>
+      <c r="AP5" s="43">
+        <f t="shared" si="3"/>
         <v>5.7512328421477951E-4</v>
       </c>
-      <c r="AQ5" s="44">
-        <f>AP5*EXP(($CV$17*(1-AP5)-1)/$CV$13)</f>
+      <c r="AQ5" s="43">
+        <f t="shared" si="3"/>
         <v>7.3832428008197362E-4</v>
       </c>
-      <c r="AR5" s="44">
-        <f>AQ5*EXP(($CV$17*(1-AQ5)-1)/$CV$13)</f>
+      <c r="AR5" s="43">
+        <f t="shared" si="3"/>
         <v>9.4778219002383379E-4</v>
       </c>
-      <c r="AS5" s="44">
-        <f>AR5*EXP(($CV$17*(1-AR5)-1)/$CV$13)</f>
+      <c r="AS5" s="43">
+        <f t="shared" si="3"/>
         <v>1.2165727884233294E-3</v>
       </c>
-      <c r="AT5" s="44">
-        <f>AS5*EXP(($CV$17*(1-AS5)-1)/$CV$13)</f>
+      <c r="AT5" s="43">
+        <f t="shared" si="3"/>
         <v>1.5614453758322007E-3</v>
       </c>
-      <c r="AU5" s="44">
-        <f>AT5*EXP(($CV$17*(1-AT5)-1)/$CV$13)</f>
+      <c r="AU5" s="43">
+        <f t="shared" si="3"/>
         <v>2.0038401396194547E-3</v>
       </c>
-      <c r="AV5" s="44">
-        <f>AU5*EXP(($CV$17*(1-AU5)-1)/$CV$13)</f>
+      <c r="AV5" s="43">
+        <f t="shared" si="3"/>
         <v>2.5711777575238895E-3</v>
       </c>
-      <c r="AW5" s="44">
-        <f>AV5*EXP(($CV$17*(1-AV5)-1)/$CV$13)</f>
+      <c r="AW5" s="43">
+        <f t="shared" si="3"/>
         <v>3.2984879058971261E-3</v>
       </c>
-      <c r="AX5" s="44">
-        <f>AW5*EXP(($CV$17*(1-AW5)-1)/$CV$13)</f>
+      <c r="AX5" s="43">
+        <f t="shared" si="3"/>
         <v>4.2304555502782728E-3</v>
       </c>
-      <c r="AY5" s="44">
-        <f>AX5*EXP(($CV$17*(1-AX5)-1)/$CV$13)</f>
+      <c r="AY5" s="43">
+        <f t="shared" si="3"/>
         <v>5.4239754417025341E-3</v>
       </c>
-      <c r="AZ5" s="44">
-        <f>AY5*EXP(($CV$17*(1-AY5)-1)/$CV$13)</f>
+      <c r="AZ5" s="43">
+        <f t="shared" si="3"/>
         <v>6.9513134790624553E-3</v>
       </c>
-      <c r="BA5" s="44">
-        <f>AZ5*EXP(($CV$17*(1-AZ5)-1)/$CV$13)</f>
+      <c r="BA5" s="43">
+        <f t="shared" si="3"/>
         <v>8.9039738028911727E-3</v>
       </c>
-      <c r="BB5" s="44">
-        <f>BA5*EXP(($CV$17*(1-BA5)-1)/$CV$13)</f>
+      <c r="BB5" s="43">
+        <f t="shared" si="3"/>
         <v>1.1397354658404166E-2</v>
       </c>
-      <c r="BC5" s="44">
-        <f>BB5*EXP(($CV$17*(1-BB5)-1)/$CV$13)</f>
+      <c r="BC5" s="43">
+        <f t="shared" si="3"/>
         <v>1.4576231269268521E-2</v>
       </c>
-      <c r="BD5" s="44">
-        <f>BC5*EXP(($CV$17*(1-BC5)-1)/$CV$13)</f>
+      <c r="BD5" s="43">
+        <f t="shared" si="3"/>
         <v>1.862101023765253E-2</v>
       </c>
-      <c r="BE5" s="44">
-        <f>BD5*EXP(($CV$17*(1-BD5)-1)/$CV$13)</f>
+      <c r="BE5" s="43">
+        <f t="shared" si="3"/>
         <v>2.375452817499165E-2</v>
       </c>
-      <c r="BF5" s="44">
-        <f>BE5*EXP(($CV$17*(1-BE5)-1)/$CV$13)</f>
+      <c r="BF5" s="43">
+        <f t="shared" si="3"/>
         <v>3.0248877835623633E-2</v>
       </c>
-      <c r="BG5" s="44">
-        <f>BF5*EXP(($CV$17*(1-BF5)-1)/$CV$13)</f>
+      <c r="BG5" s="43">
+        <f t="shared" si="3"/>
         <v>3.8431290332989025E-2</v>
       </c>
-      <c r="BH5" s="42">
-        <f>BG5*EXP(($CV$17*(1-BG5)-1)/$CV$13)</f>
+      <c r="BH5" s="41">
+        <f t="shared" si="3"/>
         <v>4.8687436947574506E-2</v>
       </c>
-      <c r="BI5" s="43">
-        <f>BH5*EXP(($CV$18*(1-BH5)-1)/$CV$13)</f>
+      <c r="BI5" s="42">
+        <f t="shared" ref="BI5:BP5" si="4">BH5*EXP(($CV$18*(1-BH5)-1)/$CV$13)</f>
         <v>5.6416535320700373E-2</v>
       </c>
-      <c r="BJ5" s="43">
-        <f>BI5*EXP(($CV$18*(1-BI5)-1)/$CV$13)</f>
+      <c r="BJ5" s="42">
+        <f t="shared" si="4"/>
         <v>6.5241384279887099E-2</v>
       </c>
-      <c r="BK5" s="43">
-        <f>BJ5*EXP(($CV$18*(1-BJ5)-1)/$CV$13)</f>
+      <c r="BK5" s="42">
+        <f t="shared" si="4"/>
         <v>7.527373249381919E-2</v>
       </c>
-      <c r="BL5" s="43">
-        <f>BK5*EXP(($CV$18*(1-BK5)-1)/$CV$13)</f>
+      <c r="BL5" s="42">
+        <f t="shared" si="4"/>
         <v>8.6622540571482096E-2</v>
       </c>
-      <c r="BM5" s="43">
-        <f>BL5*EXP(($CV$18*(1-BL5)-1)/$CV$13)</f>
+      <c r="BM5" s="42">
+        <f t="shared" si="4"/>
         <v>9.9388678112578593E-2</v>
       </c>
-      <c r="BN5" s="43">
-        <f>BM5*EXP(($CV$18*(1-BM5)-1)/$CV$13)</f>
+      <c r="BN5" s="42">
+        <f t="shared" si="4"/>
         <v>0.11365836475226639</v>
       </c>
-      <c r="BO5" s="43">
-        <f>BN5*EXP(($CV$18*(1-BN5)-1)/$CV$13)</f>
+      <c r="BO5" s="42">
+        <f t="shared" si="4"/>
         <v>0.12949547957095819</v>
       </c>
-      <c r="BP5" s="43">
-        <f>BO5*EXP(($CV$18*(1-BO5)-1)/$CV$13)</f>
+      <c r="BP5" s="42">
+        <f t="shared" si="4"/>
         <v>0.14693306589776656</v>
       </c>
-      <c r="BQ5" s="41">
-        <f>BP5*EXP(($CV$19*(1-BP5)-1)/$CV$13)</f>
+      <c r="BQ5" s="40">
+        <f t="shared" ref="BQ5:BY5" si="5">BP5*EXP(($CV$19*(1-BP5)-1)/$CV$13)</f>
         <v>0.15849276371481125</v>
       </c>
-      <c r="BR5" s="41">
-        <f>BQ5*EXP(($CV$19*(1-BQ5)-1)/$CV$13)</f>
+      <c r="BR5" s="40">
+        <f t="shared" si="5"/>
         <v>0.17055527336627552</v>
       </c>
-      <c r="BS5" s="41">
-        <f>BR5*EXP(($CV$19*(1-BR5)-1)/$CV$13)</f>
+      <c r="BS5" s="40">
+        <f t="shared" si="5"/>
         <v>0.18308033431442436</v>
       </c>
-      <c r="BT5" s="41">
-        <f>BS5*EXP(($CV$19*(1-BS5)-1)/$CV$13)</f>
+      <c r="BT5" s="40">
+        <f t="shared" si="5"/>
         <v>0.19601878431330463</v>
       </c>
-      <c r="BU5" s="41">
-        <f>BT5*EXP(($CV$19*(1-BT5)-1)/$CV$13)</f>
+      <c r="BU5" s="40">
+        <f t="shared" si="5"/>
         <v>0.20931297573615074</v>
       </c>
-      <c r="BV5" s="41">
-        <f>BU5*EXP(($CV$19*(1-BU5)-1)/$CV$13)</f>
+      <c r="BV5" s="40">
+        <f t="shared" si="5"/>
         <v>0.22289752805482305</v>
       </c>
-      <c r="BW5" s="41">
-        <f>BV5*EXP(($CV$19*(1-BV5)-1)/$CV$13)</f>
+      <c r="BW5" s="40">
+        <f t="shared" si="5"/>
         <v>0.23670041259262309</v>
       </c>
-      <c r="BX5" s="41">
-        <f>BW5*EXP(($CV$19*(1-BW5)-1)/$CV$13)</f>
+      <c r="BX5" s="40">
+        <f t="shared" si="5"/>
         <v>0.25064434312354011</v>
       </c>
-      <c r="BY5" s="41">
-        <f>BX5*EXP(($CV$19*(1-BX5)-1)/$CV$13)</f>
+      <c r="BY5" s="40">
+        <f t="shared" si="5"/>
         <v>0.26464842312485537</v>
       </c>
-      <c r="BZ5" s="42">
+      <c r="BZ5" s="41">
         <f>BY5*EXP(($CV$20*(1-BY5)-1)/$CV$13)</f>
         <v>0.2729516902209505</v>
       </c>
-      <c r="CA5" s="42">
-        <f t="shared" ref="CA5:EG5" si="1">BZ5*EXP(($CV$20*(1-BZ5)-1)/$CV$13)</f>
+      <c r="CA5" s="41">
+        <f t="shared" ref="CA5:EG5" si="6">BZ5*EXP(($CV$20*(1-BZ5)-1)/$CV$13)</f>
         <v>0.28109970255600658</v>
       </c>
-      <c r="CB5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CB5" s="41">
+        <f t="shared" si="6"/>
         <v>0.28907138736527183</v>
       </c>
-      <c r="CC5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CC5" s="41">
+        <f t="shared" si="6"/>
         <v>0.29684762670747189</v>
       </c>
-      <c r="CD5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CD5" s="41">
+        <f t="shared" si="6"/>
         <v>0.30441140371382502</v>
       </c>
-      <c r="CE5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CE5" s="41">
+        <f t="shared" si="6"/>
         <v>0.31174790311040373</v>
       </c>
-      <c r="CF5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CF5" s="41">
+        <f t="shared" si="6"/>
         <v>0.31884456647020837</v>
       </c>
-      <c r="CG5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CG5" s="41">
+        <f t="shared" si="6"/>
         <v>0.32569110410816404</v>
       </c>
-      <c r="CH5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CH5" s="41">
+        <f t="shared" si="6"/>
         <v>0.33227946677758308</v>
       </c>
-      <c r="CI5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CI5" s="41">
+        <f t="shared" si="6"/>
         <v>0.33860378131830055</v>
       </c>
-      <c r="CJ5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CJ5" s="41">
+        <f t="shared" si="6"/>
         <v>0.34466025512323784</v>
       </c>
-      <c r="CK5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CK5" s="41">
+        <f t="shared" si="6"/>
         <v>0.35044705472965465</v>
       </c>
-      <c r="CL5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CL5" s="41">
+        <f t="shared" si="6"/>
         <v>0.35596416401874054</v>
       </c>
-      <c r="CM5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CM5" s="41">
+        <f t="shared" si="6"/>
         <v>0.36121322745060036</v>
       </c>
-      <c r="CN5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CN5" s="41">
+        <f t="shared" si="6"/>
         <v>0.3661973835083423</v>
       </c>
-      <c r="CO5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CO5" s="41">
+        <f t="shared" si="6"/>
         <v>0.3709210931171032</v>
       </c>
-      <c r="CP5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CP5" s="41">
+        <f t="shared" si="6"/>
         <v>0.37538996728496277</v>
       </c>
-      <c r="CQ5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CQ5" s="41">
+        <f t="shared" si="6"/>
         <v>0.37961059762451715</v>
       </c>
-      <c r="CR5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CR5" s="41">
+        <f t="shared" si="6"/>
         <v>0.38359039279402962</v>
       </c>
-      <c r="CS5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CS5" s="41">
+        <f t="shared" si="6"/>
         <v>0.38733742327755877</v>
       </c>
-      <c r="CT5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CT5" s="41">
+        <f t="shared" si="6"/>
         <v>0.39086027632992704</v>
       </c>
-      <c r="CU5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CU5" s="41">
+        <f t="shared" si="6"/>
         <v>0.39416792236394654</v>
       </c>
-      <c r="CV5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CV5" s="41">
+        <f t="shared" si="6"/>
         <v>0.39726959356690644</v>
       </c>
-      <c r="CW5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CW5" s="41">
+        <f t="shared" si="6"/>
         <v>0.40017467510837207</v>
       </c>
-      <c r="CX5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CX5" s="41">
+        <f t="shared" si="6"/>
         <v>0.40289260894463663</v>
       </c>
-      <c r="CY5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CY5" s="41">
+        <f t="shared" si="6"/>
         <v>0.40543280993579578</v>
       </c>
-      <c r="CZ5" s="42">
-        <f t="shared" si="1"/>
+      <c r="CZ5" s="41">
+        <f t="shared" si="6"/>
         <v>0.40780459376571943</v>
       </c>
-      <c r="DA5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DA5" s="41">
+        <f t="shared" si="6"/>
         <v>0.41001711598761292</v>
       </c>
-      <c r="DB5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DB5" s="41">
+        <f t="shared" si="6"/>
         <v>0.41207932140168974</v>
       </c>
-      <c r="DC5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DC5" s="41">
+        <f t="shared" si="6"/>
         <v>0.41399990289947486</v>
       </c>
-      <c r="DD5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DD5" s="41">
+        <f t="shared" si="6"/>
         <v>0.41578726887414025</v>
       </c>
-      <c r="DE5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DE5" s="41">
+        <f t="shared" si="6"/>
         <v>0.41744951829104837</v>
       </c>
-      <c r="DF5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DF5" s="41">
+        <f t="shared" si="6"/>
         <v>0.41899442253090219</v>
       </c>
-      <c r="DG5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DG5" s="41">
+        <f t="shared" si="6"/>
         <v>0.42042941315381077</v>
       </c>
-      <c r="DH5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DH5" s="41">
+        <f t="shared" si="6"/>
         <v>0.42176157478117393</v>
       </c>
-      <c r="DI5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DI5" s="41">
+        <f t="shared" si="6"/>
         <v>0.42299764234933768</v>
       </c>
-      <c r="DJ5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DJ5" s="41">
+        <f t="shared" si="6"/>
         <v>0.42414400205098352</v>
       </c>
-      <c r="DK5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DK5" s="41">
+        <f t="shared" si="6"/>
         <v>0.42520669534438021</v>
       </c>
-      <c r="DL5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DL5" s="41">
+        <f t="shared" si="6"/>
         <v>0.42619142547476763</v>
       </c>
-      <c r="DM5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DM5" s="41">
+        <f t="shared" si="6"/>
         <v>0.42710356601459737</v>
       </c>
-      <c r="DN5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DN5" s="41">
+        <f t="shared" si="6"/>
         <v>0.42794817098893195</v>
       </c>
-      <c r="DO5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DO5" s="41">
+        <f t="shared" si="6"/>
         <v>0.42872998620818942</v>
       </c>
-      <c r="DP5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DP5" s="41">
+        <f t="shared" si="6"/>
         <v>0.42945346148209951</v>
       </c>
-      <c r="DQ5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DQ5" s="41">
+        <f t="shared" si="6"/>
         <v>0.43012276343595057</v>
       </c>
-      <c r="DR5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DR5" s="41">
+        <f t="shared" si="6"/>
         <v>0.43074178869287461</v>
       </c>
-      <c r="DS5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DS5" s="41">
+        <f t="shared" si="6"/>
         <v>0.43131417722411292</v>
       </c>
-      <c r="DT5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DT5" s="41">
+        <f t="shared" si="6"/>
         <v>0.43184332570308831</v>
       </c>
-      <c r="DU5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DU5" s="41">
+        <f t="shared" si="6"/>
         <v>0.43233240072892992</v>
       </c>
-      <c r="DV5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DV5" s="41">
+        <f t="shared" si="6"/>
         <v>0.43278435181113201</v>
       </c>
-      <c r="DW5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DW5" s="41">
+        <f t="shared" si="6"/>
         <v>0.43320192402958829</v>
       </c>
-      <c r="DX5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DX5" s="41">
+        <f t="shared" si="6"/>
         <v>0.43358767030365419</v>
       </c>
-      <c r="DY5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DY5" s="41">
+        <f t="shared" si="6"/>
         <v>0.43394396322045692</v>
       </c>
-      <c r="DZ5" s="42">
-        <f t="shared" si="1"/>
+      <c r="DZ5" s="41">
+        <f t="shared" si="6"/>
         <v>0.4342730063867164</v>
       </c>
-      <c r="EA5" s="42">
-        <f t="shared" si="1"/>
+      <c r="EA5" s="41">
+        <f t="shared" si="6"/>
         <v>0.43457684528013851</v>
       </c>
-      <c r="EB5" s="42">
-        <f t="shared" si="1"/>
+      <c r="EB5" s="41">
+        <f t="shared" si="6"/>
         <v>0.43485737758627641</v>
       </c>
-      <c r="EC5" s="42">
-        <f t="shared" si="1"/>
+      <c r="EC5" s="41">
+        <f t="shared" si="6"/>
         <v>0.43511636301487083</v>
       </c>
-      <c r="ED5" s="42">
-        <f t="shared" si="1"/>
+      <c r="ED5" s="41">
+        <f t="shared" si="6"/>
         <v>0.43535543259630677</v>
       </c>
-      <c r="EE5" s="42">
-        <f t="shared" si="1"/>
+      <c r="EE5" s="41">
+        <f t="shared" si="6"/>
         <v>0.43557609746416298</v>
       </c>
-      <c r="EF5" s="42">
-        <f t="shared" si="1"/>
+      <c r="EF5" s="41">
+        <f t="shared" si="6"/>
         <v>0.43577975713407363</v>
       </c>
-      <c r="EG5" s="42">
-        <f t="shared" si="1"/>
+      <c r="EG5" s="41">
+        <f t="shared" si="6"/>
         <v>0.43596770729242273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI6">
+        <f>AI5/$CV$22</f>
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" ref="AJ6:CU6" si="7">AJ5/$CV$22</f>
+        <v>6.4199023829230706E-7</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="7"/>
+        <v>8.2429473915805938E-7</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="7"/>
+        <v>1.058354326445842E-6</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="7"/>
+        <v>1.3588531809187195E-6</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="7"/>
+        <v>1.7446360646552255E-6</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="7"/>
+        <v>2.2398834884774256E-6</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" si="7"/>
+        <v>2.8756164210738975E-6</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="7"/>
+        <v>3.6916214004098683E-6</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" si="7"/>
+        <v>4.7389109501191688E-6</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" si="7"/>
+        <v>6.0828639421166471E-6</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" si="7"/>
+        <v>7.8072268791610034E-6</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" si="7"/>
+        <v>1.0019200698097273E-5</v>
+      </c>
+      <c r="AV6">
+        <f t="shared" si="7"/>
+        <v>1.2855888787619448E-5</v>
+      </c>
+      <c r="AW6">
+        <f t="shared" si="7"/>
+        <v>1.649243952948563E-5</v>
+      </c>
+      <c r="AX6">
+        <f t="shared" si="7"/>
+        <v>2.1152277751391365E-5</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" si="7"/>
+        <v>2.7119877208512669E-5</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" si="7"/>
+        <v>3.4756567395312277E-5</v>
+      </c>
+      <c r="BA6">
+        <f t="shared" si="7"/>
+        <v>4.4519869014455866E-5</v>
+      </c>
+      <c r="BB6">
+        <f t="shared" si="7"/>
+        <v>5.698677329202083E-5</v>
+      </c>
+      <c r="BC6">
+        <f t="shared" si="7"/>
+        <v>7.2881156346342606E-5</v>
+      </c>
+      <c r="BD6">
+        <f t="shared" si="7"/>
+        <v>9.3105051188262651E-5</v>
+      </c>
+      <c r="BE6">
+        <f t="shared" si="7"/>
+        <v>1.1877264087495825E-4</v>
+      </c>
+      <c r="BF6">
+        <f t="shared" si="7"/>
+        <v>1.5124438917811818E-4</v>
+      </c>
+      <c r="BG6">
+        <f t="shared" si="7"/>
+        <v>1.9215645166494513E-4</v>
+      </c>
+      <c r="BH6">
+        <f t="shared" si="7"/>
+        <v>2.4343718473787254E-4</v>
+      </c>
+      <c r="BI6">
+        <f t="shared" si="7"/>
+        <v>2.8208267660350186E-4</v>
+      </c>
+      <c r="BJ6">
+        <f t="shared" si="7"/>
+        <v>3.2620692139943548E-4</v>
+      </c>
+      <c r="BK6">
+        <f t="shared" si="7"/>
+        <v>3.7636866246909594E-4</v>
+      </c>
+      <c r="BL6">
+        <f t="shared" si="7"/>
+        <v>4.3311270285741049E-4</v>
+      </c>
+      <c r="BM6">
+        <f t="shared" si="7"/>
+        <v>4.9694339056289292E-4</v>
+      </c>
+      <c r="BN6">
+        <f t="shared" si="7"/>
+        <v>5.6829182376133189E-4</v>
+      </c>
+      <c r="BO6">
+        <f t="shared" si="7"/>
+        <v>6.4747739785479092E-4</v>
+      </c>
+      <c r="BP6">
+        <f t="shared" si="7"/>
+        <v>7.3466532948883282E-4</v>
+      </c>
+      <c r="BQ6">
+        <f t="shared" si="7"/>
+        <v>7.9246381857405628E-4</v>
+      </c>
+      <c r="BR6">
+        <f t="shared" si="7"/>
+        <v>8.5277636683137763E-4</v>
+      </c>
+      <c r="BS6">
+        <f t="shared" si="7"/>
+        <v>9.1540167157212185E-4</v>
+      </c>
+      <c r="BT6">
+        <f t="shared" si="7"/>
+        <v>9.800939215665232E-4</v>
+      </c>
+      <c r="BU6">
+        <f t="shared" si="7"/>
+        <v>1.0465648786807536E-3</v>
+      </c>
+      <c r="BV6">
+        <f t="shared" si="7"/>
+        <v>1.1144876402741151E-3</v>
+      </c>
+      <c r="BW6">
+        <f t="shared" si="7"/>
+        <v>1.1835020629631155E-3</v>
+      </c>
+      <c r="BX6">
+        <f t="shared" si="7"/>
+        <v>1.2532217156177006E-3</v>
+      </c>
+      <c r="BY6">
+        <f t="shared" si="7"/>
+        <v>1.3232421156242769E-3</v>
+      </c>
+      <c r="BZ6">
+        <f t="shared" si="7"/>
+        <v>1.3647584511047525E-3</v>
+      </c>
+      <c r="CA6">
+        <f t="shared" si="7"/>
+        <v>1.4054985127800329E-3</v>
+      </c>
+      <c r="CB6">
+        <f t="shared" si="7"/>
+        <v>1.4453569368263592E-3</v>
+      </c>
+      <c r="CC6">
+        <f t="shared" si="7"/>
+        <v>1.4842381335373595E-3</v>
+      </c>
+      <c r="CD6">
+        <f t="shared" si="7"/>
+        <v>1.522057018569125E-3</v>
+      </c>
+      <c r="CE6">
+        <f t="shared" si="7"/>
+        <v>1.5587395155520186E-3</v>
+      </c>
+      <c r="CF6">
+        <f t="shared" si="7"/>
+        <v>1.5942228323510418E-3</v>
+      </c>
+      <c r="CG6">
+        <f t="shared" si="7"/>
+        <v>1.6284555205408203E-3</v>
+      </c>
+      <c r="CH6">
+        <f t="shared" si="7"/>
+        <v>1.6613973338879154E-3</v>
+      </c>
+      <c r="CI6">
+        <f t="shared" si="7"/>
+        <v>1.6930189065915027E-3</v>
+      </c>
+      <c r="CJ6">
+        <f t="shared" si="7"/>
+        <v>1.7233012756161892E-3</v>
+      </c>
+      <c r="CK6">
+        <f t="shared" si="7"/>
+        <v>1.7522352736482733E-3</v>
+      </c>
+      <c r="CL6">
+        <f t="shared" si="7"/>
+        <v>1.7798208200937027E-3</v>
+      </c>
+      <c r="CM6">
+        <f t="shared" si="7"/>
+        <v>1.8060661372530018E-3</v>
+      </c>
+      <c r="CN6">
+        <f t="shared" si="7"/>
+        <v>1.8309869175417116E-3</v>
+      </c>
+      <c r="CO6">
+        <f t="shared" si="7"/>
+        <v>1.8546054655855159E-3</v>
+      </c>
+      <c r="CP6">
+        <f t="shared" si="7"/>
+        <v>1.8769498364248139E-3</v>
+      </c>
+      <c r="CQ6">
+        <f t="shared" si="7"/>
+        <v>1.8980529881225858E-3</v>
+      </c>
+      <c r="CR6">
+        <f t="shared" si="7"/>
+        <v>1.917951963970148E-3</v>
+      </c>
+      <c r="CS6">
+        <f t="shared" si="7"/>
+        <v>1.9366871163877938E-3</v>
+      </c>
+      <c r="CT6">
+        <f t="shared" si="7"/>
+        <v>1.9543013816496354E-3</v>
+      </c>
+      <c r="CU6">
+        <f t="shared" si="7"/>
+        <v>1.9708396118197327E-3</v>
+      </c>
+      <c r="CV6">
+        <f t="shared" ref="CV6:EG6" si="8">CV5/$CV$22</f>
+        <v>1.9863479678345324E-3</v>
+      </c>
+      <c r="CW6">
+        <f t="shared" si="8"/>
+        <v>2.0008733755418604E-3</v>
+      </c>
+      <c r="CX6">
+        <f t="shared" si="8"/>
+        <v>2.0144630447231832E-3</v>
+      </c>
+      <c r="CY6">
+        <f t="shared" si="8"/>
+        <v>2.0271640496789789E-3</v>
+      </c>
+      <c r="CZ6">
+        <f t="shared" si="8"/>
+        <v>2.0390229688285969E-3</v>
+      </c>
+      <c r="DA6">
+        <f t="shared" si="8"/>
+        <v>2.0500855799380647E-3</v>
+      </c>
+      <c r="DB6">
+        <f t="shared" si="8"/>
+        <v>2.0603966070084486E-3</v>
+      </c>
+      <c r="DC6">
+        <f t="shared" si="8"/>
+        <v>2.0699995144973743E-3</v>
+      </c>
+      <c r="DD6">
+        <f t="shared" si="8"/>
+        <v>2.0789363443707012E-3</v>
+      </c>
+      <c r="DE6">
+        <f t="shared" si="8"/>
+        <v>2.087247591455242E-3</v>
+      </c>
+      <c r="DF6">
+        <f t="shared" si="8"/>
+        <v>2.0949721126545108E-3</v>
+      </c>
+      <c r="DG6">
+        <f t="shared" si="8"/>
+        <v>2.1021470657690538E-3</v>
+      </c>
+      <c r="DH6">
+        <f t="shared" si="8"/>
+        <v>2.1088078739058698E-3</v>
+      </c>
+      <c r="DI6">
+        <f t="shared" si="8"/>
+        <v>2.1149882117466883E-3</v>
+      </c>
+      <c r="DJ6">
+        <f t="shared" si="8"/>
+        <v>2.1207200102549176E-3</v>
+      </c>
+      <c r="DK6">
+        <f t="shared" si="8"/>
+        <v>2.1260334767219009E-3</v>
+      </c>
+      <c r="DL6">
+        <f t="shared" si="8"/>
+        <v>2.1309571273738382E-3</v>
+      </c>
+      <c r="DM6">
+        <f t="shared" si="8"/>
+        <v>2.1355178300729869E-3</v>
+      </c>
+      <c r="DN6">
+        <f t="shared" si="8"/>
+        <v>2.1397408549446596E-3</v>
+      </c>
+      <c r="DO6">
+        <f t="shared" si="8"/>
+        <v>2.1436499310409471E-3</v>
+      </c>
+      <c r="DP6">
+        <f t="shared" si="8"/>
+        <v>2.1472673074104977E-3</v>
+      </c>
+      <c r="DQ6">
+        <f t="shared" si="8"/>
+        <v>2.1506138171797527E-3</v>
+      </c>
+      <c r="DR6">
+        <f t="shared" si="8"/>
+        <v>2.1537089434643729E-3</v>
+      </c>
+      <c r="DS6">
+        <f t="shared" si="8"/>
+        <v>2.1565708861205645E-3</v>
+      </c>
+      <c r="DT6">
+        <f t="shared" si="8"/>
+        <v>2.1592166285154413E-3</v>
+      </c>
+      <c r="DU6">
+        <f t="shared" si="8"/>
+        <v>2.1616620036446496E-3</v>
+      </c>
+      <c r="DV6">
+        <f t="shared" si="8"/>
+        <v>2.16392175905566E-3</v>
+      </c>
+      <c r="DW6">
+        <f t="shared" si="8"/>
+        <v>2.1660096201479417E-3</v>
+      </c>
+      <c r="DX6">
+        <f t="shared" si="8"/>
+        <v>2.167938351518271E-3</v>
+      </c>
+      <c r="DY6">
+        <f t="shared" si="8"/>
+        <v>2.1697198161022848E-3</v>
+      </c>
+      <c r="DZ6">
+        <f t="shared" si="8"/>
+        <v>2.1713650319335818E-3</v>
+      </c>
+      <c r="EA6">
+        <f t="shared" si="8"/>
+        <v>2.1728842264006924E-3</v>
+      </c>
+      <c r="EB6">
+        <f t="shared" si="8"/>
+        <v>2.1742868879313822E-3</v>
+      </c>
+      <c r="EC6">
+        <f t="shared" si="8"/>
+        <v>2.1755818150743541E-3</v>
+      </c>
+      <c r="ED6">
+        <f t="shared" si="8"/>
+        <v>2.1767771629815341E-3</v>
+      </c>
+      <c r="EE6">
+        <f t="shared" si="8"/>
+        <v>2.1778804873208149E-3</v>
+      </c>
+      <c r="EF6">
+        <f t="shared" si="8"/>
+        <v>2.178898785670368E-3</v>
+      </c>
+      <c r="EG6">
+        <f t="shared" si="8"/>
+        <v>2.1798385364621138E-3</v>
       </c>
     </row>
     <row r="7" spans="1:137" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9501,7 +9921,7 @@
       <c r="CX11" s="3"/>
     </row>
     <row r="12" spans="1:137" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="CT12" s="34"/>
+      <c r="CT12" s="33"/>
       <c r="CU12" t="s">
         <v>2</v>
       </c>
@@ -9531,11 +9951,11 @@
     </row>
     <row r="15" spans="1:137" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CT15" s="8"/>
-      <c r="CU15" s="35" t="s">
+      <c r="CU15" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="CV15" s="36"/>
-      <c r="CW15" s="37"/>
+      <c r="CV15" s="35"/>
+      <c r="CW15" s="36"/>
       <c r="CX15"/>
     </row>
     <row r="16" spans="1:137" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -9596,7 +10016,7 @@
       <c r="DC19" s="3"/>
       <c r="DD19"/>
     </row>
-    <row r="20" spans="1:137" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:137" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="CT20" s="28"/>
       <c r="CU20" s="23">
         <v>43928</v>
@@ -9628,7 +10048,7 @@
       <c r="CU22" t="s">
         <v>3</v>
       </c>
-      <c r="CV22" s="38">
+      <c r="CV22" s="37">
         <v>200</v>
       </c>
       <c r="CW22" s="13"/>
@@ -9999,15 +10419,15 @@
       <c r="DG59" s="17"/>
     </row>
     <row r="60" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD60" s="31"/>
-      <c r="DE60" s="31"/>
-      <c r="DF60" s="31"/>
+      <c r="DD60" s="44"/>
+      <c r="DE60" s="44"/>
+      <c r="DF60" s="44"/>
       <c r="DG60" s="17"/>
     </row>
     <row r="61" spans="36:137" x14ac:dyDescent="0.25">
       <c r="DD61" s="30"/>
       <c r="DE61" s="30"/>
-      <c r="DF61" s="32"/>
+      <c r="DF61" s="31"/>
       <c r="DG61" s="17"/>
     </row>
     <row r="62" spans="36:137" x14ac:dyDescent="0.25">
@@ -10023,13 +10443,13 @@
       <c r="DG63" s="17"/>
     </row>
     <row r="64" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD64" s="33"/>
+      <c r="DD64" s="32"/>
       <c r="DE64" s="30"/>
       <c r="DF64" s="30"/>
       <c r="DG64" s="17"/>
     </row>
     <row r="65" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD65" s="33"/>
+      <c r="DD65" s="32"/>
       <c r="DE65" s="30"/>
       <c r="DF65" s="30"/>
       <c r="DG65" s="17"/>

--- a/Data/Real.Model.Simple v.1.3.xlsx
+++ b/Data/Real.Model.Simple v.1.3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tor2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DelMe\Covid\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837D6C66-2519-4278-9A58-E97BBE6D206D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{315B2825-1111-4922-AD78-F949C228B2E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C6EFD3A4-A7B5-475D-8F42-E10B52230622}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Infectious.Days</t>
-  </si>
-  <si>
-    <t>P.Real.Infected</t>
   </si>
   <si>
     <t>μ</t>
@@ -74,16 +71,23 @@
   <si>
     <t>P.Infected.Model.Corrected</t>
   </si>
+  <si>
+    <t>P.Cases.Real.Detected</t>
+  </si>
+  <si>
+    <t>P.Cases.Real.Infected</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0000000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -276,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -324,6 +328,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,7 +376,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>P.Real.Infected</c:v>
+                  <c:v>P.Cases.Real.Detected</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1027,6 +1033,21 @@
                 <c:pt idx="101" formatCode="0.000000">
                   <c:v>2.0191799265605877E-3</c:v>
                 </c:pt>
+                <c:pt idx="102" formatCode="0.000000">
+                  <c:v>2.0277111383108933E-3</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="0.000000">
+                  <c:v>2.0277111383108933E-3</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="0.000000">
+                  <c:v>2.0441493268053856E-3</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="0.000000">
+                  <c:v>2.0582864137086905E-3</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="0.000000">
+                  <c:v>2.0738066095471238E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1617,184 +1638,184 @@
                   <c:v>1.3232421156242769E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.3647584511047525E-3</c:v>
+                  <c:v>1.364256754701678E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.4054985127800329E-3</c:v>
+                  <c:v>1.4044962021496688E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.4453569368263592E-3</c:v>
+                  <c:v>1.4438585062723926E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.4842381335373595E-3</c:v>
+                  <c:v>1.4822512862164182E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.522057018569125E-3</c:v>
+                  <c:v>1.5195924147210951E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.5587395155520186E-3</c:v>
+                  <c:v>1.5558104817354162E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.5942228323510418E-3</c:v>
+                  <c:v>1.5908450417766919E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.6284555205408203E-3</c:v>
+                  <c:v>1.62464665471136E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.6613973338879154E-3</c:v>
+                  <c:v>1.6571767354278261E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.6930189065915027E-3</c:v>
+                  <c:v>1.6884072324572005E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.7233012756161892E-3</c:v>
+                  <c:v>1.7183201588877287E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.7522352736482733E-3</c:v>
+                  <c:v>1.7469070009100481E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.7798208200937027E-3</c:v>
+                  <c:v>1.7741680300975269E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.8060661372530018E-3</c:v>
+                  <c:v>1.8001115452033218E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.8309869175417116E-3</c:v>
+                  <c:v>1.8247530680189192E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.8546054655855159E-3</c:v>
+                  <c:v>1.8481145158855002E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.8769498364248139E-3</c:v>
+                  <c:v>1.8702233709824148E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.8980529881225858E-3</c:v>
+                  <c:v>1.8911118637305118E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.917951963970148E-3</c:v>
+                  <c:v>1.9108161847168645E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.9366871163877938E-3</c:v>
+                  <c:v>1.9293757366203067E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.9543013816496354E-3</c:v>
+                  <c:v>1.9468324348132634E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.9708396118197327E-3</c:v>
+                  <c:v>1.9632300627235584E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9863479678345324E-3</c:v>
+                  <c:v>1.9786136857204901E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.0008733755418604E-3</c:v>
+                  <c:v>1.9930291252772338E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.0144630447231832E-3</c:v>
+                  <c:v>2.0065224934697735E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.0271640496789789E-3</c:v>
+                  <c:v>2.0191397864971054E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.0390229688285969E-3</c:v>
+                  <c:v>2.0309265348316054E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.0500855799380647E-3</c:v>
+                  <c:v>2.0419275068064109E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.0603966070084486E-3</c:v>
+                  <c:v>2.0521864618874204E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.0699995144973743E-3</c:v>
+                  <c:v>2.0617459495272492E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.0789363443707012E-3</c:v>
+                  <c:v>2.0706471493232275E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.087247591455242E-3</c:v>
+                  <c:v>2.0789297481685794E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.0949721126545108E-3</c:v>
+                  <c:v>2.0866318501649916E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.1021470657690538E-3</c:v>
+                  <c:v>2.0937899152287933E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.1088078739058698E-3</c:v>
+                  <c:v>2.1004387225483198E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.1149882117466883E-3</c:v>
+                  <c:v>2.1066113553166424E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.1207200102549176E-3</c:v>
+                  <c:v>2.1123392034551923E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.1260334767219009E-3</c:v>
+                  <c:v>2.1176519813464563E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.1309571273738382E-3</c:v>
+                  <c:v>2.1225777578974246E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.1355178300729869E-3</c:v>
+                  <c:v>2.1271429965518595E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.1397408549446596E-3</c:v>
+                  <c:v>2.1313726031528916E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.1436499310409471E-3</c:v>
+                  <c:v>2.13528997982398E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.1472673074104977E-3</c:v>
+                  <c:v>2.1389170832832897E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.1506138171797527E-3</c:v>
+                  <c:v>2.1422744862327437E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.1537089434643729E-3</c:v>
+                  <c:v>2.1453814406678343E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.1565708861205645E-3</c:v>
+                  <c:v>2.148255942138088E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.1592166285154413E-3</c:v>
+                  <c:v>2.1509147941514354E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2.1616620036446496E-3</c:v>
+                  <c:v>2.1533736720598666E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2.16392175905566E-3</c:v>
+                  <c:v>2.1556471858898345E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2.1660096201479417E-3</c:v>
+                  <c:v>2.1577489416904076E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2.167938351518271E-3</c:v>
+                  <c:v>2.1596916010666106E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2.1697198161022848E-3</c:v>
+                  <c:v>2.1614869386462243E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2.1713650319335818E-3</c:v>
+                  <c:v>2.1631458972970093E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2.1728842264006924E-3</c:v>
+                  <c:v>2.1646786409691902E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.1742868879313822E-3</c:v>
+                  <c:v>2.1660946050864314E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.1755818150743541E-3</c:v>
+                  <c:v>2.1674025444486148E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.1767771629815341E-3</c:v>
+                  <c:v>2.1686105786425719E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2.1778804873208149E-3</c:v>
+                  <c:v>2.1697262349835321E-3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.178898785670368E-3</c:v>
+                  <c:v>2.1707564890312758E-3</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2.1798385364621138E-3</c:v>
+                  <c:v>2.1717078027416476E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5983,6 +6004,1702 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Base!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P.Infected.Model</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Base!$B$1:$EG$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="136"/>
+                <c:pt idx="0">
+                  <c:v>43852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43858</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43859</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43860</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43865</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>43987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Base!$B$5:$EG$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="136"/>
+                <c:pt idx="33">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2839804765846141E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.6485894783161188E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.1167086528916837E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.7177063618374388E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.489272129310451E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.4797669769548509E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.7512328421477951E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.3832428008197362E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.4778219002383379E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2165727884233294E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5614453758322007E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.0038401396194547E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.5711777575238895E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.2984879058971261E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.2304555502782728E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.4239754417025341E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.9513134790624553E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.9039738028911727E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1397354658404166E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4576231269268521E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.862101023765253E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.375452817499165E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.0248877835623633E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.8431290332989025E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.8687436947574506E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.6416535320700373E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.5241384279887099E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.527373249381919E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.6622540571482096E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.9388678112578593E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.11365836475226639</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.12949547957095819</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.14693306589776656</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.15849276371481125</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.17055527336627552</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.18308033431442436</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.19601878431330463</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.20931297573615074</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.22289752805482305</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.23670041259262309</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.25064434312354011</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.26464842312485537</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.27285135094033558</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.28089924042993375</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.28877170125447854</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.29645025724328361</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.30391848294421903</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.31116209634708325</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.3181690083553384</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.324929330942272</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.33143534708556521</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.33768144649144011</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.34366403177754573</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.34938140018200964</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.35483360601950537</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.36002230904066435</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.36495061360378384</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.36962290317710006</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.37404467419648296</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.37822237274610238</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.3821632369433729</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.38587514732406136</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.38936648696265269</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.39264601254471165</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.395722737144098</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.39860582505544678</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.40130449869395468</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.40382795729942111</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.4061853069663211</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.40838550136128215</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.41043729237748405</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.41234918990544983</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.41412942986464546</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.4157859496337159</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.41732637003299833</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.41875798304575867</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.42008774450966396</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.42132227106332848</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.42246784069103849</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.42353039626929123</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.4245155515794849</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.42542859931037191</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.42627452063057836</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.42705799596479599</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.42778341665665798</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.42845489724654873</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.42907628813356685</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.42965118842761763</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.43018295883028712</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.43067473441197329</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.43112943717796687</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.43154978833808155</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.43193832021332212</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.43229738772924486</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.43262917945940188</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.43293572819383808</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.43321892101728632</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.43348050888972295</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.43372211572851438</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.43394524699670645</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.43415129780625517</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.43434156054832956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37AD-44F9-9C1A-5EA43386A194}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Base!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P.Cases.Real.Infected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Base!$B$1:$EG$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="136"/>
+                <c:pt idx="0">
+                  <c:v>43852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43858</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43859</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43860</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43865</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>43987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Base!$B$7:$EG$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="136"/>
+                <c:pt idx="33">
+                  <c:v>3.9167686658506726E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.1615667074663398E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.6095471236230115E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1260709914320686E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.175030599755202E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9339045287637699E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.1823745410036719E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.8922888616891064E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.7980416156670746E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.4137086903304772E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1799265605875152E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.6401468788249695E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.95593635250918E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.5458996328029376E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.8788249694002449E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5667074663402695E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8127294981640152E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.7197062423500617E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.9963280293757653E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1258261933904529E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4230110159118726E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.7801713586291311E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.2930232558139536E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.0176254589963279E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.7503059975520198E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.85875152998776E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.4746634026927782E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.0888616891064867E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.1128518971848229E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.0761321909424727E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.1365973072215431E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.10755936352509179</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.124531211750306</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.14123623011015912</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.15283965728274174</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.16373317013463892</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.17578457772337822</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.19036964504283965</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.20757405140758872</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.22315544675642596</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.23523133414932682</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.24509914320685433</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.25305752753977967</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.26355691554467564</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.27734638922888616</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.28943696450428397</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.29907221542227663</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.30710403916768664</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.31298408812729495</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.31841370869033048</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.32364749082007344</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.32987270501835986</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.33708200734394128</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.3461370869033048</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.35122399020807832</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.35677356181150549</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.36001223990208081</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.36341003671970629</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.36878335373317017</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.37485679314565479</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.37943451652386778</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.38314075887392901</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.38621787025703797</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.38863647490820069</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.39146144430844559</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.39544430844553241</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.39904283965728271</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.40165728274173806</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.40383598531211751</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.40554222766217868</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.40554222766217868</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.40882986536107713</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.41165728274173807</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.41476132190942477</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-37AD-44F9-9C1A-5EA43386A194}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="788747456"/>
+        <c:axId val="788750736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="788747456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788750736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="788750736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788747456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6024,6 +7741,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7095,20 +8852,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>86</xdr:col>
-      <xdr:colOff>420640</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>46393</xdr:rowOff>
+      <xdr:colOff>411981</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>176280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>97</xdr:col>
-      <xdr:colOff>513051</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>48347</xdr:rowOff>
+      <xdr:colOff>504392</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>178234</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7164,6 +9437,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>8660</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>199164</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>8659</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761734EB-00B2-44C8-B23C-D806DF3B4F9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7471,16 +9780,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B7E176-5706-4C21-988E-A9D87E8D9EA2}">
   <dimension ref="A1:EG73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CH3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="CI21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CX17" sqref="CX17"/>
+      <selection pane="bottomRight" activeCell="CV20" sqref="CV20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="35" max="35" width="15.7109375" customWidth="1"/>
     <col min="73" max="73" width="12" customWidth="1"/>
     <col min="91" max="91" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -8365,7 +10674,7 @@
     </row>
     <row r="3" spans="1:137" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="26">
         <v>0</v>
@@ -8672,11 +10981,26 @@
       </c>
       <c r="CY3" s="26">
         <v>164967</v>
+      </c>
+      <c r="CZ3" s="26">
+        <v>165664</v>
+      </c>
+      <c r="DA3" s="26">
+        <v>165664</v>
+      </c>
+      <c r="DB3" s="26">
+        <v>167007</v>
+      </c>
+      <c r="DC3" s="26">
+        <v>168162</v>
+      </c>
+      <c r="DD3" s="26">
+        <v>169430</v>
       </c>
     </row>
     <row r="4" spans="1:137" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AI4" s="10">
         <f>AI3/$CV$12</f>
@@ -8954,945 +11278,1190 @@
         <f t="shared" si="2"/>
         <v>2.0191799265605877E-3</v>
       </c>
+      <c r="CZ4" s="10">
+        <f t="shared" ref="CZ4:DC4" si="3">CZ3/$CV$12</f>
+        <v>2.0277111383108933E-3</v>
+      </c>
+      <c r="DA4" s="10">
+        <f t="shared" si="3"/>
+        <v>2.0277111383108933E-3</v>
+      </c>
+      <c r="DB4" s="10">
+        <f t="shared" si="3"/>
+        <v>2.0441493268053856E-3</v>
+      </c>
+      <c r="DC4" s="10">
+        <f t="shared" si="3"/>
+        <v>2.0582864137086905E-3</v>
+      </c>
+      <c r="DD4" s="10">
+        <f t="shared" ref="DD4" si="4">DD3/$CV$12</f>
+        <v>2.0738066095471238E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:137" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI5" s="38">
         <f>CV11</f>
         <v>1E-4</v>
       </c>
       <c r="AJ5" s="43">
-        <f t="shared" ref="AJ5:BH5" si="3">AI5*EXP(($CV$17*(1-AI5)-1)/$CV$13)</f>
+        <f t="shared" ref="AJ5:BH5" si="5">AI5*EXP(($CV$17*(1-AI5)-1)/$CV$13)</f>
         <v>1.2839804765846141E-4</v>
       </c>
       <c r="AK5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6485894783161188E-4</v>
       </c>
       <c r="AL5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.1167086528916837E-4</v>
       </c>
       <c r="AM5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7177063618374388E-4</v>
       </c>
       <c r="AN5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.489272129310451E-4</v>
       </c>
       <c r="AO5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.4797669769548509E-4</v>
       </c>
       <c r="AP5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.7512328421477951E-4</v>
       </c>
       <c r="AQ5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.3832428008197362E-4</v>
       </c>
       <c r="AR5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.4778219002383379E-4</v>
       </c>
       <c r="AS5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2165727884233294E-3</v>
       </c>
       <c r="AT5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5614453758322007E-3</v>
       </c>
       <c r="AU5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0038401396194547E-3</v>
       </c>
       <c r="AV5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.5711777575238895E-3</v>
       </c>
       <c r="AW5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.2984879058971261E-3</v>
       </c>
       <c r="AX5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.2304555502782728E-3</v>
       </c>
       <c r="AY5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.4239754417025341E-3</v>
       </c>
       <c r="AZ5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.9513134790624553E-3</v>
       </c>
       <c r="BA5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.9039738028911727E-3</v>
       </c>
       <c r="BB5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1397354658404166E-2</v>
       </c>
       <c r="BC5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.4576231269268521E-2</v>
       </c>
       <c r="BD5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.862101023765253E-2</v>
       </c>
       <c r="BE5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.375452817499165E-2</v>
       </c>
       <c r="BF5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0248877835623633E-2</v>
       </c>
       <c r="BG5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.8431290332989025E-2</v>
       </c>
       <c r="BH5" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.8687436947574506E-2</v>
       </c>
       <c r="BI5" s="42">
-        <f t="shared" ref="BI5:BP5" si="4">BH5*EXP(($CV$18*(1-BH5)-1)/$CV$13)</f>
+        <f t="shared" ref="BI5:BP5" si="6">BH5*EXP(($CV$18*(1-BH5)-1)/$CV$13)</f>
         <v>5.6416535320700373E-2</v>
       </c>
       <c r="BJ5" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.5241384279887099E-2</v>
       </c>
       <c r="BK5" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.527373249381919E-2</v>
       </c>
       <c r="BL5" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.6622540571482096E-2</v>
       </c>
       <c r="BM5" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.9388678112578593E-2</v>
       </c>
       <c r="BN5" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11365836475226639</v>
       </c>
       <c r="BO5" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.12949547957095819</v>
       </c>
       <c r="BP5" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.14693306589776656</v>
       </c>
       <c r="BQ5" s="40">
-        <f t="shared" ref="BQ5:BY5" si="5">BP5*EXP(($CV$19*(1-BP5)-1)/$CV$13)</f>
+        <f t="shared" ref="BQ5:BY5" si="7">BP5*EXP(($CV$19*(1-BP5)-1)/$CV$13)</f>
         <v>0.15849276371481125</v>
       </c>
       <c r="BR5" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.17055527336627552</v>
       </c>
       <c r="BS5" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18308033431442436</v>
       </c>
       <c r="BT5" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.19601878431330463</v>
       </c>
       <c r="BU5" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.20931297573615074</v>
       </c>
       <c r="BV5" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.22289752805482305</v>
       </c>
       <c r="BW5" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23670041259262309</v>
       </c>
       <c r="BX5" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.25064434312354011</v>
       </c>
       <c r="BY5" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.26464842312485537</v>
       </c>
       <c r="BZ5" s="41">
         <f>BY5*EXP(($CV$20*(1-BY5)-1)/$CV$13)</f>
-        <v>0.2729516902209505</v>
+        <v>0.27285135094033558</v>
       </c>
       <c r="CA5" s="41">
-        <f t="shared" ref="CA5:EG5" si="6">BZ5*EXP(($CV$20*(1-BZ5)-1)/$CV$13)</f>
-        <v>0.28109970255600658</v>
+        <f t="shared" ref="CA5:EG5" si="8">BZ5*EXP(($CV$20*(1-BZ5)-1)/$CV$13)</f>
+        <v>0.28089924042993375</v>
       </c>
       <c r="CB5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.28907138736527183</v>
+        <f t="shared" si="8"/>
+        <v>0.28877170125447854</v>
       </c>
       <c r="CC5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.29684762670747189</v>
+        <f t="shared" si="8"/>
+        <v>0.29645025724328361</v>
       </c>
       <c r="CD5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.30441140371382502</v>
+        <f t="shared" si="8"/>
+        <v>0.30391848294421903</v>
       </c>
       <c r="CE5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.31174790311040373</v>
+        <f t="shared" si="8"/>
+        <v>0.31116209634708325</v>
       </c>
       <c r="CF5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.31884456647020837</v>
+        <f t="shared" si="8"/>
+        <v>0.3181690083553384</v>
       </c>
       <c r="CG5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.32569110410816404</v>
+        <f t="shared" si="8"/>
+        <v>0.324929330942272</v>
       </c>
       <c r="CH5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.33227946677758308</v>
+        <f t="shared" si="8"/>
+        <v>0.33143534708556521</v>
       </c>
       <c r="CI5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.33860378131830055</v>
+        <f t="shared" si="8"/>
+        <v>0.33768144649144011</v>
       </c>
       <c r="CJ5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.34466025512323784</v>
+        <f t="shared" si="8"/>
+        <v>0.34366403177754573</v>
       </c>
       <c r="CK5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.35044705472965465</v>
+        <f t="shared" si="8"/>
+        <v>0.34938140018200964</v>
       </c>
       <c r="CL5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.35596416401874054</v>
+        <f t="shared" si="8"/>
+        <v>0.35483360601950537</v>
       </c>
       <c r="CM5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.36121322745060036</v>
+        <f t="shared" si="8"/>
+        <v>0.36002230904066435</v>
       </c>
       <c r="CN5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.3661973835083423</v>
+        <f t="shared" si="8"/>
+        <v>0.36495061360378384</v>
       </c>
       <c r="CO5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.3709210931171032</v>
+        <f t="shared" si="8"/>
+        <v>0.36962290317710006</v>
       </c>
       <c r="CP5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.37538996728496277</v>
+        <f t="shared" si="8"/>
+        <v>0.37404467419648296</v>
       </c>
       <c r="CQ5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.37961059762451715</v>
+        <f t="shared" si="8"/>
+        <v>0.37822237274610238</v>
       </c>
       <c r="CR5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.38359039279402962</v>
+        <f t="shared" si="8"/>
+        <v>0.3821632369433729</v>
       </c>
       <c r="CS5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.38733742327755877</v>
+        <f t="shared" si="8"/>
+        <v>0.38587514732406136</v>
       </c>
       <c r="CT5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.39086027632992704</v>
+        <f t="shared" si="8"/>
+        <v>0.38936648696265269</v>
       </c>
       <c r="CU5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.39416792236394654</v>
+        <f t="shared" si="8"/>
+        <v>0.39264601254471165</v>
       </c>
       <c r="CV5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.39726959356690644</v>
+        <f t="shared" si="8"/>
+        <v>0.395722737144098</v>
       </c>
       <c r="CW5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.40017467510837207</v>
+        <f t="shared" si="8"/>
+        <v>0.39860582505544678</v>
       </c>
       <c r="CX5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.40289260894463663</v>
+        <f t="shared" si="8"/>
+        <v>0.40130449869395468</v>
       </c>
       <c r="CY5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.40543280993579578</v>
+        <f t="shared" si="8"/>
+        <v>0.40382795729942111</v>
       </c>
       <c r="CZ5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.40780459376571943</v>
+        <f t="shared" ref="CZ5" si="9">CY5*EXP(($CV$20*(1-CY5)-1)/$CV$13)</f>
+        <v>0.4061853069663211</v>
       </c>
       <c r="DA5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.41001711598761292</v>
+        <f t="shared" ref="DA5" si="10">CZ5*EXP(($CV$20*(1-CZ5)-1)/$CV$13)</f>
+        <v>0.40838550136128215</v>
       </c>
       <c r="DB5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.41207932140168974</v>
+        <f t="shared" ref="DB5" si="11">DA5*EXP(($CV$20*(1-DA5)-1)/$CV$13)</f>
+        <v>0.41043729237748405</v>
       </c>
       <c r="DC5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.41399990289947486</v>
+        <f t="shared" ref="DC5:DD5" si="12">DB5*EXP(($CV$20*(1-DB5)-1)/$CV$13)</f>
+        <v>0.41234918990544983</v>
       </c>
       <c r="DD5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.41578726887414025</v>
+        <f t="shared" si="12"/>
+        <v>0.41412942986464546</v>
       </c>
       <c r="DE5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.41744951829104837</v>
+        <f t="shared" si="8"/>
+        <v>0.4157859496337159</v>
       </c>
       <c r="DF5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.41899442253090219</v>
+        <f t="shared" si="8"/>
+        <v>0.41732637003299833</v>
       </c>
       <c r="DG5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.42042941315381077</v>
+        <f t="shared" si="8"/>
+        <v>0.41875798304575867</v>
       </c>
       <c r="DH5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.42176157478117393</v>
+        <f t="shared" si="8"/>
+        <v>0.42008774450966396</v>
       </c>
       <c r="DI5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.42299764234933768</v>
+        <f t="shared" si="8"/>
+        <v>0.42132227106332848</v>
       </c>
       <c r="DJ5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.42414400205098352</v>
+        <f t="shared" si="8"/>
+        <v>0.42246784069103849</v>
       </c>
       <c r="DK5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.42520669534438021</v>
+        <f t="shared" si="8"/>
+        <v>0.42353039626929123</v>
       </c>
       <c r="DL5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.42619142547476763</v>
+        <f t="shared" si="8"/>
+        <v>0.4245155515794849</v>
       </c>
       <c r="DM5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.42710356601459737</v>
+        <f t="shared" si="8"/>
+        <v>0.42542859931037191</v>
       </c>
       <c r="DN5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.42794817098893195</v>
+        <f t="shared" si="8"/>
+        <v>0.42627452063057836</v>
       </c>
       <c r="DO5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.42872998620818942</v>
+        <f t="shared" si="8"/>
+        <v>0.42705799596479599</v>
       </c>
       <c r="DP5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.42945346148209951</v>
+        <f t="shared" si="8"/>
+        <v>0.42778341665665798</v>
       </c>
       <c r="DQ5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.43012276343595057</v>
+        <f t="shared" si="8"/>
+        <v>0.42845489724654873</v>
       </c>
       <c r="DR5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.43074178869287461</v>
+        <f t="shared" si="8"/>
+        <v>0.42907628813356685</v>
       </c>
       <c r="DS5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.43131417722411292</v>
+        <f t="shared" si="8"/>
+        <v>0.42965118842761763</v>
       </c>
       <c r="DT5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.43184332570308831</v>
+        <f t="shared" si="8"/>
+        <v>0.43018295883028712</v>
       </c>
       <c r="DU5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.43233240072892992</v>
+        <f t="shared" si="8"/>
+        <v>0.43067473441197329</v>
       </c>
       <c r="DV5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.43278435181113201</v>
+        <f t="shared" si="8"/>
+        <v>0.43112943717796687</v>
       </c>
       <c r="DW5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.43320192402958829</v>
+        <f t="shared" si="8"/>
+        <v>0.43154978833808155</v>
       </c>
       <c r="DX5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.43358767030365419</v>
+        <f t="shared" si="8"/>
+        <v>0.43193832021332212</v>
       </c>
       <c r="DY5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.43394396322045692</v>
+        <f t="shared" si="8"/>
+        <v>0.43229738772924486</v>
       </c>
       <c r="DZ5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.4342730063867164</v>
+        <f t="shared" si="8"/>
+        <v>0.43262917945940188</v>
       </c>
       <c r="EA5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.43457684528013851</v>
+        <f t="shared" si="8"/>
+        <v>0.43293572819383808</v>
       </c>
       <c r="EB5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.43485737758627641</v>
+        <f t="shared" si="8"/>
+        <v>0.43321892101728632</v>
       </c>
       <c r="EC5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.43511636301487083</v>
+        <f t="shared" si="8"/>
+        <v>0.43348050888972295</v>
       </c>
       <c r="ED5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.43535543259630677</v>
+        <f t="shared" si="8"/>
+        <v>0.43372211572851438</v>
       </c>
       <c r="EE5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.43557609746416298</v>
+        <f t="shared" si="8"/>
+        <v>0.43394524699670645</v>
       </c>
       <c r="EF5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.43577975713407363</v>
+        <f t="shared" si="8"/>
+        <v>0.43415129780625517</v>
       </c>
       <c r="EG5" s="41">
-        <f t="shared" si="6"/>
-        <v>0.43596770729242273</v>
+        <f t="shared" si="8"/>
+        <v>0.43434156054832956</v>
       </c>
     </row>
     <row r="6" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI6">
         <f>AI5/$CV$22</f>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="AJ6">
-        <f t="shared" ref="AJ6:CU6" si="7">AJ5/$CV$22</f>
+        <f t="shared" ref="AJ6:CU6" si="13">AJ5/$CV$22</f>
         <v>6.4199023829230706E-7</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8.2429473915805938E-7</v>
       </c>
       <c r="AL6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.058354326445842E-6</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.3588531809187195E-6</v>
       </c>
       <c r="AN6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.7446360646552255E-6</v>
       </c>
       <c r="AO6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.2398834884774256E-6</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.8756164210738975E-6</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.6916214004098683E-6</v>
       </c>
       <c r="AR6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.7389109501191688E-6</v>
       </c>
       <c r="AS6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6.0828639421166471E-6</v>
       </c>
       <c r="AT6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>7.8072268791610034E-6</v>
       </c>
       <c r="AU6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.0019200698097273E-5</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.2855888787619448E-5</v>
       </c>
       <c r="AW6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.649243952948563E-5</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.1152277751391365E-5</v>
       </c>
       <c r="AY6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.7119877208512669E-5</v>
       </c>
       <c r="AZ6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.4756567395312277E-5</v>
       </c>
       <c r="BA6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.4519869014455866E-5</v>
       </c>
       <c r="BB6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.698677329202083E-5</v>
       </c>
       <c r="BC6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>7.2881156346342606E-5</v>
       </c>
       <c r="BD6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>9.3105051188262651E-5</v>
       </c>
       <c r="BE6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.1877264087495825E-4</v>
       </c>
       <c r="BF6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.5124438917811818E-4</v>
       </c>
       <c r="BG6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.9215645166494513E-4</v>
       </c>
       <c r="BH6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.4343718473787254E-4</v>
       </c>
       <c r="BI6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.8208267660350186E-4</v>
       </c>
       <c r="BJ6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.2620692139943548E-4</v>
       </c>
       <c r="BK6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.7636866246909594E-4</v>
       </c>
       <c r="BL6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.3311270285741049E-4</v>
       </c>
       <c r="BM6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.9694339056289292E-4</v>
       </c>
       <c r="BN6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.6829182376133189E-4</v>
       </c>
       <c r="BO6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6.4747739785479092E-4</v>
       </c>
       <c r="BP6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>7.3466532948883282E-4</v>
       </c>
       <c r="BQ6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>7.9246381857405628E-4</v>
       </c>
       <c r="BR6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8.5277636683137763E-4</v>
       </c>
       <c r="BS6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>9.1540167157212185E-4</v>
       </c>
       <c r="BT6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>9.800939215665232E-4</v>
       </c>
       <c r="BU6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.0465648786807536E-3</v>
       </c>
       <c r="BV6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.1144876402741151E-3</v>
       </c>
       <c r="BW6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.1835020629631155E-3</v>
       </c>
       <c r="BX6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.2532217156177006E-3</v>
       </c>
       <c r="BY6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.3232421156242769E-3</v>
       </c>
       <c r="BZ6">
-        <f t="shared" si="7"/>
-        <v>1.3647584511047525E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.364256754701678E-3</v>
       </c>
       <c r="CA6">
-        <f t="shared" si="7"/>
-        <v>1.4054985127800329E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.4044962021496688E-3</v>
       </c>
       <c r="CB6">
-        <f t="shared" si="7"/>
-        <v>1.4453569368263592E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.4438585062723926E-3</v>
       </c>
       <c r="CC6">
-        <f t="shared" si="7"/>
-        <v>1.4842381335373595E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.4822512862164182E-3</v>
       </c>
       <c r="CD6">
-        <f t="shared" si="7"/>
-        <v>1.522057018569125E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.5195924147210951E-3</v>
       </c>
       <c r="CE6">
-        <f t="shared" si="7"/>
-        <v>1.5587395155520186E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.5558104817354162E-3</v>
       </c>
       <c r="CF6">
-        <f t="shared" si="7"/>
-        <v>1.5942228323510418E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.5908450417766919E-3</v>
       </c>
       <c r="CG6">
-        <f t="shared" si="7"/>
-        <v>1.6284555205408203E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.62464665471136E-3</v>
       </c>
       <c r="CH6">
-        <f t="shared" si="7"/>
-        <v>1.6613973338879154E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.6571767354278261E-3</v>
       </c>
       <c r="CI6">
-        <f t="shared" si="7"/>
-        <v>1.6930189065915027E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.6884072324572005E-3</v>
       </c>
       <c r="CJ6">
-        <f t="shared" si="7"/>
-        <v>1.7233012756161892E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.7183201588877287E-3</v>
       </c>
       <c r="CK6">
-        <f t="shared" si="7"/>
-        <v>1.7522352736482733E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.7469070009100481E-3</v>
       </c>
       <c r="CL6">
-        <f t="shared" si="7"/>
-        <v>1.7798208200937027E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.7741680300975269E-3</v>
       </c>
       <c r="CM6">
-        <f t="shared" si="7"/>
-        <v>1.8060661372530018E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.8001115452033218E-3</v>
       </c>
       <c r="CN6">
-        <f t="shared" si="7"/>
-        <v>1.8309869175417116E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.8247530680189192E-3</v>
       </c>
       <c r="CO6">
-        <f t="shared" si="7"/>
-        <v>1.8546054655855159E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.8481145158855002E-3</v>
       </c>
       <c r="CP6">
-        <f t="shared" si="7"/>
-        <v>1.8769498364248139E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.8702233709824148E-3</v>
       </c>
       <c r="CQ6">
-        <f t="shared" si="7"/>
-        <v>1.8980529881225858E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.8911118637305118E-3</v>
       </c>
       <c r="CR6">
-        <f t="shared" si="7"/>
-        <v>1.917951963970148E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.9108161847168645E-3</v>
       </c>
       <c r="CS6">
-        <f t="shared" si="7"/>
-        <v>1.9366871163877938E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.9293757366203067E-3</v>
       </c>
       <c r="CT6">
-        <f t="shared" si="7"/>
-        <v>1.9543013816496354E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.9468324348132634E-3</v>
       </c>
       <c r="CU6">
-        <f t="shared" si="7"/>
-        <v>1.9708396118197327E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.9632300627235584E-3</v>
       </c>
       <c r="CV6">
-        <f t="shared" ref="CV6:EG6" si="8">CV5/$CV$22</f>
-        <v>1.9863479678345324E-3</v>
+        <f t="shared" ref="CV6:EG6" si="14">CV5/$CV$22</f>
+        <v>1.9786136857204901E-3</v>
       </c>
       <c r="CW6">
-        <f t="shared" si="8"/>
-        <v>2.0008733755418604E-3</v>
+        <f t="shared" si="14"/>
+        <v>1.9930291252772338E-3</v>
       </c>
       <c r="CX6">
-        <f t="shared" si="8"/>
-        <v>2.0144630447231832E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.0065224934697735E-3</v>
       </c>
       <c r="CY6">
-        <f t="shared" si="8"/>
-        <v>2.0271640496789789E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.0191397864971054E-3</v>
       </c>
       <c r="CZ6">
-        <f t="shared" si="8"/>
-        <v>2.0390229688285969E-3</v>
+        <f t="shared" ref="CZ6:DC6" si="15">CZ5/$CV$22</f>
+        <v>2.0309265348316054E-3</v>
       </c>
       <c r="DA6">
-        <f t="shared" si="8"/>
-        <v>2.0500855799380647E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.0419275068064109E-3</v>
       </c>
       <c r="DB6">
-        <f t="shared" si="8"/>
-        <v>2.0603966070084486E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.0521864618874204E-3</v>
       </c>
       <c r="DC6">
-        <f t="shared" si="8"/>
-        <v>2.0699995144973743E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.0617459495272492E-3</v>
       </c>
       <c r="DD6">
-        <f t="shared" si="8"/>
-        <v>2.0789363443707012E-3</v>
+        <f t="shared" ref="DD6" si="16">DD5/$CV$22</f>
+        <v>2.0706471493232275E-3</v>
       </c>
       <c r="DE6">
-        <f t="shared" si="8"/>
-        <v>2.087247591455242E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.0789297481685794E-3</v>
       </c>
       <c r="DF6">
-        <f t="shared" si="8"/>
-        <v>2.0949721126545108E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.0866318501649916E-3</v>
       </c>
       <c r="DG6">
-        <f t="shared" si="8"/>
-        <v>2.1021470657690538E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.0937899152287933E-3</v>
       </c>
       <c r="DH6">
-        <f t="shared" si="8"/>
-        <v>2.1088078739058698E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1004387225483198E-3</v>
       </c>
       <c r="DI6">
-        <f t="shared" si="8"/>
-        <v>2.1149882117466883E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1066113553166424E-3</v>
       </c>
       <c r="DJ6">
-        <f t="shared" si="8"/>
-        <v>2.1207200102549176E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1123392034551923E-3</v>
       </c>
       <c r="DK6">
-        <f t="shared" si="8"/>
-        <v>2.1260334767219009E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1176519813464563E-3</v>
       </c>
       <c r="DL6">
-        <f t="shared" si="8"/>
-        <v>2.1309571273738382E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1225777578974246E-3</v>
       </c>
       <c r="DM6">
-        <f t="shared" si="8"/>
-        <v>2.1355178300729869E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1271429965518595E-3</v>
       </c>
       <c r="DN6">
-        <f t="shared" si="8"/>
-        <v>2.1397408549446596E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1313726031528916E-3</v>
       </c>
       <c r="DO6">
-        <f t="shared" si="8"/>
-        <v>2.1436499310409471E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.13528997982398E-3</v>
       </c>
       <c r="DP6">
-        <f t="shared" si="8"/>
-        <v>2.1472673074104977E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1389170832832897E-3</v>
       </c>
       <c r="DQ6">
-        <f t="shared" si="8"/>
-        <v>2.1506138171797527E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1422744862327437E-3</v>
       </c>
       <c r="DR6">
-        <f t="shared" si="8"/>
-        <v>2.1537089434643729E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1453814406678343E-3</v>
       </c>
       <c r="DS6">
-        <f t="shared" si="8"/>
-        <v>2.1565708861205645E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.148255942138088E-3</v>
       </c>
       <c r="DT6">
-        <f t="shared" si="8"/>
-        <v>2.1592166285154413E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1509147941514354E-3</v>
       </c>
       <c r="DU6">
-        <f t="shared" si="8"/>
-        <v>2.1616620036446496E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1533736720598666E-3</v>
       </c>
       <c r="DV6">
-        <f t="shared" si="8"/>
-        <v>2.16392175905566E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1556471858898345E-3</v>
       </c>
       <c r="DW6">
-        <f t="shared" si="8"/>
-        <v>2.1660096201479417E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1577489416904076E-3</v>
       </c>
       <c r="DX6">
-        <f t="shared" si="8"/>
-        <v>2.167938351518271E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1596916010666106E-3</v>
       </c>
       <c r="DY6">
-        <f t="shared" si="8"/>
-        <v>2.1697198161022848E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1614869386462243E-3</v>
       </c>
       <c r="DZ6">
-        <f t="shared" si="8"/>
-        <v>2.1713650319335818E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1631458972970093E-3</v>
       </c>
       <c r="EA6">
-        <f t="shared" si="8"/>
-        <v>2.1728842264006924E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1646786409691902E-3</v>
       </c>
       <c r="EB6">
-        <f t="shared" si="8"/>
-        <v>2.1742868879313822E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1660946050864314E-3</v>
       </c>
       <c r="EC6">
-        <f t="shared" si="8"/>
-        <v>2.1755818150743541E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1674025444486148E-3</v>
       </c>
       <c r="ED6">
-        <f t="shared" si="8"/>
-        <v>2.1767771629815341E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1686105786425719E-3</v>
       </c>
       <c r="EE6">
-        <f t="shared" si="8"/>
-        <v>2.1778804873208149E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1697262349835321E-3</v>
       </c>
       <c r="EF6">
-        <f t="shared" si="8"/>
-        <v>2.178898785670368E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1707564890312758E-3</v>
       </c>
       <c r="EG6">
-        <f t="shared" si="8"/>
-        <v>2.1798385364621138E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1717078027416476E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:137" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="6"/>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="6"/>
-      <c r="BL7" s="6"/>
-      <c r="BM7" s="6"/>
-      <c r="BN7" s="6"/>
-      <c r="BO7" s="6"/>
-      <c r="BP7" s="6"/>
-      <c r="BQ7" s="6"/>
-      <c r="BR7" s="6"/>
-      <c r="BS7" s="6"/>
-      <c r="BT7" s="6"/>
-      <c r="BU7" s="6"/>
-      <c r="BV7" s="6"/>
-      <c r="BW7" s="6"/>
-      <c r="BX7" s="6"/>
-      <c r="BY7" s="6"/>
-      <c r="BZ7" s="6"/>
-      <c r="CA7" s="6"/>
-      <c r="CB7" s="6"/>
-      <c r="CC7" s="6"/>
-      <c r="CD7" s="6"/>
-      <c r="CE7" s="6"/>
-      <c r="CF7" s="6"/>
-      <c r="CG7" s="6"/>
-      <c r="CH7" s="6"/>
-      <c r="CI7" s="6"/>
-      <c r="CJ7" s="6"/>
-      <c r="CK7" s="6"/>
-      <c r="CL7" s="6"/>
-      <c r="CM7" s="6"/>
-      <c r="CN7" s="6"/>
-      <c r="CO7" s="6"/>
-      <c r="CP7" s="6"/>
-      <c r="CQ7" s="6"/>
-      <c r="CR7" s="6"/>
-      <c r="CS7" s="6"/>
-      <c r="CT7" s="6"/>
-      <c r="CU7" s="6"/>
-      <c r="CV7" s="6"/>
-      <c r="CW7" s="6"/>
-      <c r="CX7" s="6"/>
-      <c r="CY7" s="6"/>
-      <c r="CZ7" s="6"/>
-      <c r="DA7" s="6"/>
-      <c r="DB7" s="6"/>
-      <c r="DC7" s="6"/>
-      <c r="DD7" s="6"/>
-      <c r="DE7" s="6"/>
-      <c r="DF7" s="6"/>
-      <c r="DG7" s="6"/>
-      <c r="DH7" s="6"/>
-      <c r="DI7" s="6"/>
-      <c r="DJ7" s="6"/>
-      <c r="DK7" s="6"/>
-      <c r="DL7" s="6"/>
-      <c r="DM7" s="6"/>
-      <c r="DN7" s="6"/>
-      <c r="DO7" s="6"/>
-      <c r="DP7" s="6"/>
-      <c r="DQ7" s="6"/>
-      <c r="DR7" s="6"/>
-      <c r="DS7" s="6"/>
-      <c r="DT7" s="6"/>
-      <c r="DU7" s="6"/>
-      <c r="DV7" s="6"/>
-      <c r="DW7" s="6"/>
-      <c r="DX7" s="6"/>
-      <c r="DY7" s="6"/>
-      <c r="DZ7" s="6"/>
-      <c r="EA7" s="6"/>
-      <c r="EB7" s="6"/>
-      <c r="EC7" s="6"/>
-      <c r="ED7" s="6"/>
-      <c r="EE7" s="6"/>
-      <c r="EF7" s="6"/>
-      <c r="EG7" s="6"/>
+    <row r="7" spans="1:137" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI7" s="46">
+        <f>AI4*$CV$22</f>
+        <v>3.9167686658506726E-5</v>
+      </c>
+      <c r="AJ7" s="46">
+        <f t="shared" ref="AJ7:CU7" si="17">AJ4*$CV$22</f>
+        <v>4.1615667074663398E-5</v>
+      </c>
+      <c r="AK7" s="46">
+        <f t="shared" si="17"/>
+        <v>6.6095471236230115E-5</v>
+      </c>
+      <c r="AL7" s="46">
+        <f t="shared" si="17"/>
+        <v>1.1260709914320686E-4</v>
+      </c>
+      <c r="AM7" s="46">
+        <f t="shared" si="17"/>
+        <v>1.175030599755202E-4</v>
+      </c>
+      <c r="AN7" s="46">
+        <f t="shared" si="17"/>
+        <v>1.9339045287637699E-4</v>
+      </c>
+      <c r="AO7" s="46">
+        <f t="shared" si="17"/>
+        <v>3.1823745410036719E-4</v>
+      </c>
+      <c r="AP7" s="46">
+        <f t="shared" si="17"/>
+        <v>3.8922888616891064E-4</v>
+      </c>
+      <c r="AQ7" s="46">
+        <f t="shared" si="17"/>
+        <v>4.7980416156670746E-4</v>
+      </c>
+      <c r="AR7" s="46">
+        <f t="shared" si="17"/>
+        <v>6.4137086903304772E-4</v>
+      </c>
+      <c r="AS7" s="46">
+        <f t="shared" si="17"/>
+        <v>1.1799265605875152E-3</v>
+      </c>
+      <c r="AT7" s="46">
+        <f t="shared" si="17"/>
+        <v>1.6401468788249695E-3</v>
+      </c>
+      <c r="AU7" s="46">
+        <f t="shared" si="17"/>
+        <v>1.95593635250918E-3</v>
+      </c>
+      <c r="AV7" s="46">
+        <f t="shared" si="17"/>
+        <v>2.5458996328029376E-3</v>
+      </c>
+      <c r="AW7" s="46">
+        <f t="shared" si="17"/>
+        <v>2.8788249694002449E-3</v>
+      </c>
+      <c r="AX7" s="46">
+        <f t="shared" si="17"/>
+        <v>3.5667074663402695E-3</v>
+      </c>
+      <c r="AY7" s="46">
+        <f t="shared" si="17"/>
+        <v>4.8127294981640152E-3</v>
+      </c>
+      <c r="AZ7" s="46">
+        <f t="shared" si="17"/>
+        <v>6.7197062423500617E-3</v>
+      </c>
+      <c r="BA7" s="46">
+        <f t="shared" si="17"/>
+        <v>8.9963280293757653E-3</v>
+      </c>
+      <c r="BB7" s="46">
+        <f t="shared" si="17"/>
+        <v>1.1258261933904529E-2</v>
+      </c>
+      <c r="BC7" s="46">
+        <f t="shared" si="17"/>
+        <v>1.4230110159118726E-2</v>
+      </c>
+      <c r="BD7" s="46">
+        <f t="shared" si="17"/>
+        <v>1.7801713586291311E-2</v>
+      </c>
+      <c r="BE7" s="46">
+        <f t="shared" si="17"/>
+        <v>2.2930232558139536E-2</v>
+      </c>
+      <c r="BF7" s="46">
+        <f t="shared" si="17"/>
+        <v>3.0176254589963279E-2</v>
+      </c>
+      <c r="BG7" s="46">
+        <f t="shared" si="17"/>
+        <v>3.7503059975520198E-2</v>
+      </c>
+      <c r="BH7" s="46">
+        <f t="shared" si="17"/>
+        <v>4.85875152998776E-2</v>
+      </c>
+      <c r="BI7" s="46">
+        <f t="shared" si="17"/>
+        <v>5.4746634026927782E-2</v>
+      </c>
+      <c r="BJ7" s="46">
+        <f t="shared" si="17"/>
+        <v>6.0888616891064867E-2</v>
+      </c>
+      <c r="BK7" s="46">
+        <f t="shared" si="17"/>
+        <v>7.1128518971848229E-2</v>
+      </c>
+      <c r="BL7" s="46">
+        <f t="shared" si="17"/>
+        <v>8.0761321909424727E-2</v>
+      </c>
+      <c r="BM7" s="46">
+        <f t="shared" si="17"/>
+        <v>9.1365973072215431E-2</v>
+      </c>
+      <c r="BN7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.10755936352509179</v>
+      </c>
+      <c r="BO7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.124531211750306</v>
+      </c>
+      <c r="BP7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.14123623011015912</v>
+      </c>
+      <c r="BQ7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.15283965728274174</v>
+      </c>
+      <c r="BR7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.16373317013463892</v>
+      </c>
+      <c r="BS7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.17578457772337822</v>
+      </c>
+      <c r="BT7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.19036964504283965</v>
+      </c>
+      <c r="BU7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.20757405140758872</v>
+      </c>
+      <c r="BV7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.22315544675642596</v>
+      </c>
+      <c r="BW7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.23523133414932682</v>
+      </c>
+      <c r="BX7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.24509914320685433</v>
+      </c>
+      <c r="BY7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.25305752753977967</v>
+      </c>
+      <c r="BZ7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.26355691554467564</v>
+      </c>
+      <c r="CA7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.27734638922888616</v>
+      </c>
+      <c r="CB7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.28943696450428397</v>
+      </c>
+      <c r="CC7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.29907221542227663</v>
+      </c>
+      <c r="CD7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.30710403916768664</v>
+      </c>
+      <c r="CE7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.31298408812729495</v>
+      </c>
+      <c r="CF7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.31841370869033048</v>
+      </c>
+      <c r="CG7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.32364749082007344</v>
+      </c>
+      <c r="CH7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.32987270501835986</v>
+      </c>
+      <c r="CI7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.33708200734394128</v>
+      </c>
+      <c r="CJ7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.3461370869033048</v>
+      </c>
+      <c r="CK7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.35122399020807832</v>
+      </c>
+      <c r="CL7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.35677356181150549</v>
+      </c>
+      <c r="CM7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.36001223990208081</v>
+      </c>
+      <c r="CN7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.36341003671970629</v>
+      </c>
+      <c r="CO7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.36878335373317017</v>
+      </c>
+      <c r="CP7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.37485679314565479</v>
+      </c>
+      <c r="CQ7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.37943451652386778</v>
+      </c>
+      <c r="CR7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.38314075887392901</v>
+      </c>
+      <c r="CS7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.38621787025703797</v>
+      </c>
+      <c r="CT7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.38863647490820069</v>
+      </c>
+      <c r="CU7" s="46">
+        <f t="shared" si="17"/>
+        <v>0.39146144430844559</v>
+      </c>
+      <c r="CV7" s="46">
+        <f t="shared" ref="CV7:EG7" si="18">CV4*$CV$22</f>
+        <v>0.39544430844553241</v>
+      </c>
+      <c r="CW7" s="46">
+        <f t="shared" si="18"/>
+        <v>0.39904283965728271</v>
+      </c>
+      <c r="CX7" s="46">
+        <f t="shared" si="18"/>
+        <v>0.40165728274173806</v>
+      </c>
+      <c r="CY7" s="46">
+        <f t="shared" si="18"/>
+        <v>0.40383598531211751</v>
+      </c>
+      <c r="CZ7" s="46">
+        <f t="shared" ref="CZ7:DC7" si="19">CZ4*$CV$22</f>
+        <v>0.40554222766217868</v>
+      </c>
+      <c r="DA7" s="46">
+        <f t="shared" si="19"/>
+        <v>0.40554222766217868</v>
+      </c>
+      <c r="DB7" s="46">
+        <f t="shared" si="19"/>
+        <v>0.40882986536107713</v>
+      </c>
+      <c r="DC7" s="46">
+        <f t="shared" si="19"/>
+        <v>0.41165728274173807</v>
+      </c>
+      <c r="DD7" s="46">
+        <f t="shared" ref="DD7" si="20">DD4*$CV$22</f>
+        <v>0.41476132190942477</v>
+      </c>
+      <c r="DE7" s="46"/>
+      <c r="DF7" s="46"/>
+      <c r="DG7" s="46"/>
+      <c r="DH7" s="46"/>
+      <c r="DI7" s="46"/>
+      <c r="DJ7" s="46"/>
+      <c r="DK7" s="46"/>
+      <c r="DL7" s="46"/>
+      <c r="DM7" s="46"/>
+      <c r="DN7" s="46"/>
+      <c r="DO7" s="46"/>
+      <c r="DP7" s="46"/>
+      <c r="DQ7" s="46"/>
+      <c r="DR7" s="46"/>
+      <c r="DS7" s="46"/>
+      <c r="DT7" s="46"/>
+      <c r="DU7" s="46"/>
+      <c r="DV7" s="46"/>
+      <c r="DW7" s="46"/>
+      <c r="DX7" s="46"/>
+      <c r="DY7" s="46"/>
+      <c r="DZ7" s="46"/>
+      <c r="EA7" s="46"/>
+      <c r="EB7" s="46"/>
+      <c r="EC7" s="46"/>
+      <c r="ED7" s="46"/>
+      <c r="EE7" s="46"/>
+      <c r="EF7" s="46"/>
+      <c r="EG7" s="46"/>
     </row>
     <row r="8" spans="1:137" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:137" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -9912,7 +12481,7 @@
     <row r="11" spans="1:137" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CT11" s="10"/>
       <c r="CU11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CV11" s="11">
         <v>1E-4</v>
@@ -9952,7 +12521,7 @@
     <row r="15" spans="1:137" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CT15" s="8"/>
       <c r="CU15" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CV15" s="35"/>
       <c r="CW15" s="36"/>
@@ -9961,13 +12530,13 @@
     <row r="16" spans="1:137" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CT16" s="9"/>
       <c r="CU16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="CV16" s="17" t="s">
-        <v>9</v>
-      </c>
       <c r="CW16" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CX16" s="8"/>
     </row>
@@ -10022,11 +12591,11 @@
         <v>43928</v>
       </c>
       <c r="CV20" s="24">
-        <v>1.78</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="CW20" s="25">
         <f>CV20/CV17</f>
-        <v>0.50857142857142856</v>
+        <v>0.50714285714285712</v>
       </c>
       <c r="CX20" s="28"/>
       <c r="DB20"/>

--- a/Data/Real.Model.Simple v.1.3.xlsx
+++ b/Data/Real.Model.Simple v.1.3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DelMe\Covid\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{315B2825-1111-4922-AD78-F949C228B2E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134A9A91-3798-410F-94F5-891380659C27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C6EFD3A4-A7B5-475D-8F42-E10B52230622}"/>
   </bookViews>
@@ -87,7 +87,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0000000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -301,7 +301,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -325,11 +324,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,10 +405,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Base!$B$1:$EG$1</c:f>
+              <c:f>Base!$B$1:$FD$1</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="136"/>
+                <c:ptCount val="159"/>
                 <c:pt idx="0">
                   <c:v>43852</c:v>
                 </c:pt>
@@ -816,16 +816,85 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Base!$B$4:$EG$4</c:f>
+              <c:f>Base!$B$4:$FD$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="136"/>
+                <c:ptCount val="159"/>
                 <c:pt idx="33" formatCode="0.000000">
                   <c:v>1.9583843329253365E-7</c:v>
                 </c:pt>
@@ -1047,6 +1116,24 @@
                 </c:pt>
                 <c:pt idx="106" formatCode="0.000000">
                   <c:v>2.0738066095471238E-3</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="0.000000">
+                  <c:v>2.0879804161566709E-3</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="0.000000">
+                  <c:v>2.0969889840881271E-3</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="0.000000">
+                  <c:v>2.1037821297429623E-3</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="0.000000">
+                  <c:v>2.1123133414932679E-3</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="0.000000">
+                  <c:v>2.1195960832313342E-3</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="0.000000">
+                  <c:v>2.1309424724602205E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1087,10 +1174,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Base!$B$1:$EG$1</c:f>
+              <c:f>Base!$B$1:$FD$1</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="136"/>
+                <c:ptCount val="159"/>
                 <c:pt idx="0">
                   <c:v>43852</c:v>
                 </c:pt>
@@ -1498,324 +1585,462 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Base!$B$6:$EG$6</c:f>
+              <c:f>Base!$B$6:$FD$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="136"/>
+                <c:ptCount val="159"/>
                 <c:pt idx="33">
-                  <c:v>4.9999999999999998E-7</c:v>
+                  <c:v>5.0175614651279476E-7</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.4199023829230706E-7</c:v>
+                  <c:v>6.442450961287576E-7</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.2429473915805938E-7</c:v>
+                  <c:v>8.2718990382143434E-7</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.058354326445842E-6</c:v>
+                  <c:v>1.0620715769652201E-6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3588531809187195E-6</c:v>
+                  <c:v>1.3636258714688604E-6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.7446360646552255E-6</c:v>
+                  <c:v>1.7507637377373061E-6</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.2398834884774256E-6</c:v>
+                  <c:v>2.2477506156321377E-6</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.8756164210738975E-6</c:v>
+                  <c:v>2.885716428573906E-6</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.6916214004098683E-6</c:v>
+                  <c:v>3.7045874565076445E-6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.7389109501191688E-6</c:v>
+                  <c:v>4.7555553939981624E-6</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.0828639421166471E-6</c:v>
+                  <c:v>6.104228742716153E-6</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.8072268791610034E-6</c:v>
+                  <c:v>7.834648147677876E-6</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0019200698097273E-5</c:v>
+                  <c:v>1.0054391066831183E-5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2855888787619448E-5</c:v>
+                  <c:v>1.2901042436145957E-5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.649243952948563E-5</c:v>
+                  <c:v>1.6550365809819999E-5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.1152277751391365E-5</c:v>
+                  <c:v>2.1226570749012908E-5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.7119877208512669E-5</c:v>
+                  <c:v>2.7215130164086974E-5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.4756567395312277E-5</c:v>
+                  <c:v>3.4878642644568264E-5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.4519869014455866E-5</c:v>
+                  <c:v>4.4676235839895495E-5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.698677329202083E-5</c:v>
+                  <c:v>5.7186927538405244E-5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.2881156346342606E-5</c:v>
+                  <c:v>7.3137136323474767E-5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.3105051188262651E-5</c:v>
+                  <c:v>9.3432063410198339E-5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.1877264087495825E-4</c:v>
+                  <c:v>1.1918980519313421E-4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.5124438917811818E-4</c:v>
+                  <c:v>1.5177560379138802E-4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.9215645166494513E-4</c:v>
+                  <c:v>1.9283136142994993E-4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.4343718473787254E-4</c:v>
+                  <c:v>2.4429220746399651E-4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.8208267660350186E-4</c:v>
+                  <c:v>2.8307343362117597E-4</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.2620692139943548E-4</c:v>
+                  <c:v>3.2735265569436577E-4</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.7636866246909594E-4</c:v>
+                  <c:v>3.7769057949733659E-4</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.3311270285741049E-4</c:v>
+                  <c:v>4.3463392158295076E-4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.9694339056289292E-4</c:v>
+                  <c:v>4.9868880136767985E-4</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.6829182376133189E-4</c:v>
+                  <c:v>5.7028783117042843E-4</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.4747739785479092E-4</c:v>
+                  <c:v>6.4975152820350324E-4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.3466532948883282E-4</c:v>
+                  <c:v>7.372456894017388E-4</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.9246381857405628E-4</c:v>
+                  <c:v>7.9524718371706588E-4</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8.5277636683137763E-4</c:v>
+                  <c:v>8.5577156731698697E-4</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.1540167157212185E-4</c:v>
+                  <c:v>9.1861683047879752E-4</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9.800939215665232E-4</c:v>
+                  <c:v>9.8353629861166396E-4</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.0465648786807536E-3</c:v>
+                  <c:v>1.050240721204971E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.1144876402741151E-3</c:v>
+                  <c:v>1.1184020474401556E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.1835020629631155E-3</c:v>
+                  <c:v>1.1876588690046316E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.2532217156177006E-3</c:v>
+                  <c:v>1.2576233975089819E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.3232421156242769E-3</c:v>
+                  <c:v>1.3278897296781502E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.364256754701678E-3</c:v>
+                  <c:v>1.368042062329024E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.4044962021496688E-3</c:v>
+                  <c:v>1.4074192425131691E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.4438585062723926E-3</c:v>
+                  <c:v>1.4459256290584636E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.4822512862164182E-3</c:v>
+                  <c:v>1.4834747790594867E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.5195924147210951E-3</c:v>
+                  <c:v>1.5199900415750337E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.5558104817354162E-3</c:v>
+                  <c:v>1.5554049497023632E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.5908450417766919E-3</c:v>
+                  <c:v>1.589663414931242E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.62464665471136E-3</c:v>
+                  <c:v>1.6227197336204007E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.6571767354278261E-3</c:v>
+                  <c:v>1.6545384204427083E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.6884072324572005E-3</c:v>
+                  <c:v>1.6850938875643084E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.7183201588877287E-3</c:v>
+                  <c:v>1.714369991090171E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.7469070009100481E-3</c:v>
+                  <c:v>1.7423594679331269E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.7741680300975269E-3</c:v>
+                  <c:v>1.7690632868187894E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.8001115452033218E-3</c:v>
+                  <c:v>1.7944899367477911E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.8247530680189192E-3</c:v>
+                  <c:v>1.8186546750556948E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.8481145158855002E-3</c:v>
+                  <c:v>1.8415787554134022E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.8702233709824148E-3</c:v>
+                  <c:v>1.8632886538737636E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.8911118637305118E-3</c:v>
+                  <c:v>1.8838153085617441E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.9108161847168645E-3</c:v>
+                  <c:v>1.9031933859772216E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.9293757366203067E-3</c:v>
+                  <c:v>1.9214605842597678E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.9468324348132634E-3</c:v>
+                  <c:v>1.9386569812566026E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.9632300627235584E-3</c:v>
+                  <c:v>1.9548244329152483E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9786136857204901E-3</c:v>
+                  <c:v>1.9700060254436392E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.9930291252772338E-3</c:v>
+                  <c:v>1.9842455828729105E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.0065224934697735E-3</c:v>
+                  <c:v>1.9975872301336334E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.0191397864971054E-3</c:v>
+                  <c:v>2.0100750105118068E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.0309265348316054E-3</c:v>
+                  <c:v>2.0217525553721852E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.0419275068064109E-3</c:v>
+                  <c:v>2.032662803301459E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.0521864618874204E-3</c:v>
+                  <c:v>2.047105642608087E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.0617459495272492E-3</c:v>
+                  <c:v>2.0605831927844819E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.0706471493232275E-3</c:v>
+                  <c:v>2.0731468795690999E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.0789297481685794E-3</c:v>
+                  <c:v>2.084847296360767E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.0866318501649916E-3</c:v>
+                  <c:v>2.0957338983468355E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.0937899152287933E-3</c:v>
+                  <c:v>2.1058547540254769E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.1004387225483198E-3</c:v>
+                  <c:v>2.115256348648569E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.1066113553166424E-3</c:v>
+                  <c:v>2.1239834340480482E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.1123392034551923E-3</c:v>
+                  <c:v>2.1320789194025636E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.1176519813464563E-3</c:v>
+                  <c:v>2.1395837977140303E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.1225777578974246E-3</c:v>
+                  <c:v>2.1465371030615203E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.1271429965518595E-3</c:v>
+                  <c:v>2.1529758940543788E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.1313726031528916E-3</c:v>
+                  <c:v>2.158935259294145E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.13528997982398E-3</c:v>
+                  <c:v>2.1644483410569533E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.1389170832832897E-3</c:v>
+                  <c:v>2.169546373810196E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.1422744862327437E-3</c:v>
+                  <c:v>2.1742587345682644E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.1453814406678343E-3</c:v>
+                  <c:v>2.1786130024645076E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.148255942138088E-3</c:v>
+                  <c:v>2.1826350252647374E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.1509147941514354E-3</c:v>
+                  <c:v>2.1863489908685667E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2.1533736720598666E-3</c:v>
+                  <c:v>2.1897775021369214E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2.1556471858898345E-3</c:v>
+                  <c:v>2.1929416536469156E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2.1577489416904076E-3</c:v>
+                  <c:v>2.1958611092094643E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2.1596916010666106E-3</c:v>
+                  <c:v>2.1985541791917423E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2.1614869386462243E-3</c:v>
+                  <c:v>2.2010378968675701E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2.1631458972970093E-3</c:v>
+                  <c:v>2.2033280931759262E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2.1646786409691902E-3</c:v>
+                  <c:v>2.2054394694031327E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.1660946050864314E-3</c:v>
+                  <c:v>2.2073856674199254E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.1674025444486148E-3</c:v>
+                  <c:v>2.2091793372027309E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.1686105786425719E-3</c:v>
+                  <c:v>2.2108322014509564E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2.1697262349835321E-3</c:v>
+                  <c:v>2.2123551171808944E-3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.1707564890312758E-3</c:v>
+                  <c:v>2.2137581342336421E-3</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2.1717078027416476E-3</c:v>
+                  <c:v>2.2150505506808669E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.2162409651497097E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.2173373261179354E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.2183469782537297E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.2192767058923147E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.2201327737547218E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.220920965023355E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.2216466168950718E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.2223146537360167E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.2229296179637832E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.22349569878214E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.2240167588918453E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.2244963592983023E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.2249377823332578E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.2253440530035414E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.2257179587752795E-3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.2260620678971111E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.2263787463609064E-3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.2266701735933424E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.2269383569665903E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.2271851452113009E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.2274122408101095E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.2276212114450931E-3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.2278135005679468E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2841,6 +3066,75 @@
                 <c:pt idx="99">
                   <c:v>43987</c:v>
                 </c:pt>
+                <c:pt idx="100">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44010</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3197,6 +3491,75 @@
                 <c:pt idx="99">
                   <c:v>43987</c:v>
                 </c:pt>
+                <c:pt idx="100">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44010</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3553,6 +3916,75 @@
                 <c:pt idx="99">
                   <c:v>43987</c:v>
                 </c:pt>
+                <c:pt idx="100">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44010</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3909,6 +4341,75 @@
                 <c:pt idx="99">
                   <c:v>43987</c:v>
                 </c:pt>
+                <c:pt idx="100">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44010</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4265,6 +4766,75 @@
                 <c:pt idx="99">
                   <c:v>43987</c:v>
                 </c:pt>
+                <c:pt idx="100">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44010</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4620,6 +5190,75 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4978,6 +5617,75 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6053,10 +6761,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Base!$B$1:$EG$1</c:f>
+              <c:f>Base!$B$1:$FD$1</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="136"/>
+                <c:ptCount val="159"/>
                 <c:pt idx="0">
                   <c:v>43852</c:v>
                 </c:pt>
@@ -6464,16 +7172,85 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Base!$B$5:$EG$5</c:f>
+              <c:f>Base!$B$5:$FD$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="136"/>
+                <c:ptCount val="159"/>
                 <c:pt idx="33">
                   <c:v>1E-4</c:v>
                 </c:pt>
@@ -6604,184 +7381,253 @@
                   <c:v>0.26464842312485537</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.27285135094033558</c:v>
+                  <c:v>0.27265078302217449</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.28089924042993375</c:v>
+                  <c:v>0.28049865503287463</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.28877170125447854</c:v>
+                  <c:v>0.28817297787135182</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.29645025724328361</c:v>
+                  <c:v>0.29565652346655569</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.30391848294421903</c:v>
+                  <c:v>0.30293401528590425</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.31116209634708325</c:v>
+                  <c:v>0.30999220647568099</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.3181690083553384</c:v>
+                  <c:v>0.31681991859579656</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.324929330942272</c:v>
+                  <c:v>0.32340804291054587</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.33143534708556521</c:v>
+                  <c:v>0.32974950719423179</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.33768144649144011</c:v>
+                  <c:v>0.33583921179156667</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.34366403177754573</c:v>
+                  <c:v>0.34167393922427108</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.34938140018200964</c:v>
+                  <c:v>0.34725224195907223</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.35483360601950537</c:v>
+                  <c:v>0.35257431306298476</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.36002230904066435</c:v>
+                  <c:v>0.35764184439383478</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.36495061360378384</c:v>
+                  <c:v>0.36245787673859997</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.36962290317710006</c:v>
+                  <c:v>0.36702664595389106</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.37404467419648296</c:v>
+                  <c:v>0.37135342871704108</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.37822237274610238</c:v>
+                  <c:v>0.37544439099635563</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.3821632369433729</c:v>
+                  <c:v>0.3793064418252603</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.38587514732406136</c:v>
+                  <c:v>0.38294709444297176</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.38936648696265269</c:v>
+                  <c:v>0.38637433636444091</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.39264601254471165</c:v>
+                  <c:v>0.38959650948000901</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.395722737144098</c:v>
+                  <c:v>0.39262220087091732</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.39860582505544678</c:v>
+                  <c:v>0.39546014466657109</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.40130449869395468</c:v>
+                  <c:v>0.39811913496563311</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.40382795729942111</c:v>
+                  <c:v>0.40060794959500312</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.4061853069663211</c:v>
+                  <c:v>0.40293528428567654</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.40838550136128215</c:v>
+                  <c:v>0.4051096966979808</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.41043729237748405</c:v>
+                  <c:v>0.40798815457179177</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.41234918990544983</c:v>
+                  <c:v>0.41067423032194728</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.41412942986464546</c:v>
+                  <c:v>0.4131781730981216</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.4157859496337159</c:v>
+                  <c:v>0.41551006616470088</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.41732637003299833</c:v>
+                  <c:v>0.41767976594052436</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.41875798304575867</c:v>
+                  <c:v>0.41969685247727756</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.42008774450966396</c:v>
+                  <c:v>0.4215705902856598</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.42132227106332848</c:v>
+                  <c:v>0.42330989840577604</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.42246784069103849</c:v>
+                  <c:v>0.42492332863693094</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.42353039626929123</c:v>
+                  <c:v>0.42641905088440629</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.4245155515794849</c:v>
+                  <c:v>0.427804844640161</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.42542859931037191</c:v>
+                  <c:v>0.42908809568503775</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.42627452063057836</c:v>
+                  <c:v>0.43027579717732312</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.42705799596479599</c:v>
+                  <c:v>0.43137455437265082</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.42778341665665798</c:v>
+                  <c:v>0.43239059230037208</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.42845489724654873</c:v>
+                  <c:v>0.43332976579945515</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.42907628813356685</c:v>
+                  <c:v>0.43419757139117637</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.42965118842761763</c:v>
+                  <c:v>0.43499916053526216</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.43018295883028712</c:v>
+                  <c:v>0.43573935388010537</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.43067473441197329</c:v>
+                  <c:v>0.43642265617588843</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.43112943717796687</c:v>
+                  <c:v>0.43705327157183027</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.43154978833808155</c:v>
+                  <c:v>0.43763511906544628</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.43193832021332212</c:v>
+                  <c:v>0.4381718479129143</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.43229738772924486</c:v>
+                  <c:v>0.43866685284570672</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.43262917945940188</c:v>
+                  <c:v>0.43912328896996211</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.43293572819383808</c:v>
+                  <c:v>0.43954408625204433</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.43321892101728632</c:v>
+                  <c:v>0.43993196351679115</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.43348050888972295</c:v>
+                  <c:v>0.44028944190450431</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.43372211572851438</c:v>
+                  <c:v>0.44061885774917564</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.43394524699670645</c:v>
+                  <c:v>0.44092237485415225</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.43415129780625517</c:v>
+                  <c:v>0.4412019961527649</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.43434156054832956</c:v>
+                  <c:v>0.4414595747506968</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.44169682435433716</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.44191532909530457</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.4421165527659684</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.44230184748433832</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.4424724618093161</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.44262954832915469</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.44277417074718783</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.44290731048958815</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.44302987286018203</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.44314269276728058</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.44324654004714475</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.44334212440815168</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.44343010001901834</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.44351106976360583</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.44358558918391322</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.44365417013189429</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.44371728414972872</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.44377536559715314</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.44382881454344147</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.44387799944061229</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.44392325959345486</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.44396490744100708</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.44400323066319181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6829,10 +7675,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Base!$B$1:$EG$1</c:f>
+              <c:f>Base!$B$1:$FD$1</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="136"/>
+                <c:ptCount val="159"/>
                 <c:pt idx="0">
                   <c:v>43852</c:v>
                 </c:pt>
@@ -7240,237 +8086,324 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Base!$B$7:$EG$7</c:f>
+              <c:f>Base!$B$7:$FD$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="136"/>
+                <c:ptCount val="159"/>
                 <c:pt idx="33">
-                  <c:v>3.9167686658506726E-5</c:v>
+                  <c:v>3.9030599755201961E-5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.1615667074663398E-5</c:v>
+                  <c:v>4.1470012239902079E-5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.6095471236230115E-5</c:v>
+                  <c:v>6.5864137086903317E-5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1260709914320686E-4</c:v>
+                  <c:v>1.1221297429620563E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.175030599755202E-4</c:v>
+                  <c:v>1.1709179926560588E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.9339045287637699E-4</c:v>
+                  <c:v>1.9271358629130967E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.1823745410036719E-4</c:v>
+                  <c:v>3.1712362301101592E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.8922888616891064E-4</c:v>
+                  <c:v>3.8786658506731946E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.7980416156670746E-4</c:v>
+                  <c:v>4.7812484700122401E-4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.4137086903304772E-4</c:v>
+                  <c:v>6.3912607099143209E-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.1799265605875152E-3</c:v>
+                  <c:v>1.1757968176254591E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.6401468788249695E-3</c:v>
+                  <c:v>1.6344063647490822E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.95593635250918E-3</c:v>
+                  <c:v>1.949090575275398E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.5458996328029376E-3</c:v>
+                  <c:v>2.5369889840881274E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.8788249694002449E-3</c:v>
+                  <c:v>2.8687490820073444E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.5667074663402695E-3</c:v>
+                  <c:v>3.5542239902080787E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.8127294981640152E-3</c:v>
+                  <c:v>4.7958849449204408E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.7197062423500617E-3</c:v>
+                  <c:v>6.6961872705018364E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.9963280293757653E-3</c:v>
+                  <c:v>8.9648408812729504E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.1258261933904529E-2</c:v>
+                  <c:v>1.1218858017135864E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.4230110159118726E-2</c:v>
+                  <c:v>1.4180304773561811E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.7801713586291311E-2</c:v>
+                  <c:v>1.7739407588739292E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.2930232558139536E-2</c:v>
+                  <c:v>2.2849976744186051E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.0176254589963279E-2</c:v>
+                  <c:v>3.0070637698898412E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.7503059975520198E-2</c:v>
+                  <c:v>3.7371799265605882E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.85875152998776E-2</c:v>
+                  <c:v>4.8417458996328031E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.4746634026927782E-2</c:v>
+                  <c:v>5.4555020807833539E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.0888616891064867E-2</c:v>
+                  <c:v>6.0675506731946147E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.1128518971848229E-2</c:v>
+                  <c:v>7.0879569155446756E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.0761321909424727E-2</c:v>
+                  <c:v>8.0478657282741742E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.1365973072215431E-2</c:v>
+                  <c:v>9.1046192166462675E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.10755936352509179</c:v>
+                  <c:v>0.10718290575275398</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.124531211750306</c:v>
+                  <c:v>0.12409535250917993</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.14123623011015912</c:v>
+                  <c:v>0.14074190330477357</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.15283965728274174</c:v>
+                  <c:v>0.15230471848225216</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.16373317013463892</c:v>
+                  <c:v>0.1631601040391677</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.17578457772337822</c:v>
+                  <c:v>0.17516933170134641</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.19036964504283965</c:v>
+                  <c:v>0.18970335128518973</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.20757405140758872</c:v>
+                  <c:v>0.20684754222766219</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.22315544675642596</c:v>
+                  <c:v>0.22237440269277847</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.23523133414932682</c:v>
+                  <c:v>0.23440802447980419</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.24509914320685433</c:v>
+                  <c:v>0.24424129620563034</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.25305752753977967</c:v>
+                  <c:v>0.25217182619339046</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.26355691554467564</c:v>
+                  <c:v>0.26263446634026932</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.27734638922888616</c:v>
+                  <c:v>0.2763756768665851</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.28943696450428397</c:v>
+                  <c:v>0.28842393512851899</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.29907221542227663</c:v>
+                  <c:v>0.29802546266829871</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.30710403916768664</c:v>
+                  <c:v>0.30602917503059973</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.31298408812729495</c:v>
+                  <c:v>0.31188864381884945</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.31841370869033048</c:v>
+                  <c:v>0.31729926070991438</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.32364749082007344</c:v>
+                  <c:v>0.32251472460220321</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.32987270501835986</c:v>
+                  <c:v>0.32871815055079562</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.33708200734394128</c:v>
+                  <c:v>0.33590222031823747</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.3461370869033048</c:v>
+                  <c:v>0.34492560709914322</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.35122399020807832</c:v>
+                  <c:v>0.34999470624235007</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.35677356181150549</c:v>
+                  <c:v>0.35552485434516523</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.36001223990208081</c:v>
+                  <c:v>0.35875219706242356</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.36341003671970629</c:v>
+                  <c:v>0.36213810159118731</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.36878335373317017</c:v>
+                  <c:v>0.36749261199510408</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.37485679314565479</c:v>
+                  <c:v>0.37354479436964505</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.37943451652386778</c:v>
+                  <c:v>0.37810649571603427</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.38314075887392901</c:v>
+                  <c:v>0.38179976621787026</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.38621787025703797</c:v>
+                  <c:v>0.38486610771113833</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.38863647490820069</c:v>
+                  <c:v>0.38727624724602205</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.39146144430844559</c:v>
+                  <c:v>0.39009132925336604</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.39544430844553241</c:v>
+                  <c:v>0.39406025336597306</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.39904283965728271</c:v>
+                  <c:v>0.39764618971848226</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.40165728274173806</c:v>
+                  <c:v>0.40025148225214202</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.40383598531211751</c:v>
+                  <c:v>0.40242255936352517</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.40554222766217868</c:v>
+                  <c:v>0.40412282986536108</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.40554222766217868</c:v>
+                  <c:v>0.40412282986536108</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.40882986536107713</c:v>
+                  <c:v>0.40739896083231336</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.41165728274173807</c:v>
+                  <c:v>0.41021648225214202</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.41476132190942477</c:v>
+                  <c:v>0.41330965728274177</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.41613449694002452</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.41792990452876377</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.41928377845777243</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.42098404895960834</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.42243549938800495</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.42469683476132197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9445,15 +10378,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>8660</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>5195</xdr:rowOff>
+      <xdr:colOff>30641</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>86</xdr:col>
-      <xdr:colOff>199164</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>8659</xdr:rowOff>
+      <xdr:colOff>221145</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>15986</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9778,13 +10711,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B7E176-5706-4C21-988E-A9D87E8D9EA2}">
-  <dimension ref="A1:EG73"/>
+  <dimension ref="A1:FD73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CI21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CV20" sqref="CV20"/>
+      <selection pane="bottomRight" activeCell="CH13" sqref="CH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9797,7 +10730,7 @@
     <col min="101" max="101" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:137" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10035,7 +10968,7 @@
       <c r="CA1" s="1">
         <v>43929</v>
       </c>
-      <c r="CB1" s="39">
+      <c r="CB1" s="38">
         <v>43930</v>
       </c>
       <c r="CC1" s="1">
@@ -10209,8 +11142,77 @@
       <c r="EG1" s="1">
         <v>43987</v>
       </c>
+      <c r="EH1" s="1">
+        <v>43988</v>
+      </c>
+      <c r="EI1" s="1">
+        <v>43989</v>
+      </c>
+      <c r="EJ1" s="1">
+        <v>43990</v>
+      </c>
+      <c r="EK1" s="1">
+        <v>43991</v>
+      </c>
+      <c r="EL1" s="1">
+        <v>43992</v>
+      </c>
+      <c r="EM1" s="1">
+        <v>43993</v>
+      </c>
+      <c r="EN1" s="1">
+        <v>43994</v>
+      </c>
+      <c r="EO1" s="1">
+        <v>43995</v>
+      </c>
+      <c r="EP1" s="1">
+        <v>43996</v>
+      </c>
+      <c r="EQ1" s="1">
+        <v>43997</v>
+      </c>
+      <c r="ER1" s="1">
+        <v>43998</v>
+      </c>
+      <c r="ES1" s="1">
+        <v>43999</v>
+      </c>
+      <c r="ET1" s="1">
+        <v>44000</v>
+      </c>
+      <c r="EU1" s="1">
+        <v>44001</v>
+      </c>
+      <c r="EV1" s="1">
+        <v>44002</v>
+      </c>
+      <c r="EW1" s="1">
+        <v>44003</v>
+      </c>
+      <c r="EX1" s="1">
+        <v>44004</v>
+      </c>
+      <c r="EY1" s="1">
+        <v>44005</v>
+      </c>
+      <c r="EZ1" s="1">
+        <v>44006</v>
+      </c>
+      <c r="FA1" s="1">
+        <v>44007</v>
+      </c>
+      <c r="FB1" s="1">
+        <v>44008</v>
+      </c>
+      <c r="FC1" s="1">
+        <v>44009</v>
+      </c>
+      <c r="FD1" s="1">
+        <v>44010</v>
+      </c>
     </row>
-    <row r="2" spans="1:137" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10671,334 +11673,421 @@
       <c r="EG2">
         <v>135</v>
       </c>
+      <c r="EH2">
+        <v>136</v>
+      </c>
+      <c r="EI2">
+        <v>137</v>
+      </c>
+      <c r="EJ2">
+        <v>138</v>
+      </c>
+      <c r="EK2">
+        <v>139</v>
+      </c>
+      <c r="EL2">
+        <v>140</v>
+      </c>
+      <c r="EM2">
+        <v>141</v>
+      </c>
+      <c r="EN2">
+        <v>142</v>
+      </c>
+      <c r="EO2">
+        <v>143</v>
+      </c>
+      <c r="EP2">
+        <v>144</v>
+      </c>
+      <c r="EQ2">
+        <v>145</v>
+      </c>
+      <c r="ER2">
+        <v>146</v>
+      </c>
+      <c r="ES2">
+        <v>147</v>
+      </c>
+      <c r="ET2">
+        <v>148</v>
+      </c>
+      <c r="EU2">
+        <v>149</v>
+      </c>
+      <c r="EV2">
+        <v>150</v>
+      </c>
+      <c r="EW2">
+        <v>151</v>
+      </c>
+      <c r="EX2">
+        <v>152</v>
+      </c>
+      <c r="EY2">
+        <v>153</v>
+      </c>
+      <c r="EZ2">
+        <v>154</v>
+      </c>
+      <c r="FA2">
+        <v>155</v>
+      </c>
+      <c r="FB2">
+        <v>156</v>
+      </c>
+      <c r="FC2">
+        <v>157</v>
+      </c>
+      <c r="FD2">
+        <v>158</v>
+      </c>
     </row>
-    <row r="3" spans="1:137" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:160" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>0</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>0</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="25">
         <v>0</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="25">
         <v>0</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <v>0</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="25">
         <v>1</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="25">
         <v>4</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="25">
         <v>4</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="25">
         <v>4</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="25">
         <v>5</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="25">
         <v>8</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="25">
         <v>10</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="25">
         <v>12</v>
       </c>
-      <c r="O3" s="26">
+      <c r="O3" s="25">
         <v>12</v>
       </c>
-      <c r="P3" s="26">
+      <c r="P3" s="25">
         <v>12</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="25">
         <v>12</v>
       </c>
-      <c r="R3" s="26">
+      <c r="R3" s="25">
         <v>13</v>
       </c>
-      <c r="S3" s="26">
+      <c r="S3" s="25">
         <v>13</v>
       </c>
-      <c r="T3" s="26">
+      <c r="T3" s="25">
         <v>14</v>
       </c>
-      <c r="U3" s="26">
+      <c r="U3" s="25">
         <v>14</v>
       </c>
-      <c r="V3" s="26">
+      <c r="V3" s="25">
         <v>16</v>
       </c>
-      <c r="W3" s="26">
+      <c r="W3" s="25">
         <v>16</v>
       </c>
-      <c r="X3" s="26">
+      <c r="X3" s="25">
         <v>16</v>
       </c>
-      <c r="Y3" s="26">
+      <c r="Y3" s="25">
         <v>16</v>
       </c>
-      <c r="Z3" s="26">
+      <c r="Z3" s="25">
         <v>16</v>
       </c>
-      <c r="AA3" s="26">
+      <c r="AA3" s="25">
         <v>16</v>
       </c>
-      <c r="AB3" s="26">
+      <c r="AB3" s="25">
         <v>16</v>
       </c>
-      <c r="AC3" s="26">
+      <c r="AC3" s="25">
         <v>16</v>
       </c>
-      <c r="AD3" s="26">
+      <c r="AD3" s="25">
         <v>16</v>
       </c>
-      <c r="AE3" s="26">
+      <c r="AE3" s="25">
         <v>16</v>
       </c>
-      <c r="AF3" s="26">
+      <c r="AF3" s="25">
         <v>16</v>
       </c>
-      <c r="AG3" s="26">
+      <c r="AG3" s="25">
         <v>16</v>
       </c>
-      <c r="AH3" s="26">
+      <c r="AH3" s="25">
         <v>16</v>
       </c>
-      <c r="AI3" s="26">
+      <c r="AI3" s="25">
         <v>16</v>
       </c>
-      <c r="AJ3" s="26">
+      <c r="AJ3" s="25">
         <v>17</v>
       </c>
-      <c r="AK3" s="26">
+      <c r="AK3" s="25">
         <v>27</v>
       </c>
-      <c r="AL3" s="26">
+      <c r="AL3" s="25">
         <v>46</v>
       </c>
-      <c r="AM3" s="26">
+      <c r="AM3" s="25">
         <v>48</v>
       </c>
-      <c r="AN3" s="26">
+      <c r="AN3" s="25">
         <v>79</v>
       </c>
-      <c r="AO3" s="26">
+      <c r="AO3" s="25">
         <v>130</v>
       </c>
-      <c r="AP3" s="26">
+      <c r="AP3" s="25">
         <v>159</v>
       </c>
-      <c r="AQ3" s="26">
+      <c r="AQ3" s="25">
         <v>196</v>
       </c>
-      <c r="AR3" s="26">
+      <c r="AR3" s="25">
         <v>262</v>
       </c>
-      <c r="AS3" s="26">
+      <c r="AS3" s="25">
         <v>482</v>
       </c>
-      <c r="AT3" s="26">
+      <c r="AT3" s="25">
         <v>670</v>
       </c>
-      <c r="AU3" s="26">
+      <c r="AU3" s="25">
         <v>799</v>
       </c>
-      <c r="AV3" s="26">
+      <c r="AV3" s="25">
         <v>1040</v>
       </c>
-      <c r="AW3" s="26">
+      <c r="AW3" s="25">
         <v>1176</v>
       </c>
-      <c r="AX3" s="26">
+      <c r="AX3" s="25">
         <v>1457</v>
       </c>
-      <c r="AY3" s="26">
+      <c r="AY3" s="25">
         <v>1966</v>
       </c>
-      <c r="AZ3" s="26">
+      <c r="AZ3" s="25">
         <v>2745</v>
       </c>
-      <c r="BA3" s="26">
+      <c r="BA3" s="25">
         <v>3675</v>
       </c>
-      <c r="BB3" s="26">
+      <c r="BB3" s="25">
         <v>4599</v>
       </c>
-      <c r="BC3" s="26">
+      <c r="BC3" s="25">
         <v>5813</v>
       </c>
-      <c r="BD3" s="27">
+      <c r="BD3" s="26">
         <v>7272</v>
       </c>
-      <c r="BE3" s="26">
+      <c r="BE3" s="25">
         <v>9367</v>
       </c>
-      <c r="BF3" s="26">
+      <c r="BF3" s="25">
         <v>12327</v>
       </c>
-      <c r="BG3" s="26">
+      <c r="BG3" s="25">
         <v>15320</v>
       </c>
-      <c r="BH3" s="26">
+      <c r="BH3" s="25">
         <v>19848</v>
       </c>
-      <c r="BI3" s="26">
+      <c r="BI3" s="25">
         <v>22364</v>
       </c>
-      <c r="BJ3" s="26">
+      <c r="BJ3" s="25">
         <v>24873</v>
       </c>
-      <c r="BK3" s="26">
+      <c r="BK3" s="25">
         <v>29056</v>
       </c>
-      <c r="BL3" s="26">
+      <c r="BL3" s="25">
         <v>32991</v>
       </c>
-      <c r="BM3" s="26">
+      <c r="BM3" s="25">
         <v>37323</v>
       </c>
-      <c r="BN3" s="26">
+      <c r="BN3" s="25">
         <v>43938</v>
       </c>
-      <c r="BO3" s="27">
+      <c r="BO3" s="26">
         <v>50871</v>
       </c>
-      <c r="BP3" s="27">
+      <c r="BP3" s="26">
         <v>57695</v>
       </c>
-      <c r="BQ3" s="27">
+      <c r="BQ3" s="26">
         <v>62435</v>
       </c>
-      <c r="BR3" s="27">
+      <c r="BR3" s="26">
         <v>66885</v>
       </c>
-      <c r="BS3" s="27">
+      <c r="BS3" s="26">
         <v>71808</v>
       </c>
-      <c r="BT3" s="27">
+      <c r="BT3" s="26">
         <v>77766</v>
       </c>
-      <c r="BU3" s="27">
+      <c r="BU3" s="26">
         <v>84794</v>
       </c>
-      <c r="BV3" s="27">
+      <c r="BV3" s="26">
         <v>91159</v>
       </c>
-      <c r="BW3" s="27">
+      <c r="BW3" s="26">
         <v>96092</v>
       </c>
-      <c r="BX3" s="27">
+      <c r="BX3" s="26">
         <v>100123</v>
       </c>
-      <c r="BY3" s="27">
+      <c r="BY3" s="26">
         <v>103374</v>
       </c>
-      <c r="BZ3" s="27">
+      <c r="BZ3" s="26">
         <v>107663</v>
       </c>
-      <c r="CA3" s="27">
+      <c r="CA3" s="26">
         <v>113296</v>
       </c>
-      <c r="CB3" s="27">
+      <c r="CB3" s="26">
         <v>118235</v>
       </c>
-      <c r="CC3" s="27">
+      <c r="CC3" s="26">
         <v>122171</v>
       </c>
-      <c r="CD3" s="27">
+      <c r="CD3" s="26">
         <v>125452</v>
       </c>
-      <c r="CE3" s="27">
+      <c r="CE3" s="26">
         <v>127854</v>
       </c>
-      <c r="CF3" s="27">
+      <c r="CF3" s="26">
         <v>130072</v>
       </c>
-      <c r="CG3" s="26">
+      <c r="CG3" s="25">
         <v>132210</v>
       </c>
-      <c r="CH3" s="27">
+      <c r="CH3" s="26">
         <v>134753</v>
       </c>
-      <c r="CI3" s="27">
+      <c r="CI3" s="26">
         <v>137698</v>
       </c>
-      <c r="CJ3" s="27">
+      <c r="CJ3" s="26">
         <v>141397</v>
       </c>
-      <c r="CK3" s="27">
+      <c r="CK3" s="26">
         <v>143475</v>
       </c>
-      <c r="CL3" s="27">
+      <c r="CL3" s="26">
         <v>145742</v>
       </c>
-      <c r="CM3" s="27">
+      <c r="CM3" s="26">
         <v>147065</v>
       </c>
-      <c r="CN3" s="27">
+      <c r="CN3" s="26">
         <v>148453</v>
       </c>
-      <c r="CO3" s="27">
+      <c r="CO3" s="26">
         <v>150648</v>
       </c>
-      <c r="CP3" s="27">
+      <c r="CP3" s="26">
         <v>153129</v>
       </c>
-      <c r="CQ3" s="27">
+      <c r="CQ3" s="26">
         <v>154999</v>
       </c>
-      <c r="CR3" s="27">
+      <c r="CR3" s="26">
         <v>156513</v>
       </c>
-      <c r="CS3" s="27">
+      <c r="CS3" s="26">
         <v>157770</v>
       </c>
-      <c r="CT3" s="27">
+      <c r="CT3" s="26">
         <v>158758</v>
       </c>
-      <c r="CU3" s="27">
+      <c r="CU3" s="26">
         <v>159912</v>
       </c>
-      <c r="CV3" s="27">
+      <c r="CV3" s="26">
         <v>161539</v>
       </c>
-      <c r="CW3" s="27">
+      <c r="CW3" s="26">
         <v>163009</v>
       </c>
-      <c r="CX3" s="27">
+      <c r="CX3" s="26">
         <v>164077</v>
       </c>
-      <c r="CY3" s="26">
+      <c r="CY3" s="25">
         <v>164967</v>
       </c>
-      <c r="CZ3" s="26">
+      <c r="CZ3" s="25">
         <v>165664</v>
       </c>
-      <c r="DA3" s="26">
+      <c r="DA3" s="25">
         <v>165664</v>
       </c>
-      <c r="DB3" s="26">
+      <c r="DB3" s="25">
         <v>167007</v>
       </c>
-      <c r="DC3" s="26">
+      <c r="DC3" s="25">
         <v>168162</v>
       </c>
-      <c r="DD3" s="26">
+      <c r="DD3" s="25">
         <v>169430</v>
       </c>
+      <c r="DE3" s="25">
+        <v>170588</v>
+      </c>
+      <c r="DF3" s="25">
+        <v>171324</v>
+      </c>
+      <c r="DG3" s="25">
+        <v>171879</v>
+      </c>
+      <c r="DH3" s="25">
+        <v>172576</v>
+      </c>
+      <c r="DI3" s="25">
+        <v>173171</v>
+      </c>
+      <c r="DJ3" s="25">
+        <v>174098</v>
+      </c>
     </row>
-    <row r="4" spans="1:137" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:160" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -11295,1190 +12384,1437 @@
         <v>2.0582864137086905E-3</v>
       </c>
       <c r="DD4" s="10">
-        <f t="shared" ref="DD4" si="4">DD3/$CV$12</f>
+        <f t="shared" ref="DD4:DE4" si="4">DD3/$CV$12</f>
         <v>2.0738066095471238E-3</v>
       </c>
+      <c r="DE4" s="10">
+        <f t="shared" si="4"/>
+        <v>2.0879804161566709E-3</v>
+      </c>
+      <c r="DF4" s="10">
+        <f t="shared" ref="DF4:DH4" si="5">DF3/$CV$12</f>
+        <v>2.0969889840881271E-3</v>
+      </c>
+      <c r="DG4" s="10">
+        <f t="shared" si="5"/>
+        <v>2.1037821297429623E-3</v>
+      </c>
+      <c r="DH4" s="10">
+        <f t="shared" si="5"/>
+        <v>2.1123133414932679E-3</v>
+      </c>
+      <c r="DI4" s="10">
+        <f t="shared" ref="DI4:DJ4" si="6">DI3/$CV$12</f>
+        <v>2.1195960832313342E-3</v>
+      </c>
+      <c r="DJ4" s="10">
+        <f t="shared" si="6"/>
+        <v>2.1309424724602205E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:137" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:160" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AI5" s="38">
+      <c r="AI5" s="37">
         <f>CV11</f>
         <v>1E-4</v>
       </c>
-      <c r="AJ5" s="43">
-        <f t="shared" ref="AJ5:BH5" si="5">AI5*EXP(($CV$17*(1-AI5)-1)/$CV$13)</f>
+      <c r="AJ5" s="42">
+        <f t="shared" ref="AJ5:BH5" si="7">AI5*EXP(($CV$17*(1-AI5)-1)/$CV$13)</f>
         <v>1.2839804765846141E-4</v>
       </c>
-      <c r="AK5" s="43">
-        <f t="shared" si="5"/>
+      <c r="AK5" s="42">
+        <f t="shared" si="7"/>
         <v>1.6485894783161188E-4</v>
       </c>
-      <c r="AL5" s="43">
-        <f t="shared" si="5"/>
+      <c r="AL5" s="42">
+        <f t="shared" si="7"/>
         <v>2.1167086528916837E-4</v>
       </c>
-      <c r="AM5" s="43">
-        <f t="shared" si="5"/>
+      <c r="AM5" s="42">
+        <f t="shared" si="7"/>
         <v>2.7177063618374388E-4</v>
       </c>
-      <c r="AN5" s="43">
-        <f t="shared" si="5"/>
+      <c r="AN5" s="42">
+        <f t="shared" si="7"/>
         <v>3.489272129310451E-4</v>
       </c>
-      <c r="AO5" s="43">
-        <f t="shared" si="5"/>
+      <c r="AO5" s="42">
+        <f t="shared" si="7"/>
         <v>4.4797669769548509E-4</v>
       </c>
-      <c r="AP5" s="43">
-        <f t="shared" si="5"/>
+      <c r="AP5" s="42">
+        <f t="shared" si="7"/>
         <v>5.7512328421477951E-4</v>
       </c>
-      <c r="AQ5" s="43">
-        <f t="shared" si="5"/>
+      <c r="AQ5" s="42">
+        <f t="shared" si="7"/>
         <v>7.3832428008197362E-4</v>
       </c>
-      <c r="AR5" s="43">
-        <f t="shared" si="5"/>
+      <c r="AR5" s="42">
+        <f t="shared" si="7"/>
         <v>9.4778219002383379E-4</v>
       </c>
-      <c r="AS5" s="43">
-        <f t="shared" si="5"/>
+      <c r="AS5" s="42">
+        <f t="shared" si="7"/>
         <v>1.2165727884233294E-3</v>
       </c>
-      <c r="AT5" s="43">
-        <f t="shared" si="5"/>
+      <c r="AT5" s="42">
+        <f t="shared" si="7"/>
         <v>1.5614453758322007E-3</v>
       </c>
-      <c r="AU5" s="43">
-        <f t="shared" si="5"/>
+      <c r="AU5" s="42">
+        <f t="shared" si="7"/>
         <v>2.0038401396194547E-3</v>
       </c>
-      <c r="AV5" s="43">
-        <f t="shared" si="5"/>
+      <c r="AV5" s="42">
+        <f t="shared" si="7"/>
         <v>2.5711777575238895E-3</v>
       </c>
-      <c r="AW5" s="43">
-        <f t="shared" si="5"/>
+      <c r="AW5" s="42">
+        <f t="shared" si="7"/>
         <v>3.2984879058971261E-3</v>
       </c>
-      <c r="AX5" s="43">
-        <f t="shared" si="5"/>
+      <c r="AX5" s="42">
+        <f t="shared" si="7"/>
         <v>4.2304555502782728E-3</v>
       </c>
-      <c r="AY5" s="43">
-        <f t="shared" si="5"/>
+      <c r="AY5" s="42">
+        <f t="shared" si="7"/>
         <v>5.4239754417025341E-3</v>
       </c>
-      <c r="AZ5" s="43">
-        <f t="shared" si="5"/>
+      <c r="AZ5" s="42">
+        <f t="shared" si="7"/>
         <v>6.9513134790624553E-3</v>
       </c>
-      <c r="BA5" s="43">
-        <f t="shared" si="5"/>
+      <c r="BA5" s="42">
+        <f t="shared" si="7"/>
         <v>8.9039738028911727E-3</v>
       </c>
-      <c r="BB5" s="43">
-        <f t="shared" si="5"/>
+      <c r="BB5" s="42">
+        <f t="shared" si="7"/>
         <v>1.1397354658404166E-2</v>
       </c>
-      <c r="BC5" s="43">
-        <f t="shared" si="5"/>
+      <c r="BC5" s="42">
+        <f t="shared" si="7"/>
         <v>1.4576231269268521E-2</v>
       </c>
-      <c r="BD5" s="43">
-        <f t="shared" si="5"/>
+      <c r="BD5" s="42">
+        <f t="shared" si="7"/>
         <v>1.862101023765253E-2</v>
       </c>
-      <c r="BE5" s="43">
-        <f t="shared" si="5"/>
+      <c r="BE5" s="42">
+        <f t="shared" si="7"/>
         <v>2.375452817499165E-2</v>
       </c>
-      <c r="BF5" s="43">
-        <f t="shared" si="5"/>
+      <c r="BF5" s="42">
+        <f t="shared" si="7"/>
         <v>3.0248877835623633E-2</v>
       </c>
-      <c r="BG5" s="43">
-        <f t="shared" si="5"/>
+      <c r="BG5" s="42">
+        <f t="shared" si="7"/>
         <v>3.8431290332989025E-2</v>
       </c>
-      <c r="BH5" s="41">
-        <f t="shared" si="5"/>
+      <c r="BH5" s="40">
+        <f t="shared" si="7"/>
         <v>4.8687436947574506E-2</v>
       </c>
-      <c r="BI5" s="42">
-        <f t="shared" ref="BI5:BP5" si="6">BH5*EXP(($CV$18*(1-BH5)-1)/$CV$13)</f>
+      <c r="BI5" s="41">
+        <f t="shared" ref="BI5:BP5" si="8">BH5*EXP(($CV$18*(1-BH5)-1)/$CV$13)</f>
         <v>5.6416535320700373E-2</v>
       </c>
-      <c r="BJ5" s="42">
-        <f t="shared" si="6"/>
+      <c r="BJ5" s="41">
+        <f t="shared" si="8"/>
         <v>6.5241384279887099E-2</v>
       </c>
-      <c r="BK5" s="42">
-        <f t="shared" si="6"/>
+      <c r="BK5" s="41">
+        <f t="shared" si="8"/>
         <v>7.527373249381919E-2</v>
       </c>
-      <c r="BL5" s="42">
-        <f t="shared" si="6"/>
+      <c r="BL5" s="41">
+        <f t="shared" si="8"/>
         <v>8.6622540571482096E-2</v>
       </c>
-      <c r="BM5" s="42">
-        <f t="shared" si="6"/>
+      <c r="BM5" s="41">
+        <f t="shared" si="8"/>
         <v>9.9388678112578593E-2</v>
       </c>
-      <c r="BN5" s="42">
-        <f t="shared" si="6"/>
+      <c r="BN5" s="41">
+        <f t="shared" si="8"/>
         <v>0.11365836475226639</v>
       </c>
-      <c r="BO5" s="42">
-        <f t="shared" si="6"/>
+      <c r="BO5" s="41">
+        <f t="shared" si="8"/>
         <v>0.12949547957095819</v>
       </c>
-      <c r="BP5" s="42">
-        <f t="shared" si="6"/>
+      <c r="BP5" s="41">
+        <f t="shared" si="8"/>
         <v>0.14693306589776656</v>
       </c>
-      <c r="BQ5" s="40">
-        <f t="shared" ref="BQ5:BY5" si="7">BP5*EXP(($CV$19*(1-BP5)-1)/$CV$13)</f>
+      <c r="BQ5" s="39">
+        <f t="shared" ref="BQ5:BY5" si="9">BP5*EXP(($CV$19*(1-BP5)-1)/$CV$13)</f>
         <v>0.15849276371481125</v>
       </c>
-      <c r="BR5" s="40">
-        <f t="shared" si="7"/>
+      <c r="BR5" s="39">
+        <f t="shared" si="9"/>
         <v>0.17055527336627552</v>
       </c>
-      <c r="BS5" s="40">
-        <f t="shared" si="7"/>
+      <c r="BS5" s="39">
+        <f t="shared" si="9"/>
         <v>0.18308033431442436</v>
       </c>
-      <c r="BT5" s="40">
-        <f t="shared" si="7"/>
+      <c r="BT5" s="39">
+        <f t="shared" si="9"/>
         <v>0.19601878431330463</v>
       </c>
-      <c r="BU5" s="40">
-        <f t="shared" si="7"/>
+      <c r="BU5" s="39">
+        <f t="shared" si="9"/>
         <v>0.20931297573615074</v>
       </c>
-      <c r="BV5" s="40">
-        <f t="shared" si="7"/>
+      <c r="BV5" s="39">
+        <f t="shared" si="9"/>
         <v>0.22289752805482305</v>
       </c>
-      <c r="BW5" s="40">
-        <f t="shared" si="7"/>
+      <c r="BW5" s="39">
+        <f t="shared" si="9"/>
         <v>0.23670041259262309</v>
       </c>
-      <c r="BX5" s="40">
-        <f t="shared" si="7"/>
+      <c r="BX5" s="39">
+        <f t="shared" si="9"/>
         <v>0.25064434312354011</v>
       </c>
-      <c r="BY5" s="40">
-        <f t="shared" si="7"/>
+      <c r="BY5" s="39">
+        <f t="shared" si="9"/>
         <v>0.26464842312485537</v>
       </c>
-      <c r="BZ5" s="41">
+      <c r="BZ5" s="40">
         <f>BY5*EXP(($CV$20*(1-BY5)-1)/$CV$13)</f>
-        <v>0.27285135094033558</v>
-      </c>
-      <c r="CA5" s="41">
-        <f t="shared" ref="CA5:EG5" si="8">BZ5*EXP(($CV$20*(1-BZ5)-1)/$CV$13)</f>
-        <v>0.28089924042993375</v>
-      </c>
-      <c r="CB5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.28877170125447854</v>
-      </c>
-      <c r="CC5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.29645025724328361</v>
-      </c>
-      <c r="CD5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.30391848294421903</v>
-      </c>
-      <c r="CE5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.31116209634708325</v>
-      </c>
-      <c r="CF5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.3181690083553384</v>
-      </c>
-      <c r="CG5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.324929330942272</v>
-      </c>
-      <c r="CH5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.33143534708556521</v>
-      </c>
-      <c r="CI5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.33768144649144011</v>
-      </c>
-      <c r="CJ5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.34366403177754573</v>
-      </c>
-      <c r="CK5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.34938140018200964</v>
-      </c>
-      <c r="CL5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.35483360601950537</v>
-      </c>
-      <c r="CM5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.36002230904066435</v>
-      </c>
-      <c r="CN5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.36495061360378384</v>
-      </c>
-      <c r="CO5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.36962290317710006</v>
-      </c>
-      <c r="CP5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.37404467419648296</v>
-      </c>
-      <c r="CQ5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.37822237274610238</v>
-      </c>
-      <c r="CR5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.3821632369433729</v>
-      </c>
-      <c r="CS5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.38587514732406136</v>
-      </c>
-      <c r="CT5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.38936648696265269</v>
-      </c>
-      <c r="CU5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.39264601254471165</v>
-      </c>
-      <c r="CV5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.395722737144098</v>
-      </c>
-      <c r="CW5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.39860582505544678</v>
-      </c>
-      <c r="CX5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.40130449869395468</v>
-      </c>
-      <c r="CY5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.40382795729942111</v>
-      </c>
-      <c r="CZ5" s="41">
-        <f t="shared" ref="CZ5" si="9">CY5*EXP(($CV$20*(1-CY5)-1)/$CV$13)</f>
-        <v>0.4061853069663211</v>
-      </c>
-      <c r="DA5" s="41">
-        <f t="shared" ref="DA5" si="10">CZ5*EXP(($CV$20*(1-CZ5)-1)/$CV$13)</f>
-        <v>0.40838550136128215</v>
-      </c>
-      <c r="DB5" s="41">
-        <f t="shared" ref="DB5" si="11">DA5*EXP(($CV$20*(1-DA5)-1)/$CV$13)</f>
-        <v>0.41043729237748405</v>
-      </c>
-      <c r="DC5" s="41">
-        <f t="shared" ref="DC5:DD5" si="12">DB5*EXP(($CV$20*(1-DB5)-1)/$CV$13)</f>
-        <v>0.41234918990544983</v>
-      </c>
-      <c r="DD5" s="41">
-        <f t="shared" si="12"/>
-        <v>0.41412942986464546</v>
-      </c>
-      <c r="DE5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.4157859496337159</v>
-      </c>
-      <c r="DF5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.41732637003299833</v>
-      </c>
-      <c r="DG5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.41875798304575867</v>
-      </c>
-      <c r="DH5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.42008774450966396</v>
-      </c>
-      <c r="DI5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.42132227106332848</v>
-      </c>
-      <c r="DJ5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.42246784069103849</v>
-      </c>
-      <c r="DK5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.42353039626929123</v>
-      </c>
-      <c r="DL5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.4245155515794849</v>
-      </c>
-      <c r="DM5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.42542859931037191</v>
-      </c>
-      <c r="DN5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.42627452063057836</v>
-      </c>
-      <c r="DO5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.42705799596479599</v>
-      </c>
-      <c r="DP5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.42778341665665798</v>
-      </c>
-      <c r="DQ5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.42845489724654873</v>
-      </c>
-      <c r="DR5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.42907628813356685</v>
-      </c>
-      <c r="DS5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.42965118842761763</v>
-      </c>
-      <c r="DT5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.43018295883028712</v>
-      </c>
-      <c r="DU5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.43067473441197329</v>
-      </c>
-      <c r="DV5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.43112943717796687</v>
-      </c>
-      <c r="DW5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.43154978833808155</v>
-      </c>
-      <c r="DX5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.43193832021332212</v>
-      </c>
-      <c r="DY5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.43229738772924486</v>
-      </c>
-      <c r="DZ5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.43262917945940188</v>
-      </c>
-      <c r="EA5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.43293572819383808</v>
-      </c>
-      <c r="EB5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.43321892101728632</v>
-      </c>
-      <c r="EC5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.43348050888972295</v>
-      </c>
-      <c r="ED5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.43372211572851438</v>
-      </c>
-      <c r="EE5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.43394524699670645</v>
-      </c>
-      <c r="EF5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.43415129780625517</v>
-      </c>
-      <c r="EG5" s="41">
-        <f t="shared" si="8"/>
-        <v>0.43434156054832956</v>
+        <v>0.27265078302217449</v>
+      </c>
+      <c r="CA5" s="40">
+        <f t="shared" ref="CA5:EG5" si="10">BZ5*EXP(($CV$20*(1-BZ5)-1)/$CV$13)</f>
+        <v>0.28049865503287463</v>
+      </c>
+      <c r="CB5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.28817297787135182</v>
+      </c>
+      <c r="CC5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.29565652346655569</v>
+      </c>
+      <c r="CD5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.30293401528590425</v>
+      </c>
+      <c r="CE5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.30999220647568099</v>
+      </c>
+      <c r="CF5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.31681991859579656</v>
+      </c>
+      <c r="CG5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.32340804291054587</v>
+      </c>
+      <c r="CH5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.32974950719423179</v>
+      </c>
+      <c r="CI5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.33583921179156667</v>
+      </c>
+      <c r="CJ5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.34167393922427108</v>
+      </c>
+      <c r="CK5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.34725224195907223</v>
+      </c>
+      <c r="CL5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.35257431306298476</v>
+      </c>
+      <c r="CM5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.35764184439383478</v>
+      </c>
+      <c r="CN5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.36245787673859997</v>
+      </c>
+      <c r="CO5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.36702664595389106</v>
+      </c>
+      <c r="CP5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.37135342871704108</v>
+      </c>
+      <c r="CQ5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.37544439099635563</v>
+      </c>
+      <c r="CR5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.3793064418252603</v>
+      </c>
+      <c r="CS5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.38294709444297176</v>
+      </c>
+      <c r="CT5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.38637433636444091</v>
+      </c>
+      <c r="CU5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.38959650948000901</v>
+      </c>
+      <c r="CV5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.39262220087091732</v>
+      </c>
+      <c r="CW5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.39546014466657109</v>
+      </c>
+      <c r="CX5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.39811913496563311</v>
+      </c>
+      <c r="CY5" s="40">
+        <f t="shared" si="10"/>
+        <v>0.40060794959500312</v>
+      </c>
+      <c r="CZ5" s="40">
+        <f t="shared" ref="CZ5" si="11">CY5*EXP(($CV$20*(1-CY5)-1)/$CV$13)</f>
+        <v>0.40293528428567654</v>
+      </c>
+      <c r="DA5" s="40">
+        <f t="shared" ref="DA5" si="12">CZ5*EXP(($CV$20*(1-CZ5)-1)/$CV$13)</f>
+        <v>0.4051096966979808</v>
+      </c>
+      <c r="DB5" s="39">
+        <f>DA5*EXP(($CV$21*(1-DA5)-1)/$CV$13)</f>
+        <v>0.40798815457179177</v>
+      </c>
+      <c r="DC5" s="39">
+        <f t="shared" ref="DC5:EG5" si="13">DB5*EXP(($CV$21*(1-DB5)-1)/$CV$13)</f>
+        <v>0.41067423032194728</v>
+      </c>
+      <c r="DD5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.4131781730981216</v>
+      </c>
+      <c r="DE5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.41551006616470088</v>
+      </c>
+      <c r="DF5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.41767976594052436</v>
+      </c>
+      <c r="DG5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.41969685247727756</v>
+      </c>
+      <c r="DH5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.4215705902856598</v>
+      </c>
+      <c r="DI5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.42330989840577604</v>
+      </c>
+      <c r="DJ5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.42492332863693094</v>
+      </c>
+      <c r="DK5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.42641905088440629</v>
+      </c>
+      <c r="DL5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.427804844640161</v>
+      </c>
+      <c r="DM5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.42908809568503775</v>
+      </c>
+      <c r="DN5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.43027579717732312</v>
+      </c>
+      <c r="DO5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.43137455437265082</v>
+      </c>
+      <c r="DP5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.43239059230037208</v>
+      </c>
+      <c r="DQ5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.43332976579945515</v>
+      </c>
+      <c r="DR5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.43419757139117637</v>
+      </c>
+      <c r="DS5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.43499916053526216</v>
+      </c>
+      <c r="DT5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.43573935388010537</v>
+      </c>
+      <c r="DU5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.43642265617588843</v>
+      </c>
+      <c r="DV5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.43705327157183027</v>
+      </c>
+      <c r="DW5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.43763511906544628</v>
+      </c>
+      <c r="DX5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.4381718479129143</v>
+      </c>
+      <c r="DY5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.43866685284570672</v>
+      </c>
+      <c r="DZ5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.43912328896996211</v>
+      </c>
+      <c r="EA5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.43954408625204433</v>
+      </c>
+      <c r="EB5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.43993196351679115</v>
+      </c>
+      <c r="EC5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.44028944190450431</v>
+      </c>
+      <c r="ED5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.44061885774917564</v>
+      </c>
+      <c r="EE5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.44092237485415225</v>
+      </c>
+      <c r="EF5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.4412019961527649</v>
+      </c>
+      <c r="EG5" s="39">
+        <f t="shared" si="13"/>
+        <v>0.4414595747506968</v>
+      </c>
+      <c r="EH5" s="39">
+        <f t="shared" ref="EH5:FB5" si="14">EG5*EXP(($CV$21*(1-EG5)-1)/$CV$13)</f>
+        <v>0.44169682435433716</v>
+      </c>
+      <c r="EI5" s="39">
+        <f t="shared" si="14"/>
+        <v>0.44191532909530457</v>
+      </c>
+      <c r="EJ5" s="39">
+        <f t="shared" si="14"/>
+        <v>0.4421165527659684</v>
+      </c>
+      <c r="EK5" s="39">
+        <f t="shared" si="14"/>
+        <v>0.44230184748433832</v>
+      </c>
+      <c r="EL5" s="39">
+        <f t="shared" si="14"/>
+        <v>0.4424724618093161</v>
+      </c>
+      <c r="EM5" s="39">
+        <f t="shared" si="14"/>
+        <v>0.44262954832915469</v>
+      </c>
+      <c r="EN5" s="39">
+        <f t="shared" si="14"/>
+        <v>0.44277417074718783</v>
+      </c>
+      <c r="EO5" s="39">
+        <f t="shared" si="14"/>
+        <v>0.44290731048958815</v>
+      </c>
+      <c r="EP5" s="39">
+        <f t="shared" si="14"/>
+        <v>0.44302987286018203</v>
+      </c>
+      <c r="EQ5" s="39">
+        <f t="shared" si="14"/>
+        <v>0.44314269276728058</v>
+      </c>
+      <c r="ER5" s="39">
+        <f t="shared" si="14"/>
+        <v>0.44324654004714475</v>
+      </c>
+      <c r="ES5" s="39">
+        <f t="shared" si="14"/>
+        <v>0.44334212440815168</v>
+      </c>
+      <c r="ET5" s="39">
+        <f t="shared" si="14"/>
+        <v>0.44343010001901834</v>
+      </c>
+      <c r="EU5" s="39">
+        <f t="shared" si="14"/>
+        <v>0.44351106976360583</v>
+      </c>
+      <c r="EV5" s="39">
+        <f t="shared" si="14"/>
+        <v>0.44358558918391322</v>
+      </c>
+      <c r="EW5" s="39">
+        <f t="shared" si="14"/>
+        <v>0.44365417013189429</v>
+      </c>
+      <c r="EX5" s="39">
+        <f t="shared" si="14"/>
+        <v>0.44371728414972872</v>
+      </c>
+      <c r="EY5" s="39">
+        <f t="shared" si="14"/>
+        <v>0.44377536559715314</v>
+      </c>
+      <c r="EZ5" s="39">
+        <f t="shared" si="14"/>
+        <v>0.44382881454344147</v>
+      </c>
+      <c r="FA5" s="39">
+        <f t="shared" si="14"/>
+        <v>0.44387799944061229</v>
+      </c>
+      <c r="FB5" s="39">
+        <f t="shared" si="14"/>
+        <v>0.44392325959345486</v>
+      </c>
+      <c r="FC5" s="39">
+        <f t="shared" ref="FC5:FD5" si="15">FB5*EXP(($CV$21*(1-FB5)-1)/$CV$13)</f>
+        <v>0.44396490744100708</v>
+      </c>
+      <c r="FD5" s="39">
+        <f t="shared" si="15"/>
+        <v>0.44400323066319181</v>
       </c>
     </row>
-    <row r="6" spans="1:137" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="AI6">
-        <f>AI5/$CV$22</f>
-        <v>4.9999999999999998E-7</v>
+        <f>AI5/$CV$23</f>
+        <v>5.0175614651279476E-7</v>
       </c>
       <c r="AJ6">
-        <f t="shared" ref="AJ6:CU6" si="13">AJ5/$CV$22</f>
-        <v>6.4199023829230706E-7</v>
+        <f>AJ5/$CV$23</f>
+        <v>6.442450961287576E-7</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="13"/>
-        <v>8.2429473915805938E-7</v>
+        <f>AK5/$CV$23</f>
+        <v>8.2718990382143434E-7</v>
       </c>
       <c r="AL6">
-        <f t="shared" si="13"/>
-        <v>1.058354326445842E-6</v>
+        <f>AL5/$CV$23</f>
+        <v>1.0620715769652201E-6</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="13"/>
-        <v>1.3588531809187195E-6</v>
+        <f>AM5/$CV$23</f>
+        <v>1.3636258714688604E-6</v>
       </c>
       <c r="AN6">
-        <f t="shared" si="13"/>
-        <v>1.7446360646552255E-6</v>
+        <f>AN5/$CV$23</f>
+        <v>1.7507637377373061E-6</v>
       </c>
       <c r="AO6">
-        <f t="shared" si="13"/>
-        <v>2.2398834884774256E-6</v>
+        <f>AO5/$CV$23</f>
+        <v>2.2477506156321377E-6</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="13"/>
-        <v>2.8756164210738975E-6</v>
+        <f>AP5/$CV$23</f>
+        <v>2.885716428573906E-6</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="13"/>
-        <v>3.6916214004098683E-6</v>
+        <f>AQ5/$CV$23</f>
+        <v>3.7045874565076445E-6</v>
       </c>
       <c r="AR6">
-        <f t="shared" si="13"/>
-        <v>4.7389109501191688E-6</v>
+        <f>AR5/$CV$23</f>
+        <v>4.7555553939981624E-6</v>
       </c>
       <c r="AS6">
-        <f t="shared" si="13"/>
-        <v>6.0828639421166471E-6</v>
+        <f>AS5/$CV$23</f>
+        <v>6.104228742716153E-6</v>
       </c>
       <c r="AT6">
-        <f t="shared" si="13"/>
-        <v>7.8072268791610034E-6</v>
+        <f>AT5/$CV$23</f>
+        <v>7.834648147677876E-6</v>
       </c>
       <c r="AU6">
-        <f t="shared" si="13"/>
-        <v>1.0019200698097273E-5</v>
+        <f>AU5/$CV$23</f>
+        <v>1.0054391066831183E-5</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="13"/>
-        <v>1.2855888787619448E-5</v>
+        <f>AV5/$CV$23</f>
+        <v>1.2901042436145957E-5</v>
       </c>
       <c r="AW6">
-        <f t="shared" si="13"/>
-        <v>1.649243952948563E-5</v>
+        <f>AW5/$CV$23</f>
+        <v>1.6550365809819999E-5</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="13"/>
-        <v>2.1152277751391365E-5</v>
+        <f>AX5/$CV$23</f>
+        <v>2.1226570749012908E-5</v>
       </c>
       <c r="AY6">
-        <f t="shared" si="13"/>
-        <v>2.7119877208512669E-5</v>
+        <f>AY5/$CV$23</f>
+        <v>2.7215130164086974E-5</v>
       </c>
       <c r="AZ6">
-        <f t="shared" si="13"/>
-        <v>3.4756567395312277E-5</v>
+        <f>AZ5/$CV$23</f>
+        <v>3.4878642644568264E-5</v>
       </c>
       <c r="BA6">
-        <f t="shared" si="13"/>
-        <v>4.4519869014455866E-5</v>
+        <f>BA5/$CV$23</f>
+        <v>4.4676235839895495E-5</v>
       </c>
       <c r="BB6">
-        <f t="shared" si="13"/>
-        <v>5.698677329202083E-5</v>
+        <f>BB5/$CV$23</f>
+        <v>5.7186927538405244E-5</v>
       </c>
       <c r="BC6">
-        <f t="shared" si="13"/>
-        <v>7.2881156346342606E-5</v>
+        <f>BC5/$CV$23</f>
+        <v>7.3137136323474767E-5</v>
       </c>
       <c r="BD6">
-        <f t="shared" si="13"/>
-        <v>9.3105051188262651E-5</v>
+        <f>BD5/$CV$23</f>
+        <v>9.3432063410198339E-5</v>
       </c>
       <c r="BE6">
-        <f t="shared" si="13"/>
-        <v>1.1877264087495825E-4</v>
+        <f>BE5/$CV$23</f>
+        <v>1.1918980519313421E-4</v>
       </c>
       <c r="BF6">
-        <f t="shared" si="13"/>
-        <v>1.5124438917811818E-4</v>
+        <f>BF5/$CV$23</f>
+        <v>1.5177560379138802E-4</v>
       </c>
       <c r="BG6">
-        <f t="shared" si="13"/>
-        <v>1.9215645166494513E-4</v>
+        <f>BG5/$CV$23</f>
+        <v>1.9283136142994993E-4</v>
       </c>
       <c r="BH6">
-        <f t="shared" si="13"/>
-        <v>2.4343718473787254E-4</v>
+        <f>BH5/$CV$23</f>
+        <v>2.4429220746399651E-4</v>
       </c>
       <c r="BI6">
-        <f t="shared" si="13"/>
-        <v>2.8208267660350186E-4</v>
+        <f>BI5/$CV$23</f>
+        <v>2.8307343362117597E-4</v>
       </c>
       <c r="BJ6">
-        <f t="shared" si="13"/>
-        <v>3.2620692139943548E-4</v>
+        <f>BJ5/$CV$23</f>
+        <v>3.2735265569436577E-4</v>
       </c>
       <c r="BK6">
-        <f t="shared" si="13"/>
-        <v>3.7636866246909594E-4</v>
+        <f>BK5/$CV$23</f>
+        <v>3.7769057949733659E-4</v>
       </c>
       <c r="BL6">
-        <f t="shared" si="13"/>
-        <v>4.3311270285741049E-4</v>
+        <f>BL5/$CV$23</f>
+        <v>4.3463392158295076E-4</v>
       </c>
       <c r="BM6">
-        <f t="shared" si="13"/>
-        <v>4.9694339056289292E-4</v>
+        <f>BM5/$CV$23</f>
+        <v>4.9868880136767985E-4</v>
       </c>
       <c r="BN6">
-        <f t="shared" si="13"/>
-        <v>5.6829182376133189E-4</v>
+        <f>BN5/$CV$23</f>
+        <v>5.7028783117042843E-4</v>
       </c>
       <c r="BO6">
-        <f t="shared" si="13"/>
-        <v>6.4747739785479092E-4</v>
+        <f>BO5/$CV$23</f>
+        <v>6.4975152820350324E-4</v>
       </c>
       <c r="BP6">
-        <f t="shared" si="13"/>
-        <v>7.3466532948883282E-4</v>
+        <f>BP5/$CV$23</f>
+        <v>7.372456894017388E-4</v>
       </c>
       <c r="BQ6">
-        <f t="shared" si="13"/>
-        <v>7.9246381857405628E-4</v>
+        <f>BQ5/$CV$23</f>
+        <v>7.9524718371706588E-4</v>
       </c>
       <c r="BR6">
-        <f t="shared" si="13"/>
-        <v>8.5277636683137763E-4</v>
+        <f>BR5/$CV$23</f>
+        <v>8.5577156731698697E-4</v>
       </c>
       <c r="BS6">
-        <f t="shared" si="13"/>
-        <v>9.1540167157212185E-4</v>
+        <f>BS5/$CV$23</f>
+        <v>9.1861683047879752E-4</v>
       </c>
       <c r="BT6">
-        <f t="shared" si="13"/>
-        <v>9.800939215665232E-4</v>
+        <f>BT5/$CV$23</f>
+        <v>9.8353629861166396E-4</v>
       </c>
       <c r="BU6">
-        <f t="shared" si="13"/>
-        <v>1.0465648786807536E-3</v>
+        <f>BU5/$CV$23</f>
+        <v>1.050240721204971E-3</v>
       </c>
       <c r="BV6">
-        <f t="shared" si="13"/>
-        <v>1.1144876402741151E-3</v>
+        <f>BV5/$CV$23</f>
+        <v>1.1184020474401556E-3</v>
       </c>
       <c r="BW6">
-        <f t="shared" si="13"/>
-        <v>1.1835020629631155E-3</v>
+        <f>BW5/$CV$23</f>
+        <v>1.1876588690046316E-3</v>
       </c>
       <c r="BX6">
-        <f t="shared" si="13"/>
-        <v>1.2532217156177006E-3</v>
+        <f>BX5/$CV$23</f>
+        <v>1.2576233975089819E-3</v>
       </c>
       <c r="BY6">
-        <f t="shared" si="13"/>
-        <v>1.3232421156242769E-3</v>
+        <f>BY5/$CV$23</f>
+        <v>1.3278897296781502E-3</v>
       </c>
       <c r="BZ6">
-        <f t="shared" si="13"/>
-        <v>1.364256754701678E-3</v>
+        <f>BZ5/$CV$23</f>
+        <v>1.368042062329024E-3</v>
       </c>
       <c r="CA6">
-        <f t="shared" si="13"/>
-        <v>1.4044962021496688E-3</v>
+        <f>CA5/$CV$23</f>
+        <v>1.4074192425131691E-3</v>
       </c>
       <c r="CB6">
-        <f t="shared" si="13"/>
-        <v>1.4438585062723926E-3</v>
+        <f>CB5/$CV$23</f>
+        <v>1.4459256290584636E-3</v>
       </c>
       <c r="CC6">
-        <f t="shared" si="13"/>
-        <v>1.4822512862164182E-3</v>
+        <f>CC5/$CV$23</f>
+        <v>1.4834747790594867E-3</v>
       </c>
       <c r="CD6">
-        <f t="shared" si="13"/>
-        <v>1.5195924147210951E-3</v>
+        <f>CD5/$CV$23</f>
+        <v>1.5199900415750337E-3</v>
       </c>
       <c r="CE6">
-        <f t="shared" si="13"/>
-        <v>1.5558104817354162E-3</v>
+        <f>CE5/$CV$23</f>
+        <v>1.5554049497023632E-3</v>
       </c>
       <c r="CF6">
-        <f t="shared" si="13"/>
-        <v>1.5908450417766919E-3</v>
+        <f>CF5/$CV$23</f>
+        <v>1.589663414931242E-3</v>
       </c>
       <c r="CG6">
-        <f t="shared" si="13"/>
-        <v>1.62464665471136E-3</v>
+        <f>CG5/$CV$23</f>
+        <v>1.6227197336204007E-3</v>
       </c>
       <c r="CH6">
-        <f t="shared" si="13"/>
-        <v>1.6571767354278261E-3</v>
+        <f>CH5/$CV$23</f>
+        <v>1.6545384204427083E-3</v>
       </c>
       <c r="CI6">
-        <f t="shared" si="13"/>
-        <v>1.6884072324572005E-3</v>
+        <f>CI5/$CV$23</f>
+        <v>1.6850938875643084E-3</v>
       </c>
       <c r="CJ6">
-        <f t="shared" si="13"/>
-        <v>1.7183201588877287E-3</v>
+        <f>CJ5/$CV$23</f>
+        <v>1.714369991090171E-3</v>
       </c>
       <c r="CK6">
-        <f t="shared" si="13"/>
-        <v>1.7469070009100481E-3</v>
+        <f>CK5/$CV$23</f>
+        <v>1.7423594679331269E-3</v>
       </c>
       <c r="CL6">
-        <f t="shared" si="13"/>
-        <v>1.7741680300975269E-3</v>
+        <f>CL5/$CV$23</f>
+        <v>1.7690632868187894E-3</v>
       </c>
       <c r="CM6">
-        <f t="shared" si="13"/>
-        <v>1.8001115452033218E-3</v>
+        <f>CM5/$CV$23</f>
+        <v>1.7944899367477911E-3</v>
       </c>
       <c r="CN6">
-        <f t="shared" si="13"/>
-        <v>1.8247530680189192E-3</v>
+        <f>CN5/$CV$23</f>
+        <v>1.8186546750556948E-3</v>
       </c>
       <c r="CO6">
-        <f t="shared" si="13"/>
-        <v>1.8481145158855002E-3</v>
+        <f>CO5/$CV$23</f>
+        <v>1.8415787554134022E-3</v>
       </c>
       <c r="CP6">
-        <f t="shared" si="13"/>
-        <v>1.8702233709824148E-3</v>
+        <f>CP5/$CV$23</f>
+        <v>1.8632886538737636E-3</v>
       </c>
       <c r="CQ6">
-        <f t="shared" si="13"/>
-        <v>1.8911118637305118E-3</v>
+        <f>CQ5/$CV$23</f>
+        <v>1.8838153085617441E-3</v>
       </c>
       <c r="CR6">
-        <f t="shared" si="13"/>
-        <v>1.9108161847168645E-3</v>
+        <f>CR5/$CV$23</f>
+        <v>1.9031933859772216E-3</v>
       </c>
       <c r="CS6">
-        <f t="shared" si="13"/>
-        <v>1.9293757366203067E-3</v>
+        <f>CS5/$CV$23</f>
+        <v>1.9214605842597678E-3</v>
       </c>
       <c r="CT6">
-        <f t="shared" si="13"/>
-        <v>1.9468324348132634E-3</v>
+        <f>CT5/$CV$23</f>
+        <v>1.9386569812566026E-3</v>
       </c>
       <c r="CU6">
-        <f t="shared" si="13"/>
-        <v>1.9632300627235584E-3</v>
+        <f>CU5/$CV$23</f>
+        <v>1.9548244329152483E-3</v>
       </c>
       <c r="CV6">
-        <f t="shared" ref="CV6:EG6" si="14">CV5/$CV$22</f>
-        <v>1.9786136857204901E-3</v>
+        <f>CV5/$CV$23</f>
+        <v>1.9700060254436392E-3</v>
       </c>
       <c r="CW6">
-        <f t="shared" si="14"/>
-        <v>1.9930291252772338E-3</v>
+        <f>CW5/$CV$23</f>
+        <v>1.9842455828729105E-3</v>
       </c>
       <c r="CX6">
-        <f t="shared" si="14"/>
-        <v>2.0065224934697735E-3</v>
+        <f>CX5/$CV$23</f>
+        <v>1.9975872301336334E-3</v>
       </c>
       <c r="CY6">
-        <f t="shared" si="14"/>
-        <v>2.0191397864971054E-3</v>
+        <f>CY5/$CV$23</f>
+        <v>2.0100750105118068E-3</v>
       </c>
       <c r="CZ6">
-        <f t="shared" ref="CZ6:DC6" si="15">CZ5/$CV$22</f>
-        <v>2.0309265348316054E-3</v>
+        <f>CZ5/$CV$23</f>
+        <v>2.0217525553721852E-3</v>
       </c>
       <c r="DA6">
-        <f t="shared" si="15"/>
-        <v>2.0419275068064109E-3</v>
+        <f>DA5/$CV$23</f>
+        <v>2.032662803301459E-3</v>
       </c>
       <c r="DB6">
-        <f t="shared" si="15"/>
-        <v>2.0521864618874204E-3</v>
+        <f>DB5/$CV$23</f>
+        <v>2.047105642608087E-3</v>
       </c>
       <c r="DC6">
-        <f t="shared" si="15"/>
-        <v>2.0617459495272492E-3</v>
+        <f>DC5/$CV$23</f>
+        <v>2.0605831927844819E-3</v>
       </c>
       <c r="DD6">
-        <f t="shared" ref="DD6" si="16">DD5/$CV$22</f>
-        <v>2.0706471493232275E-3</v>
+        <f>DD5/$CV$23</f>
+        <v>2.0731468795690999E-3</v>
       </c>
       <c r="DE6">
-        <f t="shared" si="14"/>
-        <v>2.0789297481685794E-3</v>
+        <f>DE5/$CV$23</f>
+        <v>2.084847296360767E-3</v>
       </c>
       <c r="DF6">
-        <f t="shared" si="14"/>
-        <v>2.0866318501649916E-3</v>
+        <f>DF5/$CV$23</f>
+        <v>2.0957338983468355E-3</v>
       </c>
       <c r="DG6">
-        <f t="shared" si="14"/>
-        <v>2.0937899152287933E-3</v>
+        <f>DG5/$CV$23</f>
+        <v>2.1058547540254769E-3</v>
       </c>
       <c r="DH6">
-        <f t="shared" si="14"/>
-        <v>2.1004387225483198E-3</v>
+        <f>DH5/$CV$23</f>
+        <v>2.115256348648569E-3</v>
       </c>
       <c r="DI6">
-        <f t="shared" si="14"/>
-        <v>2.1066113553166424E-3</v>
+        <f>DI5/$CV$23</f>
+        <v>2.1239834340480482E-3</v>
       </c>
       <c r="DJ6">
-        <f t="shared" si="14"/>
-        <v>2.1123392034551923E-3</v>
+        <f>DJ5/$CV$23</f>
+        <v>2.1320789194025636E-3</v>
       </c>
       <c r="DK6">
-        <f t="shared" si="14"/>
-        <v>2.1176519813464563E-3</v>
+        <f>DK5/$CV$23</f>
+        <v>2.1395837977140303E-3</v>
       </c>
       <c r="DL6">
-        <f t="shared" si="14"/>
-        <v>2.1225777578974246E-3</v>
+        <f>DL5/$CV$23</f>
+        <v>2.1465371030615203E-3</v>
       </c>
       <c r="DM6">
-        <f t="shared" si="14"/>
-        <v>2.1271429965518595E-3</v>
+        <f>DM5/$CV$23</f>
+        <v>2.1529758940543788E-3</v>
       </c>
       <c r="DN6">
-        <f t="shared" si="14"/>
-        <v>2.1313726031528916E-3</v>
+        <f>DN5/$CV$23</f>
+        <v>2.158935259294145E-3</v>
       </c>
       <c r="DO6">
-        <f t="shared" si="14"/>
-        <v>2.13528997982398E-3</v>
+        <f>DO5/$CV$23</f>
+        <v>2.1644483410569533E-3</v>
       </c>
       <c r="DP6">
-        <f t="shared" si="14"/>
-        <v>2.1389170832832897E-3</v>
+        <f>DP5/$CV$23</f>
+        <v>2.169546373810196E-3</v>
       </c>
       <c r="DQ6">
-        <f t="shared" si="14"/>
-        <v>2.1422744862327437E-3</v>
+        <f>DQ5/$CV$23</f>
+        <v>2.1742587345682644E-3</v>
       </c>
       <c r="DR6">
-        <f t="shared" si="14"/>
-        <v>2.1453814406678343E-3</v>
+        <f>DR5/$CV$23</f>
+        <v>2.1786130024645076E-3</v>
       </c>
       <c r="DS6">
-        <f t="shared" si="14"/>
-        <v>2.148255942138088E-3</v>
+        <f>DS5/$CV$23</f>
+        <v>2.1826350252647374E-3</v>
       </c>
       <c r="DT6">
-        <f t="shared" si="14"/>
-        <v>2.1509147941514354E-3</v>
+        <f>DT5/$CV$23</f>
+        <v>2.1863489908685667E-3</v>
       </c>
       <c r="DU6">
-        <f t="shared" si="14"/>
-        <v>2.1533736720598666E-3</v>
+        <f>DU5/$CV$23</f>
+        <v>2.1897775021369214E-3</v>
       </c>
       <c r="DV6">
-        <f t="shared" si="14"/>
-        <v>2.1556471858898345E-3</v>
+        <f>DV5/$CV$23</f>
+        <v>2.1929416536469156E-3</v>
       </c>
       <c r="DW6">
-        <f t="shared" si="14"/>
-        <v>2.1577489416904076E-3</v>
+        <f>DW5/$CV$23</f>
+        <v>2.1958611092094643E-3</v>
       </c>
       <c r="DX6">
-        <f t="shared" si="14"/>
-        <v>2.1596916010666106E-3</v>
+        <f>DX5/$CV$23</f>
+        <v>2.1985541791917423E-3</v>
       </c>
       <c r="DY6">
-        <f t="shared" si="14"/>
-        <v>2.1614869386462243E-3</v>
+        <f>DY5/$CV$23</f>
+        <v>2.2010378968675701E-3</v>
       </c>
       <c r="DZ6">
-        <f t="shared" si="14"/>
-        <v>2.1631458972970093E-3</v>
+        <f>DZ5/$CV$23</f>
+        <v>2.2033280931759262E-3</v>
       </c>
       <c r="EA6">
-        <f t="shared" si="14"/>
-        <v>2.1646786409691902E-3</v>
+        <f>EA5/$CV$23</f>
+        <v>2.2054394694031327E-3</v>
       </c>
       <c r="EB6">
-        <f t="shared" si="14"/>
-        <v>2.1660946050864314E-3</v>
+        <f>EB5/$CV$23</f>
+        <v>2.2073856674199254E-3</v>
       </c>
       <c r="EC6">
-        <f t="shared" si="14"/>
-        <v>2.1674025444486148E-3</v>
+        <f>EC5/$CV$23</f>
+        <v>2.2091793372027309E-3</v>
       </c>
       <c r="ED6">
-        <f t="shared" si="14"/>
-        <v>2.1686105786425719E-3</v>
+        <f>ED5/$CV$23</f>
+        <v>2.2108322014509564E-3</v>
       </c>
       <c r="EE6">
-        <f t="shared" si="14"/>
-        <v>2.1697262349835321E-3</v>
+        <f>EE5/$CV$23</f>
+        <v>2.2123551171808944E-3</v>
       </c>
       <c r="EF6">
-        <f t="shared" si="14"/>
-        <v>2.1707564890312758E-3</v>
+        <f>EF5/$CV$23</f>
+        <v>2.2137581342336421E-3</v>
       </c>
       <c r="EG6">
-        <f t="shared" si="14"/>
-        <v>2.1717078027416476E-3</v>
+        <f>EG5/$CV$23</f>
+        <v>2.2150505506808669E-3</v>
+      </c>
+      <c r="EH6">
+        <f t="shared" ref="EH6:FB6" si="16">EH5/$CV$23</f>
+        <v>2.2162409651497097E-3</v>
+      </c>
+      <c r="EI6">
+        <f t="shared" si="16"/>
+        <v>2.2173373261179354E-3</v>
+      </c>
+      <c r="EJ6">
+        <f t="shared" si="16"/>
+        <v>2.2183469782537297E-3</v>
+      </c>
+      <c r="EK6">
+        <f t="shared" si="16"/>
+        <v>2.2192767058923147E-3</v>
+      </c>
+      <c r="EL6">
+        <f t="shared" si="16"/>
+        <v>2.2201327737547218E-3</v>
+      </c>
+      <c r="EM6">
+        <f t="shared" si="16"/>
+        <v>2.220920965023355E-3</v>
+      </c>
+      <c r="EN6">
+        <f t="shared" si="16"/>
+        <v>2.2216466168950718E-3</v>
+      </c>
+      <c r="EO6">
+        <f t="shared" si="16"/>
+        <v>2.2223146537360167E-3</v>
+      </c>
+      <c r="EP6">
+        <f t="shared" si="16"/>
+        <v>2.2229296179637832E-3</v>
+      </c>
+      <c r="EQ6">
+        <f t="shared" si="16"/>
+        <v>2.22349569878214E-3</v>
+      </c>
+      <c r="ER6">
+        <f t="shared" si="16"/>
+        <v>2.2240167588918453E-3</v>
+      </c>
+      <c r="ES6">
+        <f t="shared" si="16"/>
+        <v>2.2244963592983023E-3</v>
+      </c>
+      <c r="ET6">
+        <f t="shared" si="16"/>
+        <v>2.2249377823332578E-3</v>
+      </c>
+      <c r="EU6">
+        <f t="shared" si="16"/>
+        <v>2.2253440530035414E-3</v>
+      </c>
+      <c r="EV6">
+        <f t="shared" si="16"/>
+        <v>2.2257179587752795E-3</v>
+      </c>
+      <c r="EW6">
+        <f t="shared" si="16"/>
+        <v>2.2260620678971111E-3</v>
+      </c>
+      <c r="EX6">
+        <f t="shared" si="16"/>
+        <v>2.2263787463609064E-3</v>
+      </c>
+      <c r="EY6">
+        <f t="shared" si="16"/>
+        <v>2.2266701735933424E-3</v>
+      </c>
+      <c r="EZ6">
+        <f t="shared" si="16"/>
+        <v>2.2269383569665903E-3</v>
+      </c>
+      <c r="FA6">
+        <f t="shared" si="16"/>
+        <v>2.2271851452113009E-3</v>
+      </c>
+      <c r="FB6">
+        <f t="shared" si="16"/>
+        <v>2.2274122408101095E-3</v>
+      </c>
+      <c r="FC6">
+        <f t="shared" ref="FC6" si="17">FC5/$CV$23</f>
+        <v>2.2276212114450931E-3</v>
+      </c>
+      <c r="FD6">
+        <f t="shared" ref="FD6" si="18">FD5/$CV$23</f>
+        <v>2.2278135005679468E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:137" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+    <row r="7" spans="1:160" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="AI7" s="46">
-        <f>AI4*$CV$22</f>
-        <v>3.9167686658506726E-5</v>
-      </c>
-      <c r="AJ7" s="46">
-        <f t="shared" ref="AJ7:CU7" si="17">AJ4*$CV$22</f>
-        <v>4.1615667074663398E-5</v>
-      </c>
-      <c r="AK7" s="46">
-        <f t="shared" si="17"/>
-        <v>6.6095471236230115E-5</v>
-      </c>
-      <c r="AL7" s="46">
-        <f t="shared" si="17"/>
-        <v>1.1260709914320686E-4</v>
-      </c>
-      <c r="AM7" s="46">
-        <f t="shared" si="17"/>
-        <v>1.175030599755202E-4</v>
-      </c>
-      <c r="AN7" s="46">
-        <f t="shared" si="17"/>
-        <v>1.9339045287637699E-4</v>
-      </c>
-      <c r="AO7" s="46">
-        <f t="shared" si="17"/>
-        <v>3.1823745410036719E-4</v>
-      </c>
-      <c r="AP7" s="46">
-        <f t="shared" si="17"/>
-        <v>3.8922888616891064E-4</v>
-      </c>
-      <c r="AQ7" s="46">
-        <f t="shared" si="17"/>
-        <v>4.7980416156670746E-4</v>
-      </c>
-      <c r="AR7" s="46">
-        <f t="shared" si="17"/>
-        <v>6.4137086903304772E-4</v>
-      </c>
-      <c r="AS7" s="46">
-        <f t="shared" si="17"/>
-        <v>1.1799265605875152E-3</v>
-      </c>
-      <c r="AT7" s="46">
-        <f t="shared" si="17"/>
-        <v>1.6401468788249695E-3</v>
-      </c>
-      <c r="AU7" s="46">
-        <f t="shared" si="17"/>
-        <v>1.95593635250918E-3</v>
-      </c>
-      <c r="AV7" s="46">
-        <f t="shared" si="17"/>
-        <v>2.5458996328029376E-3</v>
-      </c>
-      <c r="AW7" s="46">
-        <f t="shared" si="17"/>
-        <v>2.8788249694002449E-3</v>
-      </c>
-      <c r="AX7" s="46">
-        <f t="shared" si="17"/>
-        <v>3.5667074663402695E-3</v>
-      </c>
-      <c r="AY7" s="46">
-        <f t="shared" si="17"/>
-        <v>4.8127294981640152E-3</v>
-      </c>
-      <c r="AZ7" s="46">
-        <f t="shared" si="17"/>
-        <v>6.7197062423500617E-3</v>
-      </c>
-      <c r="BA7" s="46">
-        <f t="shared" si="17"/>
-        <v>8.9963280293757653E-3</v>
-      </c>
-      <c r="BB7" s="46">
-        <f t="shared" si="17"/>
-        <v>1.1258261933904529E-2</v>
-      </c>
-      <c r="BC7" s="46">
-        <f t="shared" si="17"/>
-        <v>1.4230110159118726E-2</v>
-      </c>
-      <c r="BD7" s="46">
-        <f t="shared" si="17"/>
-        <v>1.7801713586291311E-2</v>
-      </c>
-      <c r="BE7" s="46">
-        <f t="shared" si="17"/>
-        <v>2.2930232558139536E-2</v>
-      </c>
-      <c r="BF7" s="46">
-        <f t="shared" si="17"/>
-        <v>3.0176254589963279E-2</v>
-      </c>
-      <c r="BG7" s="46">
-        <f t="shared" si="17"/>
-        <v>3.7503059975520198E-2</v>
-      </c>
-      <c r="BH7" s="46">
-        <f t="shared" si="17"/>
-        <v>4.85875152998776E-2</v>
-      </c>
-      <c r="BI7" s="46">
-        <f t="shared" si="17"/>
-        <v>5.4746634026927782E-2</v>
-      </c>
-      <c r="BJ7" s="46">
-        <f t="shared" si="17"/>
-        <v>6.0888616891064867E-2</v>
-      </c>
-      <c r="BK7" s="46">
-        <f t="shared" si="17"/>
-        <v>7.1128518971848229E-2</v>
-      </c>
-      <c r="BL7" s="46">
-        <f t="shared" si="17"/>
-        <v>8.0761321909424727E-2</v>
-      </c>
-      <c r="BM7" s="46">
-        <f t="shared" si="17"/>
-        <v>9.1365973072215431E-2</v>
-      </c>
-      <c r="BN7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.10755936352509179</v>
-      </c>
-      <c r="BO7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.124531211750306</v>
-      </c>
-      <c r="BP7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.14123623011015912</v>
-      </c>
-      <c r="BQ7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.15283965728274174</v>
-      </c>
-      <c r="BR7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.16373317013463892</v>
-      </c>
-      <c r="BS7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.17578457772337822</v>
-      </c>
-      <c r="BT7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.19036964504283965</v>
-      </c>
-      <c r="BU7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.20757405140758872</v>
-      </c>
-      <c r="BV7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.22315544675642596</v>
-      </c>
-      <c r="BW7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.23523133414932682</v>
-      </c>
-      <c r="BX7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.24509914320685433</v>
-      </c>
-      <c r="BY7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.25305752753977967</v>
-      </c>
-      <c r="BZ7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.26355691554467564</v>
-      </c>
-      <c r="CA7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.27734638922888616</v>
-      </c>
-      <c r="CB7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.28943696450428397</v>
-      </c>
-      <c r="CC7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.29907221542227663</v>
-      </c>
-      <c r="CD7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.30710403916768664</v>
-      </c>
-      <c r="CE7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.31298408812729495</v>
-      </c>
-      <c r="CF7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.31841370869033048</v>
-      </c>
-      <c r="CG7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.32364749082007344</v>
-      </c>
-      <c r="CH7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.32987270501835986</v>
-      </c>
-      <c r="CI7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.33708200734394128</v>
-      </c>
-      <c r="CJ7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.3461370869033048</v>
-      </c>
-      <c r="CK7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.35122399020807832</v>
-      </c>
-      <c r="CL7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.35677356181150549</v>
-      </c>
-      <c r="CM7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.36001223990208081</v>
-      </c>
-      <c r="CN7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.36341003671970629</v>
-      </c>
-      <c r="CO7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.36878335373317017</v>
-      </c>
-      <c r="CP7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.37485679314565479</v>
-      </c>
-      <c r="CQ7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.37943451652386778</v>
-      </c>
-      <c r="CR7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.38314075887392901</v>
-      </c>
-      <c r="CS7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.38621787025703797</v>
-      </c>
-      <c r="CT7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.38863647490820069</v>
-      </c>
-      <c r="CU7" s="46">
-        <f t="shared" si="17"/>
-        <v>0.39146144430844559</v>
-      </c>
-      <c r="CV7" s="46">
-        <f t="shared" ref="CV7:EG7" si="18">CV4*$CV$22</f>
-        <v>0.39544430844553241</v>
-      </c>
-      <c r="CW7" s="46">
-        <f t="shared" si="18"/>
-        <v>0.39904283965728271</v>
-      </c>
-      <c r="CX7" s="46">
-        <f t="shared" si="18"/>
-        <v>0.40165728274173806</v>
-      </c>
-      <c r="CY7" s="46">
-        <f t="shared" si="18"/>
-        <v>0.40383598531211751</v>
-      </c>
-      <c r="CZ7" s="46">
-        <f t="shared" ref="CZ7:DC7" si="19">CZ4*$CV$22</f>
-        <v>0.40554222766217868</v>
-      </c>
-      <c r="DA7" s="46">
-        <f t="shared" si="19"/>
-        <v>0.40554222766217868</v>
-      </c>
-      <c r="DB7" s="46">
-        <f t="shared" si="19"/>
-        <v>0.40882986536107713</v>
-      </c>
-      <c r="DC7" s="46">
-        <f t="shared" si="19"/>
-        <v>0.41165728274173807</v>
-      </c>
-      <c r="DD7" s="46">
-        <f t="shared" ref="DD7" si="20">DD4*$CV$22</f>
-        <v>0.41476132190942477</v>
-      </c>
-      <c r="DE7" s="46"/>
-      <c r="DF7" s="46"/>
-      <c r="DG7" s="46"/>
-      <c r="DH7" s="46"/>
-      <c r="DI7" s="46"/>
-      <c r="DJ7" s="46"/>
-      <c r="DK7" s="46"/>
-      <c r="DL7" s="46"/>
-      <c r="DM7" s="46"/>
-      <c r="DN7" s="46"/>
-      <c r="DO7" s="46"/>
-      <c r="DP7" s="46"/>
-      <c r="DQ7" s="46"/>
-      <c r="DR7" s="46"/>
-      <c r="DS7" s="46"/>
-      <c r="DT7" s="46"/>
-      <c r="DU7" s="46"/>
-      <c r="DV7" s="46"/>
-      <c r="DW7" s="46"/>
-      <c r="DX7" s="46"/>
-      <c r="DY7" s="46"/>
-      <c r="DZ7" s="46"/>
-      <c r="EA7" s="46"/>
-      <c r="EB7" s="46"/>
-      <c r="EC7" s="46"/>
-      <c r="ED7" s="46"/>
-      <c r="EE7" s="46"/>
-      <c r="EF7" s="46"/>
-      <c r="EG7" s="46"/>
+      <c r="AI7" s="44">
+        <f>AI4*$CV$23</f>
+        <v>3.9030599755201961E-5</v>
+      </c>
+      <c r="AJ7" s="44">
+        <f>AJ4*$CV$23</f>
+        <v>4.1470012239902079E-5</v>
+      </c>
+      <c r="AK7" s="44">
+        <f>AK4*$CV$23</f>
+        <v>6.5864137086903317E-5</v>
+      </c>
+      <c r="AL7" s="44">
+        <f>AL4*$CV$23</f>
+        <v>1.1221297429620563E-4</v>
+      </c>
+      <c r="AM7" s="44">
+        <f>AM4*$CV$23</f>
+        <v>1.1709179926560588E-4</v>
+      </c>
+      <c r="AN7" s="44">
+        <f>AN4*$CV$23</f>
+        <v>1.9271358629130967E-4</v>
+      </c>
+      <c r="AO7" s="44">
+        <f>AO4*$CV$23</f>
+        <v>3.1712362301101592E-4</v>
+      </c>
+      <c r="AP7" s="44">
+        <f>AP4*$CV$23</f>
+        <v>3.8786658506731946E-4</v>
+      </c>
+      <c r="AQ7" s="44">
+        <f>AQ4*$CV$23</f>
+        <v>4.7812484700122401E-4</v>
+      </c>
+      <c r="AR7" s="44">
+        <f>AR4*$CV$23</f>
+        <v>6.3912607099143209E-4</v>
+      </c>
+      <c r="AS7" s="44">
+        <f>AS4*$CV$23</f>
+        <v>1.1757968176254591E-3</v>
+      </c>
+      <c r="AT7" s="44">
+        <f>AT4*$CV$23</f>
+        <v>1.6344063647490822E-3</v>
+      </c>
+      <c r="AU7" s="44">
+        <f>AU4*$CV$23</f>
+        <v>1.949090575275398E-3</v>
+      </c>
+      <c r="AV7" s="44">
+        <f>AV4*$CV$23</f>
+        <v>2.5369889840881274E-3</v>
+      </c>
+      <c r="AW7" s="44">
+        <f>AW4*$CV$23</f>
+        <v>2.8687490820073444E-3</v>
+      </c>
+      <c r="AX7" s="44">
+        <f>AX4*$CV$23</f>
+        <v>3.5542239902080787E-3</v>
+      </c>
+      <c r="AY7" s="44">
+        <f>AY4*$CV$23</f>
+        <v>4.7958849449204408E-3</v>
+      </c>
+      <c r="AZ7" s="44">
+        <f>AZ4*$CV$23</f>
+        <v>6.6961872705018364E-3</v>
+      </c>
+      <c r="BA7" s="44">
+        <f>BA4*$CV$23</f>
+        <v>8.9648408812729504E-3</v>
+      </c>
+      <c r="BB7" s="44">
+        <f>BB4*$CV$23</f>
+        <v>1.1218858017135864E-2</v>
+      </c>
+      <c r="BC7" s="44">
+        <f>BC4*$CV$23</f>
+        <v>1.4180304773561811E-2</v>
+      </c>
+      <c r="BD7" s="44">
+        <f>BD4*$CV$23</f>
+        <v>1.7739407588739292E-2</v>
+      </c>
+      <c r="BE7" s="44">
+        <f>BE4*$CV$23</f>
+        <v>2.2849976744186051E-2</v>
+      </c>
+      <c r="BF7" s="44">
+        <f>BF4*$CV$23</f>
+        <v>3.0070637698898412E-2</v>
+      </c>
+      <c r="BG7" s="44">
+        <f>BG4*$CV$23</f>
+        <v>3.7371799265605882E-2</v>
+      </c>
+      <c r="BH7" s="44">
+        <f>BH4*$CV$23</f>
+        <v>4.8417458996328031E-2</v>
+      </c>
+      <c r="BI7" s="44">
+        <f>BI4*$CV$23</f>
+        <v>5.4555020807833539E-2</v>
+      </c>
+      <c r="BJ7" s="44">
+        <f>BJ4*$CV$23</f>
+        <v>6.0675506731946147E-2</v>
+      </c>
+      <c r="BK7" s="44">
+        <f>BK4*$CV$23</f>
+        <v>7.0879569155446756E-2</v>
+      </c>
+      <c r="BL7" s="44">
+        <f>BL4*$CV$23</f>
+        <v>8.0478657282741742E-2</v>
+      </c>
+      <c r="BM7" s="44">
+        <f>BM4*$CV$23</f>
+        <v>9.1046192166462675E-2</v>
+      </c>
+      <c r="BN7" s="44">
+        <f>BN4*$CV$23</f>
+        <v>0.10718290575275398</v>
+      </c>
+      <c r="BO7" s="44">
+        <f>BO4*$CV$23</f>
+        <v>0.12409535250917993</v>
+      </c>
+      <c r="BP7" s="44">
+        <f>BP4*$CV$23</f>
+        <v>0.14074190330477357</v>
+      </c>
+      <c r="BQ7" s="44">
+        <f>BQ4*$CV$23</f>
+        <v>0.15230471848225216</v>
+      </c>
+      <c r="BR7" s="44">
+        <f>BR4*$CV$23</f>
+        <v>0.1631601040391677</v>
+      </c>
+      <c r="BS7" s="44">
+        <f>BS4*$CV$23</f>
+        <v>0.17516933170134641</v>
+      </c>
+      <c r="BT7" s="44">
+        <f>BT4*$CV$23</f>
+        <v>0.18970335128518973</v>
+      </c>
+      <c r="BU7" s="44">
+        <f>BU4*$CV$23</f>
+        <v>0.20684754222766219</v>
+      </c>
+      <c r="BV7" s="44">
+        <f>BV4*$CV$23</f>
+        <v>0.22237440269277847</v>
+      </c>
+      <c r="BW7" s="44">
+        <f>BW4*$CV$23</f>
+        <v>0.23440802447980419</v>
+      </c>
+      <c r="BX7" s="44">
+        <f>BX4*$CV$23</f>
+        <v>0.24424129620563034</v>
+      </c>
+      <c r="BY7" s="44">
+        <f>BY4*$CV$23</f>
+        <v>0.25217182619339046</v>
+      </c>
+      <c r="BZ7" s="44">
+        <f>BZ4*$CV$23</f>
+        <v>0.26263446634026932</v>
+      </c>
+      <c r="CA7" s="44">
+        <f>CA4*$CV$23</f>
+        <v>0.2763756768665851</v>
+      </c>
+      <c r="CB7" s="44">
+        <f>CB4*$CV$23</f>
+        <v>0.28842393512851899</v>
+      </c>
+      <c r="CC7" s="44">
+        <f>CC4*$CV$23</f>
+        <v>0.29802546266829871</v>
+      </c>
+      <c r="CD7" s="44">
+        <f>CD4*$CV$23</f>
+        <v>0.30602917503059973</v>
+      </c>
+      <c r="CE7" s="44">
+        <f>CE4*$CV$23</f>
+        <v>0.31188864381884945</v>
+      </c>
+      <c r="CF7" s="44">
+        <f>CF4*$CV$23</f>
+        <v>0.31729926070991438</v>
+      </c>
+      <c r="CG7" s="44">
+        <f>CG4*$CV$23</f>
+        <v>0.32251472460220321</v>
+      </c>
+      <c r="CH7" s="44">
+        <f>CH4*$CV$23</f>
+        <v>0.32871815055079562</v>
+      </c>
+      <c r="CI7" s="44">
+        <f>CI4*$CV$23</f>
+        <v>0.33590222031823747</v>
+      </c>
+      <c r="CJ7" s="44">
+        <f>CJ4*$CV$23</f>
+        <v>0.34492560709914322</v>
+      </c>
+      <c r="CK7" s="44">
+        <f>CK4*$CV$23</f>
+        <v>0.34999470624235007</v>
+      </c>
+      <c r="CL7" s="44">
+        <f>CL4*$CV$23</f>
+        <v>0.35552485434516523</v>
+      </c>
+      <c r="CM7" s="44">
+        <f>CM4*$CV$23</f>
+        <v>0.35875219706242356</v>
+      </c>
+      <c r="CN7" s="44">
+        <f>CN4*$CV$23</f>
+        <v>0.36213810159118731</v>
+      </c>
+      <c r="CO7" s="44">
+        <f>CO4*$CV$23</f>
+        <v>0.36749261199510408</v>
+      </c>
+      <c r="CP7" s="44">
+        <f>CP4*$CV$23</f>
+        <v>0.37354479436964505</v>
+      </c>
+      <c r="CQ7" s="44">
+        <f>CQ4*$CV$23</f>
+        <v>0.37810649571603427</v>
+      </c>
+      <c r="CR7" s="44">
+        <f>CR4*$CV$23</f>
+        <v>0.38179976621787026</v>
+      </c>
+      <c r="CS7" s="44">
+        <f>CS4*$CV$23</f>
+        <v>0.38486610771113833</v>
+      </c>
+      <c r="CT7" s="44">
+        <f>CT4*$CV$23</f>
+        <v>0.38727624724602205</v>
+      </c>
+      <c r="CU7" s="44">
+        <f>CU4*$CV$23</f>
+        <v>0.39009132925336604</v>
+      </c>
+      <c r="CV7" s="44">
+        <f>CV4*$CV$23</f>
+        <v>0.39406025336597306</v>
+      </c>
+      <c r="CW7" s="44">
+        <f>CW4*$CV$23</f>
+        <v>0.39764618971848226</v>
+      </c>
+      <c r="CX7" s="44">
+        <f>CX4*$CV$23</f>
+        <v>0.40025148225214202</v>
+      </c>
+      <c r="CY7" s="44">
+        <f>CY4*$CV$23</f>
+        <v>0.40242255936352517</v>
+      </c>
+      <c r="CZ7" s="44">
+        <f>CZ4*$CV$23</f>
+        <v>0.40412282986536108</v>
+      </c>
+      <c r="DA7" s="44">
+        <f>DA4*$CV$23</f>
+        <v>0.40412282986536108</v>
+      </c>
+      <c r="DB7" s="44">
+        <f>DB4*$CV$23</f>
+        <v>0.40739896083231336</v>
+      </c>
+      <c r="DC7" s="44">
+        <f>DC4*$CV$23</f>
+        <v>0.41021648225214202</v>
+      </c>
+      <c r="DD7" s="44">
+        <f>DD4*$CV$23</f>
+        <v>0.41330965728274177</v>
+      </c>
+      <c r="DE7" s="44">
+        <f>DE4*$CV$23</f>
+        <v>0.41613449694002452</v>
+      </c>
+      <c r="DF7" s="44">
+        <f>DF4*$CV$23</f>
+        <v>0.41792990452876377</v>
+      </c>
+      <c r="DG7" s="44">
+        <f>DG4*$CV$23</f>
+        <v>0.41928377845777243</v>
+      </c>
+      <c r="DH7" s="44">
+        <f>DH4*$CV$23</f>
+        <v>0.42098404895960834</v>
+      </c>
+      <c r="DI7" s="44">
+        <f>DI4*$CV$23</f>
+        <v>0.42243549938800495</v>
+      </c>
+      <c r="DJ7" s="44">
+        <f>DJ4*$CV$23</f>
+        <v>0.42469683476132197</v>
+      </c>
+      <c r="DK7" s="44"/>
+      <c r="DL7" s="44"/>
+      <c r="DM7" s="44"/>
+      <c r="DN7" s="44"/>
+      <c r="DO7" s="44"/>
+      <c r="DP7" s="44"/>
+      <c r="DQ7" s="44"/>
+      <c r="DR7" s="44"/>
+      <c r="DS7" s="44"/>
+      <c r="DT7" s="44"/>
+      <c r="DU7" s="44"/>
+      <c r="DV7" s="44"/>
+      <c r="DW7" s="44"/>
+      <c r="DX7" s="44"/>
+      <c r="DY7" s="44"/>
+      <c r="DZ7" s="44"/>
+      <c r="EA7" s="44"/>
+      <c r="EB7" s="44"/>
+      <c r="EC7" s="44"/>
+      <c r="ED7" s="44"/>
+      <c r="EE7" s="44"/>
+      <c r="EF7" s="44"/>
+      <c r="EG7" s="44"/>
+      <c r="EH7" s="44"/>
+      <c r="EI7" s="44"/>
+      <c r="EJ7" s="44"/>
+      <c r="EK7" s="44"/>
+      <c r="EL7" s="44"/>
+      <c r="EM7" s="44"/>
+      <c r="EN7" s="44"/>
+      <c r="EO7" s="44"/>
+      <c r="EP7" s="44"/>
+      <c r="EQ7" s="44"/>
+      <c r="ER7" s="44"/>
+      <c r="ES7" s="44"/>
+      <c r="ET7" s="44"/>
+      <c r="EU7" s="44"/>
+      <c r="EV7" s="44"/>
+      <c r="EW7" s="44"/>
+      <c r="EX7" s="44"/>
+      <c r="EY7" s="44"/>
+      <c r="EZ7" s="44"/>
+      <c r="FA7" s="44"/>
+      <c r="FB7" s="44"/>
     </row>
-    <row r="8" spans="1:137" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:137" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:160" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:160" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CT9"/>
       <c r="CU9"/>
       <c r="CV9"/>
       <c r="CW9"/>
       <c r="CX9"/>
     </row>
-    <row r="10" spans="1:137" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:160" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CT10"/>
       <c r="CU10"/>
       <c r="CV10"/>
       <c r="CW10"/>
       <c r="CX10"/>
     </row>
-    <row r="11" spans="1:137" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:160" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CT11" s="10"/>
       <c r="CU11" s="7" t="s">
         <v>9</v>
@@ -12489,8 +13825,8 @@
       <c r="CW11"/>
       <c r="CX11" s="3"/>
     </row>
-    <row r="12" spans="1:137" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="CT12" s="33"/>
+    <row r="12" spans="1:160" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CT12" s="32"/>
       <c r="CU12" t="s">
         <v>2</v>
       </c>
@@ -12500,7 +13836,7 @@
       <c r="CW12"/>
       <c r="CX12"/>
     </row>
-    <row r="13" spans="1:137" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:160" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CT13" s="8"/>
       <c r="CU13" t="s">
         <v>4</v>
@@ -12511,23 +13847,23 @@
       <c r="CW13"/>
       <c r="CX13"/>
     </row>
-    <row r="14" spans="1:137" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:160" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="CT14" s="8"/>
       <c r="CU14"/>
       <c r="CV14"/>
       <c r="CW14"/>
       <c r="CX14"/>
     </row>
-    <row r="15" spans="1:137" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:160" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CT15" s="8"/>
-      <c r="CU15" s="34" t="s">
+      <c r="CU15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="CV15" s="35"/>
-      <c r="CW15" s="36"/>
+      <c r="CV15" s="34"/>
+      <c r="CW15" s="35"/>
       <c r="CX15"/>
     </row>
-    <row r="16" spans="1:137" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:160" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CT16" s="9"/>
       <c r="CU16" s="16" t="s">
         <v>7</v>
@@ -12545,10 +13881,10 @@
       <c r="CU17" s="19">
         <v>43852</v>
       </c>
-      <c r="CV17" s="20">
+      <c r="CV17" s="46">
         <v>3.5</v>
       </c>
-      <c r="CW17" s="21">
+      <c r="CW17" s="20">
         <v>1</v>
       </c>
       <c r="CX17" s="9"/>
@@ -12559,10 +13895,10 @@
       <c r="CU18" s="19">
         <v>43910</v>
       </c>
-      <c r="CV18" s="20">
+      <c r="CV18" s="46">
         <v>2.6</v>
       </c>
-      <c r="CW18" s="22">
+      <c r="CW18" s="21">
         <f>CV18/CV17</f>
         <v>0.74285714285714288</v>
       </c>
@@ -12571,12 +13907,12 @@
     <row r="19" spans="1:137" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CT19" s="9"/>
       <c r="CU19" s="19">
-        <v>43918</v>
-      </c>
-      <c r="CV19" s="20">
+        <v>43919</v>
+      </c>
+      <c r="CV19" s="46">
         <v>2.06</v>
       </c>
-      <c r="CW19" s="22">
+      <c r="CW19" s="21">
         <f>CV19/CV17</f>
         <v>0.58857142857142863</v>
       </c>
@@ -12585,28 +13921,35 @@
       <c r="DC19" s="3"/>
       <c r="DD19"/>
     </row>
-    <row r="20" spans="1:137" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CT20" s="28"/>
-      <c r="CU20" s="23">
-        <v>43928</v>
-      </c>
-      <c r="CV20" s="24">
-        <v>1.7749999999999999</v>
-      </c>
-      <c r="CW20" s="25">
+    <row r="20" spans="1:137" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CT20" s="27"/>
+      <c r="CU20" s="19">
+        <v>43926</v>
+      </c>
+      <c r="CV20" s="46">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="CW20" s="21">
         <f>CV20/CV17</f>
-        <v>0.50714285714285712</v>
-      </c>
-      <c r="CX20" s="28"/>
+        <v>0.50428571428571423</v>
+      </c>
+      <c r="CX20" s="27"/>
       <c r="DB20"/>
       <c r="DC20"/>
       <c r="DD20"/>
     </row>
-    <row r="21" spans="1:137" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:137" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="CT21"/>
-      <c r="CU21"/>
-      <c r="CV21"/>
-      <c r="CW21"/>
+      <c r="CU21" s="22">
+        <v>43956</v>
+      </c>
+      <c r="CV21" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="CW21" s="24">
+        <f>CV21/CV18</f>
+        <v>0.69230769230769229</v>
+      </c>
       <c r="CX21"/>
       <c r="DB21"/>
       <c r="DC21"/>
@@ -12614,12 +13957,6 @@
     </row>
     <row r="22" spans="1:137" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CT22"/>
-      <c r="CU22" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV22" s="37">
-        <v>200</v>
-      </c>
       <c r="CW22" s="13"/>
       <c r="CX22"/>
       <c r="DB22"/>
@@ -12628,8 +13965,12 @@
     </row>
     <row r="23" spans="1:137" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CT23"/>
-      <c r="CU23"/>
-      <c r="CV23"/>
+      <c r="CU23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV23" s="36">
+        <v>199.3</v>
+      </c>
       <c r="CW23"/>
       <c r="CX23"/>
       <c r="DB23"/>
@@ -12733,7 +14074,7 @@
       <c r="DC27" s="17"/>
       <c r="DD27" s="1"/>
     </row>
-    <row r="28" spans="1:137" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:137" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="DC28" s="17"/>
       <c r="DD28"/>
     </row>
@@ -12750,9 +14091,9 @@
       <c r="DC32" s="17"/>
     </row>
     <row r="33" spans="35:137" x14ac:dyDescent="0.25">
-      <c r="CX33" s="29"/>
+      <c r="CX33" s="28"/>
       <c r="DC33" s="17"/>
-      <c r="DD33" s="29"/>
+      <c r="DD33" s="28"/>
     </row>
     <row r="34" spans="35:137" x14ac:dyDescent="0.25">
       <c r="DC34" s="17"/>
@@ -12768,7 +14109,7 @@
     <row r="40" spans="35:137" x14ac:dyDescent="0.25">
       <c r="DE40" s="1"/>
     </row>
-    <row r="46" spans="35:137" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="35:137" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="35:137" x14ac:dyDescent="0.25">
       <c r="AI47" s="15"/>
     </row>
@@ -12971,98 +14312,98 @@
       <c r="DF56" s="7"/>
     </row>
     <row r="57" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD57" s="29"/>
-      <c r="DE57" s="29"/>
-      <c r="DF57" s="29"/>
+      <c r="DD57" s="28"/>
+      <c r="DE57" s="28"/>
+      <c r="DF57" s="28"/>
     </row>
     <row r="58" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD58" s="30"/>
-      <c r="DE58" s="30"/>
-      <c r="DF58" s="30"/>
+      <c r="DD58" s="29"/>
+      <c r="DE58" s="29"/>
+      <c r="DF58" s="29"/>
       <c r="DG58" s="17"/>
     </row>
     <row r="59" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD59" s="30"/>
-      <c r="DE59" s="30"/>
-      <c r="DF59" s="30"/>
+      <c r="DD59" s="29"/>
+      <c r="DE59" s="29"/>
+      <c r="DF59" s="29"/>
       <c r="DG59" s="17"/>
     </row>
     <row r="60" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD60" s="44"/>
-      <c r="DE60" s="44"/>
-      <c r="DF60" s="44"/>
+      <c r="DD60" s="45"/>
+      <c r="DE60" s="45"/>
+      <c r="DF60" s="45"/>
       <c r="DG60" s="17"/>
     </row>
     <row r="61" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD61" s="30"/>
-      <c r="DE61" s="30"/>
-      <c r="DF61" s="31"/>
+      <c r="DD61" s="29"/>
+      <c r="DE61" s="29"/>
+      <c r="DF61" s="30"/>
       <c r="DG61" s="17"/>
     </row>
     <row r="62" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD62" s="30"/>
-      <c r="DE62" s="30"/>
-      <c r="DF62" s="30"/>
+      <c r="DD62" s="29"/>
+      <c r="DE62" s="29"/>
+      <c r="DF62" s="29"/>
       <c r="DG62" s="17"/>
     </row>
     <row r="63" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD63" s="30"/>
-      <c r="DE63" s="30"/>
-      <c r="DF63" s="30"/>
+      <c r="DD63" s="29"/>
+      <c r="DE63" s="29"/>
+      <c r="DF63" s="29"/>
       <c r="DG63" s="17"/>
     </row>
     <row r="64" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD64" s="32"/>
-      <c r="DE64" s="30"/>
-      <c r="DF64" s="30"/>
+      <c r="DD64" s="31"/>
+      <c r="DE64" s="29"/>
+      <c r="DF64" s="29"/>
       <c r="DG64" s="17"/>
     </row>
     <row r="65" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD65" s="32"/>
-      <c r="DE65" s="30"/>
-      <c r="DF65" s="30"/>
+      <c r="DD65" s="31"/>
+      <c r="DE65" s="29"/>
+      <c r="DF65" s="29"/>
       <c r="DG65" s="17"/>
     </row>
     <row r="66" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD66" s="30"/>
-      <c r="DE66" s="30"/>
-      <c r="DF66" s="30"/>
+      <c r="DD66" s="29"/>
+      <c r="DE66" s="29"/>
+      <c r="DF66" s="29"/>
       <c r="DG66" s="17"/>
     </row>
     <row r="67" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD67" s="29"/>
-      <c r="DE67" s="29"/>
-      <c r="DF67" s="29"/>
+      <c r="DD67" s="28"/>
+      <c r="DE67" s="28"/>
+      <c r="DF67" s="28"/>
     </row>
     <row r="68" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD68" s="29"/>
-      <c r="DE68" s="29"/>
-      <c r="DF68" s="29"/>
+      <c r="DD68" s="28"/>
+      <c r="DE68" s="28"/>
+      <c r="DF68" s="28"/>
     </row>
     <row r="69" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD69" s="29"/>
-      <c r="DE69" s="29"/>
-      <c r="DF69" s="29"/>
+      <c r="DD69" s="28"/>
+      <c r="DE69" s="28"/>
+      <c r="DF69" s="28"/>
     </row>
     <row r="70" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD70" s="29"/>
-      <c r="DE70" s="29"/>
-      <c r="DF70" s="29"/>
+      <c r="DD70" s="28"/>
+      <c r="DE70" s="28"/>
+      <c r="DF70" s="28"/>
     </row>
     <row r="71" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD71" s="29"/>
-      <c r="DE71" s="29"/>
-      <c r="DF71" s="29"/>
+      <c r="DD71" s="28"/>
+      <c r="DE71" s="28"/>
+      <c r="DF71" s="28"/>
     </row>
     <row r="72" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD72" s="29"/>
-      <c r="DE72" s="29"/>
-      <c r="DF72" s="29"/>
+      <c r="DD72" s="28"/>
+      <c r="DE72" s="28"/>
+      <c r="DF72" s="28"/>
     </row>
     <row r="73" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD73" s="29"/>
-      <c r="DE73" s="29"/>
-      <c r="DF73" s="29"/>
+      <c r="DD73" s="28"/>
+      <c r="DE73" s="28"/>
+      <c r="DF73" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Data/Real.Model.Simple v.1.3.xlsx
+++ b/Data/Real.Model.Simple v.1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DelMe\Covid\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134A9A91-3798-410F-94F5-891380659C27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B26407-8840-41DD-B431-CEA7F0F37DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C6EFD3A4-A7B5-475D-8F42-E10B52230622}"/>
   </bookViews>
@@ -159,12 +159,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -178,6 +172,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,11 +301,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -317,19 +314,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,6 +1134,18 @@
                 </c:pt>
                 <c:pt idx="112" formatCode="0.000000">
                   <c:v>2.1309424724602205E-3</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="0.000000">
+                  <c:v>2.1416768665850675E-3</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="0.000000">
+                  <c:v>2.1505385556915544E-3</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="0.000000">
+                  <c:v>2.1572093023255814E-3</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="0.000000">
+                  <c:v>2.1621909424724603E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8404,6 +8416,18 @@
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>0.42469683476132197</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.42683619951040397</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.4286023341493268</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.4299318139534884</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.43092465483476139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10713,11 +10737,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B7E176-5706-4C21-988E-A9D87E8D9EA2}">
   <dimension ref="A1:FD73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CA3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="CJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CH13" sqref="CH13"/>
+      <selection pane="bottomRight" activeCell="DM12" sqref="DM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10968,7 +10992,7 @@
       <c r="CA1" s="1">
         <v>43929</v>
       </c>
-      <c r="CB1" s="38">
+      <c r="CB1" s="34">
         <v>43930</v>
       </c>
       <c r="CC1" s="1">
@@ -11743,348 +11767,360 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:160" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:160" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="22">
         <v>0</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="22">
         <v>0</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="22">
         <v>0</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="22">
         <v>0</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="22">
         <v>0</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="22">
         <v>1</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="22">
         <v>4</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="22">
         <v>4</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="22">
         <v>4</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="22">
         <v>5</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="22">
         <v>8</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="22">
         <v>10</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3" s="22">
         <v>12</v>
       </c>
-      <c r="O3" s="25">
+      <c r="O3" s="22">
         <v>12</v>
       </c>
-      <c r="P3" s="25">
+      <c r="P3" s="22">
         <v>12</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="Q3" s="22">
         <v>12</v>
       </c>
-      <c r="R3" s="25">
+      <c r="R3" s="22">
         <v>13</v>
       </c>
-      <c r="S3" s="25">
+      <c r="S3" s="22">
         <v>13</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="22">
         <v>14</v>
       </c>
-      <c r="U3" s="25">
+      <c r="U3" s="22">
         <v>14</v>
       </c>
-      <c r="V3" s="25">
+      <c r="V3" s="22">
         <v>16</v>
       </c>
-      <c r="W3" s="25">
+      <c r="W3" s="22">
         <v>16</v>
       </c>
-      <c r="X3" s="25">
+      <c r="X3" s="22">
         <v>16</v>
       </c>
-      <c r="Y3" s="25">
+      <c r="Y3" s="22">
         <v>16</v>
       </c>
-      <c r="Z3" s="25">
+      <c r="Z3" s="22">
         <v>16</v>
       </c>
-      <c r="AA3" s="25">
+      <c r="AA3" s="22">
         <v>16</v>
       </c>
-      <c r="AB3" s="25">
+      <c r="AB3" s="22">
         <v>16</v>
       </c>
-      <c r="AC3" s="25">
+      <c r="AC3" s="22">
         <v>16</v>
       </c>
-      <c r="AD3" s="25">
+      <c r="AD3" s="22">
         <v>16</v>
       </c>
-      <c r="AE3" s="25">
+      <c r="AE3" s="22">
         <v>16</v>
       </c>
-      <c r="AF3" s="25">
+      <c r="AF3" s="22">
         <v>16</v>
       </c>
-      <c r="AG3" s="25">
+      <c r="AG3" s="22">
         <v>16</v>
       </c>
-      <c r="AH3" s="25">
+      <c r="AH3" s="22">
         <v>16</v>
       </c>
-      <c r="AI3" s="25">
+      <c r="AI3" s="22">
         <v>16</v>
       </c>
-      <c r="AJ3" s="25">
+      <c r="AJ3" s="22">
         <v>17</v>
       </c>
-      <c r="AK3" s="25">
+      <c r="AK3" s="22">
         <v>27</v>
       </c>
-      <c r="AL3" s="25">
+      <c r="AL3" s="22">
         <v>46</v>
       </c>
-      <c r="AM3" s="25">
+      <c r="AM3" s="22">
         <v>48</v>
       </c>
-      <c r="AN3" s="25">
+      <c r="AN3" s="22">
         <v>79</v>
       </c>
-      <c r="AO3" s="25">
+      <c r="AO3" s="22">
         <v>130</v>
       </c>
-      <c r="AP3" s="25">
+      <c r="AP3" s="22">
         <v>159</v>
       </c>
-      <c r="AQ3" s="25">
+      <c r="AQ3" s="22">
         <v>196</v>
       </c>
-      <c r="AR3" s="25">
+      <c r="AR3" s="22">
         <v>262</v>
       </c>
-      <c r="AS3" s="25">
+      <c r="AS3" s="22">
         <v>482</v>
       </c>
-      <c r="AT3" s="25">
+      <c r="AT3" s="22">
         <v>670</v>
       </c>
-      <c r="AU3" s="25">
+      <c r="AU3" s="22">
         <v>799</v>
       </c>
-      <c r="AV3" s="25">
+      <c r="AV3" s="22">
         <v>1040</v>
       </c>
-      <c r="AW3" s="25">
+      <c r="AW3" s="22">
         <v>1176</v>
       </c>
-      <c r="AX3" s="25">
+      <c r="AX3" s="22">
         <v>1457</v>
       </c>
-      <c r="AY3" s="25">
+      <c r="AY3" s="22">
         <v>1966</v>
       </c>
-      <c r="AZ3" s="25">
+      <c r="AZ3" s="22">
         <v>2745</v>
       </c>
-      <c r="BA3" s="25">
+      <c r="BA3" s="22">
         <v>3675</v>
       </c>
-      <c r="BB3" s="25">
+      <c r="BB3" s="22">
         <v>4599</v>
       </c>
-      <c r="BC3" s="25">
+      <c r="BC3" s="22">
         <v>5813</v>
       </c>
-      <c r="BD3" s="26">
+      <c r="BD3" s="23">
         <v>7272</v>
       </c>
-      <c r="BE3" s="25">
+      <c r="BE3" s="22">
         <v>9367</v>
       </c>
-      <c r="BF3" s="25">
+      <c r="BF3" s="22">
         <v>12327</v>
       </c>
-      <c r="BG3" s="25">
+      <c r="BG3" s="22">
         <v>15320</v>
       </c>
-      <c r="BH3" s="25">
+      <c r="BH3" s="22">
         <v>19848</v>
       </c>
-      <c r="BI3" s="25">
+      <c r="BI3" s="22">
         <v>22364</v>
       </c>
-      <c r="BJ3" s="25">
+      <c r="BJ3" s="22">
         <v>24873</v>
       </c>
-      <c r="BK3" s="25">
+      <c r="BK3" s="22">
         <v>29056</v>
       </c>
-      <c r="BL3" s="25">
+      <c r="BL3" s="22">
         <v>32991</v>
       </c>
-      <c r="BM3" s="25">
+      <c r="BM3" s="22">
         <v>37323</v>
       </c>
-      <c r="BN3" s="25">
+      <c r="BN3" s="22">
         <v>43938</v>
       </c>
-      <c r="BO3" s="26">
+      <c r="BO3" s="23">
         <v>50871</v>
       </c>
-      <c r="BP3" s="26">
+      <c r="BP3" s="23">
         <v>57695</v>
       </c>
-      <c r="BQ3" s="26">
+      <c r="BQ3" s="23">
         <v>62435</v>
       </c>
-      <c r="BR3" s="26">
+      <c r="BR3" s="23">
         <v>66885</v>
       </c>
-      <c r="BS3" s="26">
+      <c r="BS3" s="23">
         <v>71808</v>
       </c>
-      <c r="BT3" s="26">
+      <c r="BT3" s="23">
         <v>77766</v>
       </c>
-      <c r="BU3" s="26">
+      <c r="BU3" s="23">
         <v>84794</v>
       </c>
-      <c r="BV3" s="26">
+      <c r="BV3" s="23">
         <v>91159</v>
       </c>
-      <c r="BW3" s="26">
+      <c r="BW3" s="23">
         <v>96092</v>
       </c>
-      <c r="BX3" s="26">
+      <c r="BX3" s="23">
         <v>100123</v>
       </c>
-      <c r="BY3" s="26">
+      <c r="BY3" s="23">
         <v>103374</v>
       </c>
-      <c r="BZ3" s="26">
+      <c r="BZ3" s="23">
         <v>107663</v>
       </c>
-      <c r="CA3" s="26">
+      <c r="CA3" s="23">
         <v>113296</v>
       </c>
-      <c r="CB3" s="26">
+      <c r="CB3" s="23">
         <v>118235</v>
       </c>
-      <c r="CC3" s="26">
+      <c r="CC3" s="23">
         <v>122171</v>
       </c>
-      <c r="CD3" s="26">
+      <c r="CD3" s="23">
         <v>125452</v>
       </c>
-      <c r="CE3" s="26">
+      <c r="CE3" s="23">
         <v>127854</v>
       </c>
-      <c r="CF3" s="26">
+      <c r="CF3" s="23">
         <v>130072</v>
       </c>
-      <c r="CG3" s="25">
+      <c r="CG3" s="22">
         <v>132210</v>
       </c>
-      <c r="CH3" s="26">
+      <c r="CH3" s="23">
         <v>134753</v>
       </c>
-      <c r="CI3" s="26">
+      <c r="CI3" s="23">
         <v>137698</v>
       </c>
-      <c r="CJ3" s="26">
+      <c r="CJ3" s="23">
         <v>141397</v>
       </c>
-      <c r="CK3" s="26">
+      <c r="CK3" s="23">
         <v>143475</v>
       </c>
-      <c r="CL3" s="26">
+      <c r="CL3" s="23">
         <v>145742</v>
       </c>
-      <c r="CM3" s="26">
+      <c r="CM3" s="23">
         <v>147065</v>
       </c>
-      <c r="CN3" s="26">
+      <c r="CN3" s="23">
         <v>148453</v>
       </c>
-      <c r="CO3" s="26">
+      <c r="CO3" s="23">
         <v>150648</v>
       </c>
-      <c r="CP3" s="26">
+      <c r="CP3" s="23">
         <v>153129</v>
       </c>
-      <c r="CQ3" s="26">
+      <c r="CQ3" s="23">
         <v>154999</v>
       </c>
-      <c r="CR3" s="26">
+      <c r="CR3" s="23">
         <v>156513</v>
       </c>
-      <c r="CS3" s="26">
+      <c r="CS3" s="23">
         <v>157770</v>
       </c>
-      <c r="CT3" s="26">
+      <c r="CT3" s="23">
         <v>158758</v>
       </c>
-      <c r="CU3" s="26">
+      <c r="CU3" s="23">
         <v>159912</v>
       </c>
-      <c r="CV3" s="26">
+      <c r="CV3" s="23">
         <v>161539</v>
       </c>
-      <c r="CW3" s="26">
+      <c r="CW3" s="23">
         <v>163009</v>
       </c>
-      <c r="CX3" s="26">
+      <c r="CX3" s="23">
         <v>164077</v>
       </c>
-      <c r="CY3" s="25">
+      <c r="CY3" s="22">
         <v>164967</v>
       </c>
-      <c r="CZ3" s="25">
+      <c r="CZ3" s="22">
         <v>165664</v>
       </c>
-      <c r="DA3" s="25">
+      <c r="DA3" s="22">
         <v>165664</v>
       </c>
-      <c r="DB3" s="25">
+      <c r="DB3" s="22">
         <v>167007</v>
       </c>
-      <c r="DC3" s="25">
+      <c r="DC3" s="22">
         <v>168162</v>
       </c>
-      <c r="DD3" s="25">
+      <c r="DD3" s="22">
         <v>169430</v>
       </c>
-      <c r="DE3" s="25">
+      <c r="DE3" s="22">
         <v>170588</v>
       </c>
-      <c r="DF3" s="25">
+      <c r="DF3" s="22">
         <v>171324</v>
       </c>
-      <c r="DG3" s="25">
+      <c r="DG3" s="22">
         <v>171879</v>
       </c>
-      <c r="DH3" s="25">
+      <c r="DH3" s="22">
         <v>172576</v>
       </c>
-      <c r="DI3" s="25">
+      <c r="DI3" s="22">
         <v>173171</v>
       </c>
-      <c r="DJ3" s="25">
+      <c r="DJ3" s="22">
         <v>174098</v>
+      </c>
+      <c r="DK3" s="22">
+        <v>174975</v>
+      </c>
+      <c r="DL3" s="22">
+        <v>175699</v>
+      </c>
+      <c r="DM3" s="22">
+        <v>176244</v>
+      </c>
+      <c r="DN3" s="22">
+        <v>176651</v>
       </c>
     </row>
     <row r="4" spans="1:160" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12411,513 +12447,529 @@
         <f t="shared" si="6"/>
         <v>2.1309424724602205E-3</v>
       </c>
+      <c r="DK4" s="10">
+        <f t="shared" ref="DK4:DN4" si="7">DK3/$CV$12</f>
+        <v>2.1416768665850675E-3</v>
+      </c>
+      <c r="DL4" s="10">
+        <f t="shared" si="7"/>
+        <v>2.1505385556915544E-3</v>
+      </c>
+      <c r="DM4" s="10">
+        <f t="shared" si="7"/>
+        <v>2.1572093023255814E-3</v>
+      </c>
+      <c r="DN4" s="10">
+        <f t="shared" si="7"/>
+        <v>2.1621909424724603E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:160" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:160" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AI5" s="37">
+      <c r="AI5" s="33">
         <f>CV11</f>
         <v>1E-4</v>
       </c>
-      <c r="AJ5" s="42">
-        <f t="shared" ref="AJ5:BH5" si="7">AI5*EXP(($CV$17*(1-AI5)-1)/$CV$13)</f>
+      <c r="AJ5" s="38">
+        <f t="shared" ref="AJ5:BH5" si="8">AI5*EXP(($CV$17*(1-AI5)-1)/$CV$13)</f>
         <v>1.2839804765846141E-4</v>
       </c>
-      <c r="AK5" s="42">
-        <f t="shared" si="7"/>
+      <c r="AK5" s="38">
+        <f t="shared" si="8"/>
         <v>1.6485894783161188E-4</v>
       </c>
-      <c r="AL5" s="42">
-        <f t="shared" si="7"/>
+      <c r="AL5" s="38">
+        <f t="shared" si="8"/>
         <v>2.1167086528916837E-4</v>
       </c>
-      <c r="AM5" s="42">
-        <f t="shared" si="7"/>
+      <c r="AM5" s="38">
+        <f t="shared" si="8"/>
         <v>2.7177063618374388E-4</v>
       </c>
-      <c r="AN5" s="42">
-        <f t="shared" si="7"/>
+      <c r="AN5" s="38">
+        <f t="shared" si="8"/>
         <v>3.489272129310451E-4</v>
       </c>
-      <c r="AO5" s="42">
-        <f t="shared" si="7"/>
+      <c r="AO5" s="38">
+        <f t="shared" si="8"/>
         <v>4.4797669769548509E-4</v>
       </c>
-      <c r="AP5" s="42">
-        <f t="shared" si="7"/>
+      <c r="AP5" s="38">
+        <f t="shared" si="8"/>
         <v>5.7512328421477951E-4</v>
       </c>
-      <c r="AQ5" s="42">
-        <f t="shared" si="7"/>
+      <c r="AQ5" s="38">
+        <f t="shared" si="8"/>
         <v>7.3832428008197362E-4</v>
       </c>
-      <c r="AR5" s="42">
-        <f t="shared" si="7"/>
+      <c r="AR5" s="38">
+        <f t="shared" si="8"/>
         <v>9.4778219002383379E-4</v>
       </c>
-      <c r="AS5" s="42">
-        <f t="shared" si="7"/>
+      <c r="AS5" s="38">
+        <f t="shared" si="8"/>
         <v>1.2165727884233294E-3</v>
       </c>
-      <c r="AT5" s="42">
-        <f t="shared" si="7"/>
+      <c r="AT5" s="38">
+        <f t="shared" si="8"/>
         <v>1.5614453758322007E-3</v>
       </c>
-      <c r="AU5" s="42">
-        <f t="shared" si="7"/>
+      <c r="AU5" s="38">
+        <f t="shared" si="8"/>
         <v>2.0038401396194547E-3</v>
       </c>
-      <c r="AV5" s="42">
-        <f t="shared" si="7"/>
+      <c r="AV5" s="38">
+        <f t="shared" si="8"/>
         <v>2.5711777575238895E-3</v>
       </c>
-      <c r="AW5" s="42">
-        <f t="shared" si="7"/>
+      <c r="AW5" s="38">
+        <f t="shared" si="8"/>
         <v>3.2984879058971261E-3</v>
       </c>
-      <c r="AX5" s="42">
-        <f t="shared" si="7"/>
+      <c r="AX5" s="38">
+        <f t="shared" si="8"/>
         <v>4.2304555502782728E-3</v>
       </c>
-      <c r="AY5" s="42">
-        <f t="shared" si="7"/>
+      <c r="AY5" s="38">
+        <f t="shared" si="8"/>
         <v>5.4239754417025341E-3</v>
       </c>
-      <c r="AZ5" s="42">
-        <f t="shared" si="7"/>
+      <c r="AZ5" s="38">
+        <f t="shared" si="8"/>
         <v>6.9513134790624553E-3</v>
       </c>
-      <c r="BA5" s="42">
-        <f t="shared" si="7"/>
+      <c r="BA5" s="38">
+        <f t="shared" si="8"/>
         <v>8.9039738028911727E-3</v>
       </c>
-      <c r="BB5" s="42">
-        <f t="shared" si="7"/>
+      <c r="BB5" s="38">
+        <f t="shared" si="8"/>
         <v>1.1397354658404166E-2</v>
       </c>
-      <c r="BC5" s="42">
-        <f t="shared" si="7"/>
+      <c r="BC5" s="38">
+        <f t="shared" si="8"/>
         <v>1.4576231269268521E-2</v>
       </c>
-      <c r="BD5" s="42">
-        <f t="shared" si="7"/>
+      <c r="BD5" s="38">
+        <f t="shared" si="8"/>
         <v>1.862101023765253E-2</v>
       </c>
-      <c r="BE5" s="42">
-        <f t="shared" si="7"/>
+      <c r="BE5" s="38">
+        <f t="shared" si="8"/>
         <v>2.375452817499165E-2</v>
       </c>
-      <c r="BF5" s="42">
-        <f t="shared" si="7"/>
+      <c r="BF5" s="38">
+        <f t="shared" si="8"/>
         <v>3.0248877835623633E-2</v>
       </c>
-      <c r="BG5" s="42">
-        <f t="shared" si="7"/>
+      <c r="BG5" s="38">
+        <f t="shared" si="8"/>
         <v>3.8431290332989025E-2</v>
       </c>
-      <c r="BH5" s="40">
-        <f t="shared" si="7"/>
+      <c r="BH5" s="36">
+        <f t="shared" si="8"/>
         <v>4.8687436947574506E-2</v>
       </c>
-      <c r="BI5" s="41">
-        <f t="shared" ref="BI5:BP5" si="8">BH5*EXP(($CV$18*(1-BH5)-1)/$CV$13)</f>
+      <c r="BI5" s="37">
+        <f t="shared" ref="BI5:BP5" si="9">BH5*EXP(($CV$18*(1-BH5)-1)/$CV$13)</f>
         <v>5.6416535320700373E-2</v>
       </c>
-      <c r="BJ5" s="41">
-        <f t="shared" si="8"/>
+      <c r="BJ5" s="37">
+        <f t="shared" si="9"/>
         <v>6.5241384279887099E-2</v>
       </c>
-      <c r="BK5" s="41">
-        <f t="shared" si="8"/>
+      <c r="BK5" s="37">
+        <f t="shared" si="9"/>
         <v>7.527373249381919E-2</v>
       </c>
-      <c r="BL5" s="41">
-        <f t="shared" si="8"/>
+      <c r="BL5" s="37">
+        <f t="shared" si="9"/>
         <v>8.6622540571482096E-2</v>
       </c>
-      <c r="BM5" s="41">
-        <f t="shared" si="8"/>
+      <c r="BM5" s="37">
+        <f t="shared" si="9"/>
         <v>9.9388678112578593E-2</v>
       </c>
-      <c r="BN5" s="41">
-        <f t="shared" si="8"/>
+      <c r="BN5" s="37">
+        <f t="shared" si="9"/>
         <v>0.11365836475226639</v>
       </c>
-      <c r="BO5" s="41">
-        <f t="shared" si="8"/>
+      <c r="BO5" s="37">
+        <f t="shared" si="9"/>
         <v>0.12949547957095819</v>
       </c>
-      <c r="BP5" s="41">
-        <f t="shared" si="8"/>
+      <c r="BP5" s="37">
+        <f t="shared" si="9"/>
         <v>0.14693306589776656</v>
       </c>
-      <c r="BQ5" s="39">
-        <f t="shared" ref="BQ5:BY5" si="9">BP5*EXP(($CV$19*(1-BP5)-1)/$CV$13)</f>
+      <c r="BQ5" s="35">
+        <f t="shared" ref="BQ5:BY5" si="10">BP5*EXP(($CV$19*(1-BP5)-1)/$CV$13)</f>
         <v>0.15849276371481125</v>
       </c>
-      <c r="BR5" s="39">
-        <f t="shared" si="9"/>
+      <c r="BR5" s="35">
+        <f t="shared" si="10"/>
         <v>0.17055527336627552</v>
       </c>
-      <c r="BS5" s="39">
-        <f t="shared" si="9"/>
+      <c r="BS5" s="35">
+        <f t="shared" si="10"/>
         <v>0.18308033431442436</v>
       </c>
-      <c r="BT5" s="39">
-        <f t="shared" si="9"/>
+      <c r="BT5" s="35">
+        <f t="shared" si="10"/>
         <v>0.19601878431330463</v>
       </c>
-      <c r="BU5" s="39">
-        <f t="shared" si="9"/>
+      <c r="BU5" s="35">
+        <f t="shared" si="10"/>
         <v>0.20931297573615074</v>
       </c>
-      <c r="BV5" s="39">
-        <f t="shared" si="9"/>
+      <c r="BV5" s="35">
+        <f t="shared" si="10"/>
         <v>0.22289752805482305</v>
       </c>
-      <c r="BW5" s="39">
-        <f t="shared" si="9"/>
+      <c r="BW5" s="35">
+        <f t="shared" si="10"/>
         <v>0.23670041259262309</v>
       </c>
-      <c r="BX5" s="39">
-        <f t="shared" si="9"/>
+      <c r="BX5" s="35">
+        <f t="shared" si="10"/>
         <v>0.25064434312354011</v>
       </c>
-      <c r="BY5" s="39">
-        <f t="shared" si="9"/>
+      <c r="BY5" s="35">
+        <f t="shared" si="10"/>
         <v>0.26464842312485537</v>
       </c>
-      <c r="BZ5" s="40">
+      <c r="BZ5" s="36">
         <f>BY5*EXP(($CV$20*(1-BY5)-1)/$CV$13)</f>
         <v>0.27265078302217449</v>
       </c>
-      <c r="CA5" s="40">
-        <f t="shared" ref="CA5:EG5" si="10">BZ5*EXP(($CV$20*(1-BZ5)-1)/$CV$13)</f>
+      <c r="CA5" s="36">
+        <f t="shared" ref="CA5:CY5" si="11">BZ5*EXP(($CV$20*(1-BZ5)-1)/$CV$13)</f>
         <v>0.28049865503287463</v>
       </c>
-      <c r="CB5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CB5" s="36">
+        <f t="shared" si="11"/>
         <v>0.28817297787135182</v>
       </c>
-      <c r="CC5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CC5" s="36">
+        <f t="shared" si="11"/>
         <v>0.29565652346655569</v>
       </c>
-      <c r="CD5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CD5" s="36">
+        <f t="shared" si="11"/>
         <v>0.30293401528590425</v>
       </c>
-      <c r="CE5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CE5" s="36">
+        <f t="shared" si="11"/>
         <v>0.30999220647568099</v>
       </c>
-      <c r="CF5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CF5" s="36">
+        <f t="shared" si="11"/>
         <v>0.31681991859579656</v>
       </c>
-      <c r="CG5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CG5" s="36">
+        <f t="shared" si="11"/>
         <v>0.32340804291054587</v>
       </c>
-      <c r="CH5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CH5" s="36">
+        <f t="shared" si="11"/>
         <v>0.32974950719423179</v>
       </c>
-      <c r="CI5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CI5" s="36">
+        <f t="shared" si="11"/>
         <v>0.33583921179156667</v>
       </c>
-      <c r="CJ5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CJ5" s="36">
+        <f t="shared" si="11"/>
         <v>0.34167393922427108</v>
       </c>
-      <c r="CK5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CK5" s="36">
+        <f t="shared" si="11"/>
         <v>0.34725224195907223</v>
       </c>
-      <c r="CL5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CL5" s="36">
+        <f t="shared" si="11"/>
         <v>0.35257431306298476</v>
       </c>
-      <c r="CM5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CM5" s="36">
+        <f t="shared" si="11"/>
         <v>0.35764184439383478</v>
       </c>
-      <c r="CN5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CN5" s="36">
+        <f t="shared" si="11"/>
         <v>0.36245787673859997</v>
       </c>
-      <c r="CO5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CO5" s="36">
+        <f t="shared" si="11"/>
         <v>0.36702664595389106</v>
       </c>
-      <c r="CP5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CP5" s="36">
+        <f t="shared" si="11"/>
         <v>0.37135342871704108</v>
       </c>
-      <c r="CQ5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CQ5" s="36">
+        <f t="shared" si="11"/>
         <v>0.37544439099635563</v>
       </c>
-      <c r="CR5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CR5" s="36">
+        <f t="shared" si="11"/>
         <v>0.3793064418252603</v>
       </c>
-      <c r="CS5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CS5" s="36">
+        <f t="shared" si="11"/>
         <v>0.38294709444297176</v>
       </c>
-      <c r="CT5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CT5" s="36">
+        <f t="shared" si="11"/>
         <v>0.38637433636444091</v>
       </c>
-      <c r="CU5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CU5" s="36">
+        <f t="shared" si="11"/>
         <v>0.38959650948000901</v>
       </c>
-      <c r="CV5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CV5" s="36">
+        <f t="shared" si="11"/>
         <v>0.39262220087091732</v>
       </c>
-      <c r="CW5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CW5" s="36">
+        <f t="shared" si="11"/>
         <v>0.39546014466657109</v>
       </c>
-      <c r="CX5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CX5" s="36">
+        <f t="shared" si="11"/>
         <v>0.39811913496563311</v>
       </c>
-      <c r="CY5" s="40">
-        <f t="shared" si="10"/>
+      <c r="CY5" s="36">
+        <f t="shared" si="11"/>
         <v>0.40060794959500312</v>
       </c>
-      <c r="CZ5" s="40">
-        <f t="shared" ref="CZ5" si="11">CY5*EXP(($CV$20*(1-CY5)-1)/$CV$13)</f>
+      <c r="CZ5" s="36">
+        <f t="shared" ref="CZ5" si="12">CY5*EXP(($CV$20*(1-CY5)-1)/$CV$13)</f>
         <v>0.40293528428567654</v>
       </c>
-      <c r="DA5" s="40">
-        <f t="shared" ref="DA5" si="12">CZ5*EXP(($CV$20*(1-CZ5)-1)/$CV$13)</f>
+      <c r="DA5" s="36">
+        <f t="shared" ref="DA5" si="13">CZ5*EXP(($CV$20*(1-CZ5)-1)/$CV$13)</f>
         <v>0.4051096966979808</v>
       </c>
-      <c r="DB5" s="39">
+      <c r="DB5" s="35">
         <f>DA5*EXP(($CV$21*(1-DA5)-1)/$CV$13)</f>
         <v>0.40798815457179177</v>
       </c>
-      <c r="DC5" s="39">
-        <f t="shared" ref="DC5:EG5" si="13">DB5*EXP(($CV$21*(1-DB5)-1)/$CV$13)</f>
+      <c r="DC5" s="35">
+        <f t="shared" ref="DC5:EG5" si="14">DB5*EXP(($CV$21*(1-DB5)-1)/$CV$13)</f>
         <v>0.41067423032194728</v>
       </c>
-      <c r="DD5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DD5" s="35">
+        <f t="shared" si="14"/>
         <v>0.4131781730981216</v>
       </c>
-      <c r="DE5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DE5" s="35">
+        <f t="shared" si="14"/>
         <v>0.41551006616470088</v>
       </c>
-      <c r="DF5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DF5" s="35">
+        <f t="shared" si="14"/>
         <v>0.41767976594052436</v>
       </c>
-      <c r="DG5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DG5" s="35">
+        <f t="shared" si="14"/>
         <v>0.41969685247727756</v>
       </c>
-      <c r="DH5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DH5" s="35">
+        <f t="shared" si="14"/>
         <v>0.4215705902856598</v>
       </c>
-      <c r="DI5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DI5" s="35">
+        <f t="shared" si="14"/>
         <v>0.42330989840577604</v>
       </c>
-      <c r="DJ5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DJ5" s="35">
+        <f t="shared" si="14"/>
         <v>0.42492332863693094</v>
       </c>
-      <c r="DK5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DK5" s="35">
+        <f t="shared" ref="DK5" si="15">DJ5*EXP(($CV$21*(1-DJ5)-1)/$CV$13)</f>
         <v>0.42641905088440629</v>
       </c>
-      <c r="DL5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DL5" s="35">
+        <f t="shared" ref="DL5" si="16">DK5*EXP(($CV$21*(1-DK5)-1)/$CV$13)</f>
         <v>0.427804844640161</v>
       </c>
-      <c r="DM5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DM5" s="35">
+        <f t="shared" ref="DM5" si="17">DL5*EXP(($CV$21*(1-DL5)-1)/$CV$13)</f>
         <v>0.42908809568503775</v>
       </c>
-      <c r="DN5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DN5" s="35">
+        <f t="shared" ref="DN5" si="18">DM5*EXP(($CV$21*(1-DM5)-1)/$CV$13)</f>
         <v>0.43027579717732312</v>
       </c>
-      <c r="DO5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DO5" s="35">
+        <f t="shared" si="14"/>
         <v>0.43137455437265082</v>
       </c>
-      <c r="DP5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DP5" s="35">
+        <f t="shared" si="14"/>
         <v>0.43239059230037208</v>
       </c>
-      <c r="DQ5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DQ5" s="35">
+        <f t="shared" si="14"/>
         <v>0.43332976579945515</v>
       </c>
-      <c r="DR5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DR5" s="35">
+        <f t="shared" si="14"/>
         <v>0.43419757139117637</v>
       </c>
-      <c r="DS5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DS5" s="35">
+        <f t="shared" si="14"/>
         <v>0.43499916053526216</v>
       </c>
-      <c r="DT5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DT5" s="35">
+        <f t="shared" si="14"/>
         <v>0.43573935388010537</v>
       </c>
-      <c r="DU5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DU5" s="35">
+        <f t="shared" si="14"/>
         <v>0.43642265617588843</v>
       </c>
-      <c r="DV5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DV5" s="35">
+        <f t="shared" si="14"/>
         <v>0.43705327157183027</v>
       </c>
-      <c r="DW5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DW5" s="35">
+        <f t="shared" si="14"/>
         <v>0.43763511906544628</v>
       </c>
-      <c r="DX5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DX5" s="35">
+        <f t="shared" si="14"/>
         <v>0.4381718479129143</v>
       </c>
-      <c r="DY5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DY5" s="35">
+        <f t="shared" si="14"/>
         <v>0.43866685284570672</v>
       </c>
-      <c r="DZ5" s="39">
-        <f t="shared" si="13"/>
+      <c r="DZ5" s="35">
+        <f t="shared" si="14"/>
         <v>0.43912328896996211</v>
       </c>
-      <c r="EA5" s="39">
-        <f t="shared" si="13"/>
+      <c r="EA5" s="35">
+        <f t="shared" si="14"/>
         <v>0.43954408625204433</v>
       </c>
-      <c r="EB5" s="39">
-        <f t="shared" si="13"/>
+      <c r="EB5" s="35">
+        <f t="shared" si="14"/>
         <v>0.43993196351679115</v>
       </c>
-      <c r="EC5" s="39">
-        <f t="shared" si="13"/>
+      <c r="EC5" s="35">
+        <f t="shared" si="14"/>
         <v>0.44028944190450431</v>
       </c>
-      <c r="ED5" s="39">
-        <f t="shared" si="13"/>
+      <c r="ED5" s="35">
+        <f t="shared" si="14"/>
         <v>0.44061885774917564</v>
       </c>
-      <c r="EE5" s="39">
-        <f t="shared" si="13"/>
+      <c r="EE5" s="35">
+        <f t="shared" si="14"/>
         <v>0.44092237485415225</v>
       </c>
-      <c r="EF5" s="39">
-        <f t="shared" si="13"/>
+      <c r="EF5" s="35">
+        <f t="shared" si="14"/>
         <v>0.4412019961527649</v>
       </c>
-      <c r="EG5" s="39">
-        <f t="shared" si="13"/>
+      <c r="EG5" s="35">
+        <f t="shared" si="14"/>
         <v>0.4414595747506968</v>
       </c>
-      <c r="EH5" s="39">
-        <f t="shared" ref="EH5:FB5" si="14">EG5*EXP(($CV$21*(1-EG5)-1)/$CV$13)</f>
+      <c r="EH5" s="35">
+        <f t="shared" ref="EH5:FB5" si="19">EG5*EXP(($CV$21*(1-EG5)-1)/$CV$13)</f>
         <v>0.44169682435433716</v>
       </c>
-      <c r="EI5" s="39">
-        <f t="shared" si="14"/>
+      <c r="EI5" s="35">
+        <f t="shared" si="19"/>
         <v>0.44191532909530457</v>
       </c>
-      <c r="EJ5" s="39">
-        <f t="shared" si="14"/>
+      <c r="EJ5" s="35">
+        <f t="shared" si="19"/>
         <v>0.4421165527659684</v>
       </c>
-      <c r="EK5" s="39">
-        <f t="shared" si="14"/>
+      <c r="EK5" s="35">
+        <f t="shared" si="19"/>
         <v>0.44230184748433832</v>
       </c>
-      <c r="EL5" s="39">
-        <f t="shared" si="14"/>
+      <c r="EL5" s="35">
+        <f t="shared" si="19"/>
         <v>0.4424724618093161</v>
       </c>
-      <c r="EM5" s="39">
-        <f t="shared" si="14"/>
+      <c r="EM5" s="35">
+        <f t="shared" si="19"/>
         <v>0.44262954832915469</v>
       </c>
-      <c r="EN5" s="39">
-        <f t="shared" si="14"/>
+      <c r="EN5" s="35">
+        <f t="shared" si="19"/>
         <v>0.44277417074718783</v>
       </c>
-      <c r="EO5" s="39">
-        <f t="shared" si="14"/>
+      <c r="EO5" s="35">
+        <f t="shared" si="19"/>
         <v>0.44290731048958815</v>
       </c>
-      <c r="EP5" s="39">
-        <f t="shared" si="14"/>
+      <c r="EP5" s="35">
+        <f t="shared" si="19"/>
         <v>0.44302987286018203</v>
       </c>
-      <c r="EQ5" s="39">
-        <f t="shared" si="14"/>
+      <c r="EQ5" s="35">
+        <f t="shared" si="19"/>
         <v>0.44314269276728058</v>
       </c>
-      <c r="ER5" s="39">
-        <f t="shared" si="14"/>
+      <c r="ER5" s="35">
+        <f t="shared" si="19"/>
         <v>0.44324654004714475</v>
       </c>
-      <c r="ES5" s="39">
-        <f t="shared" si="14"/>
+      <c r="ES5" s="35">
+        <f t="shared" si="19"/>
         <v>0.44334212440815168</v>
       </c>
-      <c r="ET5" s="39">
-        <f t="shared" si="14"/>
+      <c r="ET5" s="35">
+        <f t="shared" si="19"/>
         <v>0.44343010001901834</v>
       </c>
-      <c r="EU5" s="39">
-        <f t="shared" si="14"/>
+      <c r="EU5" s="35">
+        <f t="shared" si="19"/>
         <v>0.44351106976360583</v>
       </c>
-      <c r="EV5" s="39">
-        <f t="shared" si="14"/>
+      <c r="EV5" s="35">
+        <f t="shared" si="19"/>
         <v>0.44358558918391322</v>
       </c>
-      <c r="EW5" s="39">
-        <f t="shared" si="14"/>
+      <c r="EW5" s="35">
+        <f t="shared" si="19"/>
         <v>0.44365417013189429</v>
       </c>
-      <c r="EX5" s="39">
-        <f t="shared" si="14"/>
+      <c r="EX5" s="35">
+        <f t="shared" si="19"/>
         <v>0.44371728414972872</v>
       </c>
-      <c r="EY5" s="39">
-        <f t="shared" si="14"/>
+      <c r="EY5" s="35">
+        <f t="shared" si="19"/>
         <v>0.44377536559715314</v>
       </c>
-      <c r="EZ5" s="39">
-        <f t="shared" si="14"/>
+      <c r="EZ5" s="35">
+        <f t="shared" si="19"/>
         <v>0.44382881454344147</v>
       </c>
-      <c r="FA5" s="39">
-        <f t="shared" si="14"/>
+      <c r="FA5" s="35">
+        <f t="shared" si="19"/>
         <v>0.44387799944061229</v>
       </c>
-      <c r="FB5" s="39">
-        <f t="shared" si="14"/>
+      <c r="FB5" s="35">
+        <f t="shared" si="19"/>
         <v>0.44392325959345486</v>
       </c>
-      <c r="FC5" s="39">
-        <f t="shared" ref="FC5:FD5" si="15">FB5*EXP(($CV$21*(1-FB5)-1)/$CV$13)</f>
+      <c r="FC5" s="35">
+        <f t="shared" ref="FC5:FD5" si="20">FB5*EXP(($CV$21*(1-FB5)-1)/$CV$13)</f>
         <v>0.44396490744100708</v>
       </c>
-      <c r="FD5" s="39">
-        <f t="shared" si="15"/>
+      <c r="FD5" s="35">
+        <f t="shared" si="20"/>
         <v>0.44400323066319181</v>
       </c>
     </row>
@@ -12926,878 +12978,890 @@
         <v>12</v>
       </c>
       <c r="AI6">
-        <f>AI5/$CV$23</f>
+        <f t="shared" ref="AI6:BN6" si="21">AI5/$CV$23</f>
         <v>5.0175614651279476E-7</v>
       </c>
       <c r="AJ6">
-        <f>AJ5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>6.442450961287576E-7</v>
       </c>
       <c r="AK6">
-        <f>AK5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>8.2718990382143434E-7</v>
       </c>
       <c r="AL6">
-        <f>AL5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>1.0620715769652201E-6</v>
       </c>
       <c r="AM6">
-        <f>AM5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>1.3636258714688604E-6</v>
       </c>
       <c r="AN6">
-        <f>AN5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>1.7507637377373061E-6</v>
       </c>
       <c r="AO6">
-        <f>AO5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>2.2477506156321377E-6</v>
       </c>
       <c r="AP6">
-        <f>AP5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>2.885716428573906E-6</v>
       </c>
       <c r="AQ6">
-        <f>AQ5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>3.7045874565076445E-6</v>
       </c>
       <c r="AR6">
-        <f>AR5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>4.7555553939981624E-6</v>
       </c>
       <c r="AS6">
-        <f>AS5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>6.104228742716153E-6</v>
       </c>
       <c r="AT6">
-        <f>AT5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>7.834648147677876E-6</v>
       </c>
       <c r="AU6">
-        <f>AU5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>1.0054391066831183E-5</v>
       </c>
       <c r="AV6">
-        <f>AV5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>1.2901042436145957E-5</v>
       </c>
       <c r="AW6">
-        <f>AW5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>1.6550365809819999E-5</v>
       </c>
       <c r="AX6">
-        <f>AX5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>2.1226570749012908E-5</v>
       </c>
       <c r="AY6">
-        <f>AY5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>2.7215130164086974E-5</v>
       </c>
       <c r="AZ6">
-        <f>AZ5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>3.4878642644568264E-5</v>
       </c>
       <c r="BA6">
-        <f>BA5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>4.4676235839895495E-5</v>
       </c>
       <c r="BB6">
-        <f>BB5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>5.7186927538405244E-5</v>
       </c>
       <c r="BC6">
-        <f>BC5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>7.3137136323474767E-5</v>
       </c>
       <c r="BD6">
-        <f>BD5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>9.3432063410198339E-5</v>
       </c>
       <c r="BE6">
-        <f>BE5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>1.1918980519313421E-4</v>
       </c>
       <c r="BF6">
-        <f>BF5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>1.5177560379138802E-4</v>
       </c>
       <c r="BG6">
-        <f>BG5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>1.9283136142994993E-4</v>
       </c>
       <c r="BH6">
-        <f>BH5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>2.4429220746399651E-4</v>
       </c>
       <c r="BI6">
-        <f>BI5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>2.8307343362117597E-4</v>
       </c>
       <c r="BJ6">
-        <f>BJ5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>3.2735265569436577E-4</v>
       </c>
       <c r="BK6">
-        <f>BK5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>3.7769057949733659E-4</v>
       </c>
       <c r="BL6">
-        <f>BL5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>4.3463392158295076E-4</v>
       </c>
       <c r="BM6">
-        <f>BM5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>4.9868880136767985E-4</v>
       </c>
       <c r="BN6">
-        <f>BN5/$CV$23</f>
+        <f t="shared" si="21"/>
         <v>5.7028783117042843E-4</v>
       </c>
       <c r="BO6">
-        <f>BO5/$CV$23</f>
+        <f t="shared" ref="BO6:CT6" si="22">BO5/$CV$23</f>
         <v>6.4975152820350324E-4</v>
       </c>
       <c r="BP6">
-        <f>BP5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>7.372456894017388E-4</v>
       </c>
       <c r="BQ6">
-        <f>BQ5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>7.9524718371706588E-4</v>
       </c>
       <c r="BR6">
-        <f>BR5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>8.5577156731698697E-4</v>
       </c>
       <c r="BS6">
-        <f>BS5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>9.1861683047879752E-4</v>
       </c>
       <c r="BT6">
-        <f>BT5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>9.8353629861166396E-4</v>
       </c>
       <c r="BU6">
-        <f>BU5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.050240721204971E-3</v>
       </c>
       <c r="BV6">
-        <f>BV5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.1184020474401556E-3</v>
       </c>
       <c r="BW6">
-        <f>BW5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.1876588690046316E-3</v>
       </c>
       <c r="BX6">
-        <f>BX5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.2576233975089819E-3</v>
       </c>
       <c r="BY6">
-        <f>BY5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.3278897296781502E-3</v>
       </c>
       <c r="BZ6">
-        <f>BZ5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.368042062329024E-3</v>
       </c>
       <c r="CA6">
-        <f>CA5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.4074192425131691E-3</v>
       </c>
       <c r="CB6">
-        <f>CB5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.4459256290584636E-3</v>
       </c>
       <c r="CC6">
-        <f>CC5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.4834747790594867E-3</v>
       </c>
       <c r="CD6">
-        <f>CD5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.5199900415750337E-3</v>
       </c>
       <c r="CE6">
-        <f>CE5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.5554049497023632E-3</v>
       </c>
       <c r="CF6">
-        <f>CF5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.589663414931242E-3</v>
       </c>
       <c r="CG6">
-        <f>CG5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.6227197336204007E-3</v>
       </c>
       <c r="CH6">
-        <f>CH5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.6545384204427083E-3</v>
       </c>
       <c r="CI6">
-        <f>CI5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.6850938875643084E-3</v>
       </c>
       <c r="CJ6">
-        <f>CJ5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.714369991090171E-3</v>
       </c>
       <c r="CK6">
-        <f>CK5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.7423594679331269E-3</v>
       </c>
       <c r="CL6">
-        <f>CL5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.7690632868187894E-3</v>
       </c>
       <c r="CM6">
-        <f>CM5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.7944899367477911E-3</v>
       </c>
       <c r="CN6">
-        <f>CN5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.8186546750556948E-3</v>
       </c>
       <c r="CO6">
-        <f>CO5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.8415787554134022E-3</v>
       </c>
       <c r="CP6">
-        <f>CP5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.8632886538737636E-3</v>
       </c>
       <c r="CQ6">
-        <f>CQ5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.8838153085617441E-3</v>
       </c>
       <c r="CR6">
-        <f>CR5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.9031933859772216E-3</v>
       </c>
       <c r="CS6">
-        <f>CS5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.9214605842597678E-3</v>
       </c>
       <c r="CT6">
-        <f>CT5/$CV$23</f>
+        <f t="shared" si="22"/>
         <v>1.9386569812566026E-3</v>
       </c>
       <c r="CU6">
-        <f>CU5/$CV$23</f>
+        <f t="shared" ref="CU6:DZ6" si="23">CU5/$CV$23</f>
         <v>1.9548244329152483E-3</v>
       </c>
       <c r="CV6">
-        <f>CV5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>1.9700060254436392E-3</v>
       </c>
       <c r="CW6">
-        <f>CW5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>1.9842455828729105E-3</v>
       </c>
       <c r="CX6">
-        <f>CX5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>1.9975872301336334E-3</v>
       </c>
       <c r="CY6">
-        <f>CY5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.0100750105118068E-3</v>
       </c>
       <c r="CZ6">
-        <f>CZ5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.0217525553721852E-3</v>
       </c>
       <c r="DA6">
-        <f>DA5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.032662803301459E-3</v>
       </c>
       <c r="DB6">
-        <f>DB5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.047105642608087E-3</v>
       </c>
       <c r="DC6">
-        <f>DC5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.0605831927844819E-3</v>
       </c>
       <c r="DD6">
-        <f>DD5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.0731468795690999E-3</v>
       </c>
       <c r="DE6">
-        <f>DE5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.084847296360767E-3</v>
       </c>
       <c r="DF6">
-        <f>DF5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.0957338983468355E-3</v>
       </c>
       <c r="DG6">
-        <f>DG5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.1058547540254769E-3</v>
       </c>
       <c r="DH6">
-        <f>DH5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.115256348648569E-3</v>
       </c>
       <c r="DI6">
-        <f>DI5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.1239834340480482E-3</v>
       </c>
       <c r="DJ6">
-        <f>DJ5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.1320789194025636E-3</v>
       </c>
       <c r="DK6">
-        <f>DK5/$CV$23</f>
+        <f t="shared" ref="DK6" si="24">DK5/$CV$23</f>
         <v>2.1395837977140303E-3</v>
       </c>
       <c r="DL6">
-        <f>DL5/$CV$23</f>
+        <f t="shared" ref="DL6" si="25">DL5/$CV$23</f>
         <v>2.1465371030615203E-3</v>
       </c>
       <c r="DM6">
-        <f>DM5/$CV$23</f>
+        <f t="shared" ref="DM6" si="26">DM5/$CV$23</f>
         <v>2.1529758940543788E-3</v>
       </c>
       <c r="DN6">
-        <f>DN5/$CV$23</f>
+        <f t="shared" ref="DN6" si="27">DN5/$CV$23</f>
         <v>2.158935259294145E-3</v>
       </c>
       <c r="DO6">
-        <f>DO5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.1644483410569533E-3</v>
       </c>
       <c r="DP6">
-        <f>DP5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.169546373810196E-3</v>
       </c>
       <c r="DQ6">
-        <f>DQ5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.1742587345682644E-3</v>
       </c>
       <c r="DR6">
-        <f>DR5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.1786130024645076E-3</v>
       </c>
       <c r="DS6">
-        <f>DS5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.1826350252647374E-3</v>
       </c>
       <c r="DT6">
-        <f>DT5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.1863489908685667E-3</v>
       </c>
       <c r="DU6">
-        <f>DU5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.1897775021369214E-3</v>
       </c>
       <c r="DV6">
-        <f>DV5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.1929416536469156E-3</v>
       </c>
       <c r="DW6">
-        <f>DW5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.1958611092094643E-3</v>
       </c>
       <c r="DX6">
-        <f>DX5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.1985541791917423E-3</v>
       </c>
       <c r="DY6">
-        <f>DY5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.2010378968675701E-3</v>
       </c>
       <c r="DZ6">
-        <f>DZ5/$CV$23</f>
+        <f t="shared" si="23"/>
         <v>2.2033280931759262E-3</v>
       </c>
       <c r="EA6">
-        <f>EA5/$CV$23</f>
+        <f t="shared" ref="EA6:FF6" si="28">EA5/$CV$23</f>
         <v>2.2054394694031327E-3</v>
       </c>
       <c r="EB6">
-        <f>EB5/$CV$23</f>
+        <f t="shared" si="28"/>
         <v>2.2073856674199254E-3</v>
       </c>
       <c r="EC6">
-        <f>EC5/$CV$23</f>
+        <f t="shared" si="28"/>
         <v>2.2091793372027309E-3</v>
       </c>
       <c r="ED6">
-        <f>ED5/$CV$23</f>
+        <f t="shared" si="28"/>
         <v>2.2108322014509564E-3</v>
       </c>
       <c r="EE6">
-        <f>EE5/$CV$23</f>
+        <f t="shared" si="28"/>
         <v>2.2123551171808944E-3</v>
       </c>
       <c r="EF6">
-        <f>EF5/$CV$23</f>
+        <f t="shared" si="28"/>
         <v>2.2137581342336421E-3</v>
       </c>
       <c r="EG6">
-        <f>EG5/$CV$23</f>
+        <f t="shared" si="28"/>
         <v>2.2150505506808669E-3</v>
       </c>
       <c r="EH6">
-        <f t="shared" ref="EH6:FB6" si="16">EH5/$CV$23</f>
+        <f t="shared" ref="EH6:FB6" si="29">EH5/$CV$23</f>
         <v>2.2162409651497097E-3</v>
       </c>
       <c r="EI6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.2173373261179354E-3</v>
       </c>
       <c r="EJ6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.2183469782537297E-3</v>
       </c>
       <c r="EK6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.2192767058923147E-3</v>
       </c>
       <c r="EL6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.2201327737547218E-3</v>
       </c>
       <c r="EM6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.220920965023355E-3</v>
       </c>
       <c r="EN6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.2216466168950718E-3</v>
       </c>
       <c r="EO6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.2223146537360167E-3</v>
       </c>
       <c r="EP6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.2229296179637832E-3</v>
       </c>
       <c r="EQ6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.22349569878214E-3</v>
       </c>
       <c r="ER6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.2240167588918453E-3</v>
       </c>
       <c r="ES6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.2244963592983023E-3</v>
       </c>
       <c r="ET6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.2249377823332578E-3</v>
       </c>
       <c r="EU6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.2253440530035414E-3</v>
       </c>
       <c r="EV6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.2257179587752795E-3</v>
       </c>
       <c r="EW6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.2260620678971111E-3</v>
       </c>
       <c r="EX6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.2263787463609064E-3</v>
       </c>
       <c r="EY6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.2266701735933424E-3</v>
       </c>
       <c r="EZ6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.2269383569665903E-3</v>
       </c>
       <c r="FA6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.2271851452113009E-3</v>
       </c>
       <c r="FB6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.2274122408101095E-3</v>
       </c>
       <c r="FC6">
-        <f t="shared" ref="FC6" si="17">FC5/$CV$23</f>
+        <f t="shared" ref="FC6" si="30">FC5/$CV$23</f>
         <v>2.2276212114450931E-3</v>
       </c>
       <c r="FD6">
-        <f t="shared" ref="FD6" si="18">FD5/$CV$23</f>
+        <f t="shared" ref="FD6" si="31">FD5/$CV$23</f>
         <v>2.2278135005679468E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:160" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:160" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="AI7" s="44">
-        <f>AI4*$CV$23</f>
+      <c r="AI7" s="40">
+        <f t="shared" ref="AI7:BN7" si="32">AI4*$CV$23</f>
         <v>3.9030599755201961E-5</v>
       </c>
-      <c r="AJ7" s="44">
-        <f>AJ4*$CV$23</f>
+      <c r="AJ7" s="40">
+        <f t="shared" si="32"/>
         <v>4.1470012239902079E-5</v>
       </c>
-      <c r="AK7" s="44">
-        <f>AK4*$CV$23</f>
+      <c r="AK7" s="40">
+        <f t="shared" si="32"/>
         <v>6.5864137086903317E-5</v>
       </c>
-      <c r="AL7" s="44">
-        <f>AL4*$CV$23</f>
+      <c r="AL7" s="40">
+        <f t="shared" si="32"/>
         <v>1.1221297429620563E-4</v>
       </c>
-      <c r="AM7" s="44">
-        <f>AM4*$CV$23</f>
+      <c r="AM7" s="40">
+        <f t="shared" si="32"/>
         <v>1.1709179926560588E-4</v>
       </c>
-      <c r="AN7" s="44">
-        <f>AN4*$CV$23</f>
+      <c r="AN7" s="40">
+        <f t="shared" si="32"/>
         <v>1.9271358629130967E-4</v>
       </c>
-      <c r="AO7" s="44">
-        <f>AO4*$CV$23</f>
+      <c r="AO7" s="40">
+        <f t="shared" si="32"/>
         <v>3.1712362301101592E-4</v>
       </c>
-      <c r="AP7" s="44">
-        <f>AP4*$CV$23</f>
+      <c r="AP7" s="40">
+        <f t="shared" si="32"/>
         <v>3.8786658506731946E-4</v>
       </c>
-      <c r="AQ7" s="44">
-        <f>AQ4*$CV$23</f>
+      <c r="AQ7" s="40">
+        <f t="shared" si="32"/>
         <v>4.7812484700122401E-4</v>
       </c>
-      <c r="AR7" s="44">
-        <f>AR4*$CV$23</f>
+      <c r="AR7" s="40">
+        <f t="shared" si="32"/>
         <v>6.3912607099143209E-4</v>
       </c>
-      <c r="AS7" s="44">
-        <f>AS4*$CV$23</f>
+      <c r="AS7" s="40">
+        <f t="shared" si="32"/>
         <v>1.1757968176254591E-3</v>
       </c>
-      <c r="AT7" s="44">
-        <f>AT4*$CV$23</f>
+      <c r="AT7" s="40">
+        <f t="shared" si="32"/>
         <v>1.6344063647490822E-3</v>
       </c>
-      <c r="AU7" s="44">
-        <f>AU4*$CV$23</f>
+      <c r="AU7" s="40">
+        <f t="shared" si="32"/>
         <v>1.949090575275398E-3</v>
       </c>
-      <c r="AV7" s="44">
-        <f>AV4*$CV$23</f>
+      <c r="AV7" s="40">
+        <f t="shared" si="32"/>
         <v>2.5369889840881274E-3</v>
       </c>
-      <c r="AW7" s="44">
-        <f>AW4*$CV$23</f>
+      <c r="AW7" s="40">
+        <f t="shared" si="32"/>
         <v>2.8687490820073444E-3</v>
       </c>
-      <c r="AX7" s="44">
-        <f>AX4*$CV$23</f>
+      <c r="AX7" s="40">
+        <f t="shared" si="32"/>
         <v>3.5542239902080787E-3</v>
       </c>
-      <c r="AY7" s="44">
-        <f>AY4*$CV$23</f>
+      <c r="AY7" s="40">
+        <f t="shared" si="32"/>
         <v>4.7958849449204408E-3</v>
       </c>
-      <c r="AZ7" s="44">
-        <f>AZ4*$CV$23</f>
+      <c r="AZ7" s="40">
+        <f t="shared" si="32"/>
         <v>6.6961872705018364E-3</v>
       </c>
-      <c r="BA7" s="44">
-        <f>BA4*$CV$23</f>
+      <c r="BA7" s="40">
+        <f t="shared" si="32"/>
         <v>8.9648408812729504E-3</v>
       </c>
-      <c r="BB7" s="44">
-        <f>BB4*$CV$23</f>
+      <c r="BB7" s="40">
+        <f t="shared" si="32"/>
         <v>1.1218858017135864E-2</v>
       </c>
-      <c r="BC7" s="44">
-        <f>BC4*$CV$23</f>
+      <c r="BC7" s="40">
+        <f t="shared" si="32"/>
         <v>1.4180304773561811E-2</v>
       </c>
-      <c r="BD7" s="44">
-        <f>BD4*$CV$23</f>
+      <c r="BD7" s="40">
+        <f t="shared" si="32"/>
         <v>1.7739407588739292E-2</v>
       </c>
-      <c r="BE7" s="44">
-        <f>BE4*$CV$23</f>
+      <c r="BE7" s="40">
+        <f t="shared" si="32"/>
         <v>2.2849976744186051E-2</v>
       </c>
-      <c r="BF7" s="44">
-        <f>BF4*$CV$23</f>
+      <c r="BF7" s="40">
+        <f t="shared" si="32"/>
         <v>3.0070637698898412E-2</v>
       </c>
-      <c r="BG7" s="44">
-        <f>BG4*$CV$23</f>
+      <c r="BG7" s="40">
+        <f t="shared" si="32"/>
         <v>3.7371799265605882E-2</v>
       </c>
-      <c r="BH7" s="44">
-        <f>BH4*$CV$23</f>
+      <c r="BH7" s="40">
+        <f t="shared" si="32"/>
         <v>4.8417458996328031E-2</v>
       </c>
-      <c r="BI7" s="44">
-        <f>BI4*$CV$23</f>
+      <c r="BI7" s="40">
+        <f t="shared" si="32"/>
         <v>5.4555020807833539E-2</v>
       </c>
-      <c r="BJ7" s="44">
-        <f>BJ4*$CV$23</f>
+      <c r="BJ7" s="40">
+        <f t="shared" si="32"/>
         <v>6.0675506731946147E-2</v>
       </c>
-      <c r="BK7" s="44">
-        <f>BK4*$CV$23</f>
+      <c r="BK7" s="40">
+        <f t="shared" si="32"/>
         <v>7.0879569155446756E-2</v>
       </c>
-      <c r="BL7" s="44">
-        <f>BL4*$CV$23</f>
+      <c r="BL7" s="40">
+        <f t="shared" si="32"/>
         <v>8.0478657282741742E-2</v>
       </c>
-      <c r="BM7" s="44">
-        <f>BM4*$CV$23</f>
+      <c r="BM7" s="40">
+        <f t="shared" si="32"/>
         <v>9.1046192166462675E-2</v>
       </c>
-      <c r="BN7" s="44">
-        <f>BN4*$CV$23</f>
+      <c r="BN7" s="40">
+        <f t="shared" si="32"/>
         <v>0.10718290575275398</v>
       </c>
-      <c r="BO7" s="44">
-        <f>BO4*$CV$23</f>
+      <c r="BO7" s="40">
+        <f t="shared" ref="BO7:CT7" si="33">BO4*$CV$23</f>
         <v>0.12409535250917993</v>
       </c>
-      <c r="BP7" s="44">
-        <f>BP4*$CV$23</f>
+      <c r="BP7" s="40">
+        <f t="shared" si="33"/>
         <v>0.14074190330477357</v>
       </c>
-      <c r="BQ7" s="44">
-        <f>BQ4*$CV$23</f>
+      <c r="BQ7" s="40">
+        <f t="shared" si="33"/>
         <v>0.15230471848225216</v>
       </c>
-      <c r="BR7" s="44">
-        <f>BR4*$CV$23</f>
+      <c r="BR7" s="40">
+        <f t="shared" si="33"/>
         <v>0.1631601040391677</v>
       </c>
-      <c r="BS7" s="44">
-        <f>BS4*$CV$23</f>
+      <c r="BS7" s="40">
+        <f t="shared" si="33"/>
         <v>0.17516933170134641</v>
       </c>
-      <c r="BT7" s="44">
-        <f>BT4*$CV$23</f>
+      <c r="BT7" s="40">
+        <f t="shared" si="33"/>
         <v>0.18970335128518973</v>
       </c>
-      <c r="BU7" s="44">
-        <f>BU4*$CV$23</f>
+      <c r="BU7" s="40">
+        <f t="shared" si="33"/>
         <v>0.20684754222766219</v>
       </c>
-      <c r="BV7" s="44">
-        <f>BV4*$CV$23</f>
+      <c r="BV7" s="40">
+        <f t="shared" si="33"/>
         <v>0.22237440269277847</v>
       </c>
-      <c r="BW7" s="44">
-        <f>BW4*$CV$23</f>
+      <c r="BW7" s="40">
+        <f t="shared" si="33"/>
         <v>0.23440802447980419</v>
       </c>
-      <c r="BX7" s="44">
-        <f>BX4*$CV$23</f>
+      <c r="BX7" s="40">
+        <f t="shared" si="33"/>
         <v>0.24424129620563034</v>
       </c>
-      <c r="BY7" s="44">
-        <f>BY4*$CV$23</f>
+      <c r="BY7" s="40">
+        <f t="shared" si="33"/>
         <v>0.25217182619339046</v>
       </c>
-      <c r="BZ7" s="44">
-        <f>BZ4*$CV$23</f>
+      <c r="BZ7" s="40">
+        <f t="shared" si="33"/>
         <v>0.26263446634026932</v>
       </c>
-      <c r="CA7" s="44">
-        <f>CA4*$CV$23</f>
+      <c r="CA7" s="40">
+        <f t="shared" si="33"/>
         <v>0.2763756768665851</v>
       </c>
-      <c r="CB7" s="44">
-        <f>CB4*$CV$23</f>
+      <c r="CB7" s="40">
+        <f t="shared" si="33"/>
         <v>0.28842393512851899</v>
       </c>
-      <c r="CC7" s="44">
-        <f>CC4*$CV$23</f>
+      <c r="CC7" s="40">
+        <f t="shared" si="33"/>
         <v>0.29802546266829871</v>
       </c>
-      <c r="CD7" s="44">
-        <f>CD4*$CV$23</f>
+      <c r="CD7" s="40">
+        <f t="shared" si="33"/>
         <v>0.30602917503059973</v>
       </c>
-      <c r="CE7" s="44">
-        <f>CE4*$CV$23</f>
+      <c r="CE7" s="40">
+        <f t="shared" si="33"/>
         <v>0.31188864381884945</v>
       </c>
-      <c r="CF7" s="44">
-        <f>CF4*$CV$23</f>
+      <c r="CF7" s="40">
+        <f t="shared" si="33"/>
         <v>0.31729926070991438</v>
       </c>
-      <c r="CG7" s="44">
-        <f>CG4*$CV$23</f>
+      <c r="CG7" s="40">
+        <f t="shared" si="33"/>
         <v>0.32251472460220321</v>
       </c>
-      <c r="CH7" s="44">
-        <f>CH4*$CV$23</f>
+      <c r="CH7" s="40">
+        <f t="shared" si="33"/>
         <v>0.32871815055079562</v>
       </c>
-      <c r="CI7" s="44">
-        <f>CI4*$CV$23</f>
+      <c r="CI7" s="40">
+        <f t="shared" si="33"/>
         <v>0.33590222031823747</v>
       </c>
-      <c r="CJ7" s="44">
-        <f>CJ4*$CV$23</f>
+      <c r="CJ7" s="40">
+        <f t="shared" si="33"/>
         <v>0.34492560709914322</v>
       </c>
-      <c r="CK7" s="44">
-        <f>CK4*$CV$23</f>
+      <c r="CK7" s="40">
+        <f t="shared" si="33"/>
         <v>0.34999470624235007</v>
       </c>
-      <c r="CL7" s="44">
-        <f>CL4*$CV$23</f>
+      <c r="CL7" s="40">
+        <f t="shared" si="33"/>
         <v>0.35552485434516523</v>
       </c>
-      <c r="CM7" s="44">
-        <f>CM4*$CV$23</f>
+      <c r="CM7" s="40">
+        <f t="shared" si="33"/>
         <v>0.35875219706242356</v>
       </c>
-      <c r="CN7" s="44">
-        <f>CN4*$CV$23</f>
+      <c r="CN7" s="40">
+        <f t="shared" si="33"/>
         <v>0.36213810159118731</v>
       </c>
-      <c r="CO7" s="44">
-        <f>CO4*$CV$23</f>
+      <c r="CO7" s="40">
+        <f t="shared" si="33"/>
         <v>0.36749261199510408</v>
       </c>
-      <c r="CP7" s="44">
-        <f>CP4*$CV$23</f>
+      <c r="CP7" s="40">
+        <f t="shared" si="33"/>
         <v>0.37354479436964505</v>
       </c>
-      <c r="CQ7" s="44">
-        <f>CQ4*$CV$23</f>
+      <c r="CQ7" s="40">
+        <f t="shared" si="33"/>
         <v>0.37810649571603427</v>
       </c>
-      <c r="CR7" s="44">
-        <f>CR4*$CV$23</f>
+      <c r="CR7" s="40">
+        <f t="shared" si="33"/>
         <v>0.38179976621787026</v>
       </c>
-      <c r="CS7" s="44">
-        <f>CS4*$CV$23</f>
+      <c r="CS7" s="40">
+        <f t="shared" si="33"/>
         <v>0.38486610771113833</v>
       </c>
-      <c r="CT7" s="44">
-        <f>CT4*$CV$23</f>
+      <c r="CT7" s="40">
+        <f t="shared" si="33"/>
         <v>0.38727624724602205</v>
       </c>
-      <c r="CU7" s="44">
-        <f>CU4*$CV$23</f>
+      <c r="CU7" s="40">
+        <f t="shared" ref="CU7:DJ7" si="34">CU4*$CV$23</f>
         <v>0.39009132925336604</v>
       </c>
-      <c r="CV7" s="44">
-        <f>CV4*$CV$23</f>
+      <c r="CV7" s="40">
+        <f t="shared" si="34"/>
         <v>0.39406025336597306</v>
       </c>
-      <c r="CW7" s="44">
-        <f>CW4*$CV$23</f>
+      <c r="CW7" s="40">
+        <f t="shared" si="34"/>
         <v>0.39764618971848226</v>
       </c>
-      <c r="CX7" s="44">
-        <f>CX4*$CV$23</f>
+      <c r="CX7" s="40">
+        <f t="shared" si="34"/>
         <v>0.40025148225214202</v>
       </c>
-      <c r="CY7" s="44">
-        <f>CY4*$CV$23</f>
+      <c r="CY7" s="40">
+        <f t="shared" si="34"/>
         <v>0.40242255936352517</v>
       </c>
-      <c r="CZ7" s="44">
-        <f>CZ4*$CV$23</f>
+      <c r="CZ7" s="40">
+        <f t="shared" si="34"/>
         <v>0.40412282986536108</v>
       </c>
-      <c r="DA7" s="44">
-        <f>DA4*$CV$23</f>
+      <c r="DA7" s="40">
+        <f t="shared" si="34"/>
         <v>0.40412282986536108</v>
       </c>
-      <c r="DB7" s="44">
-        <f>DB4*$CV$23</f>
+      <c r="DB7" s="40">
+        <f t="shared" si="34"/>
         <v>0.40739896083231336</v>
       </c>
-      <c r="DC7" s="44">
-        <f>DC4*$CV$23</f>
+      <c r="DC7" s="40">
+        <f t="shared" si="34"/>
         <v>0.41021648225214202</v>
       </c>
-      <c r="DD7" s="44">
-        <f>DD4*$CV$23</f>
+      <c r="DD7" s="40">
+        <f t="shared" si="34"/>
         <v>0.41330965728274177</v>
       </c>
-      <c r="DE7" s="44">
-        <f>DE4*$CV$23</f>
+      <c r="DE7" s="40">
+        <f t="shared" si="34"/>
         <v>0.41613449694002452</v>
       </c>
-      <c r="DF7" s="44">
-        <f>DF4*$CV$23</f>
+      <c r="DF7" s="40">
+        <f t="shared" si="34"/>
         <v>0.41792990452876377</v>
       </c>
-      <c r="DG7" s="44">
-        <f>DG4*$CV$23</f>
+      <c r="DG7" s="40">
+        <f t="shared" si="34"/>
         <v>0.41928377845777243</v>
       </c>
-      <c r="DH7" s="44">
-        <f>DH4*$CV$23</f>
+      <c r="DH7" s="40">
+        <f t="shared" si="34"/>
         <v>0.42098404895960834</v>
       </c>
-      <c r="DI7" s="44">
-        <f>DI4*$CV$23</f>
+      <c r="DI7" s="40">
+        <f t="shared" si="34"/>
         <v>0.42243549938800495</v>
       </c>
-      <c r="DJ7" s="44">
-        <f>DJ4*$CV$23</f>
+      <c r="DJ7" s="40">
+        <f t="shared" si="34"/>
         <v>0.42469683476132197</v>
       </c>
-      <c r="DK7" s="44"/>
-      <c r="DL7" s="44"/>
-      <c r="DM7" s="44"/>
-      <c r="DN7" s="44"/>
-      <c r="DO7" s="44"/>
-      <c r="DP7" s="44"/>
-      <c r="DQ7" s="44"/>
-      <c r="DR7" s="44"/>
-      <c r="DS7" s="44"/>
-      <c r="DT7" s="44"/>
-      <c r="DU7" s="44"/>
-      <c r="DV7" s="44"/>
-      <c r="DW7" s="44"/>
-      <c r="DX7" s="44"/>
-      <c r="DY7" s="44"/>
-      <c r="DZ7" s="44"/>
-      <c r="EA7" s="44"/>
-      <c r="EB7" s="44"/>
-      <c r="EC7" s="44"/>
-      <c r="ED7" s="44"/>
-      <c r="EE7" s="44"/>
-      <c r="EF7" s="44"/>
-      <c r="EG7" s="44"/>
-      <c r="EH7" s="44"/>
-      <c r="EI7" s="44"/>
-      <c r="EJ7" s="44"/>
-      <c r="EK7" s="44"/>
-      <c r="EL7" s="44"/>
-      <c r="EM7" s="44"/>
-      <c r="EN7" s="44"/>
-      <c r="EO7" s="44"/>
-      <c r="EP7" s="44"/>
-      <c r="EQ7" s="44"/>
-      <c r="ER7" s="44"/>
-      <c r="ES7" s="44"/>
-      <c r="ET7" s="44"/>
-      <c r="EU7" s="44"/>
-      <c r="EV7" s="44"/>
-      <c r="EW7" s="44"/>
-      <c r="EX7" s="44"/>
-      <c r="EY7" s="44"/>
-      <c r="EZ7" s="44"/>
-      <c r="FA7" s="44"/>
-      <c r="FB7" s="44"/>
+      <c r="DK7" s="40">
+        <f t="shared" ref="DK7:DN7" si="35">DK4*$CV$23</f>
+        <v>0.42683619951040397</v>
+      </c>
+      <c r="DL7" s="40">
+        <f t="shared" si="35"/>
+        <v>0.4286023341493268</v>
+      </c>
+      <c r="DM7" s="40">
+        <f t="shared" si="35"/>
+        <v>0.4299318139534884</v>
+      </c>
+      <c r="DN7" s="40">
+        <f t="shared" si="35"/>
+        <v>0.43092465483476139</v>
+      </c>
+      <c r="DO7" s="40"/>
+      <c r="DP7" s="40"/>
+      <c r="DQ7" s="40"/>
+      <c r="DR7" s="40"/>
+      <c r="DS7" s="40"/>
+      <c r="DT7" s="40"/>
+      <c r="DU7" s="40"/>
+      <c r="DV7" s="40"/>
+      <c r="DW7" s="40"/>
+      <c r="DX7" s="40"/>
+      <c r="DY7" s="40"/>
+      <c r="DZ7" s="40"/>
+      <c r="EA7" s="40"/>
+      <c r="EB7" s="40"/>
+      <c r="EC7" s="40"/>
+      <c r="ED7" s="40"/>
+      <c r="EE7" s="40"/>
+      <c r="EF7" s="40"/>
+      <c r="EG7" s="40"/>
+      <c r="EH7" s="40"/>
+      <c r="EI7" s="40"/>
+      <c r="EJ7" s="40"/>
+      <c r="EK7" s="40"/>
+      <c r="EL7" s="40"/>
+      <c r="EM7" s="40"/>
+      <c r="EN7" s="40"/>
+      <c r="EO7" s="40"/>
+      <c r="EP7" s="40"/>
+      <c r="EQ7" s="40"/>
+      <c r="ER7" s="40"/>
+      <c r="ES7" s="40"/>
+      <c r="ET7" s="40"/>
+      <c r="EU7" s="40"/>
+      <c r="EV7" s="40"/>
+      <c r="EW7" s="40"/>
+      <c r="EX7" s="40"/>
+      <c r="EY7" s="40"/>
+      <c r="EZ7" s="40"/>
+      <c r="FA7" s="40"/>
+      <c r="FB7" s="40"/>
     </row>
     <row r="8" spans="1:160" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:160" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -13826,7 +13890,7 @@
       <c r="CX11" s="3"/>
     </row>
     <row r="12" spans="1:160" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="CT12" s="32"/>
+      <c r="CT12" s="29"/>
       <c r="CU12" t="s">
         <v>2</v>
       </c>
@@ -13856,11 +13920,11 @@
     </row>
     <row r="15" spans="1:160" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CT15" s="8"/>
-      <c r="CU15" s="33" t="s">
+      <c r="CU15" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="CV15" s="34"/>
-      <c r="CW15" s="35"/>
+      <c r="CV15" s="31"/>
+      <c r="CW15" s="32"/>
       <c r="CX15"/>
     </row>
     <row r="16" spans="1:160" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -13881,10 +13945,10 @@
       <c r="CU17" s="19">
         <v>43852</v>
       </c>
-      <c r="CV17" s="46">
+      <c r="CV17" s="41">
         <v>3.5</v>
       </c>
-      <c r="CW17" s="20">
+      <c r="CW17" s="44">
         <v>1</v>
       </c>
       <c r="CX17" s="9"/>
@@ -13895,10 +13959,10 @@
       <c r="CU18" s="19">
         <v>43910</v>
       </c>
-      <c r="CV18" s="46">
+      <c r="CV18" s="41">
         <v>2.6</v>
       </c>
-      <c r="CW18" s="21">
+      <c r="CW18" s="45">
         <f>CV18/CV17</f>
         <v>0.74285714285714288</v>
       </c>
@@ -13909,10 +13973,10 @@
       <c r="CU19" s="19">
         <v>43919</v>
       </c>
-      <c r="CV19" s="46">
+      <c r="CV19" s="41">
         <v>2.06</v>
       </c>
-      <c r="CW19" s="21">
+      <c r="CW19" s="45">
         <f>CV19/CV17</f>
         <v>0.58857142857142863</v>
       </c>
@@ -13921,32 +13985,32 @@
       <c r="DC19" s="3"/>
       <c r="DD19"/>
     </row>
-    <row r="20" spans="1:137" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="CT20" s="27"/>
+    <row r="20" spans="1:137" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CT20" s="24"/>
       <c r="CU20" s="19">
         <v>43926</v>
       </c>
-      <c r="CV20" s="46">
+      <c r="CV20" s="41">
         <v>1.7649999999999999</v>
       </c>
-      <c r="CW20" s="21">
+      <c r="CW20" s="45">
         <f>CV20/CV17</f>
         <v>0.50428571428571423</v>
       </c>
-      <c r="CX20" s="27"/>
+      <c r="CX20" s="24"/>
       <c r="DB20"/>
       <c r="DC20"/>
       <c r="DD20"/>
     </row>
     <row r="21" spans="1:137" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="CT21"/>
-      <c r="CU21" s="22">
+      <c r="CU21" s="20">
         <v>43956</v>
       </c>
-      <c r="CV21" s="23">
+      <c r="CV21" s="21">
         <v>1.8</v>
       </c>
-      <c r="CW21" s="24">
+      <c r="CW21" s="46">
         <f>CV21/CV18</f>
         <v>0.69230769230769229</v>
       </c>
@@ -13968,7 +14032,7 @@
       <c r="CU23" t="s">
         <v>3</v>
       </c>
-      <c r="CV23" s="36">
+      <c r="CV23" s="43">
         <v>199.3</v>
       </c>
       <c r="CW23"/>
@@ -14074,7 +14138,7 @@
       <c r="DC27" s="17"/>
       <c r="DD27" s="1"/>
     </row>
-    <row r="28" spans="1:137" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:137" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="DC28" s="17"/>
       <c r="DD28"/>
     </row>
@@ -14091,9 +14155,9 @@
       <c r="DC32" s="17"/>
     </row>
     <row r="33" spans="35:137" x14ac:dyDescent="0.25">
-      <c r="CX33" s="28"/>
+      <c r="CX33" s="25"/>
       <c r="DC33" s="17"/>
-      <c r="DD33" s="28"/>
+      <c r="DD33" s="25"/>
     </row>
     <row r="34" spans="35:137" x14ac:dyDescent="0.25">
       <c r="DC34" s="17"/>
@@ -14109,7 +14173,7 @@
     <row r="40" spans="35:137" x14ac:dyDescent="0.25">
       <c r="DE40" s="1"/>
     </row>
-    <row r="46" spans="35:137" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="35:137" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="35:137" x14ac:dyDescent="0.25">
       <c r="AI47" s="15"/>
     </row>
@@ -14312,98 +14376,98 @@
       <c r="DF56" s="7"/>
     </row>
     <row r="57" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD57" s="28"/>
-      <c r="DE57" s="28"/>
-      <c r="DF57" s="28"/>
+      <c r="DD57" s="25"/>
+      <c r="DE57" s="25"/>
+      <c r="DF57" s="25"/>
     </row>
     <row r="58" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD58" s="29"/>
-      <c r="DE58" s="29"/>
-      <c r="DF58" s="29"/>
+      <c r="DD58" s="26"/>
+      <c r="DE58" s="26"/>
+      <c r="DF58" s="26"/>
       <c r="DG58" s="17"/>
     </row>
     <row r="59" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD59" s="29"/>
-      <c r="DE59" s="29"/>
-      <c r="DF59" s="29"/>
+      <c r="DD59" s="26"/>
+      <c r="DE59" s="26"/>
+      <c r="DF59" s="26"/>
       <c r="DG59" s="17"/>
     </row>
     <row r="60" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD60" s="45"/>
-      <c r="DE60" s="45"/>
-      <c r="DF60" s="45"/>
+      <c r="DD60" s="42"/>
+      <c r="DE60" s="42"/>
+      <c r="DF60" s="42"/>
       <c r="DG60" s="17"/>
     </row>
     <row r="61" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD61" s="29"/>
-      <c r="DE61" s="29"/>
-      <c r="DF61" s="30"/>
+      <c r="DD61" s="26"/>
+      <c r="DE61" s="26"/>
+      <c r="DF61" s="27"/>
       <c r="DG61" s="17"/>
     </row>
     <row r="62" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD62" s="29"/>
-      <c r="DE62" s="29"/>
-      <c r="DF62" s="29"/>
+      <c r="DD62" s="26"/>
+      <c r="DE62" s="26"/>
+      <c r="DF62" s="26"/>
       <c r="DG62" s="17"/>
     </row>
     <row r="63" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD63" s="29"/>
-      <c r="DE63" s="29"/>
-      <c r="DF63" s="29"/>
+      <c r="DD63" s="26"/>
+      <c r="DE63" s="26"/>
+      <c r="DF63" s="26"/>
       <c r="DG63" s="17"/>
     </row>
     <row r="64" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD64" s="31"/>
-      <c r="DE64" s="29"/>
-      <c r="DF64" s="29"/>
+      <c r="DD64" s="28"/>
+      <c r="DE64" s="26"/>
+      <c r="DF64" s="26"/>
       <c r="DG64" s="17"/>
     </row>
     <row r="65" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD65" s="31"/>
-      <c r="DE65" s="29"/>
-      <c r="DF65" s="29"/>
+      <c r="DD65" s="28"/>
+      <c r="DE65" s="26"/>
+      <c r="DF65" s="26"/>
       <c r="DG65" s="17"/>
     </row>
     <row r="66" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD66" s="29"/>
-      <c r="DE66" s="29"/>
-      <c r="DF66" s="29"/>
+      <c r="DD66" s="26"/>
+      <c r="DE66" s="26"/>
+      <c r="DF66" s="26"/>
       <c r="DG66" s="17"/>
     </row>
     <row r="67" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD67" s="28"/>
-      <c r="DE67" s="28"/>
-      <c r="DF67" s="28"/>
+      <c r="DD67" s="25"/>
+      <c r="DE67" s="25"/>
+      <c r="DF67" s="25"/>
     </row>
     <row r="68" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD68" s="28"/>
-      <c r="DE68" s="28"/>
-      <c r="DF68" s="28"/>
+      <c r="DD68" s="25"/>
+      <c r="DE68" s="25"/>
+      <c r="DF68" s="25"/>
     </row>
     <row r="69" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD69" s="28"/>
-      <c r="DE69" s="28"/>
-      <c r="DF69" s="28"/>
+      <c r="DD69" s="25"/>
+      <c r="DE69" s="25"/>
+      <c r="DF69" s="25"/>
     </row>
     <row r="70" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD70" s="28"/>
-      <c r="DE70" s="28"/>
-      <c r="DF70" s="28"/>
+      <c r="DD70" s="25"/>
+      <c r="DE70" s="25"/>
+      <c r="DF70" s="25"/>
     </row>
     <row r="71" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD71" s="28"/>
-      <c r="DE71" s="28"/>
-      <c r="DF71" s="28"/>
+      <c r="DD71" s="25"/>
+      <c r="DE71" s="25"/>
+      <c r="DF71" s="25"/>
     </row>
     <row r="72" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD72" s="28"/>
-      <c r="DE72" s="28"/>
-      <c r="DF72" s="28"/>
+      <c r="DD72" s="25"/>
+      <c r="DE72" s="25"/>
+      <c r="DF72" s="25"/>
     </row>
     <row r="73" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD73" s="28"/>
-      <c r="DE73" s="28"/>
-      <c r="DF73" s="28"/>
+      <c r="DD73" s="25"/>
+      <c r="DE73" s="25"/>
+      <c r="DF73" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Data/Real.Model.Simple v.1.3.xlsx
+++ b/Data/Real.Model.Simple v.1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DelMe\Covid\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B26407-8840-41DD-B431-CEA7F0F37DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5F4FBD-BA26-4C0B-984C-280111876CCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C6EFD3A4-A7B5-475D-8F42-E10B52230622}"/>
   </bookViews>
@@ -42,16 +42,10 @@
     <t>Population</t>
   </si>
   <si>
-    <t>Ratio.Detected</t>
-  </si>
-  <si>
     <t>Infectious.Days</t>
   </si>
   <si>
     <t>μ</t>
-  </si>
-  <si>
-    <t>P.Infected.Model</t>
   </si>
   <si>
     <t>Date.Start</t>
@@ -66,16 +60,22 @@
     <t>Cases.Real.Detected</t>
   </si>
   <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>P.Infected.Model.Corrected</t>
-  </si>
-  <si>
     <t>P.Cases.Real.Detected</t>
   </si>
   <si>
     <t>P.Cases.Real.Infected</t>
+  </si>
+  <si>
+    <t>Cases.Estimated.Detected</t>
+  </si>
+  <si>
+    <t>P.Model.Infected</t>
+  </si>
+  <si>
+    <t>Ratio.Infected.To.Detected</t>
+  </si>
+  <si>
+    <t>Total cases</t>
   </si>
 </sst>
 </file>
@@ -182,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -276,11 +276,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -292,8 +340,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -311,25 +357,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,7 +441,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -891,261 +950,378 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Base!$B$4:$FD$4</c:f>
+              <c:f>Base!$B$3:$FD$3</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="159"/>
-                <c:pt idx="33" formatCode="0.000000">
-                  <c:v>1.9583843329253365E-7</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="0.000000">
-                  <c:v>2.08078335373317E-7</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="0.000000">
-                  <c:v>3.3047735618115057E-7</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0.000000">
-                  <c:v>5.6303549571603428E-7</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0.000000">
-                  <c:v>5.8751529987760099E-7</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="0.000000">
-                  <c:v>9.6695226438188488E-7</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="0.000000">
-                  <c:v>1.591187270501836E-6</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="0.000000">
-                  <c:v>1.9461444308445532E-6</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="0.000000">
-                  <c:v>2.3990208078335372E-6</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="0.000000">
-                  <c:v>3.2068543451652388E-6</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="0.000000">
-                  <c:v>5.8996328029375761E-6</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="0.000000">
-                  <c:v>8.2007343941248477E-6</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="0.000000">
-                  <c:v>9.7796817625459003E-6</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="0.000000">
-                  <c:v>1.2729498164014688E-5</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="0.000000">
-                  <c:v>1.4394124847001225E-5</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="0.000000">
-                  <c:v>1.7833537331701347E-5</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="0.000000">
-                  <c:v>2.4063647490820075E-5</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="0.000000">
-                  <c:v>3.3598531211750307E-5</c:v>
-                </c:pt>
-                <c:pt idx="51" formatCode="0.000000">
-                  <c:v>4.4981640146878826E-5</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="0.000000">
-                  <c:v>5.6291309669522643E-5</c:v>
-                </c:pt>
-                <c:pt idx="53" formatCode="0.000000">
-                  <c:v>7.1150550795593632E-5</c:v>
-                </c:pt>
-                <c:pt idx="54" formatCode="0.000000">
-                  <c:v>8.9008567931456555E-5</c:v>
-                </c:pt>
-                <c:pt idx="55" formatCode="0.000000">
-                  <c:v>1.1465116279069768E-4</c:v>
-                </c:pt>
-                <c:pt idx="56" formatCode="0.000000">
-                  <c:v>1.508812729498164E-4</c:v>
-                </c:pt>
-                <c:pt idx="57" formatCode="0.000000">
-                  <c:v>1.8751529987760099E-4</c:v>
-                </c:pt>
-                <c:pt idx="58" formatCode="0.000000">
-                  <c:v>2.42937576499388E-4</c:v>
-                </c:pt>
-                <c:pt idx="59" formatCode="0.000000">
-                  <c:v>2.7373317013463892E-4</c:v>
-                </c:pt>
-                <c:pt idx="60" formatCode="0.000000">
-                  <c:v>3.0444308445532435E-4</c:v>
-                </c:pt>
-                <c:pt idx="61" formatCode="0.000000">
-                  <c:v>3.5564259485924111E-4</c:v>
-                </c:pt>
-                <c:pt idx="62" formatCode="0.000000">
-                  <c:v>4.0380660954712365E-4</c:v>
-                </c:pt>
-                <c:pt idx="63" formatCode="0.000000">
-                  <c:v>4.5682986536107713E-4</c:v>
-                </c:pt>
-                <c:pt idx="64" formatCode="0.000000">
-                  <c:v>5.3779681762545898E-4</c:v>
-                </c:pt>
-                <c:pt idx="65" formatCode="0.000000">
-                  <c:v>6.2265605875152998E-4</c:v>
-                </c:pt>
-                <c:pt idx="66" formatCode="0.000000">
-                  <c:v>7.0618115055079563E-4</c:v>
-                </c:pt>
-                <c:pt idx="67" formatCode="0.000000">
-                  <c:v>7.6419828641370873E-4</c:v>
-                </c:pt>
-                <c:pt idx="68" formatCode="0.000000">
-                  <c:v>8.1866585067319464E-4</c:v>
-                </c:pt>
-                <c:pt idx="69" formatCode="0.000000">
-                  <c:v>8.7892288861689109E-4</c:v>
-                </c:pt>
-                <c:pt idx="70" formatCode="0.000000">
-                  <c:v>9.5184822521419824E-4</c:v>
-                </c:pt>
-                <c:pt idx="71" formatCode="0.000000">
-                  <c:v>1.0378702570379436E-3</c:v>
-                </c:pt>
-                <c:pt idx="72" formatCode="0.000000">
-                  <c:v>1.1157772337821298E-3</c:v>
-                </c:pt>
-                <c:pt idx="73" formatCode="0.000000">
-                  <c:v>1.176156670746634E-3</c:v>
-                </c:pt>
-                <c:pt idx="74" formatCode="0.000000">
-                  <c:v>1.2254957160342716E-3</c:v>
-                </c:pt>
-                <c:pt idx="75" formatCode="0.000000">
-                  <c:v>1.2652876376988984E-3</c:v>
-                </c:pt>
-                <c:pt idx="76" formatCode="0.000000">
-                  <c:v>1.3177845777233783E-3</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="0.000000">
-                  <c:v>1.3867319461444308E-3</c:v>
-                </c:pt>
-                <c:pt idx="78" formatCode="0.000000">
-                  <c:v>1.4471848225214199E-3</c:v>
-                </c:pt>
-                <c:pt idx="79" formatCode="0.000000">
-                  <c:v>1.4953610771113832E-3</c:v>
-                </c:pt>
-                <c:pt idx="80" formatCode="0.000000">
-                  <c:v>1.5355201958384332E-3</c:v>
-                </c:pt>
-                <c:pt idx="81" formatCode="0.000000">
-                  <c:v>1.5649204406364748E-3</c:v>
-                </c:pt>
-                <c:pt idx="82" formatCode="0.000000">
-                  <c:v>1.5920685434516525E-3</c:v>
-                </c:pt>
-                <c:pt idx="83" formatCode="0.000000">
-                  <c:v>1.6182374541003671E-3</c:v>
-                </c:pt>
-                <c:pt idx="84" formatCode="0.000000">
-                  <c:v>1.6493635250917993E-3</c:v>
-                </c:pt>
-                <c:pt idx="85" formatCode="0.000000">
-                  <c:v>1.6854100367197063E-3</c:v>
-                </c:pt>
-                <c:pt idx="86" formatCode="0.000000">
-                  <c:v>1.7306854345165239E-3</c:v>
-                </c:pt>
-                <c:pt idx="87" formatCode="0.000000">
-                  <c:v>1.7561199510403916E-3</c:v>
-                </c:pt>
-                <c:pt idx="88" formatCode="0.000000">
-                  <c:v>1.7838678090575275E-3</c:v>
-                </c:pt>
-                <c:pt idx="89" formatCode="0.000000">
-                  <c:v>1.800061199510404E-3</c:v>
-                </c:pt>
-                <c:pt idx="90" formatCode="0.000000">
-                  <c:v>1.8170501835985313E-3</c:v>
-                </c:pt>
-                <c:pt idx="91" formatCode="0.000000">
-                  <c:v>1.8439167686658507E-3</c:v>
-                </c:pt>
-                <c:pt idx="92" formatCode="0.000000">
-                  <c:v>1.8742839657282741E-3</c:v>
-                </c:pt>
-                <c:pt idx="93" formatCode="0.000000">
-                  <c:v>1.897172582619339E-3</c:v>
-                </c:pt>
-                <c:pt idx="94" formatCode="0.000000">
-                  <c:v>1.9157037943696451E-3</c:v>
-                </c:pt>
-                <c:pt idx="95" formatCode="0.000000">
-                  <c:v>1.9310893512851897E-3</c:v>
-                </c:pt>
-                <c:pt idx="96" formatCode="0.000000">
-                  <c:v>1.9431823745410036E-3</c:v>
-                </c:pt>
-                <c:pt idx="97" formatCode="0.000000">
-                  <c:v>1.9573072215422278E-3</c:v>
-                </c:pt>
-                <c:pt idx="98" formatCode="0.000000">
-                  <c:v>1.977221542227662E-3</c:v>
-                </c:pt>
-                <c:pt idx="99" formatCode="0.000000">
-                  <c:v>1.9952141982864137E-3</c:v>
-                </c:pt>
-                <c:pt idx="100" formatCode="0.000000">
-                  <c:v>2.0082864137086903E-3</c:v>
-                </c:pt>
-                <c:pt idx="101" formatCode="0.000000">
-                  <c:v>2.0191799265605877E-3</c:v>
-                </c:pt>
-                <c:pt idx="102" formatCode="0.000000">
-                  <c:v>2.0277111383108933E-3</c:v>
-                </c:pt>
-                <c:pt idx="103" formatCode="0.000000">
-                  <c:v>2.0277111383108933E-3</c:v>
-                </c:pt>
-                <c:pt idx="104" formatCode="0.000000">
-                  <c:v>2.0441493268053856E-3</c:v>
-                </c:pt>
-                <c:pt idx="105" formatCode="0.000000">
-                  <c:v>2.0582864137086905E-3</c:v>
-                </c:pt>
-                <c:pt idx="106" formatCode="0.000000">
-                  <c:v>2.0738066095471238E-3</c:v>
-                </c:pt>
-                <c:pt idx="107" formatCode="0.000000">
-                  <c:v>2.0879804161566709E-3</c:v>
-                </c:pt>
-                <c:pt idx="108" formatCode="0.000000">
-                  <c:v>2.0969889840881271E-3</c:v>
-                </c:pt>
-                <c:pt idx="109" formatCode="0.000000">
-                  <c:v>2.1037821297429623E-3</c:v>
-                </c:pt>
-                <c:pt idx="110" formatCode="0.000000">
-                  <c:v>2.1123133414932679E-3</c:v>
-                </c:pt>
-                <c:pt idx="111" formatCode="0.000000">
-                  <c:v>2.1195960832313342E-3</c:v>
-                </c:pt>
-                <c:pt idx="112" formatCode="0.000000">
-                  <c:v>2.1309424724602205E-3</c:v>
-                </c:pt>
-                <c:pt idx="113" formatCode="0.000000">
-                  <c:v>2.1416768665850675E-3</c:v>
-                </c:pt>
-                <c:pt idx="114" formatCode="0.000000">
-                  <c:v>2.1505385556915544E-3</c:v>
-                </c:pt>
-                <c:pt idx="115" formatCode="0.000000">
-                  <c:v>2.1572093023255814E-3</c:v>
-                </c:pt>
-                <c:pt idx="116" formatCode="0.000000">
-                  <c:v>2.1621909424724603E-3</c:v>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1176</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1457</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2745</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3675</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4599</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5813</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0">
+                  <c:v>7272</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9367</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12327</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>15320</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19848</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>22364</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24873</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>29056</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>32991</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>37323</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0">
+                  <c:v>50871</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0">
+                  <c:v>57695</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0">
+                  <c:v>62435</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0">
+                  <c:v>66885</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0">
+                  <c:v>71808</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0">
+                  <c:v>77766</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0">
+                  <c:v>84794</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0">
+                  <c:v>91159</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0">
+                  <c:v>96092</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0">
+                  <c:v>100123</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0">
+                  <c:v>103374</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0">
+                  <c:v>107663</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0">
+                  <c:v>113296</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0">
+                  <c:v>118235</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0">
+                  <c:v>122171</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0">
+                  <c:v>125452</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0">
+                  <c:v>127854</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="0">
+                  <c:v>130072</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>132210</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="0">
+                  <c:v>134753</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="0">
+                  <c:v>137698</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="0">
+                  <c:v>141397</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="0">
+                  <c:v>143475</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="0">
+                  <c:v>145742</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="0">
+                  <c:v>147065</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="0">
+                  <c:v>148453</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="0">
+                  <c:v>150648</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="0">
+                  <c:v>153129</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="0">
+                  <c:v>154999</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="0">
+                  <c:v>156513</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="0">
+                  <c:v>157770</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="0">
+                  <c:v>158758</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="0">
+                  <c:v>159912</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="0">
+                  <c:v>161539</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="0">
+                  <c:v>163009</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="0">
+                  <c:v>164077</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>164967</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>165664</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>165664</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>167007</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>168162</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>169430</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>170588</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>171324</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>171879</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>172576</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>173171</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>174098</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>174975</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>175699</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>176244</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>176651</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>177289</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>177827</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>178531</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>179021</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>179713</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>179986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,7 +1342,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>P.Infected.Model.Corrected</c:v>
+                  <c:v>Cases.Estimated.Detected</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1674,385 +1850,385 @@
             <c:numRef>
               <c:f>Base!$B$6:$FD$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="159"/>
                 <c:pt idx="33">
-                  <c:v>5.0175614651279476E-7</c:v>
+                  <c:v>41.360876543209876</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.442450961287576E-7</c:v>
+                  <c:v>53.106557975908004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.2718990382143434E-7</c:v>
+                  <c:v>68.187105883067758</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0620715769652201E-6</c:v>
+                  <c:v>87.548925270197017</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3636258714688604E-6</c:v>
+                  <c:v>112.40671731265438</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.7507637377373061E-6</c:v>
+                  <c:v>144.31935376607262</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.2477506156321377E-6</c:v>
+                  <c:v>185.2870888761781</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.885716428573906E-6</c:v>
+                  <c:v>237.87603155532901</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.7045874565076445E-6</c:v>
+                  <c:v>305.37739397324822</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.7555553939981624E-6</c:v>
+                  <c:v>392.0110215142887</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.104228742716153E-6</c:v>
+                  <c:v>503.18516907805918</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.834648147677876E-6</c:v>
+                  <c:v>645.82749418761603</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0054391066831183E-5</c:v>
+                  <c:v>828.80584627128701</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2901042436145957E-5</c:v>
+                  <c:v>1063.4616579959281</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.6550365809819999E-5</c:v>
+                  <c:v>1364.2835105508191</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.1226570749012908E-5</c:v>
+                  <c:v>1749.7534973659663</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.7215130164086974E-5</c:v>
+                  <c:v>2243.4037861766078</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.4878642644568264E-5</c:v>
+                  <c:v>2875.1241862065294</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.4676235839895495E-5</c:v>
+                  <c:v>3682.7616120535672</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.7186927538405244E-5</c:v>
+                  <c:v>4714.045789454327</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.3137136323474767E-5</c:v>
+                  <c:v>6028.8570199349069</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.3432063410198339E-5</c:v>
+                  <c:v>7701.8130554939353</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.1918980519313421E-4</c:v>
+                  <c:v>9825.0810718803023</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.5177560379138802E-4</c:v>
+                  <c:v>12511.201017298667</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.9283136142994993E-4</c:v>
+                  <c:v>15895.518548590142</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.4429220746399651E-4</c:v>
+                  <c:v>20137.550687939442</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.8307343362117597E-4</c:v>
+                  <c:v>23334.373523951275</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.2735265569436577E-4</c:v>
+                  <c:v>26984.408407085237</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.7769057949733659E-4</c:v>
+                  <c:v>31133.875566234616</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.3463392158295076E-4</c:v>
+                  <c:v>35827.842064362594</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.9868880136767985E-4</c:v>
+                  <c:v>41108.028452071892</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.7028783117042843E-4</c:v>
+                  <c:v>47010.095926216076</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.4975152820350324E-4</c:v>
+                  <c:v>53560.465434381586</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.372456894017388E-4</c:v>
+                  <c:v>60772.803987128442</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.9524718371706588E-4</c:v>
+                  <c:v>65553.996330004418</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8.5577156731698697E-4</c:v>
+                  <c:v>70543.156054959341</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.1861683047879752E-4</c:v>
+                  <c:v>75723.63105068497</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9.8353629861166396E-4</c:v>
+                  <c:v>81075.087381326783</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.050240721204971E-3</c:v>
+                  <c:v>86573.681483148146</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.1184020474401556E-3</c:v>
+                  <c:v>92192.371396621951</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.1876588690046316E-3</c:v>
+                  <c:v>97901.365429703234</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.2576233975089819E-3</c:v>
+                  <c:v>103668.69732186677</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.3278897296781502E-3</c:v>
+                  <c:v>109460.90756222313</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.368042062329024E-3</c:v>
+                  <c:v>112770.75375989663</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.4074192425131691E-3</c:v>
+                  <c:v>116016.70241351143</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.4459256290584636E-3</c:v>
+                  <c:v>119190.86960826135</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.4834747790594867E-3</c:v>
+                  <c:v>122286.12966294843</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.5199900415750337E-3</c:v>
+                  <c:v>125296.1640697914</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.5554049497023632E-3</c:v>
+                  <c:v>128215.49381397865</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.589663414931242E-3</c:v>
+                  <c:v>131039.49539470545</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.6227197336204007E-3</c:v>
+                  <c:v>133764.40135904209</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.6545384204427083E-3</c:v>
+                  <c:v>136387.2865724492</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.6850938875643084E-3</c:v>
+                  <c:v>138906.04177279904</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.714369991090171E-3</c:v>
+                  <c:v>141319.33618287271</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.7423594679331269E-3</c:v>
+                  <c:v>143626.5710902203</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.7690632868187894E-3</c:v>
+                  <c:v>145827.82634905144</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.7944899367477911E-3</c:v>
+                  <c:v>147923.80172659279</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.8186546750556948E-3</c:v>
+                  <c:v>149915.75491899217</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.8415787554134022E-3</c:v>
+                  <c:v>151805.43791367288</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.8632886538737636E-3</c:v>
+                  <c:v>153595.03319063227</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.8838153085617441E-3</c:v>
+                  <c:v>155287.09104840882</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.9031933859772216E-3</c:v>
+                  <c:v>156884.46912378812</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.9214605842597678E-3</c:v>
+                  <c:v>158390.27495836688</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.9386569812566026E-3</c:v>
+                  <c:v>159807.81225834286</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.9548244329152483E-3</c:v>
+                  <c:v>161140.53130268148</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9700060254436392E-3</c:v>
+                  <c:v>162391.98378345359</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.9842455828729105E-3</c:v>
+                  <c:v>163565.78221313964</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.9975872301336334E-3</c:v>
+                  <c:v>164665.56390803063</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.0100750105118068E-3</c:v>
+                  <c:v>165694.95945427372</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.0217525553721852E-3</c:v>
+                  <c:v>166657.56548243042</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.032662803301459E-3</c:v>
+                  <c:v>167556.92151582381</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.047105642608087E-3</c:v>
+                  <c:v>168747.47692335909</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.0605831927844819E-3</c:v>
+                  <c:v>169858.461398238</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.0731468795690999E-3</c:v>
+                  <c:v>170894.11407860406</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.084847296360767E-3</c:v>
+                  <c:v>171858.60549099161</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.0957338983468355E-3</c:v>
+                  <c:v>172756.01233662825</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.1058547540254769E-3</c:v>
+                  <c:v>173590.29700886447</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.115256348648569E-3</c:v>
+                  <c:v>174365.29139053289</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.1239834340480482E-3</c:v>
+                  <c:v>175084.68447480019</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.1320789194025636E-3</c:v>
+                  <c:v>175752.01336081896</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.1395837977140303E-3</c:v>
+                  <c:v>176370.65719302659</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.1465371030615203E-3</c:v>
+                  <c:v>176943.83363748781</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.1529758940543788E-3</c:v>
+                  <c:v>177474.59751789871</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.158935259294145E-3</c:v>
+                  <c:v>177965.84126582474</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.1644483410569533E-3</c:v>
+                  <c:v>178420.29687289384</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.169546373810196E-3</c:v>
+                  <c:v>178840.53906581082</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.1742587345682644E-3</c:v>
+                  <c:v>179228.98945729315</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.1786130024645076E-3</c:v>
+                  <c:v>179587.92145672001</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.1826350252647374E-3</c:v>
+                  <c:v>179919.46575298911</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.1863489908685667E-3</c:v>
+                  <c:v>180225.61620853079</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2.1897775021369214E-3</c:v>
+                  <c:v>180508.2360275065</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2.1929416536469156E-3</c:v>
+                  <c:v>180769.06408288449</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2.1958611092094643E-3</c:v>
+                  <c:v>181009.72130638876</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2.1985541791917423E-3</c:v>
+                  <c:v>181231.7170623618</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2.2010378968675701E-3</c:v>
+                  <c:v>181436.45544149692</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2.2033280931759262E-3</c:v>
+                  <c:v>181625.24142334875</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2.2054394694031327E-3</c:v>
+                  <c:v>181799.286867688</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.2073856674199254E-3</c:v>
+                  <c:v>181959.7163042991</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.2091793372027309E-3</c:v>
+                  <c:v>182107.57249890981</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.2108322014509564E-3</c:v>
+                  <c:v>182243.82177973806</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2.2123551171808944E-3</c:v>
+                  <c:v>182369.35911481496</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.2137581342336421E-3</c:v>
+                  <c:v>182485.01293492268</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2.2150505506808669E-3</c:v>
+                  <c:v>182591.54970081503</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.2162409651497097E-3</c:v>
+                  <c:v>182689.67821647596</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.2173373261179354E-3</c:v>
+                  <c:v>182780.05369262857</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.2183469782537297E-3</c:v>
+                  <c:v>182863.28156662753</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.2192767058923147E-3</c:v>
+                  <c:v>182939.9210863336</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.2201327737547218E-3</c:v>
+                  <c:v>183010.4886666527</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.220920965023355E-3</c:v>
+                  <c:v>183075.46102818917</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.2216466168950718E-3</c:v>
+                  <c:v>183135.27812796563</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.2223146537360167E-3</c:v>
+                  <c:v>183190.34589244981</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.2229296179637832E-3</c:v>
+                  <c:v>183241.03876323957</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.22349569878214E-3</c:v>
+                  <c:v>183287.70206573076</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.2240167588918453E-3</c:v>
+                  <c:v>183330.65421094888</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2.2244963592983023E-3</c:v>
+                  <c:v>183370.18874049955</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2.2249377823332578E-3</c:v>
+                  <c:v>183406.57622429825</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2.2253440530035414E-3</c:v>
+                  <c:v>183440.06602039441</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2.2257179587752795E-3</c:v>
+                  <c:v>183470.88790582848</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2.2260620678971111E-3</c:v>
+                  <c:v>183499.25358705511</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2.2263787463609064E-3</c:v>
+                  <c:v>183525.35809805308</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2.2266701735933424E-3</c:v>
+                  <c:v>183549.38109381677</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2.2269383569665903E-3</c:v>
+                  <c:v>183571.48804650476</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2.2271851452113009E-3</c:v>
+                  <c:v>183591.83135110146</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.2274122408101095E-3</c:v>
+                  <c:v>183610.55134704194</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.2276212114450931E-3</c:v>
+                  <c:v>183627.77726185095</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.2278135005679468E-3</c:v>
+                  <c:v>183643.62808246614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2262,8 +2438,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>P-Cases</a:t>
+                  <a:t>Cases</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> detected</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2296,7 +2477,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3147,6 +3328,45 @@
                 <c:pt idx="122">
                   <c:v>44010</c:v>
                 </c:pt>
+                <c:pt idx="123">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3572,6 +3792,45 @@
                 <c:pt idx="122">
                   <c:v>44010</c:v>
                 </c:pt>
+                <c:pt idx="123">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3997,6 +4256,45 @@
                 <c:pt idx="122">
                   <c:v>44010</c:v>
                 </c:pt>
+                <c:pt idx="123">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4422,6 +4720,45 @@
                 <c:pt idx="122">
                   <c:v>44010</c:v>
                 </c:pt>
+                <c:pt idx="123">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4847,6 +5184,45 @@
                 <c:pt idx="122">
                   <c:v>44010</c:v>
                 </c:pt>
+                <c:pt idx="123">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5271,6 +5647,45 @@
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5698,6 +6113,45 @@
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6753,7 +7207,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>P.Infected.Model</c:v>
+                  <c:v>P.Model.Infected</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6773,10 +7227,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Base!$B$1:$FD$1</c:f>
+              <c:f>Base!$B$1:$IE$1</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="238"/>
                 <c:pt idx="0">
                   <c:v>43852</c:v>
                 </c:pt>
@@ -7253,6 +7707,243 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44024</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44026</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44028</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44031</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>44089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7261,7 +7952,7 @@
             <c:numRef>
               <c:f>Base!$B$5:$FD$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="159"/>
                 <c:pt idx="33">
                   <c:v>1E-4</c:v>
@@ -8178,256 +8869,274 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="159"/>
                 <c:pt idx="33">
-                  <c:v>3.9030599755201961E-5</c:v>
+                  <c:v>3.8683899707214223E-5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.1470012239902079E-5</c:v>
+                  <c:v>4.110164343891511E-5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.5864137086903317E-5</c:v>
+                  <c:v>6.5279080755923998E-5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1221297429620563E-4</c:v>
+                  <c:v>1.1121621165824087E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1709179926560588E-4</c:v>
+                  <c:v>1.1605169912164265E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.9271358629130967E-4</c:v>
+                  <c:v>1.9100175480437021E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.1712362301101592E-4</c:v>
+                  <c:v>3.1430668512111553E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.8786658506731946E-4</c:v>
+                  <c:v>3.8442125334044131E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.7812484700122401E-4</c:v>
+                  <c:v>4.7387777141337419E-4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.3912607099143209E-4</c:v>
+                  <c:v>6.3344885770563275E-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.1757968176254591E-3</c:v>
+                  <c:v>1.1653524786798283E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.6344063647490822E-3</c:v>
+                  <c:v>1.6198883002395954E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.949090575275398E-3</c:v>
+                  <c:v>1.93177724162901E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.5369889840881274E-3</c:v>
+                  <c:v>2.5144534809689242E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.8687490820073444E-3</c:v>
+                  <c:v>2.843266628480245E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.5542239902080787E-3</c:v>
+                  <c:v>3.522652617088195E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.7958849449204408E-3</c:v>
+                  <c:v>4.7532841765239474E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.6961872705018364E-3</c:v>
+                  <c:v>6.63670654351894E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.9648408812729504E-3</c:v>
+                  <c:v>8.8852082140007654E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.1218858017135864E-2</c:v>
+                  <c:v>1.1119203422092386E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.4180304773561811E-2</c:v>
+                  <c:v>1.4054344312377268E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.7739407588739292E-2</c:v>
+                  <c:v>1.7581832416928865E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.2849976744186051E-2</c:v>
+                  <c:v>2.2647005534842224E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.0070637698898412E-2</c:v>
+                  <c:v>2.9803526980676856E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.7371799265605882E-2</c:v>
+                  <c:v>3.7039833969657612E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.8417458996328031E-2</c:v>
+                  <c:v>4.7987377586799239E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.4555020807833539E-2</c:v>
+                  <c:v>5.407042081575867E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.0675506731946147E-2</c:v>
+                  <c:v>6.0136539838596209E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.0879569155446756E-2</c:v>
+                  <c:v>7.0249961868301028E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.0478657282741742E-2</c:v>
+                  <c:v>7.9763783452544021E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.1046192166462675E-2</c:v>
+                  <c:v>9.0237449298272265E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.10718290575275398</c:v>
+                  <c:v>0.10623082408347365</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.12409535250917993</c:v>
+                  <c:v>0.12299304137535591</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.14074190330477357</c:v>
+                  <c:v>0.13949172460048276</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.15230471848225216</c:v>
+                  <c:v>0.150951829888745</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1631601040391677</c:v>
+                  <c:v>0.16171078949481393</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.17516933170134641</c:v>
+                  <c:v>0.17361334188597741</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.18970335128518973</c:v>
+                  <c:v>0.1880182590394513</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.20684754222766219</c:v>
+                  <c:v>0.20501016198584518</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.22237440269277847</c:v>
+                  <c:v>0.22039910083812131</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.23440802447980419</c:v>
+                  <c:v>0.23232583066660178</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.24424129620563034</c:v>
+                  <c:v>0.24207175564908809</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.25217182619339046</c:v>
+                  <c:v>0.24993184052084766</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.26263446634026932</c:v>
+                  <c:v>0.26030154338611278</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.2763756768665851</c:v>
+                  <c:v>0.27392069382678391</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.28842393512851899</c:v>
+                  <c:v>0.28586193011765454</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.29802546266829871</c:v>
+                  <c:v>0.29537816944562928</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.30602917503059973</c:v>
+                  <c:v>0.30331078662933986</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.31188864381884945</c:v>
+                  <c:v>0.3091182070728854</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.31729926070991438</c:v>
+                  <c:v>0.31448076266979802</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.32251472460220321</c:v>
+                  <c:v>0.31964989876817451</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.32871815055079562</c:v>
+                  <c:v>0.32579822107788986</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.33590222031823747</c:v>
+                  <c:v>0.33291847636774896</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.34492560709914322</c:v>
+                  <c:v>0.34186171043131058</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.34999470624235007</c:v>
+                  <c:v>0.34688578190578501</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.35552485434516523</c:v>
+                  <c:v>0.35236680694555089</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.35875219706242356</c:v>
+                  <c:v>0.35556548190259119</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.36213810159118731</c:v>
+                  <c:v>0.35892131020219203</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.36749261199510408</c:v>
+                  <c:v>0.36422825769327549</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.37354479436964505</c:v>
+                  <c:v>0.37022667989162539</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.37810649571603427</c:v>
+                  <c:v>0.37474786066990606</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.38179976621787026</c:v>
+                  <c:v>0.3784083246797012</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.38486610771113833</c:v>
+                  <c:v>0.38144742855044922</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.38727624724602205</c:v>
+                  <c:v>0.3838361593573697</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.39009132925336604</c:v>
+                  <c:v>0.38662623562375253</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.39406025336597306</c:v>
+                  <c:v>0.39055990467522989</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.39764618971848226</c:v>
+                  <c:v>0.39411398796083019</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.40025148225214202</c:v>
+                  <c:v>0.39669613826628669</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.40242255936352517</c:v>
+                  <c:v>0.39884793018750048</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.40412282986536108</c:v>
+                  <c:v>0.40053309756849609</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.40412282986536108</c:v>
+                  <c:v>0.40053309756849609</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.40739896083231336</c:v>
+                  <c:v>0.40378012740017033</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.41021648225214202</c:v>
+                  <c:v>0.40657262141028488</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.41330965728274177</c:v>
+                  <c:v>0.40963832046208154</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.41613449694002452</c:v>
+                  <c:v>0.41243806770339114</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.41792990452876377</c:v>
+                  <c:v>0.41421752708992304</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.41928377845777243</c:v>
+                  <c:v>0.41555937486101702</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.42098404895960834</c:v>
+                  <c:v>0.41724454224201257</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.42243549938800495</c:v>
+                  <c:v>0.41868309976237461</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.42469683476132197</c:v>
+                  <c:v>0.4209243482016613</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.42683619951040397</c:v>
+                  <c:v>0.42304470945436301</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.4286023341493268</c:v>
+                  <c:v>0.42479515591611444</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.4299318139534884</c:v>
+                  <c:v>0.42611282624989139</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.43092465483476139</c:v>
+                  <c:v>0.42709684794869368</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.42863936844951883</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.42994011457717396</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.43164220616429139</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.43282690059282475</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.43449997925516182</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.43516002329391612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8471,8 +9180,52 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -8533,8 +9286,82 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>P</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> Cases</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -10403,14 +11230,14 @@
     <xdr:from>
       <xdr:col>75</xdr:col>
       <xdr:colOff>30641</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>12522</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>86</xdr:col>
       <xdr:colOff>221145</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>15986</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>174736</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10735,13 +11562,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B7E176-5706-4C21-988E-A9D87E8D9EA2}">
-  <dimension ref="A1:FD73"/>
+  <dimension ref="A1:IE73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CA8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DM12" sqref="DM12"/>
+      <selection pane="bottomRight" activeCell="CW23" sqref="CW23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10750,11 +11577,11 @@
     <col min="35" max="35" width="15.7109375" customWidth="1"/>
     <col min="73" max="73" width="12" customWidth="1"/>
     <col min="91" max="91" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="14.7109375" customWidth="1"/>
+    <col min="99" max="99" width="12" customWidth="1"/>
     <col min="101" max="101" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10968,7 +11795,7 @@
       <c r="BS1" s="1">
         <v>43921</v>
       </c>
-      <c r="BT1" s="14">
+      <c r="BT1" s="12">
         <v>43922</v>
       </c>
       <c r="BU1" s="1">
@@ -10992,7 +11819,7 @@
       <c r="CA1" s="1">
         <v>43929</v>
       </c>
-      <c r="CB1" s="34">
+      <c r="CB1" s="28">
         <v>43930</v>
       </c>
       <c r="CC1" s="1">
@@ -11001,7 +11828,7 @@
       <c r="CD1" s="1">
         <v>43932</v>
       </c>
-      <c r="CE1" s="14">
+      <c r="CE1" s="12">
         <v>43933</v>
       </c>
       <c r="CF1" s="1">
@@ -11235,8 +12062,245 @@
       <c r="FD1" s="1">
         <v>44010</v>
       </c>
+      <c r="FE1" s="1">
+        <v>44011</v>
+      </c>
+      <c r="FF1" s="1">
+        <v>44012</v>
+      </c>
+      <c r="FG1" s="1">
+        <v>44013</v>
+      </c>
+      <c r="FH1" s="1">
+        <v>44014</v>
+      </c>
+      <c r="FI1" s="1">
+        <v>44015</v>
+      </c>
+      <c r="FJ1" s="1">
+        <v>44016</v>
+      </c>
+      <c r="FK1" s="1">
+        <v>44017</v>
+      </c>
+      <c r="FL1" s="1">
+        <v>44018</v>
+      </c>
+      <c r="FM1" s="1">
+        <v>44019</v>
+      </c>
+      <c r="FN1" s="1">
+        <v>44020</v>
+      </c>
+      <c r="FO1" s="1">
+        <v>44021</v>
+      </c>
+      <c r="FP1" s="1">
+        <v>44022</v>
+      </c>
+      <c r="FQ1" s="1">
+        <v>44023</v>
+      </c>
+      <c r="FR1" s="1">
+        <v>44024</v>
+      </c>
+      <c r="FS1" s="1">
+        <v>44025</v>
+      </c>
+      <c r="FT1" s="1">
+        <v>44026</v>
+      </c>
+      <c r="FU1" s="1">
+        <v>44027</v>
+      </c>
+      <c r="FV1" s="1">
+        <v>44028</v>
+      </c>
+      <c r="FW1" s="1">
+        <v>44029</v>
+      </c>
+      <c r="FX1" s="1">
+        <v>44030</v>
+      </c>
+      <c r="FY1" s="1">
+        <v>44031</v>
+      </c>
+      <c r="FZ1" s="1">
+        <v>44032</v>
+      </c>
+      <c r="GA1" s="1">
+        <v>44033</v>
+      </c>
+      <c r="GB1" s="1">
+        <v>44034</v>
+      </c>
+      <c r="GC1" s="1">
+        <v>44035</v>
+      </c>
+      <c r="GD1" s="1">
+        <v>44036</v>
+      </c>
+      <c r="GE1" s="1">
+        <v>44037</v>
+      </c>
+      <c r="GF1" s="1">
+        <v>44038</v>
+      </c>
+      <c r="GG1" s="1">
+        <v>44039</v>
+      </c>
+      <c r="GH1" s="1">
+        <v>44040</v>
+      </c>
+      <c r="GI1" s="1">
+        <v>44041</v>
+      </c>
+      <c r="GJ1" s="1">
+        <v>44042</v>
+      </c>
+      <c r="GK1" s="1">
+        <v>44043</v>
+      </c>
+      <c r="GL1" s="1">
+        <v>44044</v>
+      </c>
+      <c r="GM1" s="1">
+        <v>44045</v>
+      </c>
+      <c r="GN1" s="1">
+        <v>44046</v>
+      </c>
+      <c r="GO1" s="1">
+        <v>44047</v>
+      </c>
+      <c r="GP1" s="1">
+        <v>44048</v>
+      </c>
+      <c r="GQ1" s="1">
+        <v>44049</v>
+      </c>
+      <c r="GR1" s="1">
+        <v>44050</v>
+      </c>
+      <c r="GS1" s="1">
+        <v>44051</v>
+      </c>
+      <c r="GT1" s="1">
+        <v>44052</v>
+      </c>
+      <c r="GU1" s="1">
+        <v>44053</v>
+      </c>
+      <c r="GV1" s="1">
+        <v>44054</v>
+      </c>
+      <c r="GW1" s="1">
+        <v>44055</v>
+      </c>
+      <c r="GX1" s="1">
+        <v>44056</v>
+      </c>
+      <c r="GY1" s="1">
+        <v>44057</v>
+      </c>
+      <c r="GZ1" s="1">
+        <v>44058</v>
+      </c>
+      <c r="HA1" s="1">
+        <v>44059</v>
+      </c>
+      <c r="HB1" s="1">
+        <v>44060</v>
+      </c>
+      <c r="HC1" s="1">
+        <v>44061</v>
+      </c>
+      <c r="HD1" s="1">
+        <v>44062</v>
+      </c>
+      <c r="HE1" s="1">
+        <v>44063</v>
+      </c>
+      <c r="HF1" s="1">
+        <v>44064</v>
+      </c>
+      <c r="HG1" s="1">
+        <v>44065</v>
+      </c>
+      <c r="HH1" s="1">
+        <v>44066</v>
+      </c>
+      <c r="HI1" s="1">
+        <v>44067</v>
+      </c>
+      <c r="HJ1" s="1">
+        <v>44068</v>
+      </c>
+      <c r="HK1" s="1">
+        <v>44069</v>
+      </c>
+      <c r="HL1" s="1">
+        <v>44070</v>
+      </c>
+      <c r="HM1" s="1">
+        <v>44071</v>
+      </c>
+      <c r="HN1" s="1">
+        <v>44072</v>
+      </c>
+      <c r="HO1" s="1">
+        <v>44073</v>
+      </c>
+      <c r="HP1" s="1">
+        <v>44074</v>
+      </c>
+      <c r="HQ1" s="1">
+        <v>44075</v>
+      </c>
+      <c r="HR1" s="1">
+        <v>44076</v>
+      </c>
+      <c r="HS1" s="1">
+        <v>44077</v>
+      </c>
+      <c r="HT1" s="1">
+        <v>44078</v>
+      </c>
+      <c r="HU1" s="1">
+        <v>44079</v>
+      </c>
+      <c r="HV1" s="1">
+        <v>44080</v>
+      </c>
+      <c r="HW1" s="1">
+        <v>44081</v>
+      </c>
+      <c r="HX1" s="1">
+        <v>44082</v>
+      </c>
+      <c r="HY1" s="1">
+        <v>44083</v>
+      </c>
+      <c r="HZ1" s="1">
+        <v>44084</v>
+      </c>
+      <c r="IA1" s="1">
+        <v>44085</v>
+      </c>
+      <c r="IB1" s="1">
+        <v>44086</v>
+      </c>
+      <c r="IC1" s="1">
+        <v>44087</v>
+      </c>
+      <c r="ID1" s="1">
+        <v>44088</v>
+      </c>
+      <c r="IE1" s="1">
+        <v>44089</v>
+      </c>
     </row>
-    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11766,2189 +12830,3118 @@
       <c r="FD2">
         <v>158</v>
       </c>
+      <c r="FE2">
+        <v>159</v>
+      </c>
+      <c r="FF2">
+        <v>160</v>
+      </c>
+      <c r="FG2">
+        <v>161</v>
+      </c>
+      <c r="FH2">
+        <v>162</v>
+      </c>
+      <c r="FI2">
+        <v>163</v>
+      </c>
+      <c r="FJ2">
+        <v>164</v>
+      </c>
+      <c r="FK2">
+        <v>165</v>
+      </c>
+      <c r="FL2">
+        <v>166</v>
+      </c>
+      <c r="FM2">
+        <v>167</v>
+      </c>
+      <c r="FN2">
+        <v>168</v>
+      </c>
+      <c r="FO2">
+        <v>169</v>
+      </c>
+      <c r="FP2">
+        <v>170</v>
+      </c>
+      <c r="FQ2">
+        <v>171</v>
+      </c>
+      <c r="FR2">
+        <v>172</v>
+      </c>
+      <c r="FS2">
+        <v>173</v>
+      </c>
+      <c r="FT2">
+        <v>174</v>
+      </c>
+      <c r="FU2">
+        <v>175</v>
+      </c>
+      <c r="FV2">
+        <v>176</v>
+      </c>
+      <c r="FW2">
+        <v>177</v>
+      </c>
+      <c r="FX2">
+        <v>178</v>
+      </c>
+      <c r="FY2">
+        <v>179</v>
+      </c>
+      <c r="FZ2">
+        <v>180</v>
+      </c>
+      <c r="GA2">
+        <v>181</v>
+      </c>
+      <c r="GB2">
+        <v>182</v>
+      </c>
+      <c r="GC2">
+        <v>183</v>
+      </c>
+      <c r="GD2">
+        <v>184</v>
+      </c>
+      <c r="GE2">
+        <v>185</v>
+      </c>
+      <c r="GF2">
+        <v>186</v>
+      </c>
+      <c r="GG2">
+        <v>187</v>
+      </c>
+      <c r="GH2">
+        <v>188</v>
+      </c>
+      <c r="GI2">
+        <v>189</v>
+      </c>
+      <c r="GJ2">
+        <v>190</v>
+      </c>
+      <c r="GK2">
+        <v>191</v>
+      </c>
+      <c r="GL2">
+        <v>192</v>
+      </c>
+      <c r="GM2">
+        <v>193</v>
+      </c>
+      <c r="GN2">
+        <v>194</v>
+      </c>
+      <c r="GO2">
+        <v>195</v>
+      </c>
+      <c r="GP2">
+        <v>196</v>
+      </c>
+      <c r="GQ2">
+        <v>197</v>
+      </c>
+      <c r="GR2">
+        <v>198</v>
+      </c>
+      <c r="GS2">
+        <v>199</v>
+      </c>
+      <c r="GT2">
+        <v>200</v>
+      </c>
+      <c r="GU2">
+        <v>201</v>
+      </c>
+      <c r="GV2">
+        <v>202</v>
+      </c>
+      <c r="GW2">
+        <v>203</v>
+      </c>
+      <c r="GX2">
+        <v>204</v>
+      </c>
+      <c r="GY2">
+        <v>205</v>
+      </c>
+      <c r="GZ2">
+        <v>206</v>
+      </c>
+      <c r="HA2">
+        <v>207</v>
+      </c>
+      <c r="HB2">
+        <v>208</v>
+      </c>
+      <c r="HC2">
+        <v>209</v>
+      </c>
+      <c r="HD2">
+        <v>210</v>
+      </c>
+      <c r="HE2">
+        <v>211</v>
+      </c>
+      <c r="HF2">
+        <v>212</v>
+      </c>
+      <c r="HG2">
+        <v>213</v>
+      </c>
+      <c r="HH2">
+        <v>214</v>
+      </c>
+      <c r="HI2">
+        <v>215</v>
+      </c>
+      <c r="HJ2">
+        <v>216</v>
+      </c>
+      <c r="HK2">
+        <v>217</v>
+      </c>
+      <c r="HL2">
+        <v>218</v>
+      </c>
+      <c r="HM2">
+        <v>219</v>
+      </c>
+      <c r="HN2">
+        <v>220</v>
+      </c>
+      <c r="HO2">
+        <v>221</v>
+      </c>
+      <c r="HP2">
+        <v>222</v>
+      </c>
+      <c r="HQ2">
+        <v>223</v>
+      </c>
+      <c r="HR2">
+        <v>224</v>
+      </c>
+      <c r="HS2">
+        <v>225</v>
+      </c>
+      <c r="HT2">
+        <v>226</v>
+      </c>
+      <c r="HU2">
+        <v>227</v>
+      </c>
+      <c r="HV2">
+        <v>228</v>
+      </c>
+      <c r="HW2">
+        <v>229</v>
+      </c>
+      <c r="HX2">
+        <v>230</v>
+      </c>
+      <c r="HY2">
+        <v>231</v>
+      </c>
+      <c r="HZ2">
+        <v>232</v>
+      </c>
+      <c r="IA2">
+        <v>233</v>
+      </c>
+      <c r="IB2">
+        <v>234</v>
+      </c>
+      <c r="IC2">
+        <v>235</v>
+      </c>
+      <c r="ID2">
+        <v>236</v>
+      </c>
+      <c r="IE2">
+        <v>237</v>
+      </c>
     </row>
-    <row r="3" spans="1:160" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:239" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="20">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0</v>
+      </c>
+      <c r="F3" s="20">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>1</v>
+      </c>
+      <c r="H3" s="20">
+        <v>4</v>
+      </c>
+      <c r="I3" s="20">
+        <v>4</v>
+      </c>
+      <c r="J3" s="20">
+        <v>4</v>
+      </c>
+      <c r="K3" s="20">
+        <v>5</v>
+      </c>
+      <c r="L3" s="20">
+        <v>8</v>
+      </c>
+      <c r="M3" s="20">
         <v>10</v>
       </c>
-      <c r="B3" s="22">
-        <v>0</v>
-      </c>
-      <c r="C3" s="22">
-        <v>0</v>
-      </c>
-      <c r="D3" s="22">
-        <v>0</v>
-      </c>
-      <c r="E3" s="22">
-        <v>0</v>
-      </c>
-      <c r="F3" s="22">
-        <v>0</v>
-      </c>
-      <c r="G3" s="22">
-        <v>1</v>
-      </c>
-      <c r="H3" s="22">
-        <v>4</v>
-      </c>
-      <c r="I3" s="22">
-        <v>4</v>
-      </c>
-      <c r="J3" s="22">
-        <v>4</v>
-      </c>
-      <c r="K3" s="22">
-        <v>5</v>
-      </c>
-      <c r="L3" s="22">
-        <v>8</v>
-      </c>
-      <c r="M3" s="22">
-        <v>10</v>
-      </c>
-      <c r="N3" s="22">
+      <c r="N3" s="20">
         <v>12</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O3" s="20">
         <v>12</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="20">
         <v>12</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="20">
         <v>12</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="20">
         <v>13</v>
       </c>
-      <c r="S3" s="22">
+      <c r="S3" s="20">
         <v>13</v>
       </c>
-      <c r="T3" s="22">
+      <c r="T3" s="20">
         <v>14</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="20">
         <v>14</v>
       </c>
-      <c r="V3" s="22">
+      <c r="V3" s="20">
         <v>16</v>
       </c>
-      <c r="W3" s="22">
+      <c r="W3" s="20">
         <v>16</v>
       </c>
-      <c r="X3" s="22">
+      <c r="X3" s="20">
         <v>16</v>
       </c>
-      <c r="Y3" s="22">
+      <c r="Y3" s="20">
         <v>16</v>
       </c>
-      <c r="Z3" s="22">
+      <c r="Z3" s="20">
         <v>16</v>
       </c>
-      <c r="AA3" s="22">
+      <c r="AA3" s="20">
         <v>16</v>
       </c>
-      <c r="AB3" s="22">
+      <c r="AB3" s="20">
         <v>16</v>
       </c>
-      <c r="AC3" s="22">
+      <c r="AC3" s="20">
         <v>16</v>
       </c>
-      <c r="AD3" s="22">
+      <c r="AD3" s="20">
         <v>16</v>
       </c>
-      <c r="AE3" s="22">
+      <c r="AE3" s="20">
         <v>16</v>
       </c>
-      <c r="AF3" s="22">
+      <c r="AF3" s="20">
         <v>16</v>
       </c>
-      <c r="AG3" s="22">
+      <c r="AG3" s="20">
         <v>16</v>
       </c>
-      <c r="AH3" s="22">
+      <c r="AH3" s="20">
         <v>16</v>
       </c>
-      <c r="AI3" s="22">
+      <c r="AI3" s="20">
         <v>16</v>
       </c>
-      <c r="AJ3" s="22">
+      <c r="AJ3" s="20">
         <v>17</v>
       </c>
-      <c r="AK3" s="22">
+      <c r="AK3" s="20">
         <v>27</v>
       </c>
-      <c r="AL3" s="22">
+      <c r="AL3" s="20">
         <v>46</v>
       </c>
-      <c r="AM3" s="22">
+      <c r="AM3" s="20">
         <v>48</v>
       </c>
-      <c r="AN3" s="22">
+      <c r="AN3" s="20">
         <v>79</v>
       </c>
-      <c r="AO3" s="22">
+      <c r="AO3" s="20">
         <v>130</v>
       </c>
-      <c r="AP3" s="22">
+      <c r="AP3" s="20">
         <v>159</v>
       </c>
-      <c r="AQ3" s="22">
+      <c r="AQ3" s="20">
         <v>196</v>
       </c>
-      <c r="AR3" s="22">
+      <c r="AR3" s="20">
         <v>262</v>
       </c>
-      <c r="AS3" s="22">
+      <c r="AS3" s="20">
         <v>482</v>
       </c>
-      <c r="AT3" s="22">
+      <c r="AT3" s="20">
         <v>670</v>
       </c>
-      <c r="AU3" s="22">
+      <c r="AU3" s="20">
         <v>799</v>
       </c>
-      <c r="AV3" s="22">
+      <c r="AV3" s="20">
         <v>1040</v>
       </c>
-      <c r="AW3" s="22">
+      <c r="AW3" s="20">
         <v>1176</v>
       </c>
-      <c r="AX3" s="22">
+      <c r="AX3" s="20">
         <v>1457</v>
       </c>
-      <c r="AY3" s="22">
+      <c r="AY3" s="20">
         <v>1966</v>
       </c>
-      <c r="AZ3" s="22">
+      <c r="AZ3" s="20">
         <v>2745</v>
       </c>
-      <c r="BA3" s="22">
+      <c r="BA3" s="20">
         <v>3675</v>
       </c>
-      <c r="BB3" s="22">
+      <c r="BB3" s="20">
         <v>4599</v>
       </c>
-      <c r="BC3" s="22">
+      <c r="BC3" s="20">
         <v>5813</v>
       </c>
-      <c r="BD3" s="23">
+      <c r="BD3" s="21">
         <v>7272</v>
       </c>
-      <c r="BE3" s="22">
+      <c r="BE3" s="20">
         <v>9367</v>
       </c>
-      <c r="BF3" s="22">
+      <c r="BF3" s="20">
         <v>12327</v>
       </c>
-      <c r="BG3" s="22">
+      <c r="BG3" s="20">
         <v>15320</v>
       </c>
-      <c r="BH3" s="22">
+      <c r="BH3" s="20">
         <v>19848</v>
       </c>
-      <c r="BI3" s="22">
+      <c r="BI3" s="20">
         <v>22364</v>
       </c>
-      <c r="BJ3" s="22">
+      <c r="BJ3" s="20">
         <v>24873</v>
       </c>
-      <c r="BK3" s="22">
+      <c r="BK3" s="20">
         <v>29056</v>
       </c>
-      <c r="BL3" s="22">
+      <c r="BL3" s="20">
         <v>32991</v>
       </c>
-      <c r="BM3" s="22">
+      <c r="BM3" s="20">
         <v>37323</v>
       </c>
-      <c r="BN3" s="22">
+      <c r="BN3" s="20">
         <v>43938</v>
       </c>
-      <c r="BO3" s="23">
+      <c r="BO3" s="21">
         <v>50871</v>
       </c>
-      <c r="BP3" s="23">
+      <c r="BP3" s="21">
         <v>57695</v>
       </c>
-      <c r="BQ3" s="23">
+      <c r="BQ3" s="21">
         <v>62435</v>
       </c>
-      <c r="BR3" s="23">
+      <c r="BR3" s="21">
         <v>66885</v>
       </c>
-      <c r="BS3" s="23">
+      <c r="BS3" s="21">
         <v>71808</v>
       </c>
-      <c r="BT3" s="23">
+      <c r="BT3" s="21">
         <v>77766</v>
       </c>
-      <c r="BU3" s="23">
+      <c r="BU3" s="21">
         <v>84794</v>
       </c>
-      <c r="BV3" s="23">
+      <c r="BV3" s="21">
         <v>91159</v>
       </c>
-      <c r="BW3" s="23">
+      <c r="BW3" s="21">
         <v>96092</v>
       </c>
-      <c r="BX3" s="23">
+      <c r="BX3" s="21">
         <v>100123</v>
       </c>
-      <c r="BY3" s="23">
+      <c r="BY3" s="21">
         <v>103374</v>
       </c>
-      <c r="BZ3" s="23">
+      <c r="BZ3" s="21">
         <v>107663</v>
       </c>
-      <c r="CA3" s="23">
+      <c r="CA3" s="21">
         <v>113296</v>
       </c>
-      <c r="CB3" s="23">
+      <c r="CB3" s="21">
         <v>118235</v>
       </c>
-      <c r="CC3" s="23">
+      <c r="CC3" s="21">
         <v>122171</v>
       </c>
-      <c r="CD3" s="23">
+      <c r="CD3" s="21">
         <v>125452</v>
       </c>
-      <c r="CE3" s="23">
+      <c r="CE3" s="21">
         <v>127854</v>
       </c>
-      <c r="CF3" s="23">
+      <c r="CF3" s="21">
         <v>130072</v>
       </c>
-      <c r="CG3" s="22">
+      <c r="CG3" s="20">
         <v>132210</v>
       </c>
-      <c r="CH3" s="23">
+      <c r="CH3" s="21">
         <v>134753</v>
       </c>
-      <c r="CI3" s="23">
+      <c r="CI3" s="21">
         <v>137698</v>
       </c>
-      <c r="CJ3" s="23">
+      <c r="CJ3" s="21">
         <v>141397</v>
       </c>
-      <c r="CK3" s="23">
+      <c r="CK3" s="21">
         <v>143475</v>
       </c>
-      <c r="CL3" s="23">
+      <c r="CL3" s="21">
         <v>145742</v>
       </c>
-      <c r="CM3" s="23">
+      <c r="CM3" s="21">
         <v>147065</v>
       </c>
-      <c r="CN3" s="23">
+      <c r="CN3" s="21">
         <v>148453</v>
       </c>
-      <c r="CO3" s="23">
+      <c r="CO3" s="21">
         <v>150648</v>
       </c>
-      <c r="CP3" s="23">
+      <c r="CP3" s="21">
         <v>153129</v>
       </c>
-      <c r="CQ3" s="23">
+      <c r="CQ3" s="21">
         <v>154999</v>
       </c>
-      <c r="CR3" s="23">
+      <c r="CR3" s="21">
         <v>156513</v>
       </c>
-      <c r="CS3" s="23">
+      <c r="CS3" s="21">
         <v>157770</v>
       </c>
-      <c r="CT3" s="23">
+      <c r="CT3" s="21">
         <v>158758</v>
       </c>
-      <c r="CU3" s="23">
+      <c r="CU3" s="21">
         <v>159912</v>
       </c>
-      <c r="CV3" s="23">
+      <c r="CV3" s="21">
         <v>161539</v>
       </c>
-      <c r="CW3" s="23">
+      <c r="CW3" s="21">
         <v>163009</v>
       </c>
-      <c r="CX3" s="23">
+      <c r="CX3" s="21">
         <v>164077</v>
       </c>
-      <c r="CY3" s="22">
+      <c r="CY3" s="20">
         <v>164967</v>
       </c>
-      <c r="CZ3" s="22">
+      <c r="CZ3" s="20">
         <v>165664</v>
       </c>
-      <c r="DA3" s="22">
+      <c r="DA3" s="20">
         <v>165664</v>
       </c>
-      <c r="DB3" s="22">
+      <c r="DB3" s="20">
         <v>167007</v>
       </c>
-      <c r="DC3" s="22">
+      <c r="DC3" s="20">
         <v>168162</v>
       </c>
-      <c r="DD3" s="22">
+      <c r="DD3" s="20">
         <v>169430</v>
       </c>
-      <c r="DE3" s="22">
+      <c r="DE3" s="20">
         <v>170588</v>
       </c>
-      <c r="DF3" s="22">
+      <c r="DF3" s="20">
         <v>171324</v>
       </c>
-      <c r="DG3" s="22">
+      <c r="DG3" s="20">
         <v>171879</v>
       </c>
-      <c r="DH3" s="22">
+      <c r="DH3" s="20">
         <v>172576</v>
       </c>
-      <c r="DI3" s="22">
+      <c r="DI3" s="20">
         <v>173171</v>
       </c>
-      <c r="DJ3" s="22">
+      <c r="DJ3" s="20">
         <v>174098</v>
       </c>
-      <c r="DK3" s="22">
+      <c r="DK3" s="20">
         <v>174975</v>
       </c>
-      <c r="DL3" s="22">
+      <c r="DL3" s="20">
         <v>175699</v>
       </c>
-      <c r="DM3" s="22">
+      <c r="DM3" s="20">
         <v>176244</v>
       </c>
-      <c r="DN3" s="22">
+      <c r="DN3" s="20">
         <v>176651</v>
       </c>
+      <c r="DO3" s="20">
+        <v>177289</v>
+      </c>
+      <c r="DP3" s="20">
+        <v>177827</v>
+      </c>
+      <c r="DQ3" s="20">
+        <v>178531</v>
+      </c>
+      <c r="DR3" s="20">
+        <v>179021</v>
+      </c>
+      <c r="DS3" s="20">
+        <v>179713</v>
+      </c>
+      <c r="DT3" s="20">
+        <v>179986</v>
+      </c>
     </row>
-    <row r="4" spans="1:160" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:239" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AI4" s="10">
         <f>AI3/$CV$12</f>
-        <v>1.9583843329253365E-7</v>
+        <v>1.9103160349241591E-7</v>
       </c>
       <c r="AJ4" s="10">
         <f t="shared" ref="AJ4:CU4" si="1">AJ3/$CV$12</f>
-        <v>2.08078335373317E-7</v>
+        <v>2.0297107871069189E-7</v>
       </c>
       <c r="AK4" s="10">
         <f t="shared" si="1"/>
-        <v>3.3047735618115057E-7</v>
+        <v>3.2236583089345184E-7</v>
       </c>
       <c r="AL4" s="10">
         <f t="shared" si="1"/>
-        <v>5.6303549571603428E-7</v>
+        <v>5.4921586004069571E-7</v>
       </c>
       <c r="AM4" s="10">
         <f t="shared" si="1"/>
-        <v>5.8751529987760099E-7</v>
+        <v>5.7309481047724767E-7</v>
       </c>
       <c r="AN4" s="10">
         <f t="shared" si="1"/>
-        <v>9.6695226438188488E-7</v>
+        <v>9.4321854224380346E-7</v>
       </c>
       <c r="AO4" s="10">
         <f t="shared" si="1"/>
-        <v>1.591187270501836E-6</v>
+        <v>1.5521317783758791E-6</v>
       </c>
       <c r="AP4" s="10">
         <f t="shared" si="1"/>
-        <v>1.9461444308445532E-6</v>
+        <v>1.8983765597058831E-6</v>
       </c>
       <c r="AQ4" s="10">
         <f t="shared" si="1"/>
-        <v>2.3990208078335372E-6</v>
+        <v>2.3401371427820948E-6</v>
       </c>
       <c r="AR4" s="10">
         <f t="shared" si="1"/>
-        <v>3.2068543451652388E-6</v>
+        <v>3.1281425071883101E-6</v>
       </c>
       <c r="AS4" s="10">
         <f t="shared" si="1"/>
-        <v>5.8996328029375761E-6</v>
+        <v>5.754827055209029E-6</v>
       </c>
       <c r="AT4" s="10">
         <f t="shared" si="1"/>
-        <v>8.2007343941248477E-6</v>
+        <v>7.999448396244916E-6</v>
       </c>
       <c r="AU4" s="10">
         <f t="shared" si="1"/>
-        <v>9.7796817625459003E-6</v>
+        <v>9.5396406994025181E-6</v>
       </c>
       <c r="AV4" s="10">
         <f t="shared" si="1"/>
-        <v>1.2729498164014688E-5</v>
+        <v>1.2417054227007033E-5</v>
       </c>
       <c r="AW4" s="10">
         <f t="shared" si="1"/>
-        <v>1.4394124847001225E-5</v>
+        <v>1.4040822856692568E-5</v>
       </c>
       <c r="AX4" s="10">
         <f t="shared" si="1"/>
-        <v>1.7833537331701347E-5</v>
+        <v>1.7395815393028124E-5</v>
       </c>
       <c r="AY4" s="10">
         <f t="shared" si="1"/>
-        <v>2.4063647490820075E-5</v>
+        <v>2.3473008279130603E-5</v>
       </c>
       <c r="AZ4" s="10">
         <f t="shared" si="1"/>
-        <v>3.3598531211750307E-5</v>
+        <v>3.2773859474167603E-5</v>
       </c>
       <c r="BA4" s="10">
         <f t="shared" si="1"/>
-        <v>4.4981640146878826E-5</v>
+        <v>4.3877571427164274E-5</v>
       </c>
       <c r="BB4" s="10">
         <f t="shared" si="1"/>
-        <v>5.6291309669522643E-5</v>
+        <v>5.4909646528851295E-5</v>
       </c>
       <c r="BC4" s="10">
         <f t="shared" si="1"/>
-        <v>7.1150550795593632E-5</v>
+        <v>6.9404169443838357E-5</v>
       </c>
       <c r="BD4" s="10">
         <f t="shared" si="1"/>
-        <v>8.9008567931456555E-5</v>
+        <v>8.6823863787303029E-5</v>
       </c>
       <c r="BE4" s="10">
         <f t="shared" si="1"/>
-        <v>1.1465116279069768E-4</v>
+        <v>1.1183706436959123E-4</v>
       </c>
       <c r="BF4" s="10">
         <f t="shared" si="1"/>
-        <v>1.508812729498164E-4</v>
+        <v>1.4717791101568817E-4</v>
       </c>
       <c r="BG4" s="10">
         <f t="shared" si="1"/>
-        <v>1.8751529987760099E-4</v>
+        <v>1.8291276034398821E-4</v>
       </c>
       <c r="BH4" s="10">
         <f t="shared" si="1"/>
-        <v>2.42937576499388E-4</v>
+        <v>2.3697470413234191E-4</v>
       </c>
       <c r="BI4" s="10">
         <f t="shared" si="1"/>
-        <v>2.7373317013463892E-4</v>
+        <v>2.6701442378152429E-4</v>
       </c>
       <c r="BJ4" s="10">
         <f t="shared" si="1"/>
-        <v>3.0444308445532435E-4</v>
+        <v>2.969705671041788E-4</v>
       </c>
       <c r="BK4" s="10">
         <f t="shared" si="1"/>
-        <v>3.5564259485924111E-4</v>
+        <v>3.4691339194222728E-4</v>
       </c>
       <c r="BL4" s="10">
         <f t="shared" si="1"/>
-        <v>4.0380660954712365E-4</v>
+        <v>3.938952269261433E-4</v>
       </c>
       <c r="BM4" s="10">
         <f t="shared" si="1"/>
-        <v>4.5682986536107713E-4</v>
+        <v>4.4561703357171489E-4</v>
       </c>
       <c r="BN4" s="10">
         <f t="shared" si="1"/>
-        <v>5.3779681762545898E-4</v>
+        <v>5.2459666214061057E-4</v>
       </c>
       <c r="BO4" s="10">
         <f t="shared" si="1"/>
-        <v>6.2265605875152998E-4</v>
+        <v>6.0737304382891806E-4</v>
       </c>
       <c r="BP4" s="10">
         <f t="shared" si="1"/>
-        <v>7.0618115055079563E-4</v>
+        <v>6.8884802271843341E-4</v>
       </c>
       <c r="BQ4" s="10">
         <f t="shared" si="1"/>
-        <v>7.6419828641370873E-4</v>
+        <v>7.4544113525306169E-4</v>
       </c>
       <c r="BR4" s="10">
         <f t="shared" si="1"/>
-        <v>8.1866585067319464E-4</v>
+        <v>7.9857179997438977E-4</v>
       </c>
       <c r="BS4" s="10">
         <f t="shared" si="1"/>
-        <v>8.7892288861689109E-4</v>
+        <v>8.5734983647396256E-4</v>
       </c>
       <c r="BT4" s="10">
         <f t="shared" si="1"/>
-        <v>9.5184822521419824E-4</v>
+        <v>9.2848522982445086E-4</v>
       </c>
       <c r="BU4" s="10">
         <f t="shared" si="1"/>
-        <v>1.0378702570379436E-3</v>
+        <v>1.0123958616584947E-3</v>
       </c>
       <c r="BV4" s="10">
         <f t="shared" si="1"/>
-        <v>1.1157772337821298E-3</v>
+        <v>1.0883906214228212E-3</v>
       </c>
       <c r="BW4" s="10">
         <f t="shared" si="1"/>
-        <v>1.176156670746634E-3</v>
+        <v>1.1472880526745767E-3</v>
       </c>
       <c r="BX4" s="10">
         <f t="shared" si="1"/>
-        <v>1.2254957160342716E-3</v>
+        <v>1.1954160772794473E-3</v>
       </c>
       <c r="BY4" s="10">
         <f t="shared" si="1"/>
-        <v>1.2652876376988984E-3</v>
+        <v>1.2342313112140625E-3</v>
       </c>
       <c r="BZ4" s="10">
         <f t="shared" si="1"/>
-        <v>1.3177845777233783E-3</v>
+        <v>1.2854397204252483E-3</v>
       </c>
       <c r="CA4" s="10">
         <f t="shared" si="1"/>
-        <v>1.3867319461444308E-3</v>
+        <v>1.3526947843297971E-3</v>
       </c>
       <c r="CB4" s="10">
         <f t="shared" si="1"/>
-        <v>1.4471848225214199E-3</v>
+        <v>1.411663852432862E-3</v>
       </c>
       <c r="CC4" s="10">
         <f t="shared" si="1"/>
-        <v>1.4953610771113832E-3</v>
+        <v>1.4586576268919964E-3</v>
       </c>
       <c r="CD4" s="10">
         <f t="shared" si="1"/>
-        <v>1.5355201958384332E-3</v>
+        <v>1.4978310450831599E-3</v>
       </c>
       <c r="CE4" s="10">
         <f t="shared" si="1"/>
-        <v>1.5649204406364748E-3</v>
+        <v>1.5265096645574589E-3</v>
       </c>
       <c r="CF4" s="10">
         <f t="shared" si="1"/>
-        <v>1.5920685434516525E-3</v>
+        <v>1.5529914205915951E-3</v>
       </c>
       <c r="CG4" s="10">
         <f t="shared" si="1"/>
-        <v>1.6182374541003671E-3</v>
+        <v>1.5785180186082691E-3</v>
       </c>
       <c r="CH4" s="10">
         <f t="shared" si="1"/>
-        <v>1.6493635250917993E-3</v>
+        <v>1.608880104088345E-3</v>
       </c>
       <c r="CI4" s="10">
         <f t="shared" si="1"/>
-        <v>1.6854100367197063E-3</v>
+        <v>1.6440418586061677E-3</v>
       </c>
       <c r="CJ4" s="10">
         <f t="shared" si="1"/>
-        <v>1.7306854345165239E-3</v>
+        <v>1.6882059774385708E-3</v>
       </c>
       <c r="CK4" s="10">
-        <f t="shared" si="1"/>
-        <v>1.7561199510403916E-3</v>
+        <f>CK3/$CV$12</f>
+        <v>1.7130162069421482E-3</v>
       </c>
       <c r="CL4" s="10">
         <f t="shared" si="1"/>
-        <v>1.7838678090575275E-3</v>
+        <v>1.7400829972619798E-3</v>
       </c>
       <c r="CM4" s="10">
         <f t="shared" si="1"/>
-        <v>1.800061199510404E-3</v>
+        <v>1.755878922975759E-3</v>
       </c>
       <c r="CN4" s="10">
         <f t="shared" si="1"/>
-        <v>1.8170501835985313E-3</v>
+        <v>1.772450914578726E-3</v>
       </c>
       <c r="CO4" s="10">
         <f t="shared" si="1"/>
-        <v>1.8439167686658507E-3</v>
+        <v>1.7986580626828418E-3</v>
       </c>
       <c r="CP4" s="10">
         <f t="shared" si="1"/>
-        <v>1.8742839657282741E-3</v>
+        <v>1.8282799006993846E-3</v>
       </c>
       <c r="CQ4" s="10">
         <f t="shared" si="1"/>
-        <v>1.897172582619339E-3</v>
+        <v>1.8506067193575608E-3</v>
       </c>
       <c r="CR4" s="10">
         <f t="shared" si="1"/>
-        <v>1.9157037943696451E-3</v>
+        <v>1.8686830848380306E-3</v>
       </c>
       <c r="CS4" s="10">
         <f t="shared" si="1"/>
-        <v>1.9310893512851897E-3</v>
+        <v>1.8836910051874035E-3</v>
       </c>
       <c r="CT4" s="10">
         <f t="shared" si="1"/>
-        <v>1.9431823745410036E-3</v>
+        <v>1.8954872067030602E-3</v>
       </c>
       <c r="CU4" s="10">
         <f t="shared" si="1"/>
-        <v>1.9573072215422278E-3</v>
+        <v>1.9092653611049507E-3</v>
       </c>
       <c r="CV4" s="10">
         <f t="shared" ref="CV4:CY4" si="2">CV3/$CV$12</f>
-        <v>1.977221542227662E-3</v>
+        <v>1.9286908872850857E-3</v>
       </c>
       <c r="CW4" s="10">
         <f t="shared" si="2"/>
-        <v>1.9952141982864137E-3</v>
+        <v>1.9462419158559514E-3</v>
       </c>
       <c r="CX4" s="10">
         <f t="shared" si="2"/>
-        <v>2.0082864137086903E-3</v>
+        <v>1.9589932753890701E-3</v>
       </c>
       <c r="CY4" s="10">
         <f t="shared" si="2"/>
-        <v>2.0191799265605877E-3</v>
+        <v>1.9696194083333356E-3</v>
       </c>
       <c r="CZ4" s="10">
         <f t="shared" ref="CZ4:DC4" si="3">CZ3/$CV$12</f>
-        <v>2.0277111383108933E-3</v>
+        <v>1.9779412225604744E-3</v>
       </c>
       <c r="DA4" s="10">
         <f t="shared" si="3"/>
-        <v>2.0277111383108933E-3</v>
+        <v>1.9779412225604744E-3</v>
       </c>
       <c r="DB4" s="10">
         <f t="shared" si="3"/>
-        <v>2.0441493268053856E-3</v>
+        <v>1.9939759377786189E-3</v>
       </c>
       <c r="DC4" s="10">
         <f t="shared" si="3"/>
-        <v>2.0582864137086905E-3</v>
+        <v>2.0077660316557278E-3</v>
       </c>
       <c r="DD4" s="10">
         <f t="shared" ref="DD4:DE4" si="4">DD3/$CV$12</f>
-        <v>2.0738066095471238E-3</v>
+        <v>2.0229052862325014E-3</v>
       </c>
       <c r="DE4" s="10">
         <f t="shared" si="4"/>
-        <v>2.0879804161566709E-3</v>
+        <v>2.036731198535265E-3</v>
       </c>
       <c r="DF4" s="10">
         <f t="shared" ref="DF4:DH4" si="5">DF3/$CV$12</f>
-        <v>2.0969889840881271E-3</v>
+        <v>2.0455186522959161E-3</v>
       </c>
       <c r="DG4" s="10">
         <f t="shared" si="5"/>
-        <v>2.1037821297429623E-3</v>
+        <v>2.0521450610420594E-3</v>
       </c>
       <c r="DH4" s="10">
         <f t="shared" si="5"/>
-        <v>2.1123133414932679E-3</v>
+        <v>2.0604668752691978E-3</v>
       </c>
       <c r="DI4" s="10">
         <f t="shared" ref="DI4:DJ4" si="6">DI3/$CV$12</f>
-        <v>2.1195960832313342E-3</v>
+        <v>2.0675708630240723E-3</v>
       </c>
       <c r="DJ4" s="10">
         <f t="shared" si="6"/>
-        <v>2.1309424724602205E-3</v>
+        <v>2.0786387565514138E-3</v>
       </c>
       <c r="DK4" s="10">
         <f t="shared" ref="DK4:DN4" si="7">DK3/$CV$12</f>
-        <v>2.1416768665850675E-3</v>
+        <v>2.089109676317842E-3</v>
       </c>
       <c r="DL4" s="10">
         <f t="shared" si="7"/>
-        <v>2.1505385556915544E-3</v>
+        <v>2.0977538563758738E-3</v>
       </c>
       <c r="DM4" s="10">
         <f t="shared" si="7"/>
-        <v>2.1572093023255814E-3</v>
+        <v>2.1042608703698341E-3</v>
       </c>
       <c r="DN4" s="10">
         <f t="shared" si="7"/>
-        <v>2.1621909424724603E-3</v>
+        <v>2.1091202367836724E-3</v>
+      </c>
+      <c r="DO4" s="10">
+        <f t="shared" ref="DO4:DS4" si="8">DO3/$CV$12</f>
+        <v>2.1167376219729324E-3</v>
+      </c>
+      <c r="DP4" s="10">
+        <f t="shared" si="8"/>
+        <v>2.1231610596403653E-3</v>
+      </c>
+      <c r="DQ4" s="10">
+        <f t="shared" si="8"/>
+        <v>2.1315664501940315E-3</v>
+      </c>
+      <c r="DR4" s="10">
+        <f t="shared" si="8"/>
+        <v>2.1374167930509865E-3</v>
+      </c>
+      <c r="DS4" s="10">
+        <f t="shared" si="8"/>
+        <v>2.1456789099020337E-3</v>
+      </c>
+      <c r="DT4" s="10">
+        <f t="shared" ref="DT4" si="9">DT3/$CV$12</f>
+        <v>2.1489383866366229E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:160" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI5" s="33">
+    <row r="5" spans="1:239" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI5" s="35">
         <f>CV11</f>
         <v>1E-4</v>
       </c>
-      <c r="AJ5" s="38">
-        <f t="shared" ref="AJ5:BH5" si="8">AI5*EXP(($CV$17*(1-AI5)-1)/$CV$13)</f>
+      <c r="AJ5" s="37">
+        <f t="shared" ref="AJ5:BH5" si="10">AI5*EXP(($CV$17*(1-AI5)-1)/$CV$13)</f>
         <v>1.2839804765846141E-4</v>
       </c>
-      <c r="AK5" s="38">
-        <f t="shared" si="8"/>
+      <c r="AK5" s="37">
+        <f t="shared" si="10"/>
         <v>1.6485894783161188E-4</v>
       </c>
-      <c r="AL5" s="38">
-        <f t="shared" si="8"/>
+      <c r="AL5" s="37">
+        <f t="shared" si="10"/>
         <v>2.1167086528916837E-4</v>
       </c>
-      <c r="AM5" s="38">
-        <f t="shared" si="8"/>
+      <c r="AM5" s="37">
+        <f t="shared" si="10"/>
         <v>2.7177063618374388E-4</v>
       </c>
-      <c r="AN5" s="38">
-        <f t="shared" si="8"/>
+      <c r="AN5" s="37">
+        <f t="shared" si="10"/>
         <v>3.489272129310451E-4</v>
       </c>
-      <c r="AO5" s="38">
-        <f t="shared" si="8"/>
+      <c r="AO5" s="37">
+        <f t="shared" si="10"/>
         <v>4.4797669769548509E-4</v>
       </c>
-      <c r="AP5" s="38">
-        <f t="shared" si="8"/>
+      <c r="AP5" s="37">
+        <f t="shared" si="10"/>
         <v>5.7512328421477951E-4</v>
       </c>
-      <c r="AQ5" s="38">
-        <f t="shared" si="8"/>
+      <c r="AQ5" s="37">
+        <f t="shared" si="10"/>
         <v>7.3832428008197362E-4</v>
       </c>
-      <c r="AR5" s="38">
-        <f t="shared" si="8"/>
+      <c r="AR5" s="37">
+        <f t="shared" si="10"/>
         <v>9.4778219002383379E-4</v>
       </c>
-      <c r="AS5" s="38">
-        <f t="shared" si="8"/>
+      <c r="AS5" s="37">
+        <f t="shared" si="10"/>
         <v>1.2165727884233294E-3</v>
       </c>
-      <c r="AT5" s="38">
-        <f t="shared" si="8"/>
+      <c r="AT5" s="37">
+        <f t="shared" si="10"/>
         <v>1.5614453758322007E-3</v>
       </c>
-      <c r="AU5" s="38">
-        <f t="shared" si="8"/>
+      <c r="AU5" s="37">
+        <f t="shared" si="10"/>
         <v>2.0038401396194547E-3</v>
       </c>
-      <c r="AV5" s="38">
-        <f t="shared" si="8"/>
+      <c r="AV5" s="37">
+        <f t="shared" si="10"/>
         <v>2.5711777575238895E-3</v>
       </c>
-      <c r="AW5" s="38">
-        <f t="shared" si="8"/>
+      <c r="AW5" s="37">
+        <f t="shared" si="10"/>
         <v>3.2984879058971261E-3</v>
       </c>
-      <c r="AX5" s="38">
-        <f t="shared" si="8"/>
+      <c r="AX5" s="37">
+        <f t="shared" si="10"/>
         <v>4.2304555502782728E-3</v>
       </c>
-      <c r="AY5" s="38">
-        <f t="shared" si="8"/>
+      <c r="AY5" s="37">
+        <f t="shared" si="10"/>
         <v>5.4239754417025341E-3</v>
       </c>
-      <c r="AZ5" s="38">
-        <f t="shared" si="8"/>
+      <c r="AZ5" s="37">
+        <f t="shared" si="10"/>
         <v>6.9513134790624553E-3</v>
       </c>
-      <c r="BA5" s="38">
-        <f t="shared" si="8"/>
+      <c r="BA5" s="37">
+        <f t="shared" si="10"/>
         <v>8.9039738028911727E-3</v>
       </c>
-      <c r="BB5" s="38">
-        <f t="shared" si="8"/>
+      <c r="BB5" s="37">
+        <f t="shared" si="10"/>
         <v>1.1397354658404166E-2</v>
       </c>
-      <c r="BC5" s="38">
-        <f t="shared" si="8"/>
+      <c r="BC5" s="37">
+        <f t="shared" si="10"/>
         <v>1.4576231269268521E-2</v>
       </c>
-      <c r="BD5" s="38">
-        <f t="shared" si="8"/>
+      <c r="BD5" s="37">
+        <f t="shared" si="10"/>
         <v>1.862101023765253E-2</v>
       </c>
-      <c r="BE5" s="38">
-        <f t="shared" si="8"/>
+      <c r="BE5" s="37">
+        <f t="shared" si="10"/>
         <v>2.375452817499165E-2</v>
       </c>
-      <c r="BF5" s="38">
-        <f t="shared" si="8"/>
+      <c r="BF5" s="37">
+        <f t="shared" si="10"/>
         <v>3.0248877835623633E-2</v>
       </c>
-      <c r="BG5" s="38">
-        <f t="shared" si="8"/>
+      <c r="BG5" s="37">
+        <f t="shared" si="10"/>
         <v>3.8431290332989025E-2</v>
       </c>
-      <c r="BH5" s="36">
-        <f t="shared" si="8"/>
+      <c r="BH5" s="38">
+        <f t="shared" si="10"/>
         <v>4.8687436947574506E-2</v>
       </c>
-      <c r="BI5" s="37">
-        <f t="shared" ref="BI5:BP5" si="9">BH5*EXP(($CV$18*(1-BH5)-1)/$CV$13)</f>
+      <c r="BI5" s="39">
+        <f t="shared" ref="BI5:BP5" si="11">BH5*EXP(($CV$18*(1-BH5)-1)/$CV$13)</f>
         <v>5.6416535320700373E-2</v>
       </c>
-      <c r="BJ5" s="37">
-        <f t="shared" si="9"/>
+      <c r="BJ5" s="39">
+        <f t="shared" si="11"/>
         <v>6.5241384279887099E-2</v>
       </c>
-      <c r="BK5" s="37">
-        <f t="shared" si="9"/>
+      <c r="BK5" s="39">
+        <f t="shared" si="11"/>
         <v>7.527373249381919E-2</v>
       </c>
-      <c r="BL5" s="37">
-        <f t="shared" si="9"/>
+      <c r="BL5" s="39">
+        <f t="shared" si="11"/>
         <v>8.6622540571482096E-2</v>
       </c>
-      <c r="BM5" s="37">
-        <f t="shared" si="9"/>
+      <c r="BM5" s="39">
+        <f t="shared" si="11"/>
         <v>9.9388678112578593E-2</v>
       </c>
-      <c r="BN5" s="37">
-        <f t="shared" si="9"/>
+      <c r="BN5" s="39">
+        <f t="shared" si="11"/>
         <v>0.11365836475226639</v>
       </c>
-      <c r="BO5" s="37">
-        <f t="shared" si="9"/>
+      <c r="BO5" s="39">
+        <f t="shared" si="11"/>
         <v>0.12949547957095819</v>
       </c>
-      <c r="BP5" s="37">
-        <f t="shared" si="9"/>
+      <c r="BP5" s="39">
+        <f t="shared" si="11"/>
         <v>0.14693306589776656</v>
       </c>
-      <c r="BQ5" s="35">
-        <f t="shared" ref="BQ5:BY5" si="10">BP5*EXP(($CV$19*(1-BP5)-1)/$CV$13)</f>
+      <c r="BQ5" s="40">
+        <f t="shared" ref="BQ5:BY5" si="12">BP5*EXP(($CV$19*(1-BP5)-1)/$CV$13)</f>
         <v>0.15849276371481125</v>
       </c>
-      <c r="BR5" s="35">
-        <f t="shared" si="10"/>
+      <c r="BR5" s="40">
+        <f t="shared" si="12"/>
         <v>0.17055527336627552</v>
       </c>
-      <c r="BS5" s="35">
-        <f t="shared" si="10"/>
+      <c r="BS5" s="40">
+        <f t="shared" si="12"/>
         <v>0.18308033431442436</v>
       </c>
-      <c r="BT5" s="35">
-        <f t="shared" si="10"/>
+      <c r="BT5" s="40">
+        <f t="shared" si="12"/>
         <v>0.19601878431330463</v>
       </c>
-      <c r="BU5" s="35">
-        <f t="shared" si="10"/>
+      <c r="BU5" s="40">
+        <f t="shared" si="12"/>
         <v>0.20931297573615074</v>
       </c>
-      <c r="BV5" s="35">
-        <f t="shared" si="10"/>
+      <c r="BV5" s="40">
+        <f t="shared" si="12"/>
         <v>0.22289752805482305</v>
       </c>
-      <c r="BW5" s="35">
-        <f t="shared" si="10"/>
+      <c r="BW5" s="40">
+        <f t="shared" si="12"/>
         <v>0.23670041259262309</v>
       </c>
-      <c r="BX5" s="35">
-        <f t="shared" si="10"/>
+      <c r="BX5" s="40">
+        <f t="shared" si="12"/>
         <v>0.25064434312354011</v>
       </c>
-      <c r="BY5" s="35">
-        <f t="shared" si="10"/>
+      <c r="BY5" s="40">
+        <f t="shared" si="12"/>
         <v>0.26464842312485537</v>
       </c>
-      <c r="BZ5" s="36">
+      <c r="BZ5" s="38">
         <f>BY5*EXP(($CV$20*(1-BY5)-1)/$CV$13)</f>
         <v>0.27265078302217449</v>
       </c>
-      <c r="CA5" s="36">
-        <f t="shared" ref="CA5:CY5" si="11">BZ5*EXP(($CV$20*(1-BZ5)-1)/$CV$13)</f>
+      <c r="CA5" s="38">
+        <f t="shared" ref="CA5:CY5" si="13">BZ5*EXP(($CV$20*(1-BZ5)-1)/$CV$13)</f>
         <v>0.28049865503287463</v>
       </c>
-      <c r="CB5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CB5" s="38">
+        <f t="shared" si="13"/>
         <v>0.28817297787135182</v>
       </c>
-      <c r="CC5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CC5" s="38">
+        <f t="shared" si="13"/>
         <v>0.29565652346655569</v>
       </c>
-      <c r="CD5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CD5" s="38">
+        <f t="shared" si="13"/>
         <v>0.30293401528590425</v>
       </c>
-      <c r="CE5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CE5" s="38">
+        <f t="shared" si="13"/>
         <v>0.30999220647568099</v>
       </c>
-      <c r="CF5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CF5" s="38">
+        <f t="shared" si="13"/>
         <v>0.31681991859579656</v>
       </c>
-      <c r="CG5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CG5" s="38">
+        <f t="shared" si="13"/>
         <v>0.32340804291054587</v>
       </c>
-      <c r="CH5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CH5" s="38">
+        <f t="shared" si="13"/>
         <v>0.32974950719423179</v>
       </c>
-      <c r="CI5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CI5" s="38">
+        <f t="shared" si="13"/>
         <v>0.33583921179156667</v>
       </c>
-      <c r="CJ5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CJ5" s="38">
+        <f t="shared" si="13"/>
         <v>0.34167393922427108</v>
       </c>
-      <c r="CK5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CK5" s="38">
+        <f t="shared" si="13"/>
         <v>0.34725224195907223</v>
       </c>
-      <c r="CL5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CL5" s="38">
+        <f t="shared" si="13"/>
         <v>0.35257431306298476</v>
       </c>
-      <c r="CM5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CM5" s="38">
+        <f t="shared" si="13"/>
         <v>0.35764184439383478</v>
       </c>
-      <c r="CN5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CN5" s="38">
+        <f t="shared" si="13"/>
         <v>0.36245787673859997</v>
       </c>
-      <c r="CO5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CO5" s="38">
+        <f t="shared" si="13"/>
         <v>0.36702664595389106</v>
       </c>
-      <c r="CP5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CP5" s="38">
+        <f t="shared" si="13"/>
         <v>0.37135342871704108</v>
       </c>
-      <c r="CQ5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CQ5" s="38">
+        <f t="shared" si="13"/>
         <v>0.37544439099635563</v>
       </c>
-      <c r="CR5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CR5" s="38">
+        <f t="shared" si="13"/>
         <v>0.3793064418252603</v>
       </c>
-      <c r="CS5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CS5" s="38">
+        <f t="shared" si="13"/>
         <v>0.38294709444297176</v>
       </c>
-      <c r="CT5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CT5" s="38">
+        <f t="shared" si="13"/>
         <v>0.38637433636444091</v>
       </c>
-      <c r="CU5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CU5" s="38">
+        <f t="shared" si="13"/>
         <v>0.38959650948000901</v>
       </c>
-      <c r="CV5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CV5" s="38">
+        <f t="shared" si="13"/>
         <v>0.39262220087091732</v>
       </c>
-      <c r="CW5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CW5" s="38">
+        <f t="shared" si="13"/>
         <v>0.39546014466657109</v>
       </c>
-      <c r="CX5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CX5" s="38">
+        <f t="shared" si="13"/>
         <v>0.39811913496563311</v>
       </c>
-      <c r="CY5" s="36">
-        <f t="shared" si="11"/>
+      <c r="CY5" s="38">
+        <f t="shared" si="13"/>
         <v>0.40060794959500312</v>
       </c>
-      <c r="CZ5" s="36">
-        <f t="shared" ref="CZ5" si="12">CY5*EXP(($CV$20*(1-CY5)-1)/$CV$13)</f>
+      <c r="CZ5" s="38">
+        <f t="shared" ref="CZ5" si="14">CY5*EXP(($CV$20*(1-CY5)-1)/$CV$13)</f>
         <v>0.40293528428567654</v>
       </c>
-      <c r="DA5" s="36">
-        <f t="shared" ref="DA5" si="13">CZ5*EXP(($CV$20*(1-CZ5)-1)/$CV$13)</f>
+      <c r="DA5" s="38">
+        <f t="shared" ref="DA5" si="15">CZ5*EXP(($CV$20*(1-CZ5)-1)/$CV$13)</f>
         <v>0.4051096966979808</v>
       </c>
-      <c r="DB5" s="35">
+      <c r="DB5" s="40">
         <f>DA5*EXP(($CV$21*(1-DA5)-1)/$CV$13)</f>
         <v>0.40798815457179177</v>
       </c>
-      <c r="DC5" s="35">
-        <f t="shared" ref="DC5:EG5" si="14">DB5*EXP(($CV$21*(1-DB5)-1)/$CV$13)</f>
+      <c r="DC5" s="40">
+        <f t="shared" ref="DC5:EG5" si="16">DB5*EXP(($CV$21*(1-DB5)-1)/$CV$13)</f>
         <v>0.41067423032194728</v>
       </c>
-      <c r="DD5" s="35">
-        <f t="shared" si="14"/>
+      <c r="DD5" s="40">
+        <f t="shared" si="16"/>
         <v>0.4131781730981216</v>
       </c>
-      <c r="DE5" s="35">
-        <f t="shared" si="14"/>
+      <c r="DE5" s="40">
+        <f t="shared" si="16"/>
         <v>0.41551006616470088</v>
       </c>
-      <c r="DF5" s="35">
-        <f t="shared" si="14"/>
+      <c r="DF5" s="40">
+        <f t="shared" si="16"/>
         <v>0.41767976594052436</v>
       </c>
-      <c r="DG5" s="35">
-        <f t="shared" si="14"/>
+      <c r="DG5" s="40">
+        <f t="shared" si="16"/>
         <v>0.41969685247727756</v>
       </c>
-      <c r="DH5" s="35">
-        <f t="shared" si="14"/>
+      <c r="DH5" s="40">
+        <f t="shared" si="16"/>
         <v>0.4215705902856598</v>
       </c>
-      <c r="DI5" s="35">
-        <f t="shared" si="14"/>
+      <c r="DI5" s="40">
+        <f t="shared" si="16"/>
         <v>0.42330989840577604</v>
       </c>
-      <c r="DJ5" s="35">
-        <f t="shared" si="14"/>
+      <c r="DJ5" s="40">
+        <f t="shared" si="16"/>
         <v>0.42492332863693094</v>
       </c>
-      <c r="DK5" s="35">
-        <f t="shared" ref="DK5" si="15">DJ5*EXP(($CV$21*(1-DJ5)-1)/$CV$13)</f>
+      <c r="DK5" s="40">
+        <f t="shared" ref="DK5" si="17">DJ5*EXP(($CV$21*(1-DJ5)-1)/$CV$13)</f>
         <v>0.42641905088440629</v>
       </c>
-      <c r="DL5" s="35">
-        <f t="shared" ref="DL5" si="16">DK5*EXP(($CV$21*(1-DK5)-1)/$CV$13)</f>
+      <c r="DL5" s="40">
+        <f t="shared" ref="DL5" si="18">DK5*EXP(($CV$21*(1-DK5)-1)/$CV$13)</f>
         <v>0.427804844640161</v>
       </c>
-      <c r="DM5" s="35">
-        <f t="shared" ref="DM5" si="17">DL5*EXP(($CV$21*(1-DL5)-1)/$CV$13)</f>
+      <c r="DM5" s="40">
+        <f t="shared" ref="DM5" si="19">DL5*EXP(($CV$21*(1-DL5)-1)/$CV$13)</f>
         <v>0.42908809568503775</v>
       </c>
-      <c r="DN5" s="35">
-        <f t="shared" ref="DN5" si="18">DM5*EXP(($CV$21*(1-DM5)-1)/$CV$13)</f>
+      <c r="DN5" s="40">
+        <f t="shared" ref="DN5" si="20">DM5*EXP(($CV$21*(1-DM5)-1)/$CV$13)</f>
         <v>0.43027579717732312</v>
       </c>
-      <c r="DO5" s="35">
-        <f t="shared" si="14"/>
+      <c r="DO5" s="40">
+        <f t="shared" ref="DO5" si="21">DN5*EXP(($CV$21*(1-DN5)-1)/$CV$13)</f>
         <v>0.43137455437265082</v>
       </c>
-      <c r="DP5" s="35">
-        <f t="shared" si="14"/>
+      <c r="DP5" s="40">
+        <f t="shared" ref="DP5" si="22">DO5*EXP(($CV$21*(1-DO5)-1)/$CV$13)</f>
         <v>0.43239059230037208</v>
       </c>
-      <c r="DQ5" s="35">
-        <f t="shared" si="14"/>
+      <c r="DQ5" s="40">
+        <f t="shared" ref="DQ5" si="23">DP5*EXP(($CV$21*(1-DP5)-1)/$CV$13)</f>
         <v>0.43332976579945515</v>
       </c>
-      <c r="DR5" s="35">
-        <f t="shared" si="14"/>
+      <c r="DR5" s="40">
+        <f t="shared" ref="DR5" si="24">DQ5*EXP(($CV$21*(1-DQ5)-1)/$CV$13)</f>
         <v>0.43419757139117637</v>
       </c>
-      <c r="DS5" s="35">
-        <f t="shared" si="14"/>
+      <c r="DS5" s="40">
+        <f t="shared" ref="DS5:DT5" si="25">DR5*EXP(($CV$21*(1-DR5)-1)/$CV$13)</f>
         <v>0.43499916053526216</v>
       </c>
-      <c r="DT5" s="35">
-        <f t="shared" si="14"/>
+      <c r="DT5" s="40">
+        <f t="shared" si="25"/>
         <v>0.43573935388010537</v>
       </c>
-      <c r="DU5" s="35">
-        <f t="shared" si="14"/>
+      <c r="DU5" s="40">
+        <f t="shared" si="16"/>
         <v>0.43642265617588843</v>
       </c>
-      <c r="DV5" s="35">
-        <f t="shared" si="14"/>
+      <c r="DV5" s="40">
+        <f t="shared" si="16"/>
         <v>0.43705327157183027</v>
       </c>
-      <c r="DW5" s="35">
-        <f t="shared" si="14"/>
+      <c r="DW5" s="40">
+        <f t="shared" si="16"/>
         <v>0.43763511906544628</v>
       </c>
-      <c r="DX5" s="35">
-        <f t="shared" si="14"/>
+      <c r="DX5" s="40">
+        <f t="shared" si="16"/>
         <v>0.4381718479129143</v>
       </c>
-      <c r="DY5" s="35">
-        <f t="shared" si="14"/>
+      <c r="DY5" s="40">
+        <f t="shared" si="16"/>
         <v>0.43866685284570672</v>
       </c>
-      <c r="DZ5" s="35">
-        <f t="shared" si="14"/>
+      <c r="DZ5" s="40">
+        <f t="shared" si="16"/>
         <v>0.43912328896996211</v>
       </c>
-      <c r="EA5" s="35">
-        <f t="shared" si="14"/>
+      <c r="EA5" s="40">
+        <f t="shared" si="16"/>
         <v>0.43954408625204433</v>
       </c>
-      <c r="EB5" s="35">
-        <f t="shared" si="14"/>
+      <c r="EB5" s="40">
+        <f t="shared" si="16"/>
         <v>0.43993196351679115</v>
       </c>
-      <c r="EC5" s="35">
-        <f t="shared" si="14"/>
+      <c r="EC5" s="40">
+        <f t="shared" si="16"/>
         <v>0.44028944190450431</v>
       </c>
-      <c r="ED5" s="35">
-        <f t="shared" si="14"/>
+      <c r="ED5" s="40">
+        <f t="shared" si="16"/>
         <v>0.44061885774917564</v>
       </c>
-      <c r="EE5" s="35">
-        <f t="shared" si="14"/>
+      <c r="EE5" s="40">
+        <f t="shared" si="16"/>
         <v>0.44092237485415225</v>
       </c>
-      <c r="EF5" s="35">
-        <f t="shared" si="14"/>
+      <c r="EF5" s="40">
+        <f t="shared" si="16"/>
         <v>0.4412019961527649</v>
       </c>
-      <c r="EG5" s="35">
-        <f t="shared" si="14"/>
+      <c r="EG5" s="40">
+        <f t="shared" si="16"/>
         <v>0.4414595747506968</v>
       </c>
-      <c r="EH5" s="35">
-        <f t="shared" ref="EH5:FB5" si="19">EG5*EXP(($CV$21*(1-EG5)-1)/$CV$13)</f>
+      <c r="EH5" s="40">
+        <f t="shared" ref="EH5:FB5" si="26">EG5*EXP(($CV$21*(1-EG5)-1)/$CV$13)</f>
         <v>0.44169682435433716</v>
       </c>
-      <c r="EI5" s="35">
-        <f t="shared" si="19"/>
+      <c r="EI5" s="40">
+        <f t="shared" si="26"/>
         <v>0.44191532909530457</v>
       </c>
-      <c r="EJ5" s="35">
-        <f t="shared" si="19"/>
+      <c r="EJ5" s="40">
+        <f t="shared" si="26"/>
         <v>0.4421165527659684</v>
       </c>
-      <c r="EK5" s="35">
-        <f t="shared" si="19"/>
+      <c r="EK5" s="40">
+        <f t="shared" si="26"/>
         <v>0.44230184748433832</v>
       </c>
-      <c r="EL5" s="35">
-        <f t="shared" si="19"/>
+      <c r="EL5" s="40">
+        <f t="shared" si="26"/>
         <v>0.4424724618093161</v>
       </c>
-      <c r="EM5" s="35">
-        <f t="shared" si="19"/>
+      <c r="EM5" s="40">
+        <f t="shared" si="26"/>
         <v>0.44262954832915469</v>
       </c>
-      <c r="EN5" s="35">
-        <f t="shared" si="19"/>
+      <c r="EN5" s="40">
+        <f t="shared" si="26"/>
         <v>0.44277417074718783</v>
       </c>
-      <c r="EO5" s="35">
-        <f t="shared" si="19"/>
+      <c r="EO5" s="40">
+        <f t="shared" si="26"/>
         <v>0.44290731048958815</v>
       </c>
-      <c r="EP5" s="35">
-        <f t="shared" si="19"/>
+      <c r="EP5" s="40">
+        <f t="shared" si="26"/>
         <v>0.44302987286018203</v>
       </c>
-      <c r="EQ5" s="35">
-        <f t="shared" si="19"/>
+      <c r="EQ5" s="40">
+        <f t="shared" si="26"/>
         <v>0.44314269276728058</v>
       </c>
-      <c r="ER5" s="35">
-        <f t="shared" si="19"/>
+      <c r="ER5" s="40">
+        <f t="shared" si="26"/>
         <v>0.44324654004714475</v>
       </c>
-      <c r="ES5" s="35">
-        <f t="shared" si="19"/>
+      <c r="ES5" s="40">
+        <f t="shared" si="26"/>
         <v>0.44334212440815168</v>
       </c>
-      <c r="ET5" s="35">
-        <f t="shared" si="19"/>
+      <c r="ET5" s="40">
+        <f t="shared" si="26"/>
         <v>0.44343010001901834</v>
       </c>
-      <c r="EU5" s="35">
-        <f t="shared" si="19"/>
+      <c r="EU5" s="40">
+        <f t="shared" si="26"/>
         <v>0.44351106976360583</v>
       </c>
-      <c r="EV5" s="35">
-        <f t="shared" si="19"/>
+      <c r="EV5" s="40">
+        <f t="shared" si="26"/>
         <v>0.44358558918391322</v>
       </c>
-      <c r="EW5" s="35">
-        <f t="shared" si="19"/>
+      <c r="EW5" s="40">
+        <f t="shared" si="26"/>
         <v>0.44365417013189429</v>
       </c>
-      <c r="EX5" s="35">
-        <f t="shared" si="19"/>
+      <c r="EX5" s="40">
+        <f t="shared" si="26"/>
         <v>0.44371728414972872</v>
       </c>
-      <c r="EY5" s="35">
-        <f t="shared" si="19"/>
+      <c r="EY5" s="40">
+        <f t="shared" si="26"/>
         <v>0.44377536559715314</v>
       </c>
-      <c r="EZ5" s="35">
-        <f t="shared" si="19"/>
+      <c r="EZ5" s="40">
+        <f t="shared" si="26"/>
         <v>0.44382881454344147</v>
       </c>
-      <c r="FA5" s="35">
-        <f t="shared" si="19"/>
+      <c r="FA5" s="40">
+        <f t="shared" si="26"/>
         <v>0.44387799944061229</v>
       </c>
-      <c r="FB5" s="35">
-        <f t="shared" si="19"/>
+      <c r="FB5" s="40">
+        <f t="shared" si="26"/>
         <v>0.44392325959345486</v>
       </c>
-      <c r="FC5" s="35">
-        <f t="shared" ref="FC5:FD5" si="20">FB5*EXP(($CV$21*(1-FB5)-1)/$CV$13)</f>
+      <c r="FC5" s="40">
+        <f t="shared" ref="FC5:FD5" si="27">FB5*EXP(($CV$21*(1-FB5)-1)/$CV$13)</f>
         <v>0.44396490744100708</v>
       </c>
-      <c r="FD5" s="35">
-        <f t="shared" si="20"/>
+      <c r="FD5" s="40">
+        <f t="shared" si="27"/>
         <v>0.44400323066319181</v>
       </c>
+      <c r="FE5" s="40">
+        <f t="shared" ref="FE5" si="28">FD5*EXP(($CV$21*(1-FD5)-1)/$CV$13)</f>
+        <v>0.44403849412543062</v>
+      </c>
+      <c r="FF5" s="40">
+        <f t="shared" ref="FF5" si="29">FE5*EXP(($CV$21*(1-FE5)-1)/$CV$13)</f>
+        <v>0.44407094167320654</v>
+      </c>
+      <c r="FG5" s="40">
+        <f t="shared" ref="FG5" si="30">FF5*EXP(($CV$21*(1-FF5)-1)/$CV$13)</f>
+        <v>0.44410079778773748</v>
+      </c>
+      <c r="FH5" s="40">
+        <f t="shared" ref="FH5" si="31">FG5*EXP(($CV$21*(1-FG5)-1)/$CV$13)</f>
+        <v>0.44412826911315945</v>
+      </c>
+      <c r="FI5" s="40">
+        <f t="shared" ref="FI5" si="32">FH5*EXP(($CV$21*(1-FH5)-1)/$CV$13)</f>
+        <v>0.44415354586489386</v>
+      </c>
+      <c r="FJ5" s="40">
+        <f t="shared" ref="FJ5" si="33">FI5*EXP(($CV$21*(1-FI5)-1)/$CV$13)</f>
+        <v>0.44417680312819097</v>
+      </c>
+      <c r="FK5" s="40">
+        <f t="shared" ref="FK5" si="34">FJ5*EXP(($CV$21*(1-FJ5)-1)/$CV$13)</f>
+        <v>0.44419820205520105</v>
+      </c>
+      <c r="FL5" s="40">
+        <f t="shared" ref="FL5" si="35">FK5*EXP(($CV$21*(1-FK5)-1)/$CV$13)</f>
+        <v>0.44421789096832281</v>
+      </c>
+      <c r="FM5" s="40">
+        <f t="shared" ref="FM5" si="36">FL5*EXP(($CV$21*(1-FL5)-1)/$CV$13)</f>
+        <v>0.44423600637701394</v>
+      </c>
+      <c r="FN5" s="40">
+        <f t="shared" ref="FN5" si="37">FM5*EXP(($CV$21*(1-FM5)-1)/$CV$13)</f>
+        <v>0.4442526739147229</v>
+      </c>
+      <c r="FO5" s="40">
+        <f t="shared" ref="FO5" si="38">FN5*EXP(($CV$21*(1-FN5)-1)/$CV$13)</f>
+        <v>0.44426800920210763</v>
+      </c>
+      <c r="FP5" s="40">
+        <f t="shared" ref="FP5" si="39">FO5*EXP(($CV$21*(1-FO5)-1)/$CV$13)</f>
+        <v>0.44428211864224854</v>
+      </c>
+      <c r="FQ5" s="40">
+        <f t="shared" ref="FQ5" si="40">FP5*EXP(($CV$21*(1-FP5)-1)/$CV$13)</f>
+        <v>0.4442951001531345</v>
+      </c>
+      <c r="FR5" s="40">
+        <f t="shared" ref="FR5" si="41">FQ5*EXP(($CV$21*(1-FQ5)-1)/$CV$13)</f>
+        <v>0.44430704384230441</v>
+      </c>
+      <c r="FS5" s="40">
+        <f t="shared" ref="FS5" si="42">FR5*EXP(($CV$21*(1-FR5)-1)/$CV$13)</f>
+        <v>0.44431803262815645</v>
+      </c>
+      <c r="FT5" s="40">
+        <f t="shared" ref="FT5" si="43">FS5*EXP(($CV$21*(1-FS5)-1)/$CV$13)</f>
+        <v>0.44432814281209271</v>
+      </c>
+      <c r="FU5" s="40">
+        <f t="shared" ref="FU5" si="44">FT5*EXP(($CV$21*(1-FT5)-1)/$CV$13)</f>
+        <v>0.44433744460535118</v>
+      </c>
+      <c r="FV5" s="40">
+        <f t="shared" ref="FV5" si="45">FU5*EXP(($CV$21*(1-FU5)-1)/$CV$13)</f>
+        <v>0.44434600261407808</v>
+      </c>
+      <c r="FW5" s="40">
+        <f t="shared" ref="FW5" si="46">FV5*EXP(($CV$21*(1-FV5)-1)/$CV$13)</f>
+        <v>0.44435387628592316</v>
+      </c>
+      <c r="FX5" s="40">
+        <f t="shared" ref="FX5" si="47">FW5*EXP(($CV$21*(1-FW5)-1)/$CV$13)</f>
+        <v>0.44436112032118541</v>
+      </c>
+      <c r="FY5" s="40">
+        <f t="shared" ref="FY5" si="48">FX5*EXP(($CV$21*(1-FX5)-1)/$CV$13)</f>
+        <v>0.4443677850513022</v>
+      </c>
+      <c r="FZ5" s="40">
+        <f t="shared" ref="FZ5" si="49">FY5*EXP(($CV$21*(1-FY5)-1)/$CV$13)</f>
+        <v>0.44437391678725924</v>
+      </c>
+      <c r="GA5" s="40">
+        <f t="shared" ref="GA5" si="50">FZ5*EXP(($CV$21*(1-FZ5)-1)/$CV$13)</f>
+        <v>0.44437955814029539</v>
+      </c>
+      <c r="GB5" s="40">
+        <f t="shared" ref="GB5" si="51">GA5*EXP(($CV$21*(1-GA5)-1)/$CV$13)</f>
+        <v>0.44438474831709479</v>
+      </c>
+      <c r="GC5" s="40">
+        <f t="shared" ref="GC5" si="52">GB5*EXP(($CV$21*(1-GB5)-1)/$CV$13)</f>
+        <v>0.44438952339148458</v>
+      </c>
+      <c r="GD5" s="40">
+        <f t="shared" ref="GD5" si="53">GC5*EXP(($CV$21*(1-GC5)-1)/$CV$13)</f>
+        <v>0.44439391655449834</v>
+      </c>
+      <c r="GE5" s="40">
+        <f t="shared" ref="GE5" si="54">GD5*EXP(($CV$21*(1-GD5)-1)/$CV$13)</f>
+        <v>0.44439795834452189</v>
+      </c>
+      <c r="GF5" s="40">
+        <f t="shared" ref="GF5" si="55">GE5*EXP(($CV$21*(1-GE5)-1)/$CV$13)</f>
+        <v>0.44440167685910065</v>
+      </c>
+      <c r="GG5" s="40">
+        <f t="shared" ref="GG5" si="56">GF5*EXP(($CV$21*(1-GF5)-1)/$CV$13)</f>
+        <v>0.44440509794986421</v>
+      </c>
+      <c r="GH5" s="40">
+        <f t="shared" ref="GH5" si="57">GG5*EXP(($CV$21*(1-GG5)-1)/$CV$13)</f>
+        <v>0.44440824540190993</v>
+      </c>
+      <c r="GI5" s="40">
+        <f t="shared" ref="GI5" si="58">GH5*EXP(($CV$21*(1-GH5)-1)/$CV$13)</f>
+        <v>0.44441114109887986</v>
+      </c>
+      <c r="GJ5" s="40">
+        <f t="shared" ref="GJ5" si="59">GI5*EXP(($CV$21*(1-GI5)-1)/$CV$13)</f>
+        <v>0.44441380517486978</v>
+      </c>
+      <c r="GK5" s="40">
+        <f t="shared" ref="GK5" si="60">GJ5*EXP(($CV$21*(1-GJ5)-1)/$CV$13)</f>
+        <v>0.44441625615421676</v>
+      </c>
+      <c r="GL5" s="40">
+        <f t="shared" ref="GL5" si="61">GK5*EXP(($CV$21*(1-GK5)-1)/$CV$13)</f>
+        <v>0.44441851108013125</v>
+      </c>
+      <c r="GM5" s="40">
+        <f t="shared" ref="GM5" si="62">GL5*EXP(($CV$21*(1-GL5)-1)/$CV$13)</f>
+        <v>0.44442058563306125</v>
+      </c>
+      <c r="GN5" s="40">
+        <f t="shared" ref="GN5" si="63">GM5*EXP(($CV$21*(1-GM5)-1)/$CV$13)</f>
+        <v>0.4444224942396065</v>
+      </c>
+      <c r="GO5" s="40">
+        <f t="shared" ref="GO5" si="64">GN5*EXP(($CV$21*(1-GN5)-1)/$CV$13)</f>
+        <v>0.4444242501727364</v>
+      </c>
+      <c r="GP5" s="40">
+        <f t="shared" ref="GP5" si="65">GO5*EXP(($CV$21*(1-GO5)-1)/$CV$13)</f>
+        <v>0.44442586564400355</v>
+      </c>
+      <c r="GQ5" s="40">
+        <f t="shared" ref="GQ5" si="66">GP5*EXP(($CV$21*(1-GP5)-1)/$CV$13)</f>
+        <v>0.44442735188839305</v>
+      </c>
+      <c r="GR5" s="40">
+        <f t="shared" ref="GR5" si="67">GQ5*EXP(($CV$21*(1-GQ5)-1)/$CV$13)</f>
+        <v>0.44442871924239263</v>
+      </c>
+      <c r="GS5" s="40">
+        <f t="shared" ref="GS5" si="68">GR5*EXP(($CV$21*(1-GR5)-1)/$CV$13)</f>
+        <v>0.44442997721582633</v>
+      </c>
+      <c r="GT5" s="40">
+        <f t="shared" ref="GT5" si="69">GS5*EXP(($CV$21*(1-GS5)-1)/$CV$13)</f>
+        <v>0.44443113455794858</v>
+      </c>
+      <c r="GU5" s="40">
+        <f t="shared" ref="GU5" si="70">GT5*EXP(($CV$21*(1-GT5)-1)/$CV$13)</f>
+        <v>0.44443219931825617</v>
+      </c>
+      <c r="GV5" s="40">
+        <f t="shared" ref="GV5" si="71">GU5*EXP(($CV$21*(1-GU5)-1)/$CV$13)</f>
+        <v>0.44443317890244105</v>
+      </c>
+      <c r="GW5" s="40">
+        <f t="shared" ref="GW5" si="72">GV5*EXP(($CV$21*(1-GV5)-1)/$CV$13)</f>
+        <v>0.44443408012387087</v>
+      </c>
+      <c r="GX5" s="40">
+        <f t="shared" ref="GX5" si="73">GW5*EXP(($CV$21*(1-GW5)-1)/$CV$13)</f>
+        <v>0.44443490925095469</v>
+      </c>
+      <c r="GY5" s="40">
+        <f t="shared" ref="GY5" si="74">GX5*EXP(($CV$21*(1-GX5)-1)/$CV$13)</f>
+        <v>0.44443567205072293</v>
+      </c>
+      <c r="GZ5" s="40">
+        <f t="shared" ref="GZ5" si="75">GY5*EXP(($CV$21*(1-GY5)-1)/$CV$13)</f>
+        <v>0.44443637382892287</v>
+      </c>
+      <c r="HA5" s="40">
+        <f t="shared" ref="HA5" si="76">GZ5*EXP(($CV$21*(1-GZ5)-1)/$CV$13)</f>
+        <v>0.44443701946690928</v>
+      </c>
+      <c r="HB5" s="40">
+        <f t="shared" ref="HB5" si="77">HA5*EXP(($CV$21*(1-HA5)-1)/$CV$13)</f>
+        <v>0.44443761345558558</v>
+      </c>
+      <c r="HC5" s="40">
+        <f t="shared" ref="HC5" si="78">HB5*EXP(($CV$21*(1-HB5)-1)/$CV$13)</f>
+        <v>0.44443815992663105</v>
+      </c>
+      <c r="HD5" s="40">
+        <f t="shared" ref="HD5" si="79">HC5*EXP(($CV$21*(1-HC5)-1)/$CV$13)</f>
+        <v>0.44443866268123133</v>
+      </c>
+      <c r="HE5" s="40">
+        <f t="shared" ref="HE5" si="80">HD5*EXP(($CV$21*(1-HD5)-1)/$CV$13)</f>
+        <v>0.44443912521651185</v>
+      </c>
+      <c r="HF5" s="40">
+        <f t="shared" ref="HF5" si="81">HE5*EXP(($CV$21*(1-HE5)-1)/$CV$13)</f>
+        <v>0.44443955074985725</v>
+      </c>
+      <c r="HG5" s="40">
+        <f t="shared" ref="HG5" si="82">HF5*EXP(($CV$21*(1-HF5)-1)/$CV$13)</f>
+        <v>0.44443994224128597</v>
+      </c>
+      <c r="HH5" s="40">
+        <f t="shared" ref="HH5" si="83">HG5*EXP(($CV$21*(1-HG5)-1)/$CV$13)</f>
+        <v>0.44444030241403604</v>
+      </c>
+      <c r="HI5" s="40">
+        <f t="shared" ref="HI5" si="84">HH5*EXP(($CV$21*(1-HH5)-1)/$CV$13)</f>
+        <v>0.44444063377350412</v>
+      </c>
+      <c r="HJ5" s="40">
+        <f t="shared" ref="HJ5" si="85">HI5*EXP(($CV$21*(1-HI5)-1)/$CV$13)</f>
+        <v>0.44444093862467005</v>
+      </c>
+      <c r="HK5" s="40">
+        <f t="shared" ref="HK5" si="86">HJ5*EXP(($CV$21*(1-HJ5)-1)/$CV$13)</f>
+        <v>0.44444121908812817</v>
+      </c>
+      <c r="HL5" s="40">
+        <f t="shared" ref="HL5" si="87">HK5*EXP(($CV$21*(1-HK5)-1)/$CV$13)</f>
+        <v>0.44444147711483589</v>
+      </c>
+      <c r="HM5" s="40">
+        <f t="shared" ref="HM5" si="88">HL5*EXP(($CV$21*(1-HL5)-1)/$CV$13)</f>
+        <v>0.44444171449968306</v>
+      </c>
+      <c r="HN5" s="40">
+        <f t="shared" ref="HN5" si="89">HM5*EXP(($CV$21*(1-HM5)-1)/$CV$13)</f>
+        <v>0.44444193289397621</v>
+      </c>
+      <c r="HO5" s="40">
+        <f t="shared" ref="HO5" si="90">HN5*EXP(($CV$21*(1-HN5)-1)/$CV$13)</f>
+        <v>0.44444213381692371</v>
+      </c>
+      <c r="HP5" s="40">
+        <f t="shared" ref="HP5" si="91">HO5*EXP(($CV$21*(1-HO5)-1)/$CV$13)</f>
+        <v>0.44444231866620282</v>
+      </c>
+      <c r="HQ5" s="40">
+        <f t="shared" ref="HQ5" si="92">HP5*EXP(($CV$21*(1-HP5)-1)/$CV$13)</f>
+        <v>0.44444248872768127</v>
+      </c>
+      <c r="HR5" s="40">
+        <f t="shared" ref="HR5" si="93">HQ5*EXP(($CV$21*(1-HQ5)-1)/$CV$13)</f>
+        <v>0.44444264518436144</v>
+      </c>
+      <c r="HS5" s="40">
+        <f t="shared" ref="HS5" si="94">HR5*EXP(($CV$21*(1-HR5)-1)/$CV$13)</f>
+        <v>0.44444278912460866</v>
+      </c>
+      <c r="HT5" s="40">
+        <f t="shared" ref="HT5" si="95">HS5*EXP(($CV$21*(1-HS5)-1)/$CV$13)</f>
+        <v>0.44444292154972204</v>
+      </c>
+      <c r="HU5" s="40">
+        <f t="shared" ref="HU5" si="96">HT5*EXP(($CV$21*(1-HT5)-1)/$CV$13)</f>
+        <v>0.44444304338089907</v>
+      </c>
+      <c r="HV5" s="40">
+        <f t="shared" ref="HV5" si="97">HU5*EXP(($CV$21*(1-HU5)-1)/$CV$13)</f>
+        <v>0.4444431554656435</v>
+      </c>
+      <c r="HW5" s="40">
+        <f t="shared" ref="HW5" si="98">HV5*EXP(($CV$21*(1-HV5)-1)/$CV$13)</f>
+        <v>0.44444325858366052</v>
+      </c>
+      <c r="HX5" s="40">
+        <f t="shared" ref="HX5" si="99">HW5*EXP(($CV$21*(1-HW5)-1)/$CV$13)</f>
+        <v>0.44444335345228025</v>
+      </c>
+      <c r="HY5" s="40">
+        <f t="shared" ref="HY5" si="100">HX5*EXP(($CV$21*(1-HX5)-1)/$CV$13)</f>
+        <v>0.44444344073144776</v>
+      </c>
+      <c r="HZ5" s="40">
+        <f t="shared" ref="HZ5" si="101">HY5*EXP(($CV$21*(1-HY5)-1)/$CV$13)</f>
+        <v>0.44444352102831347</v>
+      </c>
+      <c r="IA5" s="40">
+        <f t="shared" ref="IA5" si="102">HZ5*EXP(($CV$21*(1-HZ5)-1)/$CV$13)</f>
+        <v>0.44444359490145657</v>
+      </c>
+      <c r="IB5" s="40">
+        <f t="shared" ref="IB5" si="103">IA5*EXP(($CV$21*(1-IA5)-1)/$CV$13)</f>
+        <v>0.44444366286477094</v>
+      </c>
+      <c r="IC5" s="40">
+        <f t="shared" ref="IC5" si="104">IB5*EXP(($CV$21*(1-IB5)-1)/$CV$13)</f>
+        <v>0.44444372539103921</v>
+      </c>
+      <c r="ID5" s="40">
+        <f t="shared" ref="ID5" si="105">IC5*EXP(($CV$21*(1-IC5)-1)/$CV$13)</f>
+        <v>0.44444378291522224</v>
+      </c>
+      <c r="IE5" s="40">
+        <f t="shared" ref="IE5" si="106">ID5*EXP(($CV$21*(1-ID5)-1)/$CV$13)</f>
+        <v>0.44444383583748442</v>
+      </c>
     </row>
-    <row r="6" spans="1:160" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI6">
-        <f t="shared" ref="AI6:BN6" si="21">AI5/$CV$23</f>
-        <v>5.0175614651279476E-7</v>
-      </c>
-      <c r="AJ6">
-        <f t="shared" si="21"/>
-        <v>6.442450961287576E-7</v>
-      </c>
-      <c r="AK6">
-        <f t="shared" si="21"/>
-        <v>8.2718990382143434E-7</v>
-      </c>
-      <c r="AL6">
-        <f t="shared" si="21"/>
-        <v>1.0620715769652201E-6</v>
-      </c>
-      <c r="AM6">
-        <f t="shared" si="21"/>
-        <v>1.3636258714688604E-6</v>
-      </c>
-      <c r="AN6">
-        <f t="shared" si="21"/>
-        <v>1.7507637377373061E-6</v>
-      </c>
-      <c r="AO6">
-        <f t="shared" si="21"/>
-        <v>2.2477506156321377E-6</v>
-      </c>
-      <c r="AP6">
-        <f t="shared" si="21"/>
-        <v>2.885716428573906E-6</v>
-      </c>
-      <c r="AQ6">
-        <f t="shared" si="21"/>
-        <v>3.7045874565076445E-6</v>
-      </c>
-      <c r="AR6">
-        <f t="shared" si="21"/>
-        <v>4.7555553939981624E-6</v>
-      </c>
-      <c r="AS6">
-        <f t="shared" si="21"/>
-        <v>6.104228742716153E-6</v>
-      </c>
-      <c r="AT6">
-        <f t="shared" si="21"/>
-        <v>7.834648147677876E-6</v>
-      </c>
-      <c r="AU6">
-        <f t="shared" si="21"/>
-        <v>1.0054391066831183E-5</v>
-      </c>
-      <c r="AV6">
-        <f t="shared" si="21"/>
-        <v>1.2901042436145957E-5</v>
-      </c>
-      <c r="AW6">
-        <f t="shared" si="21"/>
-        <v>1.6550365809819999E-5</v>
-      </c>
-      <c r="AX6">
-        <f t="shared" si="21"/>
-        <v>2.1226570749012908E-5</v>
-      </c>
-      <c r="AY6">
-        <f t="shared" si="21"/>
-        <v>2.7215130164086974E-5</v>
-      </c>
-      <c r="AZ6">
-        <f t="shared" si="21"/>
-        <v>3.4878642644568264E-5</v>
-      </c>
-      <c r="BA6">
-        <f t="shared" si="21"/>
-        <v>4.4676235839895495E-5</v>
-      </c>
-      <c r="BB6">
-        <f t="shared" si="21"/>
-        <v>5.7186927538405244E-5</v>
-      </c>
-      <c r="BC6">
-        <f t="shared" si="21"/>
-        <v>7.3137136323474767E-5</v>
-      </c>
-      <c r="BD6">
-        <f t="shared" si="21"/>
-        <v>9.3432063410198339E-5</v>
-      </c>
-      <c r="BE6">
-        <f t="shared" si="21"/>
-        <v>1.1918980519313421E-4</v>
-      </c>
-      <c r="BF6">
-        <f t="shared" si="21"/>
-        <v>1.5177560379138802E-4</v>
-      </c>
-      <c r="BG6">
-        <f t="shared" si="21"/>
-        <v>1.9283136142994993E-4</v>
-      </c>
-      <c r="BH6">
-        <f t="shared" si="21"/>
-        <v>2.4429220746399651E-4</v>
-      </c>
-      <c r="BI6">
-        <f t="shared" si="21"/>
-        <v>2.8307343362117597E-4</v>
-      </c>
-      <c r="BJ6">
-        <f t="shared" si="21"/>
-        <v>3.2735265569436577E-4</v>
-      </c>
-      <c r="BK6">
-        <f t="shared" si="21"/>
-        <v>3.7769057949733659E-4</v>
-      </c>
-      <c r="BL6">
-        <f t="shared" si="21"/>
-        <v>4.3463392158295076E-4</v>
-      </c>
-      <c r="BM6">
-        <f t="shared" si="21"/>
-        <v>4.9868880136767985E-4</v>
-      </c>
-      <c r="BN6">
-        <f t="shared" si="21"/>
-        <v>5.7028783117042843E-4</v>
-      </c>
-      <c r="BO6">
-        <f t="shared" ref="BO6:CT6" si="22">BO5/$CV$23</f>
-        <v>6.4975152820350324E-4</v>
-      </c>
-      <c r="BP6">
-        <f t="shared" si="22"/>
-        <v>7.372456894017388E-4</v>
-      </c>
-      <c r="BQ6">
-        <f t="shared" si="22"/>
-        <v>7.9524718371706588E-4</v>
-      </c>
-      <c r="BR6">
-        <f t="shared" si="22"/>
-        <v>8.5577156731698697E-4</v>
-      </c>
-      <c r="BS6">
-        <f t="shared" si="22"/>
-        <v>9.1861683047879752E-4</v>
-      </c>
-      <c r="BT6">
-        <f t="shared" si="22"/>
-        <v>9.8353629861166396E-4</v>
-      </c>
-      <c r="BU6">
-        <f t="shared" si="22"/>
-        <v>1.050240721204971E-3</v>
-      </c>
-      <c r="BV6">
-        <f t="shared" si="22"/>
-        <v>1.1184020474401556E-3</v>
-      </c>
-      <c r="BW6">
-        <f t="shared" si="22"/>
-        <v>1.1876588690046316E-3</v>
-      </c>
-      <c r="BX6">
-        <f t="shared" si="22"/>
-        <v>1.2576233975089819E-3</v>
-      </c>
-      <c r="BY6">
-        <f t="shared" si="22"/>
-        <v>1.3278897296781502E-3</v>
-      </c>
-      <c r="BZ6">
-        <f t="shared" si="22"/>
-        <v>1.368042062329024E-3</v>
-      </c>
-      <c r="CA6">
-        <f t="shared" si="22"/>
-        <v>1.4074192425131691E-3</v>
-      </c>
-      <c r="CB6">
-        <f t="shared" si="22"/>
-        <v>1.4459256290584636E-3</v>
-      </c>
-      <c r="CC6">
-        <f t="shared" si="22"/>
-        <v>1.4834747790594867E-3</v>
-      </c>
-      <c r="CD6">
-        <f t="shared" si="22"/>
-        <v>1.5199900415750337E-3</v>
-      </c>
-      <c r="CE6">
-        <f t="shared" si="22"/>
-        <v>1.5554049497023632E-3</v>
-      </c>
-      <c r="CF6">
-        <f t="shared" si="22"/>
-        <v>1.589663414931242E-3</v>
-      </c>
-      <c r="CG6">
-        <f t="shared" si="22"/>
-        <v>1.6227197336204007E-3</v>
-      </c>
-      <c r="CH6">
-        <f t="shared" si="22"/>
-        <v>1.6545384204427083E-3</v>
-      </c>
-      <c r="CI6">
-        <f t="shared" si="22"/>
-        <v>1.6850938875643084E-3</v>
-      </c>
-      <c r="CJ6">
-        <f t="shared" si="22"/>
-        <v>1.714369991090171E-3</v>
-      </c>
-      <c r="CK6">
-        <f t="shared" si="22"/>
-        <v>1.7423594679331269E-3</v>
-      </c>
-      <c r="CL6">
-        <f t="shared" si="22"/>
-        <v>1.7690632868187894E-3</v>
-      </c>
-      <c r="CM6">
-        <f t="shared" si="22"/>
-        <v>1.7944899367477911E-3</v>
-      </c>
-      <c r="CN6">
-        <f t="shared" si="22"/>
-        <v>1.8186546750556948E-3</v>
-      </c>
-      <c r="CO6">
-        <f t="shared" si="22"/>
-        <v>1.8415787554134022E-3</v>
-      </c>
-      <c r="CP6">
-        <f t="shared" si="22"/>
-        <v>1.8632886538737636E-3</v>
-      </c>
-      <c r="CQ6">
-        <f t="shared" si="22"/>
-        <v>1.8838153085617441E-3</v>
-      </c>
-      <c r="CR6">
-        <f t="shared" si="22"/>
-        <v>1.9031933859772216E-3</v>
-      </c>
-      <c r="CS6">
-        <f t="shared" si="22"/>
-        <v>1.9214605842597678E-3</v>
-      </c>
-      <c r="CT6">
-        <f t="shared" si="22"/>
-        <v>1.9386569812566026E-3</v>
-      </c>
-      <c r="CU6">
-        <f t="shared" ref="CU6:DZ6" si="23">CU5/$CV$23</f>
-        <v>1.9548244329152483E-3</v>
-      </c>
-      <c r="CV6">
-        <f t="shared" si="23"/>
-        <v>1.9700060254436392E-3</v>
-      </c>
-      <c r="CW6">
-        <f t="shared" si="23"/>
-        <v>1.9842455828729105E-3</v>
-      </c>
-      <c r="CX6">
-        <f t="shared" si="23"/>
-        <v>1.9975872301336334E-3</v>
-      </c>
-      <c r="CY6">
-        <f t="shared" si="23"/>
-        <v>2.0100750105118068E-3</v>
-      </c>
-      <c r="CZ6">
-        <f t="shared" si="23"/>
-        <v>2.0217525553721852E-3</v>
-      </c>
-      <c r="DA6">
-        <f t="shared" si="23"/>
-        <v>2.032662803301459E-3</v>
-      </c>
-      <c r="DB6">
-        <f t="shared" si="23"/>
-        <v>2.047105642608087E-3</v>
-      </c>
-      <c r="DC6">
-        <f t="shared" si="23"/>
-        <v>2.0605831927844819E-3</v>
-      </c>
-      <c r="DD6">
-        <f t="shared" si="23"/>
-        <v>2.0731468795690999E-3</v>
-      </c>
-      <c r="DE6">
-        <f t="shared" si="23"/>
-        <v>2.084847296360767E-3</v>
-      </c>
-      <c r="DF6">
-        <f t="shared" si="23"/>
-        <v>2.0957338983468355E-3</v>
-      </c>
-      <c r="DG6">
-        <f t="shared" si="23"/>
-        <v>2.1058547540254769E-3</v>
-      </c>
-      <c r="DH6">
-        <f t="shared" si="23"/>
-        <v>2.115256348648569E-3</v>
-      </c>
-      <c r="DI6">
-        <f t="shared" si="23"/>
-        <v>2.1239834340480482E-3</v>
-      </c>
-      <c r="DJ6">
-        <f t="shared" si="23"/>
-        <v>2.1320789194025636E-3</v>
-      </c>
-      <c r="DK6">
-        <f t="shared" ref="DK6" si="24">DK5/$CV$23</f>
-        <v>2.1395837977140303E-3</v>
-      </c>
-      <c r="DL6">
-        <f t="shared" ref="DL6" si="25">DL5/$CV$23</f>
-        <v>2.1465371030615203E-3</v>
-      </c>
-      <c r="DM6">
-        <f t="shared" ref="DM6" si="26">DM5/$CV$23</f>
-        <v>2.1529758940543788E-3</v>
-      </c>
-      <c r="DN6">
-        <f t="shared" ref="DN6" si="27">DN5/$CV$23</f>
-        <v>2.158935259294145E-3</v>
-      </c>
-      <c r="DO6">
-        <f t="shared" si="23"/>
-        <v>2.1644483410569533E-3</v>
-      </c>
-      <c r="DP6">
-        <f t="shared" si="23"/>
-        <v>2.169546373810196E-3</v>
-      </c>
-      <c r="DQ6">
-        <f t="shared" si="23"/>
-        <v>2.1742587345682644E-3</v>
-      </c>
-      <c r="DR6">
-        <f t="shared" si="23"/>
-        <v>2.1786130024645076E-3</v>
-      </c>
-      <c r="DS6">
-        <f t="shared" si="23"/>
-        <v>2.1826350252647374E-3</v>
-      </c>
-      <c r="DT6">
-        <f t="shared" si="23"/>
-        <v>2.1863489908685667E-3</v>
-      </c>
-      <c r="DU6">
-        <f t="shared" si="23"/>
-        <v>2.1897775021369214E-3</v>
-      </c>
-      <c r="DV6">
-        <f t="shared" si="23"/>
-        <v>2.1929416536469156E-3</v>
-      </c>
-      <c r="DW6">
-        <f t="shared" si="23"/>
-        <v>2.1958611092094643E-3</v>
-      </c>
-      <c r="DX6">
-        <f t="shared" si="23"/>
-        <v>2.1985541791917423E-3</v>
-      </c>
-      <c r="DY6">
-        <f t="shared" si="23"/>
-        <v>2.2010378968675701E-3</v>
-      </c>
-      <c r="DZ6">
-        <f t="shared" si="23"/>
-        <v>2.2033280931759262E-3</v>
-      </c>
-      <c r="EA6">
-        <f t="shared" ref="EA6:FF6" si="28">EA5/$CV$23</f>
-        <v>2.2054394694031327E-3</v>
-      </c>
-      <c r="EB6">
-        <f t="shared" si="28"/>
-        <v>2.2073856674199254E-3</v>
-      </c>
-      <c r="EC6">
-        <f t="shared" si="28"/>
-        <v>2.2091793372027309E-3</v>
-      </c>
-      <c r="ED6">
-        <f t="shared" si="28"/>
-        <v>2.2108322014509564E-3</v>
-      </c>
-      <c r="EE6">
-        <f t="shared" si="28"/>
-        <v>2.2123551171808944E-3</v>
-      </c>
-      <c r="EF6">
-        <f t="shared" si="28"/>
-        <v>2.2137581342336421E-3</v>
-      </c>
-      <c r="EG6">
-        <f t="shared" si="28"/>
-        <v>2.2150505506808669E-3</v>
-      </c>
-      <c r="EH6">
-        <f t="shared" ref="EH6:FB6" si="29">EH5/$CV$23</f>
-        <v>2.2162409651497097E-3</v>
-      </c>
-      <c r="EI6">
-        <f t="shared" si="29"/>
-        <v>2.2173373261179354E-3</v>
-      </c>
-      <c r="EJ6">
-        <f t="shared" si="29"/>
-        <v>2.2183469782537297E-3</v>
-      </c>
-      <c r="EK6">
-        <f t="shared" si="29"/>
-        <v>2.2192767058923147E-3</v>
-      </c>
-      <c r="EL6">
-        <f t="shared" si="29"/>
-        <v>2.2201327737547218E-3</v>
-      </c>
-      <c r="EM6">
-        <f t="shared" si="29"/>
-        <v>2.220920965023355E-3</v>
-      </c>
-      <c r="EN6">
-        <f t="shared" si="29"/>
-        <v>2.2216466168950718E-3</v>
-      </c>
-      <c r="EO6">
-        <f t="shared" si="29"/>
-        <v>2.2223146537360167E-3</v>
-      </c>
-      <c r="EP6">
-        <f t="shared" si="29"/>
-        <v>2.2229296179637832E-3</v>
-      </c>
-      <c r="EQ6">
-        <f t="shared" si="29"/>
-        <v>2.22349569878214E-3</v>
-      </c>
-      <c r="ER6">
-        <f t="shared" si="29"/>
-        <v>2.2240167588918453E-3</v>
-      </c>
-      <c r="ES6">
-        <f t="shared" si="29"/>
-        <v>2.2244963592983023E-3</v>
-      </c>
-      <c r="ET6">
-        <f t="shared" si="29"/>
-        <v>2.2249377823332578E-3</v>
-      </c>
-      <c r="EU6">
-        <f t="shared" si="29"/>
-        <v>2.2253440530035414E-3</v>
-      </c>
-      <c r="EV6">
-        <f t="shared" si="29"/>
-        <v>2.2257179587752795E-3</v>
-      </c>
-      <c r="EW6">
-        <f t="shared" si="29"/>
-        <v>2.2260620678971111E-3</v>
-      </c>
-      <c r="EX6">
-        <f t="shared" si="29"/>
-        <v>2.2263787463609064E-3</v>
-      </c>
-      <c r="EY6">
-        <f t="shared" si="29"/>
-        <v>2.2266701735933424E-3</v>
-      </c>
-      <c r="EZ6">
-        <f t="shared" si="29"/>
-        <v>2.2269383569665903E-3</v>
-      </c>
-      <c r="FA6">
-        <f t="shared" si="29"/>
-        <v>2.2271851452113009E-3</v>
-      </c>
-      <c r="FB6">
-        <f t="shared" si="29"/>
-        <v>2.2274122408101095E-3</v>
-      </c>
-      <c r="FC6">
-        <f t="shared" ref="FC6" si="30">FC5/$CV$23</f>
-        <v>2.2276212114450931E-3</v>
-      </c>
-      <c r="FD6">
-        <f t="shared" ref="FD6" si="31">FD5/$CV$23</f>
-        <v>2.2278135005679468E-3</v>
+    <row r="6" spans="1:239" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI6" s="3">
+        <f>AI5/$CV$23*$CV$12</f>
+        <v>41.360876543209876</v>
+      </c>
+      <c r="AJ6" s="3">
+        <f t="shared" ref="AJ6:AO6" si="107">AJ5/$CV$23*$CV$12</f>
+        <v>53.106557975908004</v>
+      </c>
+      <c r="AK6" s="3">
+        <f t="shared" si="107"/>
+        <v>68.187105883067758</v>
+      </c>
+      <c r="AL6" s="3">
+        <f t="shared" si="107"/>
+        <v>87.548925270197017</v>
+      </c>
+      <c r="AM6" s="3">
+        <f t="shared" si="107"/>
+        <v>112.40671731265438</v>
+      </c>
+      <c r="AN6" s="3">
+        <f t="shared" si="107"/>
+        <v>144.31935376607262</v>
+      </c>
+      <c r="AO6" s="3">
+        <f t="shared" si="107"/>
+        <v>185.2870888761781</v>
+      </c>
+      <c r="AP6" s="3">
+        <f t="shared" ref="AP6" si="108">AP5/$CV$23*$CV$12</f>
+        <v>237.87603155532901</v>
+      </c>
+      <c r="AQ6" s="3">
+        <f t="shared" ref="AQ6" si="109">AQ5/$CV$23*$CV$12</f>
+        <v>305.37739397324822</v>
+      </c>
+      <c r="AR6" s="3">
+        <f t="shared" ref="AR6" si="110">AR5/$CV$23*$CV$12</f>
+        <v>392.0110215142887</v>
+      </c>
+      <c r="AS6" s="3">
+        <f t="shared" ref="AS6" si="111">AS5/$CV$23*$CV$12</f>
+        <v>503.18516907805918</v>
+      </c>
+      <c r="AT6" s="3">
+        <f t="shared" ref="AT6:AU6" si="112">AT5/$CV$23*$CV$12</f>
+        <v>645.82749418761603</v>
+      </c>
+      <c r="AU6" s="3">
+        <f t="shared" si="112"/>
+        <v>828.80584627128701</v>
+      </c>
+      <c r="AV6" s="3">
+        <f t="shared" ref="AV6" si="113">AV5/$CV$23*$CV$12</f>
+        <v>1063.4616579959281</v>
+      </c>
+      <c r="AW6" s="3">
+        <f t="shared" ref="AW6" si="114">AW5/$CV$23*$CV$12</f>
+        <v>1364.2835105508191</v>
+      </c>
+      <c r="AX6" s="3">
+        <f t="shared" ref="AX6" si="115">AX5/$CV$23*$CV$12</f>
+        <v>1749.7534973659663</v>
+      </c>
+      <c r="AY6" s="3">
+        <f t="shared" ref="AY6" si="116">AY5/$CV$23*$CV$12</f>
+        <v>2243.4037861766078</v>
+      </c>
+      <c r="AZ6" s="3">
+        <f t="shared" ref="AZ6:BA6" si="117">AZ5/$CV$23*$CV$12</f>
+        <v>2875.1241862065294</v>
+      </c>
+      <c r="BA6" s="3">
+        <f t="shared" si="117"/>
+        <v>3682.7616120535672</v>
+      </c>
+      <c r="BB6" s="3">
+        <f t="shared" ref="BB6" si="118">BB5/$CV$23*$CV$12</f>
+        <v>4714.045789454327</v>
+      </c>
+      <c r="BC6" s="3">
+        <f t="shared" ref="BC6" si="119">BC5/$CV$23*$CV$12</f>
+        <v>6028.8570199349069</v>
+      </c>
+      <c r="BD6" s="3">
+        <f t="shared" ref="BD6" si="120">BD5/$CV$23*$CV$12</f>
+        <v>7701.8130554939353</v>
+      </c>
+      <c r="BE6" s="3">
+        <f t="shared" ref="BE6" si="121">BE5/$CV$23*$CV$12</f>
+        <v>9825.0810718803023</v>
+      </c>
+      <c r="BF6" s="3">
+        <f t="shared" ref="BF6:BG6" si="122">BF5/$CV$23*$CV$12</f>
+        <v>12511.201017298667</v>
+      </c>
+      <c r="BG6" s="3">
+        <f t="shared" si="122"/>
+        <v>15895.518548590142</v>
+      </c>
+      <c r="BH6" s="3">
+        <f t="shared" ref="BH6" si="123">BH5/$CV$23*$CV$12</f>
+        <v>20137.550687939442</v>
+      </c>
+      <c r="BI6" s="3">
+        <f t="shared" ref="BI6" si="124">BI5/$CV$23*$CV$12</f>
+        <v>23334.373523951275</v>
+      </c>
+      <c r="BJ6" s="3">
+        <f t="shared" ref="BJ6" si="125">BJ5/$CV$23*$CV$12</f>
+        <v>26984.408407085237</v>
+      </c>
+      <c r="BK6" s="3">
+        <f t="shared" ref="BK6" si="126">BK5/$CV$23*$CV$12</f>
+        <v>31133.875566234616</v>
+      </c>
+      <c r="BL6" s="3">
+        <f t="shared" ref="BL6:BM6" si="127">BL5/$CV$23*$CV$12</f>
+        <v>35827.842064362594</v>
+      </c>
+      <c r="BM6" s="3">
+        <f t="shared" si="127"/>
+        <v>41108.028452071892</v>
+      </c>
+      <c r="BN6" s="3">
+        <f t="shared" ref="BN6" si="128">BN5/$CV$23*$CV$12</f>
+        <v>47010.095926216076</v>
+      </c>
+      <c r="BO6" s="3">
+        <f t="shared" ref="BO6" si="129">BO5/$CV$23*$CV$12</f>
+        <v>53560.465434381586</v>
+      </c>
+      <c r="BP6" s="3">
+        <f t="shared" ref="BP6" si="130">BP5/$CV$23*$CV$12</f>
+        <v>60772.803987128442</v>
+      </c>
+      <c r="BQ6" s="3">
+        <f t="shared" ref="BQ6" si="131">BQ5/$CV$23*$CV$12</f>
+        <v>65553.996330004418</v>
+      </c>
+      <c r="BR6" s="3">
+        <f t="shared" ref="BR6:BS6" si="132">BR5/$CV$23*$CV$12</f>
+        <v>70543.156054959341</v>
+      </c>
+      <c r="BS6" s="3">
+        <f t="shared" si="132"/>
+        <v>75723.63105068497</v>
+      </c>
+      <c r="BT6" s="3">
+        <f t="shared" ref="BT6" si="133">BT5/$CV$23*$CV$12</f>
+        <v>81075.087381326783</v>
+      </c>
+      <c r="BU6" s="3">
+        <f t="shared" ref="BU6" si="134">BU5/$CV$23*$CV$12</f>
+        <v>86573.681483148146</v>
+      </c>
+      <c r="BV6" s="3">
+        <f t="shared" ref="BV6" si="135">BV5/$CV$23*$CV$12</f>
+        <v>92192.371396621951</v>
+      </c>
+      <c r="BW6" s="3">
+        <f t="shared" ref="BW6" si="136">BW5/$CV$23*$CV$12</f>
+        <v>97901.365429703234</v>
+      </c>
+      <c r="BX6" s="3">
+        <f t="shared" ref="BX6:BY6" si="137">BX5/$CV$23*$CV$12</f>
+        <v>103668.69732186677</v>
+      </c>
+      <c r="BY6" s="3">
+        <f t="shared" si="137"/>
+        <v>109460.90756222313</v>
+      </c>
+      <c r="BZ6" s="3">
+        <f t="shared" ref="BZ6" si="138">BZ5/$CV$23*$CV$12</f>
+        <v>112770.75375989663</v>
+      </c>
+      <c r="CA6" s="3">
+        <f t="shared" ref="CA6" si="139">CA5/$CV$23*$CV$12</f>
+        <v>116016.70241351143</v>
+      </c>
+      <c r="CB6" s="3">
+        <f t="shared" ref="CB6" si="140">CB5/$CV$23*$CV$12</f>
+        <v>119190.86960826135</v>
+      </c>
+      <c r="CC6" s="3">
+        <f t="shared" ref="CC6" si="141">CC5/$CV$23*$CV$12</f>
+        <v>122286.12966294843</v>
+      </c>
+      <c r="CD6" s="3">
+        <f t="shared" ref="CD6:CE6" si="142">CD5/$CV$23*$CV$12</f>
+        <v>125296.1640697914</v>
+      </c>
+      <c r="CE6" s="3">
+        <f t="shared" si="142"/>
+        <v>128215.49381397865</v>
+      </c>
+      <c r="CF6" s="3">
+        <f t="shared" ref="CF6" si="143">CF5/$CV$23*$CV$12</f>
+        <v>131039.49539470545</v>
+      </c>
+      <c r="CG6" s="3">
+        <f t="shared" ref="CG6" si="144">CG5/$CV$23*$CV$12</f>
+        <v>133764.40135904209</v>
+      </c>
+      <c r="CH6" s="3">
+        <f t="shared" ref="CH6" si="145">CH5/$CV$23*$CV$12</f>
+        <v>136387.2865724492</v>
+      </c>
+      <c r="CI6" s="3">
+        <f t="shared" ref="CI6" si="146">CI5/$CV$23*$CV$12</f>
+        <v>138906.04177279904</v>
+      </c>
+      <c r="CJ6" s="3">
+        <f t="shared" ref="CJ6:CK6" si="147">CJ5/$CV$23*$CV$12</f>
+        <v>141319.33618287271</v>
+      </c>
+      <c r="CK6" s="3">
+        <f t="shared" si="147"/>
+        <v>143626.5710902203</v>
+      </c>
+      <c r="CL6" s="3">
+        <f t="shared" ref="CL6" si="148">CL5/$CV$23*$CV$12</f>
+        <v>145827.82634905144</v>
+      </c>
+      <c r="CM6" s="3">
+        <f t="shared" ref="CM6" si="149">CM5/$CV$23*$CV$12</f>
+        <v>147923.80172659279</v>
+      </c>
+      <c r="CN6" s="3">
+        <f t="shared" ref="CN6" si="150">CN5/$CV$23*$CV$12</f>
+        <v>149915.75491899217</v>
+      </c>
+      <c r="CO6" s="3">
+        <f t="shared" ref="CO6" si="151">CO5/$CV$23*$CV$12</f>
+        <v>151805.43791367288</v>
+      </c>
+      <c r="CP6" s="3">
+        <f t="shared" ref="CP6:CQ6" si="152">CP5/$CV$23*$CV$12</f>
+        <v>153595.03319063227</v>
+      </c>
+      <c r="CQ6" s="3">
+        <f t="shared" si="152"/>
+        <v>155287.09104840882</v>
+      </c>
+      <c r="CR6" s="3">
+        <f t="shared" ref="CR6" si="153">CR5/$CV$23*$CV$12</f>
+        <v>156884.46912378812</v>
+      </c>
+      <c r="CS6" s="3">
+        <f t="shared" ref="CS6" si="154">CS5/$CV$23*$CV$12</f>
+        <v>158390.27495836688</v>
+      </c>
+      <c r="CT6" s="3">
+        <f t="shared" ref="CT6" si="155">CT5/$CV$23*$CV$12</f>
+        <v>159807.81225834286</v>
+      </c>
+      <c r="CU6" s="3">
+        <f t="shared" ref="CU6" si="156">CU5/$CV$23*$CV$12</f>
+        <v>161140.53130268148</v>
+      </c>
+      <c r="CV6" s="3">
+        <f t="shared" ref="CV6:CW6" si="157">CV5/$CV$23*$CV$12</f>
+        <v>162391.98378345359</v>
+      </c>
+      <c r="CW6" s="3">
+        <f t="shared" si="157"/>
+        <v>163565.78221313964</v>
+      </c>
+      <c r="CX6" s="3">
+        <f t="shared" ref="CX6" si="158">CX5/$CV$23*$CV$12</f>
+        <v>164665.56390803063</v>
+      </c>
+      <c r="CY6" s="3">
+        <f t="shared" ref="CY6" si="159">CY5/$CV$23*$CV$12</f>
+        <v>165694.95945427372</v>
+      </c>
+      <c r="CZ6" s="3">
+        <f t="shared" ref="CZ6" si="160">CZ5/$CV$23*$CV$12</f>
+        <v>166657.56548243042</v>
+      </c>
+      <c r="DA6" s="3">
+        <f t="shared" ref="DA6" si="161">DA5/$CV$23*$CV$12</f>
+        <v>167556.92151582381</v>
+      </c>
+      <c r="DB6" s="3">
+        <f t="shared" ref="DB6:DC6" si="162">DB5/$CV$23*$CV$12</f>
+        <v>168747.47692335909</v>
+      </c>
+      <c r="DC6" s="3">
+        <f t="shared" si="162"/>
+        <v>169858.461398238</v>
+      </c>
+      <c r="DD6" s="3">
+        <f t="shared" ref="DD6" si="163">DD5/$CV$23*$CV$12</f>
+        <v>170894.11407860406</v>
+      </c>
+      <c r="DE6" s="3">
+        <f t="shared" ref="DE6" si="164">DE5/$CV$23*$CV$12</f>
+        <v>171858.60549099161</v>
+      </c>
+      <c r="DF6" s="3">
+        <f t="shared" ref="DF6" si="165">DF5/$CV$23*$CV$12</f>
+        <v>172756.01233662825</v>
+      </c>
+      <c r="DG6" s="3">
+        <f t="shared" ref="DG6" si="166">DG5/$CV$23*$CV$12</f>
+        <v>173590.29700886447</v>
+      </c>
+      <c r="DH6" s="3">
+        <f t="shared" ref="DH6:DI6" si="167">DH5/$CV$23*$CV$12</f>
+        <v>174365.29139053289</v>
+      </c>
+      <c r="DI6" s="3">
+        <f t="shared" si="167"/>
+        <v>175084.68447480019</v>
+      </c>
+      <c r="DJ6" s="3">
+        <f t="shared" ref="DJ6" si="168">DJ5/$CV$23*$CV$12</f>
+        <v>175752.01336081896</v>
+      </c>
+      <c r="DK6" s="3">
+        <f t="shared" ref="DK6" si="169">DK5/$CV$23*$CV$12</f>
+        <v>176370.65719302659</v>
+      </c>
+      <c r="DL6" s="3">
+        <f t="shared" ref="DL6" si="170">DL5/$CV$23*$CV$12</f>
+        <v>176943.83363748781</v>
+      </c>
+      <c r="DM6" s="3">
+        <f t="shared" ref="DM6" si="171">DM5/$CV$23*$CV$12</f>
+        <v>177474.59751789871</v>
+      </c>
+      <c r="DN6" s="3">
+        <f t="shared" ref="DN6" si="172">DN5/$CV$23*$CV$12</f>
+        <v>177965.84126582474</v>
+      </c>
+      <c r="DO6" s="3">
+        <f t="shared" ref="DO6" si="173">DO5/$CV$23*$CV$12</f>
+        <v>178420.29687289384</v>
+      </c>
+      <c r="DP6" s="3">
+        <f t="shared" ref="DP6" si="174">DP5/$CV$23*$CV$12</f>
+        <v>178840.53906581082</v>
+      </c>
+      <c r="DQ6" s="3">
+        <f t="shared" ref="DQ6" si="175">DQ5/$CV$23*$CV$12</f>
+        <v>179228.98945729315</v>
+      </c>
+      <c r="DR6" s="3">
+        <f t="shared" ref="DR6" si="176">DR5/$CV$23*$CV$12</f>
+        <v>179587.92145672001</v>
+      </c>
+      <c r="DS6" s="3">
+        <f t="shared" ref="DS6:DT6" si="177">DS5/$CV$23*$CV$12</f>
+        <v>179919.46575298911</v>
+      </c>
+      <c r="DT6" s="3">
+        <f t="shared" si="177"/>
+        <v>180225.61620853079</v>
+      </c>
+      <c r="DU6" s="3">
+        <f t="shared" ref="DT6:DU6" si="178">DU5/$CV$23*$CV$12</f>
+        <v>180508.2360275065</v>
+      </c>
+      <c r="DV6" s="3">
+        <f t="shared" ref="DV6" si="179">DV5/$CV$23*$CV$12</f>
+        <v>180769.06408288449</v>
+      </c>
+      <c r="DW6" s="3">
+        <f t="shared" ref="DW6" si="180">DW5/$CV$23*$CV$12</f>
+        <v>181009.72130638876</v>
+      </c>
+      <c r="DX6" s="3">
+        <f t="shared" ref="DX6" si="181">DX5/$CV$23*$CV$12</f>
+        <v>181231.7170623618</v>
+      </c>
+      <c r="DY6" s="3">
+        <f t="shared" ref="DY6" si="182">DY5/$CV$23*$CV$12</f>
+        <v>181436.45544149692</v>
+      </c>
+      <c r="DZ6" s="3">
+        <f t="shared" ref="DZ6:EA6" si="183">DZ5/$CV$23*$CV$12</f>
+        <v>181625.24142334875</v>
+      </c>
+      <c r="EA6" s="3">
+        <f t="shared" si="183"/>
+        <v>181799.286867688</v>
+      </c>
+      <c r="EB6" s="3">
+        <f t="shared" ref="EB6" si="184">EB5/$CV$23*$CV$12</f>
+        <v>181959.7163042991</v>
+      </c>
+      <c r="EC6" s="3">
+        <f t="shared" ref="EC6" si="185">EC5/$CV$23*$CV$12</f>
+        <v>182107.57249890981</v>
+      </c>
+      <c r="ED6" s="3">
+        <f t="shared" ref="ED6" si="186">ED5/$CV$23*$CV$12</f>
+        <v>182243.82177973806</v>
+      </c>
+      <c r="EE6" s="3">
+        <f t="shared" ref="EE6" si="187">EE5/$CV$23*$CV$12</f>
+        <v>182369.35911481496</v>
+      </c>
+      <c r="EF6" s="3">
+        <f t="shared" ref="EF6:EG6" si="188">EF5/$CV$23*$CV$12</f>
+        <v>182485.01293492268</v>
+      </c>
+      <c r="EG6" s="3">
+        <f t="shared" si="188"/>
+        <v>182591.54970081503</v>
+      </c>
+      <c r="EH6" s="3">
+        <f t="shared" ref="EH6" si="189">EH5/$CV$23*$CV$12</f>
+        <v>182689.67821647596</v>
+      </c>
+      <c r="EI6" s="3">
+        <f t="shared" ref="EI6" si="190">EI5/$CV$23*$CV$12</f>
+        <v>182780.05369262857</v>
+      </c>
+      <c r="EJ6" s="3">
+        <f t="shared" ref="EJ6" si="191">EJ5/$CV$23*$CV$12</f>
+        <v>182863.28156662753</v>
+      </c>
+      <c r="EK6" s="3">
+        <f t="shared" ref="EK6" si="192">EK5/$CV$23*$CV$12</f>
+        <v>182939.9210863336</v>
+      </c>
+      <c r="EL6" s="3">
+        <f t="shared" ref="EL6:EM6" si="193">EL5/$CV$23*$CV$12</f>
+        <v>183010.4886666527</v>
+      </c>
+      <c r="EM6" s="3">
+        <f t="shared" si="193"/>
+        <v>183075.46102818917</v>
+      </c>
+      <c r="EN6" s="3">
+        <f t="shared" ref="EN6" si="194">EN5/$CV$23*$CV$12</f>
+        <v>183135.27812796563</v>
+      </c>
+      <c r="EO6" s="3">
+        <f t="shared" ref="EO6" si="195">EO5/$CV$23*$CV$12</f>
+        <v>183190.34589244981</v>
+      </c>
+      <c r="EP6" s="3">
+        <f t="shared" ref="EP6" si="196">EP5/$CV$23*$CV$12</f>
+        <v>183241.03876323957</v>
+      </c>
+      <c r="EQ6" s="3">
+        <f t="shared" ref="EQ6" si="197">EQ5/$CV$23*$CV$12</f>
+        <v>183287.70206573076</v>
+      </c>
+      <c r="ER6" s="3">
+        <f t="shared" ref="ER6:ES6" si="198">ER5/$CV$23*$CV$12</f>
+        <v>183330.65421094888</v>
+      </c>
+      <c r="ES6" s="3">
+        <f t="shared" si="198"/>
+        <v>183370.18874049955</v>
+      </c>
+      <c r="ET6" s="3">
+        <f t="shared" ref="ET6" si="199">ET5/$CV$23*$CV$12</f>
+        <v>183406.57622429825</v>
+      </c>
+      <c r="EU6" s="3">
+        <f t="shared" ref="EU6" si="200">EU5/$CV$23*$CV$12</f>
+        <v>183440.06602039441</v>
+      </c>
+      <c r="EV6" s="3">
+        <f t="shared" ref="EV6" si="201">EV5/$CV$23*$CV$12</f>
+        <v>183470.88790582848</v>
+      </c>
+      <c r="EW6" s="3">
+        <f t="shared" ref="EW6" si="202">EW5/$CV$23*$CV$12</f>
+        <v>183499.25358705511</v>
+      </c>
+      <c r="EX6" s="3">
+        <f t="shared" ref="EX6:EY6" si="203">EX5/$CV$23*$CV$12</f>
+        <v>183525.35809805308</v>
+      </c>
+      <c r="EY6" s="3">
+        <f t="shared" si="203"/>
+        <v>183549.38109381677</v>
+      </c>
+      <c r="EZ6" s="3">
+        <f t="shared" ref="EZ6" si="204">EZ5/$CV$23*$CV$12</f>
+        <v>183571.48804650476</v>
+      </c>
+      <c r="FA6" s="3">
+        <f t="shared" ref="FA6" si="205">FA5/$CV$23*$CV$12</f>
+        <v>183591.83135110146</v>
+      </c>
+      <c r="FB6" s="3">
+        <f t="shared" ref="FB6" si="206">FB5/$CV$23*$CV$12</f>
+        <v>183610.55134704194</v>
+      </c>
+      <c r="FC6" s="3">
+        <f t="shared" ref="FC6" si="207">FC5/$CV$23*$CV$12</f>
+        <v>183627.77726185095</v>
+      </c>
+      <c r="FD6" s="3">
+        <f t="shared" ref="FD6" si="208">FD5/$CV$23*$CV$12</f>
+        <v>183643.62808246614</v>
+      </c>
+      <c r="FE6" s="3">
+        <f t="shared" ref="FE6" si="209">FE5/$CV$23*$CV$12</f>
+        <v>183658.2133595476</v>
+      </c>
+      <c r="FF6" s="3">
+        <f t="shared" ref="FF6" si="210">FF5/$CV$23*$CV$12</f>
+        <v>183671.63394972452</v>
+      </c>
+      <c r="FG6" s="3">
+        <f t="shared" ref="FG6" si="211">FG5/$CV$23*$CV$12</f>
+        <v>183683.98270039624</v>
+      </c>
+      <c r="FH6" s="3">
+        <f t="shared" ref="FH6" si="212">FH5/$CV$23*$CV$12</f>
+        <v>183695.34508138878</v>
+      </c>
+      <c r="FI6" s="3">
+        <f t="shared" ref="FI6" si="213">FI5/$CV$23*$CV$12</f>
+        <v>183705.7997674678</v>
+      </c>
+      <c r="FJ6" s="3">
+        <f t="shared" ref="FJ6" si="214">FJ5/$CV$23*$CV$12</f>
+        <v>183715.41917542747</v>
+      </c>
+      <c r="FK6" s="3">
+        <f t="shared" ref="FK6" si="215">FK5/$CV$23*$CV$12</f>
+        <v>183724.26995920966</v>
+      </c>
+      <c r="FL6" s="3">
+        <f t="shared" ref="FL6" si="216">FL5/$CV$23*$CV$12</f>
+        <v>183732.41346625864</v>
+      </c>
+      <c r="FM6" s="3">
+        <f t="shared" ref="FM6" si="217">FM5/$CV$23*$CV$12</f>
+        <v>183739.90615808271</v>
+      </c>
+      <c r="FN6" s="3">
+        <f t="shared" ref="FN6" si="218">FN5/$CV$23*$CV$12</f>
+        <v>183746.7999977773</v>
+      </c>
+      <c r="FO6" s="3">
+        <f t="shared" ref="FO6" si="219">FO5/$CV$23*$CV$12</f>
+        <v>183753.14280706004</v>
+      </c>
+      <c r="FP6" s="3">
+        <f t="shared" ref="FP6" si="220">FP5/$CV$23*$CV$12</f>
+        <v>183758.97859517764</v>
+      </c>
+      <c r="FQ6" s="3">
+        <f t="shared" ref="FQ6" si="221">FQ5/$CV$23*$CV$12</f>
+        <v>183764.34786186865</v>
+      </c>
+      <c r="FR6" s="3">
+        <f t="shared" ref="FR6" si="222">FR5/$CV$23*$CV$12</f>
+        <v>183769.28787640089</v>
+      </c>
+      <c r="FS6" s="3">
+        <f t="shared" ref="FS6" si="223">FS5/$CV$23*$CV$12</f>
+        <v>183773.83293455077</v>
+      </c>
+      <c r="FT6" s="3">
+        <f t="shared" ref="FT6" si="224">FT5/$CV$23*$CV$12</f>
+        <v>183778.01459524696</v>
+      </c>
+      <c r="FU6" s="3">
+        <f t="shared" ref="FU6" si="225">FU5/$CV$23*$CV$12</f>
+        <v>183781.86189847288</v>
+      </c>
+      <c r="FV6" s="3">
+        <f t="shared" ref="FV6" si="226">FV5/$CV$23*$CV$12</f>
+        <v>183785.40156589696</v>
+      </c>
+      <c r="FW6" s="3">
+        <f t="shared" ref="FW6" si="227">FW5/$CV$23*$CV$12</f>
+        <v>183788.65818558823</v>
+      </c>
+      <c r="FX6" s="3">
+        <f t="shared" ref="FX6" si="228">FX5/$CV$23*$CV$12</f>
+        <v>183791.6543820698</v>
+      </c>
+      <c r="FY6" s="3">
+        <f t="shared" ref="FY6" si="229">FY5/$CV$23*$CV$12</f>
+        <v>183794.41097286533</v>
+      </c>
+      <c r="FZ6" s="3">
+        <f t="shared" ref="FZ6" si="230">FZ5/$CV$23*$CV$12</f>
+        <v>183796.94711260448</v>
+      </c>
+      <c r="GA6" s="3">
+        <f t="shared" ref="GA6" si="231">GA5/$CV$23*$CV$12</f>
+        <v>183799.28042566913</v>
+      </c>
+      <c r="GB6" s="3">
+        <f t="shared" ref="GB6" si="232">GB5/$CV$23*$CV$12</f>
+        <v>183801.42712828753</v>
+      </c>
+      <c r="GC6" s="3">
+        <f t="shared" ref="GC6" si="233">GC5/$CV$23*$CV$12</f>
+        <v>183803.40214091071</v>
+      </c>
+      <c r="GD6" s="3">
+        <f t="shared" ref="GD6" si="234">GD5/$CV$23*$CV$12</f>
+        <v>183805.21919164117</v>
+      </c>
+      <c r="GE6" s="3">
+        <f t="shared" ref="GE6" si="235">GE5/$CV$23*$CV$12</f>
+        <v>183806.89091142296</v>
+      </c>
+      <c r="GF6" s="3">
+        <f t="shared" ref="GF6" si="236">GF5/$CV$23*$CV$12</f>
+        <v>183808.42892164711</v>
+      </c>
+      <c r="GG6" s="3">
+        <f t="shared" ref="GG6" si="237">GG5/$CV$23*$CV$12</f>
+        <v>183809.84391477428</v>
+      </c>
+      <c r="GH6" s="3">
+        <f t="shared" ref="GH6" si="238">GH5/$CV$23*$CV$12</f>
+        <v>183811.14572852914</v>
+      </c>
+      <c r="GI6" s="3">
+        <f t="shared" ref="GI6" si="239">GI5/$CV$23*$CV$12</f>
+        <v>183812.34341417794</v>
+      </c>
+      <c r="GJ6" s="3">
+        <f t="shared" ref="GJ6" si="240">GJ5/$CV$23*$CV$12</f>
+        <v>183813.44529935915</v>
+      </c>
+      <c r="GK6" s="3">
+        <f t="shared" ref="GK6" si="241">GK5/$CV$23*$CV$12</f>
+        <v>183814.45904590096</v>
+      </c>
+      <c r="GL6" s="3">
+        <f t="shared" ref="GL6" si="242">GL5/$CV$23*$CV$12</f>
+        <v>183815.39170302456</v>
+      </c>
+      <c r="GM6" s="3">
+        <f t="shared" ref="GM6" si="243">GM5/$CV$23*$CV$12</f>
+        <v>183816.24975630079</v>
+      </c>
+      <c r="GN6" s="3">
+        <f t="shared" ref="GN6" si="244">GN5/$CV$23*$CV$12</f>
+        <v>183817.03917269767</v>
+      </c>
+      <c r="GO6" s="3">
+        <f t="shared" ref="GO6" si="245">GO5/$CV$23*$CV$12</f>
+        <v>183817.7654420317</v>
+      </c>
+      <c r="GP6" s="3">
+        <f t="shared" ref="GP6" si="246">GP5/$CV$23*$CV$12</f>
+        <v>183818.43361510808</v>
+      </c>
+      <c r="GQ6" s="3">
+        <f t="shared" ref="GQ6" si="247">GQ5/$CV$23*$CV$12</f>
+        <v>183819.04833881516</v>
+      </c>
+      <c r="GR6" s="3">
+        <f t="shared" ref="GR6" si="248">GR5/$CV$23*$CV$12</f>
+        <v>183819.61388841487</v>
+      </c>
+      <c r="GS6" s="3">
+        <f t="shared" ref="GS6" si="249">GS5/$CV$23*$CV$12</f>
+        <v>183820.1341972537</v>
+      </c>
+      <c r="GT6" s="3">
+        <f t="shared" ref="GT6" si="250">GT5/$CV$23*$CV$12</f>
+        <v>183820.61288410009</v>
+      </c>
+      <c r="GU6" s="3">
+        <f t="shared" ref="GU6" si="251">GU5/$CV$23*$CV$12</f>
+        <v>183821.0532782964</v>
+      </c>
+      <c r="GV6" s="3">
+        <f t="shared" ref="GV6" si="252">GV5/$CV$23*$CV$12</f>
+        <v>183821.45844290173</v>
+      </c>
+      <c r="GW6" s="3">
+        <f t="shared" ref="GW6" si="253">GW5/$CV$23*$CV$12</f>
+        <v>183821.83119598471</v>
+      </c>
+      <c r="GX6" s="3">
+        <f t="shared" ref="GX6" si="254">GX5/$CV$23*$CV$12</f>
+        <v>183822.17413021423</v>
+      </c>
+      <c r="GY6" s="3">
+        <f t="shared" ref="GY6" si="255">GY5/$CV$23*$CV$12</f>
+        <v>183822.48963088464</v>
+      </c>
+      <c r="GZ6" s="3">
+        <f t="shared" ref="GZ6" si="256">GZ5/$CV$23*$CV$12</f>
+        <v>183822.7798924995</v>
+      </c>
+      <c r="HA6" s="3">
+        <f t="shared" ref="HA6" si="257">HA5/$CV$23*$CV$12</f>
+        <v>183823.04693403002</v>
+      </c>
+      <c r="HB6" s="3">
+        <f t="shared" ref="HB6" si="258">HB5/$CV$23*$CV$12</f>
+        <v>183823.29261295305</v>
+      </c>
+      <c r="HC6" s="3">
+        <f t="shared" ref="HC6" si="259">HC5/$CV$23*$CV$12</f>
+        <v>183823.51863816756</v>
+      </c>
+      <c r="HD6" s="3">
+        <f t="shared" ref="HD6" si="260">HD5/$CV$23*$CV$12</f>
+        <v>183823.72658187707</v>
+      </c>
+      <c r="HE6" s="3">
+        <f t="shared" ref="HE6" si="261">HE5/$CV$23*$CV$12</f>
+        <v>183823.91789052341</v>
+      </c>
+      <c r="HF6" s="3">
+        <f t="shared" ref="HF6" si="262">HF5/$CV$23*$CV$12</f>
+        <v>183824.09389484505</v>
+      </c>
+      <c r="HG6" s="3">
+        <f t="shared" ref="HG6" si="263">HG5/$CV$23*$CV$12</f>
+        <v>183824.25581913156</v>
+      </c>
+      <c r="HH6" s="3">
+        <f t="shared" ref="HH6" si="264">HH5/$CV$23*$CV$12</f>
+        <v>183824.40478973807</v>
+      </c>
+      <c r="HI6" s="3">
+        <f t="shared" ref="HI6" si="265">HI5/$CV$23*$CV$12</f>
+        <v>183824.54184291858</v>
+      </c>
+      <c r="HJ6" s="3">
+        <f t="shared" ref="HJ6" si="266">HJ5/$CV$23*$CV$12</f>
+        <v>183824.66793203296</v>
+      </c>
+      <c r="HK6" s="3">
+        <f t="shared" ref="HK6" si="267">HK5/$CV$23*$CV$12</f>
+        <v>183824.78393417763</v>
+      </c>
+      <c r="HL6" s="3">
+        <f t="shared" ref="HL6" si="268">HL5/$CV$23*$CV$12</f>
+        <v>183824.89065628563</v>
+      </c>
+      <c r="HM6" s="3">
+        <f t="shared" ref="HM6" si="269">HM5/$CV$23*$CV$12</f>
+        <v>183824.98884073921</v>
+      </c>
+      <c r="HN6" s="3">
+        <f t="shared" ref="HN6" si="270">HN5/$CV$23*$CV$12</f>
+        <v>183825.07917053316</v>
+      </c>
+      <c r="HO6" s="3">
+        <f t="shared" ref="HO6" si="271">HO5/$CV$23*$CV$12</f>
+        <v>183825.16227402544</v>
+      </c>
+      <c r="HP6" s="3">
+        <f t="shared" ref="HP6" si="272">HP5/$CV$23*$CV$12</f>
+        <v>183825.23872930757</v>
+      </c>
+      <c r="HQ6" s="3">
+        <f t="shared" ref="HQ6" si="273">HQ5/$CV$23*$CV$12</f>
+        <v>183825.30906822573</v>
+      </c>
+      <c r="HR6" s="3">
+        <f t="shared" ref="HR6" si="274">HR5/$CV$23*$CV$12</f>
+        <v>183825.37378008006</v>
+      </c>
+      <c r="HS6" s="3">
+        <f t="shared" ref="HS6" si="275">HS5/$CV$23*$CV$12</f>
+        <v>183825.433315028</v>
+      </c>
+      <c r="HT6" s="3">
+        <f t="shared" ref="HT6" si="276">HT5/$CV$23*$CV$12</f>
+        <v>183825.48808721566</v>
+      </c>
+      <c r="HU6" s="3">
+        <f t="shared" ref="HU6" si="277">HU5/$CV$23*$CV$12</f>
+        <v>183825.53847765838</v>
+      </c>
+      <c r="HV6" s="3">
+        <f t="shared" ref="HV6" si="278">HV5/$CV$23*$CV$12</f>
+        <v>183825.58483689112</v>
+      </c>
+      <c r="HW6" s="3">
+        <f t="shared" ref="HW6" si="279">HW5/$CV$23*$CV$12</f>
+        <v>183825.62748740686</v>
+      </c>
+      <c r="HX6" s="3">
+        <f t="shared" ref="HX6" si="280">HX5/$CV$23*$CV$12</f>
+        <v>183825.66672589953</v>
+      </c>
+      <c r="HY6" s="3">
+        <f t="shared" ref="HY6" si="281">HY5/$CV$23*$CV$12</f>
+        <v>183825.70282532828</v>
+      </c>
+      <c r="HZ6" s="3">
+        <f t="shared" ref="HZ6" si="282">HZ5/$CV$23*$CV$12</f>
+        <v>183825.73603681574</v>
+      </c>
+      <c r="IA6" s="3">
+        <f t="shared" ref="IA6" si="283">IA5/$CV$23*$CV$12</f>
+        <v>183825.76659139525</v>
+      </c>
+      <c r="IB6" s="3">
+        <f t="shared" ref="IB6" si="284">IB5/$CV$23*$CV$12</f>
+        <v>183825.79470161782</v>
+      </c>
+      <c r="IC6" s="3">
+        <f t="shared" ref="IC6" si="285">IC5/$CV$23*$CV$12</f>
+        <v>183825.82056303046</v>
+      </c>
+      <c r="ID6" s="3">
+        <f t="shared" ref="ID6" si="286">ID5/$CV$23*$CV$12</f>
+        <v>183825.84435553677</v>
+      </c>
+      <c r="IE6" s="3">
+        <f t="shared" ref="IE6" si="287">IE5/$CV$23*$CV$12</f>
+        <v>183825.86624464829</v>
       </c>
     </row>
-    <row r="7" spans="1:160" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI7" s="40">
-        <f t="shared" ref="AI7:BN7" si="32">AI4*$CV$23</f>
-        <v>3.9030599755201961E-5</v>
-      </c>
-      <c r="AJ7" s="40">
-        <f t="shared" si="32"/>
-        <v>4.1470012239902079E-5</v>
-      </c>
-      <c r="AK7" s="40">
-        <f t="shared" si="32"/>
-        <v>6.5864137086903317E-5</v>
-      </c>
-      <c r="AL7" s="40">
-        <f t="shared" si="32"/>
-        <v>1.1221297429620563E-4</v>
-      </c>
-      <c r="AM7" s="40">
-        <f t="shared" si="32"/>
-        <v>1.1709179926560588E-4</v>
-      </c>
-      <c r="AN7" s="40">
-        <f t="shared" si="32"/>
-        <v>1.9271358629130967E-4</v>
-      </c>
-      <c r="AO7" s="40">
-        <f t="shared" si="32"/>
-        <v>3.1712362301101592E-4</v>
-      </c>
-      <c r="AP7" s="40">
-        <f t="shared" si="32"/>
-        <v>3.8786658506731946E-4</v>
-      </c>
-      <c r="AQ7" s="40">
-        <f t="shared" si="32"/>
-        <v>4.7812484700122401E-4</v>
-      </c>
-      <c r="AR7" s="40">
-        <f t="shared" si="32"/>
-        <v>6.3912607099143209E-4</v>
-      </c>
-      <c r="AS7" s="40">
-        <f t="shared" si="32"/>
-        <v>1.1757968176254591E-3</v>
-      </c>
-      <c r="AT7" s="40">
-        <f t="shared" si="32"/>
-        <v>1.6344063647490822E-3</v>
-      </c>
-      <c r="AU7" s="40">
-        <f t="shared" si="32"/>
-        <v>1.949090575275398E-3</v>
-      </c>
-      <c r="AV7" s="40">
-        <f t="shared" si="32"/>
-        <v>2.5369889840881274E-3</v>
-      </c>
-      <c r="AW7" s="40">
-        <f t="shared" si="32"/>
-        <v>2.8687490820073444E-3</v>
-      </c>
-      <c r="AX7" s="40">
-        <f t="shared" si="32"/>
-        <v>3.5542239902080787E-3</v>
-      </c>
-      <c r="AY7" s="40">
-        <f t="shared" si="32"/>
-        <v>4.7958849449204408E-3</v>
-      </c>
-      <c r="AZ7" s="40">
-        <f t="shared" si="32"/>
-        <v>6.6961872705018364E-3</v>
-      </c>
-      <c r="BA7" s="40">
-        <f t="shared" si="32"/>
-        <v>8.9648408812729504E-3</v>
-      </c>
-      <c r="BB7" s="40">
-        <f t="shared" si="32"/>
-        <v>1.1218858017135864E-2</v>
-      </c>
-      <c r="BC7" s="40">
-        <f t="shared" si="32"/>
-        <v>1.4180304773561811E-2</v>
-      </c>
-      <c r="BD7" s="40">
-        <f t="shared" si="32"/>
-        <v>1.7739407588739292E-2</v>
-      </c>
-      <c r="BE7" s="40">
-        <f t="shared" si="32"/>
-        <v>2.2849976744186051E-2</v>
-      </c>
-      <c r="BF7" s="40">
-        <f t="shared" si="32"/>
-        <v>3.0070637698898412E-2</v>
-      </c>
-      <c r="BG7" s="40">
-        <f t="shared" si="32"/>
-        <v>3.7371799265605882E-2</v>
-      </c>
-      <c r="BH7" s="40">
-        <f t="shared" si="32"/>
-        <v>4.8417458996328031E-2</v>
-      </c>
-      <c r="BI7" s="40">
-        <f t="shared" si="32"/>
-        <v>5.4555020807833539E-2</v>
-      </c>
-      <c r="BJ7" s="40">
-        <f t="shared" si="32"/>
-        <v>6.0675506731946147E-2</v>
-      </c>
-      <c r="BK7" s="40">
-        <f t="shared" si="32"/>
-        <v>7.0879569155446756E-2</v>
-      </c>
-      <c r="BL7" s="40">
-        <f t="shared" si="32"/>
-        <v>8.0478657282741742E-2</v>
-      </c>
-      <c r="BM7" s="40">
-        <f t="shared" si="32"/>
-        <v>9.1046192166462675E-2</v>
-      </c>
-      <c r="BN7" s="40">
-        <f t="shared" si="32"/>
-        <v>0.10718290575275398</v>
-      </c>
-      <c r="BO7" s="40">
-        <f t="shared" ref="BO7:CT7" si="33">BO4*$CV$23</f>
-        <v>0.12409535250917993</v>
-      </c>
-      <c r="BP7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.14074190330477357</v>
-      </c>
-      <c r="BQ7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.15230471848225216</v>
-      </c>
-      <c r="BR7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.1631601040391677</v>
-      </c>
-      <c r="BS7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.17516933170134641</v>
-      </c>
-      <c r="BT7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.18970335128518973</v>
-      </c>
-      <c r="BU7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.20684754222766219</v>
-      </c>
-      <c r="BV7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.22237440269277847</v>
-      </c>
-      <c r="BW7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.23440802447980419</v>
-      </c>
-      <c r="BX7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.24424129620563034</v>
-      </c>
-      <c r="BY7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.25217182619339046</v>
-      </c>
-      <c r="BZ7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.26263446634026932</v>
-      </c>
-      <c r="CA7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.2763756768665851</v>
-      </c>
-      <c r="CB7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.28842393512851899</v>
-      </c>
-      <c r="CC7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.29802546266829871</v>
-      </c>
-      <c r="CD7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.30602917503059973</v>
-      </c>
-      <c r="CE7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.31188864381884945</v>
-      </c>
-      <c r="CF7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.31729926070991438</v>
-      </c>
-      <c r="CG7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.32251472460220321</v>
-      </c>
-      <c r="CH7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.32871815055079562</v>
-      </c>
-      <c r="CI7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.33590222031823747</v>
-      </c>
-      <c r="CJ7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.34492560709914322</v>
-      </c>
-      <c r="CK7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.34999470624235007</v>
-      </c>
-      <c r="CL7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.35552485434516523</v>
-      </c>
-      <c r="CM7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.35875219706242356</v>
-      </c>
-      <c r="CN7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.36213810159118731</v>
-      </c>
-      <c r="CO7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.36749261199510408</v>
-      </c>
-      <c r="CP7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.37354479436964505</v>
-      </c>
-      <c r="CQ7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.37810649571603427</v>
-      </c>
-      <c r="CR7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.38179976621787026</v>
-      </c>
-      <c r="CS7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.38486610771113833</v>
-      </c>
-      <c r="CT7" s="40">
-        <f t="shared" si="33"/>
-        <v>0.38727624724602205</v>
-      </c>
-      <c r="CU7" s="40">
-        <f t="shared" ref="CU7:DJ7" si="34">CU4*$CV$23</f>
-        <v>0.39009132925336604</v>
-      </c>
-      <c r="CV7" s="40">
-        <f t="shared" si="34"/>
-        <v>0.39406025336597306</v>
-      </c>
-      <c r="CW7" s="40">
-        <f t="shared" si="34"/>
-        <v>0.39764618971848226</v>
-      </c>
-      <c r="CX7" s="40">
-        <f t="shared" si="34"/>
-        <v>0.40025148225214202</v>
-      </c>
-      <c r="CY7" s="40">
-        <f t="shared" si="34"/>
-        <v>0.40242255936352517</v>
-      </c>
-      <c r="CZ7" s="40">
-        <f t="shared" si="34"/>
-        <v>0.40412282986536108</v>
-      </c>
-      <c r="DA7" s="40">
-        <f t="shared" si="34"/>
-        <v>0.40412282986536108</v>
-      </c>
-      <c r="DB7" s="40">
-        <f t="shared" si="34"/>
-        <v>0.40739896083231336</v>
-      </c>
-      <c r="DC7" s="40">
-        <f t="shared" si="34"/>
-        <v>0.41021648225214202</v>
-      </c>
-      <c r="DD7" s="40">
-        <f t="shared" si="34"/>
-        <v>0.41330965728274177</v>
-      </c>
-      <c r="DE7" s="40">
-        <f t="shared" si="34"/>
-        <v>0.41613449694002452</v>
-      </c>
-      <c r="DF7" s="40">
-        <f t="shared" si="34"/>
-        <v>0.41792990452876377</v>
-      </c>
-      <c r="DG7" s="40">
-        <f t="shared" si="34"/>
-        <v>0.41928377845777243</v>
-      </c>
-      <c r="DH7" s="40">
-        <f t="shared" si="34"/>
-        <v>0.42098404895960834</v>
-      </c>
-      <c r="DI7" s="40">
-        <f t="shared" si="34"/>
-        <v>0.42243549938800495</v>
-      </c>
-      <c r="DJ7" s="40">
-        <f t="shared" si="34"/>
-        <v>0.42469683476132197</v>
-      </c>
-      <c r="DK7" s="40">
-        <f t="shared" ref="DK7:DN7" si="35">DK4*$CV$23</f>
-        <v>0.42683619951040397</v>
-      </c>
-      <c r="DL7" s="40">
-        <f t="shared" si="35"/>
-        <v>0.4286023341493268</v>
-      </c>
-      <c r="DM7" s="40">
-        <f t="shared" si="35"/>
-        <v>0.4299318139534884</v>
-      </c>
-      <c r="DN7" s="40">
-        <f t="shared" si="35"/>
-        <v>0.43092465483476139</v>
-      </c>
-      <c r="DO7" s="40"/>
-      <c r="DP7" s="40"/>
-      <c r="DQ7" s="40"/>
-      <c r="DR7" s="40"/>
-      <c r="DS7" s="40"/>
-      <c r="DT7" s="40"/>
-      <c r="DU7" s="40"/>
-      <c r="DV7" s="40"/>
-      <c r="DW7" s="40"/>
-      <c r="DX7" s="40"/>
-      <c r="DY7" s="40"/>
-      <c r="DZ7" s="40"/>
-      <c r="EA7" s="40"/>
-      <c r="EB7" s="40"/>
-      <c r="EC7" s="40"/>
-      <c r="ED7" s="40"/>
-      <c r="EE7" s="40"/>
-      <c r="EF7" s="40"/>
-      <c r="EG7" s="40"/>
-      <c r="EH7" s="40"/>
-      <c r="EI7" s="40"/>
-      <c r="EJ7" s="40"/>
-      <c r="EK7" s="40"/>
-      <c r="EL7" s="40"/>
-      <c r="EM7" s="40"/>
-      <c r="EN7" s="40"/>
-      <c r="EO7" s="40"/>
-      <c r="EP7" s="40"/>
-      <c r="EQ7" s="40"/>
-      <c r="ER7" s="40"/>
-      <c r="ES7" s="40"/>
-      <c r="ET7" s="40"/>
-      <c r="EU7" s="40"/>
-      <c r="EV7" s="40"/>
-      <c r="EW7" s="40"/>
-      <c r="EX7" s="40"/>
-      <c r="EY7" s="40"/>
-      <c r="EZ7" s="40"/>
-      <c r="FA7" s="40"/>
-      <c r="FB7" s="40"/>
+    <row r="7" spans="1:239" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI7" s="30">
+        <f t="shared" ref="AI7:BN7" si="288">AI4*$CV$23</f>
+        <v>3.8683899707214223E-5</v>
+      </c>
+      <c r="AJ7" s="30">
+        <f t="shared" si="288"/>
+        <v>4.110164343891511E-5</v>
+      </c>
+      <c r="AK7" s="30">
+        <f t="shared" si="288"/>
+        <v>6.5279080755923998E-5</v>
+      </c>
+      <c r="AL7" s="30">
+        <f t="shared" si="288"/>
+        <v>1.1121621165824087E-4</v>
+      </c>
+      <c r="AM7" s="30">
+        <f t="shared" si="288"/>
+        <v>1.1605169912164265E-4</v>
+      </c>
+      <c r="AN7" s="30">
+        <f t="shared" si="288"/>
+        <v>1.9100175480437021E-4</v>
+      </c>
+      <c r="AO7" s="30">
+        <f t="shared" si="288"/>
+        <v>3.1430668512111553E-4</v>
+      </c>
+      <c r="AP7" s="30">
+        <f t="shared" si="288"/>
+        <v>3.8442125334044131E-4</v>
+      </c>
+      <c r="AQ7" s="30">
+        <f t="shared" si="288"/>
+        <v>4.7387777141337419E-4</v>
+      </c>
+      <c r="AR7" s="30">
+        <f t="shared" si="288"/>
+        <v>6.3344885770563275E-4</v>
+      </c>
+      <c r="AS7" s="30">
+        <f t="shared" si="288"/>
+        <v>1.1653524786798283E-3</v>
+      </c>
+      <c r="AT7" s="30">
+        <f t="shared" si="288"/>
+        <v>1.6198883002395954E-3</v>
+      </c>
+      <c r="AU7" s="30">
+        <f t="shared" si="288"/>
+        <v>1.93177724162901E-3</v>
+      </c>
+      <c r="AV7" s="30">
+        <f t="shared" si="288"/>
+        <v>2.5144534809689242E-3</v>
+      </c>
+      <c r="AW7" s="30">
+        <f t="shared" si="288"/>
+        <v>2.843266628480245E-3</v>
+      </c>
+      <c r="AX7" s="30">
+        <f t="shared" si="288"/>
+        <v>3.522652617088195E-3</v>
+      </c>
+      <c r="AY7" s="30">
+        <f t="shared" si="288"/>
+        <v>4.7532841765239474E-3</v>
+      </c>
+      <c r="AZ7" s="30">
+        <f t="shared" si="288"/>
+        <v>6.63670654351894E-3</v>
+      </c>
+      <c r="BA7" s="30">
+        <f t="shared" si="288"/>
+        <v>8.8852082140007654E-3</v>
+      </c>
+      <c r="BB7" s="30">
+        <f t="shared" si="288"/>
+        <v>1.1119203422092386E-2</v>
+      </c>
+      <c r="BC7" s="30">
+        <f t="shared" si="288"/>
+        <v>1.4054344312377268E-2</v>
+      </c>
+      <c r="BD7" s="30">
+        <f t="shared" si="288"/>
+        <v>1.7581832416928865E-2</v>
+      </c>
+      <c r="BE7" s="30">
+        <f t="shared" si="288"/>
+        <v>2.2647005534842224E-2</v>
+      </c>
+      <c r="BF7" s="30">
+        <f t="shared" si="288"/>
+        <v>2.9803526980676856E-2</v>
+      </c>
+      <c r="BG7" s="30">
+        <f t="shared" si="288"/>
+        <v>3.7039833969657612E-2</v>
+      </c>
+      <c r="BH7" s="30">
+        <f t="shared" si="288"/>
+        <v>4.7987377586799239E-2</v>
+      </c>
+      <c r="BI7" s="30">
+        <f t="shared" si="288"/>
+        <v>5.407042081575867E-2</v>
+      </c>
+      <c r="BJ7" s="30">
+        <f t="shared" si="288"/>
+        <v>6.0136539838596209E-2</v>
+      </c>
+      <c r="BK7" s="30">
+        <f t="shared" si="288"/>
+        <v>7.0249961868301028E-2</v>
+      </c>
+      <c r="BL7" s="30">
+        <f t="shared" si="288"/>
+        <v>7.9763783452544021E-2</v>
+      </c>
+      <c r="BM7" s="30">
+        <f t="shared" si="288"/>
+        <v>9.0237449298272265E-2</v>
+      </c>
+      <c r="BN7" s="30">
+        <f t="shared" si="288"/>
+        <v>0.10623082408347365</v>
+      </c>
+      <c r="BO7" s="30">
+        <f t="shared" ref="BO7:CT7" si="289">BO4*$CV$23</f>
+        <v>0.12299304137535591</v>
+      </c>
+      <c r="BP7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.13949172460048276</v>
+      </c>
+      <c r="BQ7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.150951829888745</v>
+      </c>
+      <c r="BR7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.16171078949481393</v>
+      </c>
+      <c r="BS7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.17361334188597741</v>
+      </c>
+      <c r="BT7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.1880182590394513</v>
+      </c>
+      <c r="BU7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.20501016198584518</v>
+      </c>
+      <c r="BV7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.22039910083812131</v>
+      </c>
+      <c r="BW7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.23232583066660178</v>
+      </c>
+      <c r="BX7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.24207175564908809</v>
+      </c>
+      <c r="BY7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.24993184052084766</v>
+      </c>
+      <c r="BZ7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.26030154338611278</v>
+      </c>
+      <c r="CA7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.27392069382678391</v>
+      </c>
+      <c r="CB7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.28586193011765454</v>
+      </c>
+      <c r="CC7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.29537816944562928</v>
+      </c>
+      <c r="CD7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.30331078662933986</v>
+      </c>
+      <c r="CE7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.3091182070728854</v>
+      </c>
+      <c r="CF7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.31448076266979802</v>
+      </c>
+      <c r="CG7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.31964989876817451</v>
+      </c>
+      <c r="CH7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.32579822107788986</v>
+      </c>
+      <c r="CI7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.33291847636774896</v>
+      </c>
+      <c r="CJ7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.34186171043131058</v>
+      </c>
+      <c r="CK7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.34688578190578501</v>
+      </c>
+      <c r="CL7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.35236680694555089</v>
+      </c>
+      <c r="CM7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.35556548190259119</v>
+      </c>
+      <c r="CN7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.35892131020219203</v>
+      </c>
+      <c r="CO7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.36422825769327549</v>
+      </c>
+      <c r="CP7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.37022667989162539</v>
+      </c>
+      <c r="CQ7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.37474786066990606</v>
+      </c>
+      <c r="CR7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.3784083246797012</v>
+      </c>
+      <c r="CS7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.38144742855044922</v>
+      </c>
+      <c r="CT7" s="30">
+        <f t="shared" si="289"/>
+        <v>0.3838361593573697</v>
+      </c>
+      <c r="CU7" s="30">
+        <f t="shared" ref="CU7:DJ7" si="290">CU4*$CV$23</f>
+        <v>0.38662623562375253</v>
+      </c>
+      <c r="CV7" s="30">
+        <f t="shared" si="290"/>
+        <v>0.39055990467522989</v>
+      </c>
+      <c r="CW7" s="30">
+        <f t="shared" si="290"/>
+        <v>0.39411398796083019</v>
+      </c>
+      <c r="CX7" s="30">
+        <f t="shared" si="290"/>
+        <v>0.39669613826628669</v>
+      </c>
+      <c r="CY7" s="30">
+        <f t="shared" si="290"/>
+        <v>0.39884793018750048</v>
+      </c>
+      <c r="CZ7" s="30">
+        <f t="shared" si="290"/>
+        <v>0.40053309756849609</v>
+      </c>
+      <c r="DA7" s="30">
+        <f t="shared" si="290"/>
+        <v>0.40053309756849609</v>
+      </c>
+      <c r="DB7" s="30">
+        <f t="shared" si="290"/>
+        <v>0.40378012740017033</v>
+      </c>
+      <c r="DC7" s="30">
+        <f t="shared" si="290"/>
+        <v>0.40657262141028488</v>
+      </c>
+      <c r="DD7" s="30">
+        <f t="shared" si="290"/>
+        <v>0.40963832046208154</v>
+      </c>
+      <c r="DE7" s="30">
+        <f t="shared" si="290"/>
+        <v>0.41243806770339114</v>
+      </c>
+      <c r="DF7" s="30">
+        <f t="shared" si="290"/>
+        <v>0.41421752708992304</v>
+      </c>
+      <c r="DG7" s="30">
+        <f t="shared" si="290"/>
+        <v>0.41555937486101702</v>
+      </c>
+      <c r="DH7" s="30">
+        <f t="shared" si="290"/>
+        <v>0.41724454224201257</v>
+      </c>
+      <c r="DI7" s="30">
+        <f t="shared" si="290"/>
+        <v>0.41868309976237461</v>
+      </c>
+      <c r="DJ7" s="30">
+        <f t="shared" si="290"/>
+        <v>0.4209243482016613</v>
+      </c>
+      <c r="DK7" s="30">
+        <f t="shared" ref="DK7:DN7" si="291">DK4*$CV$23</f>
+        <v>0.42304470945436301</v>
+      </c>
+      <c r="DL7" s="30">
+        <f t="shared" si="291"/>
+        <v>0.42479515591611444</v>
+      </c>
+      <c r="DM7" s="30">
+        <f t="shared" si="291"/>
+        <v>0.42611282624989139</v>
+      </c>
+      <c r="DN7" s="30">
+        <f t="shared" si="291"/>
+        <v>0.42709684794869368</v>
+      </c>
+      <c r="DO7" s="30">
+        <f t="shared" ref="DO7:DS7" si="292">DO4*$CV$23</f>
+        <v>0.42863936844951883</v>
+      </c>
+      <c r="DP7" s="30">
+        <f t="shared" si="292"/>
+        <v>0.42994011457717396</v>
+      </c>
+      <c r="DQ7" s="30">
+        <f t="shared" si="292"/>
+        <v>0.43164220616429139</v>
+      </c>
+      <c r="DR7" s="30">
+        <f t="shared" si="292"/>
+        <v>0.43282690059282475</v>
+      </c>
+      <c r="DS7" s="30">
+        <f t="shared" si="292"/>
+        <v>0.43449997925516182</v>
+      </c>
+      <c r="DT7" s="30">
+        <f t="shared" ref="DT7" si="293">DT4*$CV$23</f>
+        <v>0.43516002329391612</v>
+      </c>
+      <c r="DU7" s="30"/>
+      <c r="DV7" s="30"/>
+      <c r="DW7" s="30"/>
+      <c r="DX7" s="30"/>
+      <c r="DY7" s="30"/>
+      <c r="DZ7" s="30"/>
+      <c r="EA7" s="30"/>
+      <c r="EB7" s="30"/>
+      <c r="EC7" s="30"/>
+      <c r="ED7" s="30"/>
+      <c r="EE7" s="30"/>
+      <c r="EF7" s="30"/>
+      <c r="EG7" s="30"/>
+      <c r="EH7" s="30"/>
+      <c r="EI7" s="30"/>
+      <c r="EJ7" s="30"/>
+      <c r="EK7" s="30"/>
+      <c r="EL7" s="30"/>
+      <c r="EM7" s="30"/>
+      <c r="EN7" s="30"/>
+      <c r="EO7" s="30"/>
+      <c r="EP7" s="30"/>
+      <c r="EQ7" s="30"/>
+      <c r="ER7" s="30"/>
+      <c r="ES7" s="30"/>
+      <c r="ET7" s="30"/>
+      <c r="EU7" s="30"/>
+      <c r="EV7" s="30"/>
+      <c r="EW7" s="30"/>
+      <c r="EX7" s="30"/>
+      <c r="EY7" s="30"/>
+      <c r="EZ7" s="30"/>
+      <c r="FA7" s="30"/>
+      <c r="FB7" s="30"/>
     </row>
-    <row r="8" spans="1:160" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:160" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:239" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:239" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CT9"/>
       <c r="CU9"/>
       <c r="CV9"/>
       <c r="CW9"/>
       <c r="CX9"/>
     </row>
-    <row r="10" spans="1:160" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:239" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="CT10"/>
       <c r="CU10"/>
       <c r="CV10"/>
       <c r="CW10"/>
       <c r="CX10"/>
     </row>
-    <row r="11" spans="1:160" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:239" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CT11" s="10"/>
-      <c r="CU11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="CV11" s="11">
+      <c r="CU11" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV11" s="42">
         <v>1E-4</v>
       </c>
       <c r="CW11"/>
       <c r="CX11" s="3"/>
     </row>
-    <row r="12" spans="1:160" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="CT12" s="29"/>
-      <c r="CU12" t="s">
+    <row r="12" spans="1:239" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CT12" s="27"/>
+      <c r="CU12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="CV12" s="12">
-        <v>81700000</v>
+      <c r="CV12" s="43">
+        <v>83755775</v>
       </c>
       <c r="CW12"/>
       <c r="CX12"/>
     </row>
-    <row r="13" spans="1:160" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:239" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="CT13" s="8"/>
-      <c r="CU13" t="s">
-        <v>4</v>
-      </c>
-      <c r="CV13" s="12">
+      <c r="CU13" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV13" s="45">
         <v>10</v>
       </c>
       <c r="CW13"/>
       <c r="CX13"/>
     </row>
-    <row r="14" spans="1:160" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:239" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="CT14" s="8"/>
       <c r="CU14"/>
       <c r="CV14"/>
       <c r="CW14"/>
       <c r="CX14"/>
     </row>
-    <row r="15" spans="1:160" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:239" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CT15" s="8"/>
-      <c r="CU15" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="CV15" s="31"/>
-      <c r="CW15" s="32"/>
+      <c r="CU15" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="CV15" s="50"/>
+      <c r="CW15" s="51"/>
       <c r="CX15"/>
     </row>
-    <row r="16" spans="1:160" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:239" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CT16" s="9"/>
-      <c r="CU16" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="CV16" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="CW16" s="18" t="s">
+      <c r="CU16" s="14" t="s">
         <v>5</v>
+      </c>
+      <c r="CV16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CW16" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="CX16" s="8"/>
     </row>
     <row r="17" spans="1:137" x14ac:dyDescent="0.25">
       <c r="CT17" s="9"/>
-      <c r="CU17" s="19">
+      <c r="CU17" s="17">
         <v>43852</v>
       </c>
-      <c r="CV17" s="41">
+      <c r="CV17" s="31">
         <v>3.5</v>
       </c>
-      <c r="CW17" s="44">
+      <c r="CW17" s="32">
         <v>1</v>
       </c>
       <c r="CX17" s="9"/>
@@ -13956,13 +15949,13 @@
     <row r="18" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="CT18" s="8"/>
-      <c r="CU18" s="19">
+      <c r="CU18" s="17">
         <v>43910</v>
       </c>
-      <c r="CV18" s="41">
+      <c r="CV18" s="31">
         <v>2.6</v>
       </c>
-      <c r="CW18" s="45">
+      <c r="CW18" s="33">
         <f>CV18/CV17</f>
         <v>0.74285714285714288</v>
       </c>
@@ -13970,13 +15963,13 @@
     </row>
     <row r="19" spans="1:137" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CT19" s="9"/>
-      <c r="CU19" s="19">
+      <c r="CU19" s="17">
         <v>43919</v>
       </c>
-      <c r="CV19" s="41">
+      <c r="CV19" s="31">
         <v>2.06</v>
       </c>
-      <c r="CW19" s="45">
+      <c r="CW19" s="33">
         <f>CV19/CV17</f>
         <v>0.58857142857142863</v>
       </c>
@@ -13985,32 +15978,32 @@
       <c r="DC19" s="3"/>
       <c r="DD19"/>
     </row>
-    <row r="20" spans="1:137" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="CT20" s="24"/>
-      <c r="CU20" s="19">
+    <row r="20" spans="1:137" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CT20" s="22"/>
+      <c r="CU20" s="17">
         <v>43926</v>
       </c>
-      <c r="CV20" s="41">
+      <c r="CV20" s="31">
         <v>1.7649999999999999</v>
       </c>
-      <c r="CW20" s="45">
+      <c r="CW20" s="33">
         <f>CV20/CV17</f>
         <v>0.50428571428571423</v>
       </c>
-      <c r="CX20" s="24"/>
+      <c r="CX20" s="22"/>
       <c r="DB20"/>
       <c r="DC20"/>
       <c r="DD20"/>
     </row>
     <row r="21" spans="1:137" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="CT21"/>
-      <c r="CU21" s="20">
+      <c r="CU21" s="18">
         <v>43956</v>
       </c>
-      <c r="CV21" s="21">
+      <c r="CV21" s="19">
         <v>1.8</v>
       </c>
-      <c r="CW21" s="46">
+      <c r="CW21" s="34">
         <f>CV21/CV18</f>
         <v>0.69230769230769229</v>
       </c>
@@ -14019,21 +16012,21 @@
       <c r="DC21"/>
       <c r="DD21"/>
     </row>
-    <row r="22" spans="1:137" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:137" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="CT22"/>
-      <c r="CW22" s="13"/>
+      <c r="CW22" s="11"/>
       <c r="CX22"/>
       <c r="DB22"/>
       <c r="DC22"/>
       <c r="DD22"/>
     </row>
-    <row r="23" spans="1:137" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:137" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="CT23"/>
-      <c r="CU23" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV23" s="43">
-        <v>199.3</v>
+      <c r="CU23" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="CV23" s="47">
+        <v>202.5</v>
       </c>
       <c r="CW23"/>
       <c r="CX23"/>
@@ -14131,36 +16124,36 @@
       <c r="DD25"/>
     </row>
     <row r="26" spans="1:137" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="DC26" s="17"/>
+      <c r="DC26" s="15"/>
       <c r="DD26"/>
     </row>
     <row r="27" spans="1:137" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="DC27" s="17"/>
+      <c r="DC27" s="15"/>
       <c r="DD27" s="1"/>
     </row>
-    <row r="28" spans="1:137" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="DC28" s="17"/>
+    <row r="28" spans="1:137" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="DC28" s="15"/>
       <c r="DD28"/>
     </row>
     <row r="29" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="DC29" s="17"/>
+      <c r="DC29" s="15"/>
     </row>
     <row r="30" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="DC30" s="17"/>
+      <c r="DC30" s="15"/>
     </row>
     <row r="31" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="DC31" s="17"/>
+      <c r="DC31" s="15"/>
     </row>
     <row r="32" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="DC32" s="17"/>
+      <c r="DC32" s="15"/>
     </row>
     <row r="33" spans="35:137" x14ac:dyDescent="0.25">
-      <c r="CX33" s="25"/>
-      <c r="DC33" s="17"/>
-      <c r="DD33" s="25"/>
+      <c r="CX33" s="23"/>
+      <c r="DC33" s="15"/>
+      <c r="DD33" s="23"/>
     </row>
     <row r="34" spans="35:137" x14ac:dyDescent="0.25">
-      <c r="DC34" s="17"/>
+      <c r="DC34" s="15"/>
     </row>
     <row r="35" spans="35:137" x14ac:dyDescent="0.25">
       <c r="CX35" s="3"/>
@@ -14173,9 +16166,9 @@
     <row r="40" spans="35:137" x14ac:dyDescent="0.25">
       <c r="DE40" s="1"/>
     </row>
-    <row r="46" spans="35:137" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="35:137" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="35:137" x14ac:dyDescent="0.25">
-      <c r="AI47" s="15"/>
+      <c r="AI47" s="13"/>
     </row>
     <row r="48" spans="35:137" x14ac:dyDescent="0.25">
       <c r="AI48" s="3"/>
@@ -14376,102 +16369,103 @@
       <c r="DF56" s="7"/>
     </row>
     <row r="57" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD57" s="25"/>
-      <c r="DE57" s="25"/>
-      <c r="DF57" s="25"/>
+      <c r="DD57" s="23"/>
+      <c r="DE57" s="23"/>
+      <c r="DF57" s="23"/>
     </row>
     <row r="58" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD58" s="26"/>
-      <c r="DE58" s="26"/>
-      <c r="DF58" s="26"/>
-      <c r="DG58" s="17"/>
+      <c r="DD58" s="24"/>
+      <c r="DE58" s="24"/>
+      <c r="DF58" s="24"/>
+      <c r="DG58" s="15"/>
     </row>
     <row r="59" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD59" s="26"/>
-      <c r="DE59" s="26"/>
-      <c r="DF59" s="26"/>
-      <c r="DG59" s="17"/>
+      <c r="DD59" s="24"/>
+      <c r="DE59" s="24"/>
+      <c r="DF59" s="24"/>
+      <c r="DG59" s="15"/>
     </row>
     <row r="60" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD60" s="42"/>
-      <c r="DE60" s="42"/>
-      <c r="DF60" s="42"/>
-      <c r="DG60" s="17"/>
+      <c r="DD60" s="48"/>
+      <c r="DE60" s="48"/>
+      <c r="DF60" s="48"/>
+      <c r="DG60" s="15"/>
     </row>
     <row r="61" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD61" s="26"/>
-      <c r="DE61" s="26"/>
-      <c r="DF61" s="27"/>
-      <c r="DG61" s="17"/>
+      <c r="DD61" s="24"/>
+      <c r="DE61" s="24"/>
+      <c r="DF61" s="25"/>
+      <c r="DG61" s="15"/>
     </row>
     <row r="62" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD62" s="26"/>
-      <c r="DE62" s="26"/>
-      <c r="DF62" s="26"/>
-      <c r="DG62" s="17"/>
+      <c r="DD62" s="24"/>
+      <c r="DE62" s="24"/>
+      <c r="DF62" s="24"/>
+      <c r="DG62" s="15"/>
     </row>
     <row r="63" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD63" s="26"/>
-      <c r="DE63" s="26"/>
-      <c r="DF63" s="26"/>
-      <c r="DG63" s="17"/>
+      <c r="DD63" s="24"/>
+      <c r="DE63" s="24"/>
+      <c r="DF63" s="24"/>
+      <c r="DG63" s="15"/>
     </row>
     <row r="64" spans="36:137" x14ac:dyDescent="0.25">
-      <c r="DD64" s="28"/>
-      <c r="DE64" s="26"/>
-      <c r="DF64" s="26"/>
-      <c r="DG64" s="17"/>
+      <c r="DD64" s="26"/>
+      <c r="DE64" s="24"/>
+      <c r="DF64" s="24"/>
+      <c r="DG64" s="15"/>
     </row>
     <row r="65" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD65" s="28"/>
-      <c r="DE65" s="26"/>
-      <c r="DF65" s="26"/>
-      <c r="DG65" s="17"/>
+      <c r="DD65" s="26"/>
+      <c r="DE65" s="24"/>
+      <c r="DF65" s="24"/>
+      <c r="DG65" s="15"/>
     </row>
     <row r="66" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD66" s="26"/>
-      <c r="DE66" s="26"/>
-      <c r="DF66" s="26"/>
-      <c r="DG66" s="17"/>
+      <c r="DD66" s="24"/>
+      <c r="DE66" s="24"/>
+      <c r="DF66" s="24"/>
+      <c r="DG66" s="15"/>
     </row>
     <row r="67" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD67" s="25"/>
-      <c r="DE67" s="25"/>
-      <c r="DF67" s="25"/>
+      <c r="DD67" s="23"/>
+      <c r="DE67" s="23"/>
+      <c r="DF67" s="23"/>
     </row>
     <row r="68" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD68" s="25"/>
-      <c r="DE68" s="25"/>
-      <c r="DF68" s="25"/>
+      <c r="DD68" s="23"/>
+      <c r="DE68" s="23"/>
+      <c r="DF68" s="23"/>
     </row>
     <row r="69" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD69" s="25"/>
-      <c r="DE69" s="25"/>
-      <c r="DF69" s="25"/>
+      <c r="DD69" s="23"/>
+      <c r="DE69" s="23"/>
+      <c r="DF69" s="23"/>
     </row>
     <row r="70" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD70" s="25"/>
-      <c r="DE70" s="25"/>
-      <c r="DF70" s="25"/>
+      <c r="DD70" s="23"/>
+      <c r="DE70" s="23"/>
+      <c r="DF70" s="23"/>
     </row>
     <row r="71" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD71" s="25"/>
-      <c r="DE71" s="25"/>
-      <c r="DF71" s="25"/>
+      <c r="DD71" s="23"/>
+      <c r="DE71" s="23"/>
+      <c r="DF71" s="23"/>
     </row>
     <row r="72" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD72" s="25"/>
-      <c r="DE72" s="25"/>
-      <c r="DF72" s="25"/>
+      <c r="DD72" s="23"/>
+      <c r="DE72" s="23"/>
+      <c r="DF72" s="23"/>
     </row>
     <row r="73" spans="108:111" x14ac:dyDescent="0.25">
-      <c r="DD73" s="25"/>
-      <c r="DE73" s="25"/>
-      <c r="DF73" s="25"/>
+      <c r="DD73" s="23"/>
+      <c r="DE73" s="23"/>
+      <c r="DF73" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="DD60:DF60"/>
+    <mergeCell ref="CU15:CW15"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
